--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG419"/>
+  <dimension ref="A1:BI419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,16 @@
           <t>2025-08-31_v3</t>
         </is>
       </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-31_v4</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-31_v5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -885,6 +895,12 @@
       <c r="BG2" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1046,6 +1062,12 @@
       <c r="BG3" t="n">
         <v>1</v>
       </c>
+      <c r="BH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1207,6 +1229,12 @@
       <c r="BG4" t="n">
         <v>0</v>
       </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1368,6 +1396,12 @@
       <c r="BG5" t="n">
         <v>1</v>
       </c>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1529,6 +1563,12 @@
       <c r="BG6" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1690,6 +1730,12 @@
       <c r="BG7" t="n">
         <v>0.2222222222222222</v>
       </c>
+      <c r="BH7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1851,6 +1897,12 @@
       <c r="BG8" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BH8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2012,6 +2064,12 @@
       <c r="BG9" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BH9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2173,6 +2231,12 @@
       <c r="BG10" t="n">
         <v>0.6</v>
       </c>
+      <c r="BH10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2332,6 +2396,12 @@
         <v>1</v>
       </c>
       <c r="BG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,6 +2507,12 @@
       <c r="BG12" t="n">
         <v>1</v>
       </c>
+      <c r="BH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2598,6 +2674,12 @@
       <c r="BG13" t="n">
         <v>0</v>
       </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2759,6 +2841,12 @@
       <c r="BG14" t="n">
         <v>0</v>
       </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2920,6 +3008,12 @@
       <c r="BG15" t="n">
         <v>0.625</v>
       </c>
+      <c r="BH15" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3081,6 +3175,12 @@
       <c r="BG16" t="n">
         <v>1</v>
       </c>
+      <c r="BH16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3242,6 +3342,12 @@
       <c r="BG17" t="n">
         <v>0</v>
       </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3403,6 +3509,12 @@
       <c r="BG18" t="n">
         <v>1</v>
       </c>
+      <c r="BH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3564,6 +3676,12 @@
       <c r="BG19" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3725,6 +3843,12 @@
       <c r="BG20" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH20" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3886,6 +4010,12 @@
       <c r="BG21" t="n">
         <v>1</v>
       </c>
+      <c r="BH21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4047,6 +4177,12 @@
       <c r="BG22" t="n">
         <v>0</v>
       </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4208,6 +4344,12 @@
       <c r="BG23" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4369,6 +4511,12 @@
       <c r="BG24" t="n">
         <v>0.2</v>
       </c>
+      <c r="BH24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4530,6 +4678,12 @@
       <c r="BG25" t="n">
         <v>0</v>
       </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4691,6 +4845,12 @@
       <c r="BG26" t="n">
         <v>0</v>
       </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -4852,6 +5012,12 @@
       <c r="BG27" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5013,6 +5179,12 @@
       <c r="BG28" t="n">
         <v>1</v>
       </c>
+      <c r="BH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5174,6 +5346,12 @@
       <c r="BG29" t="n">
         <v>1</v>
       </c>
+      <c r="BH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5335,6 +5513,12 @@
       <c r="BG30" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -5496,6 +5680,12 @@
       <c r="BG31" t="n">
         <v>0</v>
       </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -5657,6 +5847,12 @@
       <c r="BG32" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BH32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -5818,6 +6014,12 @@
       <c r="BG33" t="n">
         <v>0</v>
       </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -5979,6 +6181,12 @@
       <c r="BG34" t="n">
         <v>1</v>
       </c>
+      <c r="BH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6140,6 +6348,12 @@
       <c r="BG35" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6301,6 +6515,12 @@
       <c r="BG36" t="n">
         <v>0</v>
       </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -6462,6 +6682,12 @@
       <c r="BG37" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -6623,6 +6849,12 @@
       <c r="BG38" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BH38" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -6784,6 +7016,12 @@
       <c r="BG39" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -6943,6 +7181,12 @@
         <v>1</v>
       </c>
       <c r="BG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,6 +7292,12 @@
       <c r="BG41" t="n">
         <v>0</v>
       </c>
+      <c r="BH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7209,6 +7459,12 @@
       <c r="BG42" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH42" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -7370,6 +7626,12 @@
       <c r="BG43" t="n">
         <v>1</v>
       </c>
+      <c r="BH43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -7531,6 +7793,12 @@
       <c r="BG44" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -7692,6 +7960,12 @@
       <c r="BG45" t="n">
         <v>0</v>
       </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -7853,6 +8127,12 @@
       <c r="BG46" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BH46" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -8014,6 +8294,12 @@
       <c r="BG47" t="n">
         <v>0</v>
       </c>
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -8175,6 +8461,12 @@
       <c r="BG48" t="n">
         <v>0</v>
       </c>
+      <c r="BH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -8336,6 +8628,12 @@
       <c r="BG49" t="n">
         <v>0</v>
       </c>
+      <c r="BH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -8497,6 +8795,12 @@
       <c r="BG50" t="n">
         <v>0</v>
       </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -8658,6 +8962,12 @@
       <c r="BG51" t="n">
         <v>1</v>
       </c>
+      <c r="BH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -8819,6 +9129,12 @@
       <c r="BG52" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -8980,6 +9296,12 @@
       <c r="BG53" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -9141,6 +9463,12 @@
       <c r="BG54" t="n">
         <v>0</v>
       </c>
+      <c r="BH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -9302,6 +9630,12 @@
       <c r="BG55" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -9463,6 +9797,12 @@
       <c r="BG56" t="n">
         <v>0</v>
       </c>
+      <c r="BH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -9624,6 +9964,12 @@
       <c r="BG57" t="n">
         <v>0</v>
       </c>
+      <c r="BH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -9785,6 +10131,12 @@
       <c r="BG58" t="n">
         <v>0</v>
       </c>
+      <c r="BH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -9946,6 +10298,12 @@
       <c r="BG59" t="n">
         <v>0</v>
       </c>
+      <c r="BH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -10107,6 +10465,12 @@
       <c r="BG60" t="n">
         <v>1</v>
       </c>
+      <c r="BH60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -10268,6 +10632,12 @@
       <c r="BG61" t="n">
         <v>0</v>
       </c>
+      <c r="BH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -10429,6 +10799,12 @@
       <c r="BG62" t="n">
         <v>0</v>
       </c>
+      <c r="BH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -10590,6 +10966,12 @@
       <c r="BG63" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BH63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -10751,6 +11133,12 @@
       <c r="BG64" t="n">
         <v>1</v>
       </c>
+      <c r="BH64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -10912,6 +11300,12 @@
       <c r="BG65" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH65" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -11073,6 +11467,12 @@
       <c r="BG66" t="n">
         <v>0</v>
       </c>
+      <c r="BH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -11234,6 +11634,12 @@
       <c r="BG67" t="n">
         <v>0</v>
       </c>
+      <c r="BH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -11395,6 +11801,12 @@
       <c r="BG68" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH68" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -11556,6 +11968,12 @@
       <c r="BG69" t="n">
         <v>0</v>
       </c>
+      <c r="BH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -11717,6 +12135,12 @@
       <c r="BG70" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BH70" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -11878,6 +12302,12 @@
       <c r="BG71" t="n">
         <v>0</v>
       </c>
+      <c r="BH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -12039,6 +12469,12 @@
       <c r="BG72" t="n">
         <v>0</v>
       </c>
+      <c r="BH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -12200,6 +12636,12 @@
       <c r="BG73" t="n">
         <v>0</v>
       </c>
+      <c r="BH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -12361,6 +12803,12 @@
       <c r="BG74" t="n">
         <v>0</v>
       </c>
+      <c r="BH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -12522,6 +12970,12 @@
       <c r="BG75" t="n">
         <v>0</v>
       </c>
+      <c r="BH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -12683,6 +13137,12 @@
       <c r="BG76" t="n">
         <v>0</v>
       </c>
+      <c r="BH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -12844,6 +13304,12 @@
       <c r="BG77" t="n">
         <v>1</v>
       </c>
+      <c r="BH77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -13005,6 +13471,12 @@
       <c r="BG78" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -13166,6 +13638,12 @@
       <c r="BG79" t="n">
         <v>1</v>
       </c>
+      <c r="BH79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -13327,6 +13805,12 @@
       <c r="BG80" t="n">
         <v>0</v>
       </c>
+      <c r="BH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -13488,6 +13972,12 @@
       <c r="BG81" t="n">
         <v>0</v>
       </c>
+      <c r="BH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -13649,6 +14139,12 @@
       <c r="BG82" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH82" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -13810,6 +14306,12 @@
       <c r="BG83" t="n">
         <v>0</v>
       </c>
+      <c r="BH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -13971,6 +14473,12 @@
       <c r="BG84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BH84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -14132,6 +14640,12 @@
       <c r="BG85" t="n">
         <v>0</v>
       </c>
+      <c r="BH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -14293,6 +14807,12 @@
       <c r="BG86" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -14454,6 +14974,12 @@
       <c r="BG87" t="n">
         <v>0</v>
       </c>
+      <c r="BH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -14615,6 +15141,12 @@
       <c r="BG88" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH88" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -14776,6 +15308,12 @@
       <c r="BG89" t="n">
         <v>0</v>
       </c>
+      <c r="BH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -14937,6 +15475,12 @@
       <c r="BG90" t="n">
         <v>0</v>
       </c>
+      <c r="BH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -15098,6 +15642,12 @@
       <c r="BG91" t="n">
         <v>0</v>
       </c>
+      <c r="BH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -15259,6 +15809,12 @@
       <c r="BG92" t="n">
         <v>0</v>
       </c>
+      <c r="BH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -15420,6 +15976,12 @@
       <c r="BG93" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH93" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -15581,6 +16143,12 @@
       <c r="BG94" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH94" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -15742,6 +16310,12 @@
       <c r="BG95" t="n">
         <v>1</v>
       </c>
+      <c r="BH95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -15903,6 +16477,12 @@
       <c r="BG96" t="n">
         <v>0</v>
       </c>
+      <c r="BH96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -16064,6 +16644,12 @@
       <c r="BG97" t="n">
         <v>0.375</v>
       </c>
+      <c r="BH97" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -16225,6 +16811,12 @@
       <c r="BG98" t="n">
         <v>1</v>
       </c>
+      <c r="BH98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -16386,6 +16978,12 @@
       <c r="BG99" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH99" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -16547,6 +17145,12 @@
       <c r="BG100" t="n">
         <v>0.375</v>
       </c>
+      <c r="BH100" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -16708,6 +17312,12 @@
       <c r="BG101" t="n">
         <v>1</v>
       </c>
+      <c r="BH101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -16869,6 +17479,12 @@
       <c r="BG102" t="n">
         <v>0</v>
       </c>
+      <c r="BH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -17030,6 +17646,12 @@
       <c r="BG103" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH103" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -17191,6 +17813,12 @@
       <c r="BG104" t="n">
         <v>1</v>
       </c>
+      <c r="BH104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -17352,6 +17980,12 @@
       <c r="BG105" t="n">
         <v>0</v>
       </c>
+      <c r="BH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -17513,6 +18147,12 @@
       <c r="BG106" t="n">
         <v>0</v>
       </c>
+      <c r="BH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -17674,6 +18314,12 @@
       <c r="BG107" t="n">
         <v>0</v>
       </c>
+      <c r="BH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -17835,6 +18481,12 @@
       <c r="BG108" t="n">
         <v>0</v>
       </c>
+      <c r="BH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -17996,6 +18648,12 @@
       <c r="BG109" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH109" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -18157,6 +18815,12 @@
       <c r="BG110" t="n">
         <v>0</v>
       </c>
+      <c r="BH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -18318,6 +18982,12 @@
       <c r="BG111" t="n">
         <v>1</v>
       </c>
+      <c r="BH111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -18479,6 +19149,12 @@
       <c r="BG112" t="n">
         <v>1</v>
       </c>
+      <c r="BH112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -18640,6 +19316,12 @@
       <c r="BG113" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH113" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -18801,6 +19483,12 @@
       <c r="BG114" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH114" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -18962,6 +19650,12 @@
       <c r="BG115" t="n">
         <v>0</v>
       </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -19123,6 +19817,12 @@
       <c r="BG116" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH116" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -19284,6 +19984,12 @@
       <c r="BG117" t="n">
         <v>1</v>
       </c>
+      <c r="BH117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -19445,6 +20151,12 @@
       <c r="BG118" t="n">
         <v>0</v>
       </c>
+      <c r="BH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -19606,6 +20318,12 @@
       <c r="BG119" t="n">
         <v>0.625</v>
       </c>
+      <c r="BH119" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -19767,6 +20485,12 @@
       <c r="BG120" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH120" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -19928,6 +20652,12 @@
       <c r="BG121" t="n">
         <v>0.375</v>
       </c>
+      <c r="BH121" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -20089,6 +20819,12 @@
       <c r="BG122" t="n">
         <v>0</v>
       </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -20250,6 +20986,12 @@
       <c r="BG123" t="n">
         <v>0</v>
       </c>
+      <c r="BH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -20411,6 +21153,12 @@
       <c r="BG124" t="n">
         <v>0</v>
       </c>
+      <c r="BH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -20572,6 +21320,12 @@
       <c r="BG125" t="n">
         <v>0</v>
       </c>
+      <c r="BH125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -20733,6 +21487,12 @@
       <c r="BG126" t="n">
         <v>0</v>
       </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -20894,6 +21654,12 @@
       <c r="BG127" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -21055,6 +21821,12 @@
       <c r="BG128" t="n">
         <v>0</v>
       </c>
+      <c r="BH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -21216,6 +21988,12 @@
       <c r="BG129" t="n">
         <v>1</v>
       </c>
+      <c r="BH129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -21377,6 +22155,12 @@
       <c r="BG130" t="n">
         <v>0.625</v>
       </c>
+      <c r="BH130" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -21538,6 +22322,12 @@
       <c r="BG131" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH131" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -21699,6 +22489,12 @@
       <c r="BG132" t="n">
         <v>0</v>
       </c>
+      <c r="BH132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -21860,6 +22656,12 @@
       <c r="BG133" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH133" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -22021,6 +22823,12 @@
       <c r="BG134" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH134" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -22182,6 +22990,12 @@
       <c r="BG135" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH135" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -22343,6 +23157,12 @@
       <c r="BG136" t="n">
         <v>0</v>
       </c>
+      <c r="BH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -22504,6 +23324,12 @@
       <c r="BG137" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH137" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -22665,6 +23491,12 @@
       <c r="BG138" t="n">
         <v>0</v>
       </c>
+      <c r="BH138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -22826,6 +23658,12 @@
       <c r="BG139" t="n">
         <v>0</v>
       </c>
+      <c r="BH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -22987,6 +23825,12 @@
       <c r="BG140" t="n">
         <v>0.125</v>
       </c>
+      <c r="BH140" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -23148,6 +23992,12 @@
       <c r="BG141" t="n">
         <v>0.375</v>
       </c>
+      <c r="BH141" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -23309,6 +24159,12 @@
       <c r="BG142" t="n">
         <v>0</v>
       </c>
+      <c r="BH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -23470,6 +24326,12 @@
       <c r="BG143" t="n">
         <v>0</v>
       </c>
+      <c r="BH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -23631,6 +24493,12 @@
       <c r="BG144" t="n">
         <v>1</v>
       </c>
+      <c r="BH144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -23792,6 +24660,12 @@
       <c r="BG145" t="n">
         <v>0</v>
       </c>
+      <c r="BH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -23953,6 +24827,12 @@
       <c r="BG146" t="n">
         <v>0</v>
       </c>
+      <c r="BH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -24114,6 +24994,12 @@
       <c r="BG147" t="n">
         <v>0</v>
       </c>
+      <c r="BH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -24275,6 +25161,12 @@
       <c r="BG148" t="n">
         <v>0</v>
       </c>
+      <c r="BH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -24436,6 +25328,12 @@
       <c r="BG149" t="n">
         <v>1</v>
       </c>
+      <c r="BH149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -24597,6 +25495,12 @@
       <c r="BG150" t="n">
         <v>0.375</v>
       </c>
+      <c r="BH150" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -24758,6 +25662,12 @@
       <c r="BG151" t="n">
         <v>0</v>
       </c>
+      <c r="BH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -24919,6 +25829,12 @@
       <c r="BG152" t="n">
         <v>0</v>
       </c>
+      <c r="BH152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -25080,6 +25996,12 @@
       <c r="BG153" t="n">
         <v>1</v>
       </c>
+      <c r="BH153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -25241,6 +26163,12 @@
       <c r="BG154" t="n">
         <v>0</v>
       </c>
+      <c r="BH154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -25402,6 +26330,12 @@
       <c r="BG155" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH155" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -25563,6 +26497,12 @@
       <c r="BG156" t="n">
         <v>0</v>
       </c>
+      <c r="BH156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -25724,6 +26664,12 @@
       <c r="BG157" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -25885,6 +26831,12 @@
       <c r="BG158" t="n">
         <v>1</v>
       </c>
+      <c r="BH158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -26046,6 +26998,12 @@
       <c r="BG159" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -26207,6 +27165,12 @@
       <c r="BG160" t="n">
         <v>1</v>
       </c>
+      <c r="BH160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -26368,6 +27332,12 @@
       <c r="BG161" t="n">
         <v>0</v>
       </c>
+      <c r="BH161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -26529,6 +27499,12 @@
       <c r="BG162" t="n">
         <v>0</v>
       </c>
+      <c r="BH162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -26690,6 +27666,12 @@
       <c r="BG163" t="n">
         <v>1</v>
       </c>
+      <c r="BH163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -26851,6 +27833,12 @@
       <c r="BG164" t="n">
         <v>1</v>
       </c>
+      <c r="BH164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -27012,6 +28000,12 @@
       <c r="BG165" t="n">
         <v>0</v>
       </c>
+      <c r="BH165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -27173,6 +28167,12 @@
       <c r="BG166" t="n">
         <v>1</v>
       </c>
+      <c r="BH166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -27334,6 +28334,12 @@
       <c r="BG167" t="n">
         <v>0</v>
       </c>
+      <c r="BH167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -27495,6 +28501,12 @@
       <c r="BG168" t="n">
         <v>1</v>
       </c>
+      <c r="BH168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -27656,6 +28668,12 @@
       <c r="BG169" t="n">
         <v>1</v>
       </c>
+      <c r="BH169" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -27817,6 +28835,12 @@
       <c r="BG170" t="n">
         <v>1</v>
       </c>
+      <c r="BH170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -27978,6 +29002,12 @@
       <c r="BG171" t="n">
         <v>1</v>
       </c>
+      <c r="BH171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -28139,6 +29169,12 @@
       <c r="BG172" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -28300,6 +29336,12 @@
       <c r="BG173" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -28461,6 +29503,12 @@
       <c r="BG174" t="n">
         <v>1</v>
       </c>
+      <c r="BH174" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -28622,6 +29670,12 @@
       <c r="BG175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BH175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -28783,6 +29837,12 @@
       <c r="BG176" t="n">
         <v>0</v>
       </c>
+      <c r="BH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -28944,6 +30004,12 @@
       <c r="BG177" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BH177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -29105,6 +30171,12 @@
       <c r="BG178" t="n">
         <v>0</v>
       </c>
+      <c r="BH178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -29266,6 +30338,12 @@
       <c r="BG179" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH179" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -29427,6 +30505,12 @@
       <c r="BG180" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -29588,6 +30672,12 @@
       <c r="BG181" t="n">
         <v>0</v>
       </c>
+      <c r="BH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -29749,6 +30839,12 @@
       <c r="BG182" t="n">
         <v>0</v>
       </c>
+      <c r="BH182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -29910,6 +31006,12 @@
       <c r="BG183" t="n">
         <v>1</v>
       </c>
+      <c r="BH183" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -30071,6 +31173,12 @@
       <c r="BG184" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BH184" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -30232,6 +31340,12 @@
       <c r="BG185" t="n">
         <v>0</v>
       </c>
+      <c r="BH185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -30393,6 +31507,12 @@
       <c r="BG186" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -30554,6 +31674,12 @@
       <c r="BG187" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BH187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -30715,6 +31841,12 @@
       <c r="BG188" t="n">
         <v>0</v>
       </c>
+      <c r="BH188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -30876,6 +32008,12 @@
       <c r="BG189" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH189" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -31037,6 +32175,12 @@
       <c r="BG190" t="n">
         <v>0.6</v>
       </c>
+      <c r="BH190" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -31198,6 +32342,12 @@
       <c r="BG191" t="n">
         <v>1</v>
       </c>
+      <c r="BH191" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -31359,6 +32509,12 @@
       <c r="BG192" t="n">
         <v>0</v>
       </c>
+      <c r="BH192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -31520,6 +32676,12 @@
       <c r="BG193" t="n">
         <v>1</v>
       </c>
+      <c r="BH193" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -31681,6 +32843,12 @@
       <c r="BG194" t="n">
         <v>0</v>
       </c>
+      <c r="BH194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -31842,6 +33010,12 @@
       <c r="BG195" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -32003,6 +33177,12 @@
       <c r="BG196" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH196" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -32164,6 +33344,12 @@
       <c r="BG197" t="n">
         <v>1</v>
       </c>
+      <c r="BH197" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -32325,6 +33511,12 @@
       <c r="BG198" t="n">
         <v>0</v>
       </c>
+      <c r="BH198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -32486,6 +33678,12 @@
       <c r="BG199" t="n">
         <v>0</v>
       </c>
+      <c r="BH199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -32647,6 +33845,12 @@
       <c r="BG200" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH200" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -32808,6 +34012,12 @@
       <c r="BG201" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -32969,6 +34179,12 @@
       <c r="BG202" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -33130,6 +34346,12 @@
       <c r="BG203" t="n">
         <v>0</v>
       </c>
+      <c r="BH203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -33291,6 +34513,12 @@
       <c r="BG204" t="n">
         <v>0</v>
       </c>
+      <c r="BH204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -33450,6 +34678,12 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BG205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BI205" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
@@ -33543,6 +34777,12 @@
       <c r="BG206" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -33704,6 +34944,12 @@
       <c r="BG207" t="n">
         <v>0.4</v>
       </c>
+      <c r="BH207" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -33865,6 +35111,12 @@
       <c r="BG208" t="n">
         <v>1</v>
       </c>
+      <c r="BH208" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -34026,6 +35278,12 @@
       <c r="BG209" t="n">
         <v>0</v>
       </c>
+      <c r="BH209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -34187,6 +35445,12 @@
       <c r="BG210" t="n">
         <v>0</v>
       </c>
+      <c r="BH210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -34348,6 +35612,12 @@
       <c r="BG211" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -34509,6 +35779,12 @@
       <c r="BG212" t="n">
         <v>0.09090909090909091</v>
       </c>
+      <c r="BH212" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -34670,6 +35946,12 @@
       <c r="BG213" t="n">
         <v>0</v>
       </c>
+      <c r="BH213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -34831,6 +36113,12 @@
       <c r="BG214" t="n">
         <v>0</v>
       </c>
+      <c r="BH214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -34992,6 +36280,12 @@
       <c r="BG215" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH215" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -35153,6 +36447,12 @@
       <c r="BG216" t="n">
         <v>0</v>
       </c>
+      <c r="BH216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -35314,6 +36614,12 @@
       <c r="BG217" t="n">
         <v>1</v>
       </c>
+      <c r="BH217" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -35475,6 +36781,12 @@
       <c r="BG218" t="n">
         <v>1</v>
       </c>
+      <c r="BH218" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -35636,6 +36948,12 @@
       <c r="BG219" t="n">
         <v>1</v>
       </c>
+      <c r="BH219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -35797,6 +37115,12 @@
       <c r="BG220" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH220" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -35958,6 +37282,12 @@
       <c r="BG221" t="n">
         <v>0</v>
       </c>
+      <c r="BH221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -36119,6 +37449,12 @@
       <c r="BG222" t="n">
         <v>0</v>
       </c>
+      <c r="BH222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -36280,6 +37616,12 @@
       <c r="BG223" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -36441,6 +37783,12 @@
       <c r="BG224" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH224" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -36602,6 +37950,12 @@
       <c r="BG225" t="n">
         <v>0</v>
       </c>
+      <c r="BH225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -36763,6 +38117,12 @@
       <c r="BG226" t="n">
         <v>0</v>
       </c>
+      <c r="BH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -36924,6 +38284,12 @@
       <c r="BG227" t="n">
         <v>1</v>
       </c>
+      <c r="BH227" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -37085,6 +38451,12 @@
       <c r="BG228" t="n">
         <v>0</v>
       </c>
+      <c r="BH228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -37246,6 +38618,12 @@
       <c r="BG229" t="n">
         <v>1</v>
       </c>
+      <c r="BH229" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -37407,6 +38785,12 @@
       <c r="BG230" t="n">
         <v>1</v>
       </c>
+      <c r="BH230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -37568,6 +38952,12 @@
       <c r="BG231" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -37729,6 +39119,12 @@
       <c r="BG232" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -37890,6 +39286,12 @@
       <c r="BG233" t="n">
         <v>0</v>
       </c>
+      <c r="BH233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -38051,6 +39453,12 @@
       <c r="BG234" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -38212,6 +39620,12 @@
       <c r="BG235" t="n">
         <v>1</v>
       </c>
+      <c r="BH235" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -38373,6 +39787,12 @@
       <c r="BG236" t="n">
         <v>0</v>
       </c>
+      <c r="BH236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -38534,6 +39954,12 @@
       <c r="BG237" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -38695,6 +40121,12 @@
       <c r="BG238" t="n">
         <v>0</v>
       </c>
+      <c r="BH238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -38856,6 +40288,12 @@
       <c r="BG239" t="n">
         <v>0</v>
       </c>
+      <c r="BH239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -39017,6 +40455,12 @@
       <c r="BG240" t="n">
         <v>1</v>
       </c>
+      <c r="BH240" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -39178,6 +40622,12 @@
       <c r="BG241" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -39339,6 +40789,12 @@
       <c r="BG242" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH242" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -39500,6 +40956,12 @@
       <c r="BG243" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH243" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -39661,6 +41123,12 @@
       <c r="BG244" t="n">
         <v>1</v>
       </c>
+      <c r="BH244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -39822,6 +41290,12 @@
       <c r="BG245" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH245" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -39983,6 +41457,12 @@
       <c r="BG246" t="n">
         <v>0</v>
       </c>
+      <c r="BH246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -40144,6 +41624,12 @@
       <c r="BG247" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -40305,6 +41791,12 @@
       <c r="BG248" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH248" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -40466,6 +41958,12 @@
       <c r="BG249" t="n">
         <v>0</v>
       </c>
+      <c r="BH249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -40627,6 +42125,12 @@
       <c r="BG250" t="n">
         <v>0</v>
       </c>
+      <c r="BH250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -40788,6 +42292,12 @@
       <c r="BG251" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH251" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -40949,6 +42459,12 @@
       <c r="BG252" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH252" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -41110,6 +42626,12 @@
       <c r="BG253" t="n">
         <v>0</v>
       </c>
+      <c r="BH253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -41271,6 +42793,12 @@
       <c r="BG254" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH254" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -41432,6 +42960,12 @@
       <c r="BG255" t="n">
         <v>1</v>
       </c>
+      <c r="BH255" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -41593,6 +43127,12 @@
       <c r="BG256" t="n">
         <v>0</v>
       </c>
+      <c r="BH256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -41754,6 +43294,12 @@
       <c r="BG257" t="n">
         <v>1</v>
       </c>
+      <c r="BH257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -41915,6 +43461,12 @@
       <c r="BG258" t="n">
         <v>0.2</v>
       </c>
+      <c r="BH258" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -42076,6 +43628,12 @@
       <c r="BG259" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -42237,6 +43795,12 @@
       <c r="BG260" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH260" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -42398,6 +43962,12 @@
       <c r="BG261" t="n">
         <v>1</v>
       </c>
+      <c r="BH261" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -42559,6 +44129,12 @@
       <c r="BG262" t="n">
         <v>0</v>
       </c>
+      <c r="BH262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -42720,6 +44296,12 @@
       <c r="BG263" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH263" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -42881,6 +44463,12 @@
       <c r="BG264" t="n">
         <v>1</v>
       </c>
+      <c r="BH264" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -43042,6 +44630,12 @@
       <c r="BG265" t="n">
         <v>0.2</v>
       </c>
+      <c r="BH265" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -43203,6 +44797,12 @@
       <c r="BG266" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH266" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -43364,6 +44964,12 @@
       <c r="BG267" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH267" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -43525,6 +45131,12 @@
       <c r="BG268" t="n">
         <v>0</v>
       </c>
+      <c r="BH268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -43686,6 +45298,12 @@
       <c r="BG269" t="n">
         <v>0</v>
       </c>
+      <c r="BH269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -43845,6 +45463,12 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="BG270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BI270" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -43922,6 +45546,8 @@
       <c r="BE271" t="inlineStr"/>
       <c r="BF271" t="inlineStr"/>
       <c r="BG271" t="inlineStr"/>
+      <c r="BH271" t="inlineStr"/>
+      <c r="BI271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -44083,6 +45709,12 @@
       <c r="BG272" t="n">
         <v>1</v>
       </c>
+      <c r="BH272" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -44244,6 +45876,12 @@
       <c r="BG273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BH273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -44405,6 +46043,12 @@
       <c r="BG274" t="n">
         <v>0</v>
       </c>
+      <c r="BH274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -44566,6 +46210,12 @@
       <c r="BG275" t="n">
         <v>1</v>
       </c>
+      <c r="BH275" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -44727,6 +46377,12 @@
       <c r="BG276" t="n">
         <v>0</v>
       </c>
+      <c r="BH276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -44888,6 +46544,12 @@
       <c r="BG277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BH277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -45049,6 +46711,12 @@
       <c r="BG278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BH278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -45210,6 +46878,12 @@
       <c r="BG279" t="n">
         <v>0</v>
       </c>
+      <c r="BH279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -45371,6 +47045,12 @@
       <c r="BG280" t="n">
         <v>0</v>
       </c>
+      <c r="BH280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -45532,6 +47212,12 @@
       <c r="BG281" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH281" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -45693,6 +47379,12 @@
       <c r="BG282" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BH282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -45854,6 +47546,12 @@
       <c r="BG283" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH283" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -46015,6 +47713,12 @@
       <c r="BG284" t="n">
         <v>1</v>
       </c>
+      <c r="BH284" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -46176,6 +47880,12 @@
       <c r="BG285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="BH285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -46337,6 +48047,12 @@
       <c r="BG286" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH286" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -46498,6 +48214,12 @@
       <c r="BG287" t="n">
         <v>0</v>
       </c>
+      <c r="BH287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -46659,6 +48381,12 @@
       <c r="BG288" t="n">
         <v>1</v>
       </c>
+      <c r="BH288" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -46820,6 +48548,12 @@
       <c r="BG289" t="n">
         <v>0</v>
       </c>
+      <c r="BH289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -46981,6 +48715,12 @@
       <c r="BG290" t="n">
         <v>0</v>
       </c>
+      <c r="BH290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -47142,6 +48882,12 @@
       <c r="BG291" t="n">
         <v>1</v>
       </c>
+      <c r="BH291" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -47303,6 +49049,12 @@
       <c r="BG292" t="n">
         <v>0</v>
       </c>
+      <c r="BH292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -47464,6 +49216,12 @@
       <c r="BG293" t="n">
         <v>0</v>
       </c>
+      <c r="BH293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -47625,6 +49383,12 @@
       <c r="BG294" t="n">
         <v>0</v>
       </c>
+      <c r="BH294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -47786,6 +49550,12 @@
       <c r="BG295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="BH295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -47947,6 +49717,12 @@
       <c r="BG296" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH296" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -48108,6 +49884,12 @@
       <c r="BG297" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BH297" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -48269,6 +50051,12 @@
       <c r="BG298" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH298" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -48430,6 +50218,12 @@
       <c r="BG299" t="n">
         <v>0</v>
       </c>
+      <c r="BH299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -48591,6 +50385,12 @@
       <c r="BG300" t="n">
         <v>0</v>
       </c>
+      <c r="BH300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -48752,6 +50552,12 @@
       <c r="BG301" t="n">
         <v>1</v>
       </c>
+      <c r="BH301" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -48913,6 +50719,12 @@
       <c r="BG302" t="n">
         <v>0</v>
       </c>
+      <c r="BH302" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -49074,6 +50886,12 @@
       <c r="BG303" t="n">
         <v>1</v>
       </c>
+      <c r="BH303" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -49235,6 +51053,12 @@
       <c r="BG304" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH304" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -49396,6 +51220,12 @@
       <c r="BG305" t="n">
         <v>0</v>
       </c>
+      <c r="BH305" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -49557,6 +51387,12 @@
       <c r="BG306" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BH306" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -49718,6 +51554,12 @@
       <c r="BG307" t="n">
         <v>0</v>
       </c>
+      <c r="BH307" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -49879,6 +51721,12 @@
       <c r="BG308" t="n">
         <v>0</v>
       </c>
+      <c r="BH308" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -50040,6 +51888,12 @@
       <c r="BG309" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH309" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -50201,6 +52055,12 @@
       <c r="BG310" t="n">
         <v>0</v>
       </c>
+      <c r="BH310" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -50362,6 +52222,12 @@
       <c r="BG311" t="n">
         <v>0</v>
       </c>
+      <c r="BH311" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -50523,6 +52389,12 @@
       <c r="BG312" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH312" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -50684,6 +52556,12 @@
       <c r="BG313" t="n">
         <v>1</v>
       </c>
+      <c r="BH313" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -50845,6 +52723,12 @@
       <c r="BG314" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH314" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -51006,6 +52890,12 @@
       <c r="BG315" t="n">
         <v>0</v>
       </c>
+      <c r="BH315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -51167,6 +53057,12 @@
       <c r="BG316" t="n">
         <v>0.6</v>
       </c>
+      <c r="BH316" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -51328,6 +53224,12 @@
       <c r="BG317" t="n">
         <v>0</v>
       </c>
+      <c r="BH317" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -51489,6 +53391,12 @@
       <c r="BG318" t="n">
         <v>0</v>
       </c>
+      <c r="BH318" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -51650,6 +53558,12 @@
       <c r="BG319" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -51811,6 +53725,12 @@
       <c r="BG320" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH320" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -51972,6 +53892,12 @@
       <c r="BG321" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH321" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -52133,6 +54059,12 @@
       <c r="BG322" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH322" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -52294,6 +54226,12 @@
       <c r="BG323" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH323" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -52455,6 +54393,12 @@
       <c r="BG324" t="n">
         <v>0</v>
       </c>
+      <c r="BH324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -52616,6 +54560,12 @@
       <c r="BG325" t="n">
         <v>1</v>
       </c>
+      <c r="BH325" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -52777,6 +54727,12 @@
       <c r="BG326" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH326" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -52938,6 +54894,12 @@
       <c r="BG327" t="n">
         <v>0</v>
       </c>
+      <c r="BH327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -53099,6 +55061,12 @@
       <c r="BG328" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH328" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -53260,6 +55228,12 @@
       <c r="BG329" t="n">
         <v>1</v>
       </c>
+      <c r="BH329" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -53421,6 +55395,12 @@
       <c r="BG330" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH330" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -53582,6 +55562,12 @@
       <c r="BG331" t="n">
         <v>1</v>
       </c>
+      <c r="BH331" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -53743,6 +55729,12 @@
       <c r="BG332" t="n">
         <v>0</v>
       </c>
+      <c r="BH332" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -53904,6 +55896,12 @@
       <c r="BG333" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH333" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -54065,6 +56063,12 @@
       <c r="BG334" t="n">
         <v>1</v>
       </c>
+      <c r="BH334" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -54226,6 +56230,12 @@
       <c r="BG335" t="n">
         <v>0</v>
       </c>
+      <c r="BH335" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -54387,6 +56397,12 @@
       <c r="BG336" t="n">
         <v>1</v>
       </c>
+      <c r="BH336" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -54548,6 +56564,12 @@
       <c r="BG337" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH337" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -54709,6 +56731,12 @@
       <c r="BG338" t="n">
         <v>1</v>
       </c>
+      <c r="BH338" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -54870,6 +56898,12 @@
       <c r="BG339" t="n">
         <v>1</v>
       </c>
+      <c r="BH339" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -55031,6 +57065,12 @@
       <c r="BG340" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH340" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -55192,6 +57232,12 @@
       <c r="BG341" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH341" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -55353,6 +57399,12 @@
       <c r="BG342" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH342" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -55514,6 +57566,12 @@
       <c r="BG343" t="n">
         <v>0</v>
       </c>
+      <c r="BH343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -55675,6 +57733,12 @@
       <c r="BG344" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH344" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -55836,6 +57900,12 @@
       <c r="BG345" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH345" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI345" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -55997,6 +58067,12 @@
       <c r="BG346" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH346" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -56158,6 +58234,12 @@
       <c r="BG347" t="n">
         <v>0</v>
       </c>
+      <c r="BH347" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -56319,6 +58401,12 @@
       <c r="BG348" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH348" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -56480,6 +58568,12 @@
       <c r="BG349" t="n">
         <v>0</v>
       </c>
+      <c r="BH349" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -56641,6 +58735,12 @@
       <c r="BG350" t="n">
         <v>1</v>
       </c>
+      <c r="BH350" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -56802,6 +58902,12 @@
       <c r="BG351" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH351" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -56963,6 +59069,12 @@
       <c r="BG352" t="n">
         <v>0</v>
       </c>
+      <c r="BH352" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -57124,6 +59236,12 @@
       <c r="BG353" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BH353" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -57285,6 +59403,12 @@
       <c r="BG354" t="n">
         <v>0.625</v>
       </c>
+      <c r="BH354" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -57446,6 +59570,12 @@
       <c r="BG355" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BH355" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -57607,6 +59737,12 @@
       <c r="BG356" t="n">
         <v>0</v>
       </c>
+      <c r="BH356" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -57768,6 +59904,12 @@
       <c r="BG357" t="n">
         <v>0.8</v>
       </c>
+      <c r="BH357" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -57929,6 +60071,12 @@
       <c r="BG358" t="n">
         <v>1</v>
       </c>
+      <c r="BH358" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -58090,6 +60238,12 @@
       <c r="BG359" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH359" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -58251,6 +60405,12 @@
       <c r="BG360" t="n">
         <v>0.4</v>
       </c>
+      <c r="BH360" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -58412,6 +60572,12 @@
       <c r="BG361" t="n">
         <v>1</v>
       </c>
+      <c r="BH361" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -58573,6 +60739,12 @@
       <c r="BG362" t="n">
         <v>1</v>
       </c>
+      <c r="BH362" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -58734,6 +60906,12 @@
       <c r="BG363" t="n">
         <v>0</v>
       </c>
+      <c r="BH363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -58895,6 +61073,12 @@
       <c r="BG364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BH364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -59056,6 +61240,12 @@
       <c r="BG365" t="n">
         <v>1</v>
       </c>
+      <c r="BH365" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -59217,6 +61407,12 @@
       <c r="BG366" t="n">
         <v>0.75</v>
       </c>
+      <c r="BH366" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -59378,6 +61574,12 @@
       <c r="BG367" t="n">
         <v>0.2</v>
       </c>
+      <c r="BH367" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -59539,6 +61741,12 @@
       <c r="BG368" t="n">
         <v>1</v>
       </c>
+      <c r="BH368" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -59700,6 +61908,12 @@
       <c r="BG369" t="n">
         <v>1</v>
       </c>
+      <c r="BH369" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -59861,6 +62075,12 @@
       <c r="BG370" t="n">
         <v>0</v>
       </c>
+      <c r="BH370" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -60022,6 +62242,12 @@
       <c r="BG371" t="n">
         <v>1</v>
       </c>
+      <c r="BH371" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -60183,6 +62409,12 @@
       <c r="BG372" t="n">
         <v>1</v>
       </c>
+      <c r="BH372" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -60344,6 +62576,12 @@
       <c r="BG373" t="n">
         <v>0</v>
       </c>
+      <c r="BH373" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -60505,6 +62743,12 @@
       <c r="BG374" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH374" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -60666,6 +62910,12 @@
       <c r="BG375" t="n">
         <v>1</v>
       </c>
+      <c r="BH375" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -60827,6 +63077,12 @@
       <c r="BG376" t="n">
         <v>0</v>
       </c>
+      <c r="BH376" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -60988,6 +63244,12 @@
       <c r="BG377" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH377" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -61149,6 +63411,12 @@
       <c r="BG378" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH378" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI378" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -61310,6 +63578,12 @@
       <c r="BG379" t="n">
         <v>1</v>
       </c>
+      <c r="BH379" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -61471,6 +63745,12 @@
       <c r="BG380" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH380" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -61632,6 +63912,12 @@
       <c r="BG381" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH381" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -61793,6 +64079,12 @@
       <c r="BG382" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH382" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -61954,6 +64246,12 @@
       <c r="BG383" t="n">
         <v>0</v>
       </c>
+      <c r="BH383" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -62115,6 +64413,12 @@
       <c r="BG384" t="n">
         <v>1</v>
       </c>
+      <c r="BH384" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -62276,6 +64580,12 @@
       <c r="BG385" t="n">
         <v>0</v>
       </c>
+      <c r="BH385" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -62437,6 +64747,12 @@
       <c r="BG386" t="n">
         <v>1</v>
       </c>
+      <c r="BH386" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -62598,6 +64914,12 @@
       <c r="BG387" t="n">
         <v>1</v>
       </c>
+      <c r="BH387" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -62759,6 +65081,12 @@
       <c r="BG388" t="n">
         <v>1</v>
       </c>
+      <c r="BH388" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -62920,6 +65248,12 @@
       <c r="BG389" t="n">
         <v>0.625</v>
       </c>
+      <c r="BH389" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BI389" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -63081,6 +65415,12 @@
       <c r="BG390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BH390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BI390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -63242,6 +65582,12 @@
       <c r="BG391" t="n">
         <v>0</v>
       </c>
+      <c r="BH391" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -63403,6 +65749,12 @@
       <c r="BG392" t="n">
         <v>0.2727272727272727</v>
       </c>
+      <c r="BH392" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="BI392" t="n">
+        <v>0.2727272727272727</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -63564,6 +65916,12 @@
       <c r="BG393" t="n">
         <v>1</v>
       </c>
+      <c r="BH393" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -63725,6 +66083,12 @@
       <c r="BG394" t="n">
         <v>1</v>
       </c>
+      <c r="BH394" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -63886,6 +66250,12 @@
       <c r="BG395" t="n">
         <v>1</v>
       </c>
+      <c r="BH395" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -64047,6 +66417,12 @@
       <c r="BG396" t="n">
         <v>1</v>
       </c>
+      <c r="BH396" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -64208,6 +66584,12 @@
       <c r="BG397" t="n">
         <v>1</v>
       </c>
+      <c r="BH397" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -64369,6 +66751,12 @@
       <c r="BG398" t="n">
         <v>1</v>
       </c>
+      <c r="BH398" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -64530,6 +66918,12 @@
       <c r="BG399" t="n">
         <v>0.25</v>
       </c>
+      <c r="BH399" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI399" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -64691,6 +67085,12 @@
       <c r="BG400" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH400" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI400" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -64852,6 +67252,12 @@
       <c r="BG401" t="n">
         <v>0</v>
       </c>
+      <c r="BH401" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -65013,6 +67419,12 @@
       <c r="BG402" t="n">
         <v>0.5</v>
       </c>
+      <c r="BH402" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -65172,6 +67584,12 @@
         <v>1</v>
       </c>
       <c r="BG403" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH403" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65249,6 +67667,8 @@
       <c r="BE404" t="inlineStr"/>
       <c r="BF404" t="inlineStr"/>
       <c r="BG404" t="inlineStr"/>
+      <c r="BH404" t="inlineStr"/>
+      <c r="BI404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -65430,6 +67850,12 @@
       <c r="BG405" t="n">
         <v>807</v>
       </c>
+      <c r="BH405" t="n">
+        <v>807</v>
+      </c>
+      <c r="BI405" t="n">
+        <v>807</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -65611,6 +68037,12 @@
       <c r="BG406" t="n">
         <v>2188</v>
       </c>
+      <c r="BH406" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BI406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -65792,6 +68224,12 @@
       <c r="BG407" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BH407" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="BI407" t="n">
+        <v>0.3688</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -65973,6 +68411,12 @@
       <c r="BG408" t="n">
         <v>752</v>
       </c>
+      <c r="BH408" t="n">
+        <v>1917</v>
+      </c>
+      <c r="BI408" t="n">
+        <v>1921</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -66154,6 +68598,12 @@
       <c r="BG409" t="n">
         <v>2188</v>
       </c>
+      <c r="BH409" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BI409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -66335,6 +68785,12 @@
       <c r="BG410" t="n">
         <v>0.3437</v>
       </c>
+      <c r="BH410" t="n">
+        <v>0.8761</v>
+      </c>
+      <c r="BI410" t="n">
+        <v>0.878</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -66494,6 +68950,12 @@
       <c r="BG411" t="n">
         <v>609</v>
       </c>
+      <c r="BH411" t="n">
+        <v>606</v>
+      </c>
+      <c r="BI411" t="n">
+        <v>620</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -66675,6 +69137,12 @@
       <c r="BG412" t="n">
         <v>2188</v>
       </c>
+      <c r="BH412" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BI412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -66832,6 +69300,12 @@
       <c r="BG413" t="n">
         <v>0.2783</v>
       </c>
+      <c r="BH413" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="BI413" t="n">
+        <v>0.2834</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -67013,6 +69487,12 @@
       <c r="BG414" t="n">
         <v>807</v>
       </c>
+      <c r="BH414" t="n">
+        <v>807</v>
+      </c>
+      <c r="BI414" t="n">
+        <v>807</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -67194,6 +69674,12 @@
       <c r="BG415" t="n">
         <v>2188</v>
       </c>
+      <c r="BH415" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BI415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -67375,6 +69861,12 @@
       <c r="BG416" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BH416" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="BI416" t="n">
+        <v>0.3688</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -67556,6 +70048,12 @@
       <c r="BG417" t="n">
         <v>2137</v>
       </c>
+      <c r="BH417" t="n">
+        <v>2137</v>
+      </c>
+      <c r="BI417" t="n">
+        <v>2137</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -67737,6 +70235,12 @@
       <c r="BG418" t="n">
         <v>2188</v>
       </c>
+      <c r="BH418" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BI418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -67918,6 +70422,12 @@
       <c r="BG419" t="n">
         <v>0.9767</v>
       </c>
+      <c r="BH419" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="BI419" t="n">
+        <v>0.9767</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI419"/>
+  <dimension ref="A1:BJ419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +734,11 @@
           <t>2025-08-31_v5</t>
         </is>
       </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -901,6 +906,9 @@
       <c r="BI2" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1068,6 +1076,9 @@
       <c r="BI3" t="n">
         <v>1</v>
       </c>
+      <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1235,6 +1246,9 @@
       <c r="BI4" t="n">
         <v>0</v>
       </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1402,6 +1416,9 @@
       <c r="BI5" t="n">
         <v>1</v>
       </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1569,6 +1586,9 @@
       <c r="BI6" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1736,6 +1756,9 @@
       <c r="BI7" t="n">
         <v>0.2222222222222222</v>
       </c>
+      <c r="BJ7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1903,6 +1926,9 @@
       <c r="BI8" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BJ8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2070,6 +2096,9 @@
       <c r="BI9" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BJ9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2237,6 +2266,9 @@
       <c r="BI10" t="n">
         <v>0.6</v>
       </c>
+      <c r="BJ10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2402,6 +2434,9 @@
         <v>1</v>
       </c>
       <c r="BI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,6 +2548,9 @@
       <c r="BI12" t="n">
         <v>1</v>
       </c>
+      <c r="BJ12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2680,6 +2718,9 @@
       <c r="BI13" t="n">
         <v>0</v>
       </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2847,6 +2888,9 @@
       <c r="BI14" t="n">
         <v>0</v>
       </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3014,6 +3058,9 @@
       <c r="BI15" t="n">
         <v>0.625</v>
       </c>
+      <c r="BJ15" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3181,6 +3228,9 @@
       <c r="BI16" t="n">
         <v>1</v>
       </c>
+      <c r="BJ16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3348,6 +3398,9 @@
       <c r="BI17" t="n">
         <v>0</v>
       </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3515,6 +3568,9 @@
       <c r="BI18" t="n">
         <v>1</v>
       </c>
+      <c r="BJ18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3682,6 +3738,9 @@
       <c r="BI19" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3849,6 +3908,9 @@
       <c r="BI20" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ20" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4016,6 +4078,9 @@
       <c r="BI21" t="n">
         <v>1</v>
       </c>
+      <c r="BJ21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4183,6 +4248,9 @@
       <c r="BI22" t="n">
         <v>0</v>
       </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4350,6 +4418,9 @@
       <c r="BI23" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4517,6 +4588,9 @@
       <c r="BI24" t="n">
         <v>0.2</v>
       </c>
+      <c r="BJ24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4684,6 +4758,9 @@
       <c r="BI25" t="n">
         <v>0</v>
       </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4851,6 +4928,9 @@
       <c r="BI26" t="n">
         <v>0</v>
       </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5018,6 +5098,9 @@
       <c r="BI27" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5185,6 +5268,9 @@
       <c r="BI28" t="n">
         <v>1</v>
       </c>
+      <c r="BJ28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5352,6 +5438,9 @@
       <c r="BI29" t="n">
         <v>1</v>
       </c>
+      <c r="BJ29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5519,6 +5608,9 @@
       <c r="BI30" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -5686,6 +5778,9 @@
       <c r="BI31" t="n">
         <v>0</v>
       </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -5853,6 +5948,9 @@
       <c r="BI32" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BJ32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6020,6 +6118,9 @@
       <c r="BI33" t="n">
         <v>0</v>
       </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6187,6 +6288,9 @@
       <c r="BI34" t="n">
         <v>1</v>
       </c>
+      <c r="BJ34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6354,6 +6458,9 @@
       <c r="BI35" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ35" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6521,6 +6628,9 @@
       <c r="BI36" t="n">
         <v>0</v>
       </c>
+      <c r="BJ36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -6688,6 +6798,9 @@
       <c r="BI37" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -6855,6 +6968,9 @@
       <c r="BI38" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BJ38" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7022,6 +7138,9 @@
       <c r="BI39" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ39" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7187,6 +7306,9 @@
         <v>1</v>
       </c>
       <c r="BI40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7298,6 +7420,9 @@
       <c r="BI41" t="n">
         <v>0</v>
       </c>
+      <c r="BJ41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7465,6 +7590,9 @@
       <c r="BI42" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ42" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -7632,6 +7760,9 @@
       <c r="BI43" t="n">
         <v>1</v>
       </c>
+      <c r="BJ43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -7799,6 +7930,9 @@
       <c r="BI44" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -7966,6 +8100,9 @@
       <c r="BI45" t="n">
         <v>0</v>
       </c>
+      <c r="BJ45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -8133,6 +8270,9 @@
       <c r="BI46" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BJ46" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -8300,6 +8440,9 @@
       <c r="BI47" t="n">
         <v>0</v>
       </c>
+      <c r="BJ47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -8467,6 +8610,9 @@
       <c r="BI48" t="n">
         <v>0</v>
       </c>
+      <c r="BJ48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -8634,6 +8780,9 @@
       <c r="BI49" t="n">
         <v>0</v>
       </c>
+      <c r="BJ49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -8801,6 +8950,9 @@
       <c r="BI50" t="n">
         <v>0</v>
       </c>
+      <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -8968,6 +9120,9 @@
       <c r="BI51" t="n">
         <v>1</v>
       </c>
+      <c r="BJ51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9135,6 +9290,9 @@
       <c r="BI52" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -9302,6 +9460,9 @@
       <c r="BI53" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ53" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -9469,6 +9630,9 @@
       <c r="BI54" t="n">
         <v>0</v>
       </c>
+      <c r="BJ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -9636,6 +9800,9 @@
       <c r="BI55" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ55" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -9803,6 +9970,9 @@
       <c r="BI56" t="n">
         <v>0</v>
       </c>
+      <c r="BJ56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -9970,6 +10140,9 @@
       <c r="BI57" t="n">
         <v>0</v>
       </c>
+      <c r="BJ57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -10137,6 +10310,9 @@
       <c r="BI58" t="n">
         <v>0</v>
       </c>
+      <c r="BJ58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -10304,6 +10480,9 @@
       <c r="BI59" t="n">
         <v>0</v>
       </c>
+      <c r="BJ59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -10471,6 +10650,9 @@
       <c r="BI60" t="n">
         <v>1</v>
       </c>
+      <c r="BJ60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -10638,6 +10820,9 @@
       <c r="BI61" t="n">
         <v>0</v>
       </c>
+      <c r="BJ61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -10805,6 +10990,9 @@
       <c r="BI62" t="n">
         <v>0</v>
       </c>
+      <c r="BJ62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -10972,6 +11160,9 @@
       <c r="BI63" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BJ63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -11139,6 +11330,9 @@
       <c r="BI64" t="n">
         <v>1</v>
       </c>
+      <c r="BJ64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -11306,6 +11500,9 @@
       <c r="BI65" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -11473,6 +11670,9 @@
       <c r="BI66" t="n">
         <v>0</v>
       </c>
+      <c r="BJ66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -11640,6 +11840,9 @@
       <c r="BI67" t="n">
         <v>0</v>
       </c>
+      <c r="BJ67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -11807,6 +12010,9 @@
       <c r="BI68" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ68" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -11974,6 +12180,9 @@
       <c r="BI69" t="n">
         <v>0</v>
       </c>
+      <c r="BJ69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -12141,6 +12350,9 @@
       <c r="BI70" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BJ70" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -12308,6 +12520,9 @@
       <c r="BI71" t="n">
         <v>0</v>
       </c>
+      <c r="BJ71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -12475,6 +12690,9 @@
       <c r="BI72" t="n">
         <v>0</v>
       </c>
+      <c r="BJ72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -12642,6 +12860,9 @@
       <c r="BI73" t="n">
         <v>0</v>
       </c>
+      <c r="BJ73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -12809,6 +13030,9 @@
       <c r="BI74" t="n">
         <v>0</v>
       </c>
+      <c r="BJ74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -12976,6 +13200,9 @@
       <c r="BI75" t="n">
         <v>0</v>
       </c>
+      <c r="BJ75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -13143,6 +13370,9 @@
       <c r="BI76" t="n">
         <v>0</v>
       </c>
+      <c r="BJ76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -13310,6 +13540,9 @@
       <c r="BI77" t="n">
         <v>1</v>
       </c>
+      <c r="BJ77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -13477,6 +13710,9 @@
       <c r="BI78" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ78" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -13644,6 +13880,9 @@
       <c r="BI79" t="n">
         <v>1</v>
       </c>
+      <c r="BJ79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -13811,6 +14050,9 @@
       <c r="BI80" t="n">
         <v>0</v>
       </c>
+      <c r="BJ80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -13978,6 +14220,9 @@
       <c r="BI81" t="n">
         <v>0</v>
       </c>
+      <c r="BJ81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -14145,6 +14390,9 @@
       <c r="BI82" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ82" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -14312,6 +14560,9 @@
       <c r="BI83" t="n">
         <v>0</v>
       </c>
+      <c r="BJ83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -14479,6 +14730,9 @@
       <c r="BI84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BJ84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -14646,6 +14900,9 @@
       <c r="BI85" t="n">
         <v>0</v>
       </c>
+      <c r="BJ85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -14813,6 +15070,9 @@
       <c r="BI86" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -14980,6 +15240,9 @@
       <c r="BI87" t="n">
         <v>0</v>
       </c>
+      <c r="BJ87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -15147,6 +15410,9 @@
       <c r="BI88" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -15314,6 +15580,9 @@
       <c r="BI89" t="n">
         <v>0</v>
       </c>
+      <c r="BJ89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -15481,6 +15750,9 @@
       <c r="BI90" t="n">
         <v>0</v>
       </c>
+      <c r="BJ90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -15648,6 +15920,9 @@
       <c r="BI91" t="n">
         <v>0</v>
       </c>
+      <c r="BJ91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -15815,6 +16090,9 @@
       <c r="BI92" t="n">
         <v>0</v>
       </c>
+      <c r="BJ92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -15982,6 +16260,9 @@
       <c r="BI93" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ93" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -16149,6 +16430,9 @@
       <c r="BI94" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ94" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -16316,6 +16600,9 @@
       <c r="BI95" t="n">
         <v>1</v>
       </c>
+      <c r="BJ95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -16483,6 +16770,9 @@
       <c r="BI96" t="n">
         <v>0</v>
       </c>
+      <c r="BJ96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -16650,6 +16940,9 @@
       <c r="BI97" t="n">
         <v>0.375</v>
       </c>
+      <c r="BJ97" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -16817,6 +17110,9 @@
       <c r="BI98" t="n">
         <v>1</v>
       </c>
+      <c r="BJ98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -16984,6 +17280,9 @@
       <c r="BI99" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ99" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -17151,6 +17450,9 @@
       <c r="BI100" t="n">
         <v>0.375</v>
       </c>
+      <c r="BJ100" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -17318,6 +17620,9 @@
       <c r="BI101" t="n">
         <v>1</v>
       </c>
+      <c r="BJ101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -17485,6 +17790,9 @@
       <c r="BI102" t="n">
         <v>0</v>
       </c>
+      <c r="BJ102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -17652,6 +17960,9 @@
       <c r="BI103" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ103" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -17819,6 +18130,9 @@
       <c r="BI104" t="n">
         <v>1</v>
       </c>
+      <c r="BJ104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -17986,6 +18300,9 @@
       <c r="BI105" t="n">
         <v>0</v>
       </c>
+      <c r="BJ105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -18153,6 +18470,9 @@
       <c r="BI106" t="n">
         <v>0</v>
       </c>
+      <c r="BJ106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -18320,6 +18640,9 @@
       <c r="BI107" t="n">
         <v>0</v>
       </c>
+      <c r="BJ107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -18487,6 +18810,9 @@
       <c r="BI108" t="n">
         <v>0</v>
       </c>
+      <c r="BJ108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -18654,6 +18980,9 @@
       <c r="BI109" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ109" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -18821,6 +19150,9 @@
       <c r="BI110" t="n">
         <v>0</v>
       </c>
+      <c r="BJ110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -18988,6 +19320,9 @@
       <c r="BI111" t="n">
         <v>1</v>
       </c>
+      <c r="BJ111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -19155,6 +19490,9 @@
       <c r="BI112" t="n">
         <v>1</v>
       </c>
+      <c r="BJ112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -19322,6 +19660,9 @@
       <c r="BI113" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ113" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -19489,6 +19830,9 @@
       <c r="BI114" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -19656,6 +20000,9 @@
       <c r="BI115" t="n">
         <v>0</v>
       </c>
+      <c r="BJ115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -19823,6 +20170,9 @@
       <c r="BI116" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ116" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -19990,6 +20340,9 @@
       <c r="BI117" t="n">
         <v>1</v>
       </c>
+      <c r="BJ117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -20157,6 +20510,9 @@
       <c r="BI118" t="n">
         <v>0</v>
       </c>
+      <c r="BJ118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -20324,6 +20680,9 @@
       <c r="BI119" t="n">
         <v>0.625</v>
       </c>
+      <c r="BJ119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -20491,6 +20850,9 @@
       <c r="BI120" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ120" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -20658,6 +21020,9 @@
       <c r="BI121" t="n">
         <v>0.375</v>
       </c>
+      <c r="BJ121" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -20825,6 +21190,9 @@
       <c r="BI122" t="n">
         <v>0</v>
       </c>
+      <c r="BJ122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -20992,6 +21360,9 @@
       <c r="BI123" t="n">
         <v>0</v>
       </c>
+      <c r="BJ123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -21159,6 +21530,9 @@
       <c r="BI124" t="n">
         <v>0</v>
       </c>
+      <c r="BJ124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -21326,6 +21700,9 @@
       <c r="BI125" t="n">
         <v>0</v>
       </c>
+      <c r="BJ125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -21493,6 +21870,9 @@
       <c r="BI126" t="n">
         <v>0</v>
       </c>
+      <c r="BJ126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -21660,6 +22040,9 @@
       <c r="BI127" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ127" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -21827,6 +22210,9 @@
       <c r="BI128" t="n">
         <v>0</v>
       </c>
+      <c r="BJ128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -21994,6 +22380,9 @@
       <c r="BI129" t="n">
         <v>1</v>
       </c>
+      <c r="BJ129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -22161,6 +22550,9 @@
       <c r="BI130" t="n">
         <v>0.625</v>
       </c>
+      <c r="BJ130" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -22328,6 +22720,9 @@
       <c r="BI131" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -22495,6 +22890,9 @@
       <c r="BI132" t="n">
         <v>0</v>
       </c>
+      <c r="BJ132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -22662,6 +23060,9 @@
       <c r="BI133" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -22829,6 +23230,9 @@
       <c r="BI134" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ134" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -22996,6 +23400,9 @@
       <c r="BI135" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ135" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -23163,6 +23570,9 @@
       <c r="BI136" t="n">
         <v>0</v>
       </c>
+      <c r="BJ136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -23330,6 +23740,9 @@
       <c r="BI137" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -23497,6 +23910,9 @@
       <c r="BI138" t="n">
         <v>0</v>
       </c>
+      <c r="BJ138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -23664,6 +24080,9 @@
       <c r="BI139" t="n">
         <v>0</v>
       </c>
+      <c r="BJ139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -23831,6 +24250,9 @@
       <c r="BI140" t="n">
         <v>0.125</v>
       </c>
+      <c r="BJ140" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -23998,6 +24420,9 @@
       <c r="BI141" t="n">
         <v>0.375</v>
       </c>
+      <c r="BJ141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -24165,6 +24590,9 @@
       <c r="BI142" t="n">
         <v>0</v>
       </c>
+      <c r="BJ142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -24332,6 +24760,9 @@
       <c r="BI143" t="n">
         <v>0</v>
       </c>
+      <c r="BJ143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -24499,6 +24930,9 @@
       <c r="BI144" t="n">
         <v>1</v>
       </c>
+      <c r="BJ144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -24666,6 +25100,9 @@
       <c r="BI145" t="n">
         <v>0</v>
       </c>
+      <c r="BJ145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -24833,6 +25270,9 @@
       <c r="BI146" t="n">
         <v>0</v>
       </c>
+      <c r="BJ146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -25000,6 +25440,9 @@
       <c r="BI147" t="n">
         <v>0</v>
       </c>
+      <c r="BJ147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -25167,6 +25610,9 @@
       <c r="BI148" t="n">
         <v>0</v>
       </c>
+      <c r="BJ148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -25334,6 +25780,9 @@
       <c r="BI149" t="n">
         <v>1</v>
       </c>
+      <c r="BJ149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -25501,6 +25950,9 @@
       <c r="BI150" t="n">
         <v>0.375</v>
       </c>
+      <c r="BJ150" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -25668,6 +26120,9 @@
       <c r="BI151" t="n">
         <v>0</v>
       </c>
+      <c r="BJ151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -25835,6 +26290,9 @@
       <c r="BI152" t="n">
         <v>0</v>
       </c>
+      <c r="BJ152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -26002,6 +26460,9 @@
       <c r="BI153" t="n">
         <v>1</v>
       </c>
+      <c r="BJ153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -26169,6 +26630,9 @@
       <c r="BI154" t="n">
         <v>0</v>
       </c>
+      <c r="BJ154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -26336,6 +26800,9 @@
       <c r="BI155" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ155" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -26503,6 +26970,9 @@
       <c r="BI156" t="n">
         <v>0</v>
       </c>
+      <c r="BJ156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -26670,6 +27140,9 @@
       <c r="BI157" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -26837,6 +27310,9 @@
       <c r="BI158" t="n">
         <v>1</v>
       </c>
+      <c r="BJ158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -27004,6 +27480,9 @@
       <c r="BI159" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ159" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -27171,6 +27650,9 @@
       <c r="BI160" t="n">
         <v>1</v>
       </c>
+      <c r="BJ160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -27338,6 +27820,9 @@
       <c r="BI161" t="n">
         <v>0</v>
       </c>
+      <c r="BJ161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -27505,6 +27990,9 @@
       <c r="BI162" t="n">
         <v>0</v>
       </c>
+      <c r="BJ162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -27672,6 +28160,9 @@
       <c r="BI163" t="n">
         <v>1</v>
       </c>
+      <c r="BJ163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -27839,6 +28330,9 @@
       <c r="BI164" t="n">
         <v>1</v>
       </c>
+      <c r="BJ164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -28006,6 +28500,9 @@
       <c r="BI165" t="n">
         <v>0</v>
       </c>
+      <c r="BJ165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -28173,6 +28670,9 @@
       <c r="BI166" t="n">
         <v>1</v>
       </c>
+      <c r="BJ166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -28340,6 +28840,9 @@
       <c r="BI167" t="n">
         <v>0</v>
       </c>
+      <c r="BJ167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -28507,6 +29010,9 @@
       <c r="BI168" t="n">
         <v>1</v>
       </c>
+      <c r="BJ168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -28674,6 +29180,9 @@
       <c r="BI169" t="n">
         <v>1</v>
       </c>
+      <c r="BJ169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -28841,6 +29350,9 @@
       <c r="BI170" t="n">
         <v>1</v>
       </c>
+      <c r="BJ170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -29008,6 +29520,9 @@
       <c r="BI171" t="n">
         <v>1</v>
       </c>
+      <c r="BJ171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -29175,6 +29690,9 @@
       <c r="BI172" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ172" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -29342,6 +29860,9 @@
       <c r="BI173" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ173" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -29509,6 +30030,9 @@
       <c r="BI174" t="n">
         <v>1</v>
       </c>
+      <c r="BJ174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -29676,6 +30200,9 @@
       <c r="BI175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BJ175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -29843,6 +30370,9 @@
       <c r="BI176" t="n">
         <v>0</v>
       </c>
+      <c r="BJ176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -30010,6 +30540,9 @@
       <c r="BI177" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BJ177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -30177,6 +30710,9 @@
       <c r="BI178" t="n">
         <v>0</v>
       </c>
+      <c r="BJ178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -30344,6 +30880,9 @@
       <c r="BI179" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ179" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -30511,6 +31050,9 @@
       <c r="BI180" t="n">
         <v>0.8</v>
       </c>
+      <c r="BJ180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -30678,6 +31220,9 @@
       <c r="BI181" t="n">
         <v>0</v>
       </c>
+      <c r="BJ181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -30845,6 +31390,9 @@
       <c r="BI182" t="n">
         <v>0</v>
       </c>
+      <c r="BJ182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -31012,6 +31560,9 @@
       <c r="BI183" t="n">
         <v>1</v>
       </c>
+      <c r="BJ183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -31179,6 +31730,9 @@
       <c r="BI184" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BJ184" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -31346,6 +31900,9 @@
       <c r="BI185" t="n">
         <v>0</v>
       </c>
+      <c r="BJ185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -31513,6 +32070,9 @@
       <c r="BI186" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ186" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -31680,6 +32240,9 @@
       <c r="BI187" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BJ187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -31847,6 +32410,9 @@
       <c r="BI188" t="n">
         <v>0</v>
       </c>
+      <c r="BJ188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -32014,6 +32580,9 @@
       <c r="BI189" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ189" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -32181,6 +32750,9 @@
       <c r="BI190" t="n">
         <v>0.6</v>
       </c>
+      <c r="BJ190" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -32348,6 +32920,9 @@
       <c r="BI191" t="n">
         <v>1</v>
       </c>
+      <c r="BJ191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -32515,6 +33090,9 @@
       <c r="BI192" t="n">
         <v>0</v>
       </c>
+      <c r="BJ192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -32682,6 +33260,9 @@
       <c r="BI193" t="n">
         <v>1</v>
       </c>
+      <c r="BJ193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -32849,6 +33430,9 @@
       <c r="BI194" t="n">
         <v>0</v>
       </c>
+      <c r="BJ194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -33016,6 +33600,9 @@
       <c r="BI195" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ195" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -33183,6 +33770,9 @@
       <c r="BI196" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -33350,6 +33940,9 @@
       <c r="BI197" t="n">
         <v>1</v>
       </c>
+      <c r="BJ197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -33517,6 +34110,9 @@
       <c r="BI198" t="n">
         <v>0</v>
       </c>
+      <c r="BJ198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -33684,6 +34280,9 @@
       <c r="BI199" t="n">
         <v>0</v>
       </c>
+      <c r="BJ199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -33851,6 +34450,9 @@
       <c r="BI200" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -34018,6 +34620,9 @@
       <c r="BI201" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ201" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -34185,6 +34790,9 @@
       <c r="BI202" t="n">
         <v>0.8</v>
       </c>
+      <c r="BJ202" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -34352,6 +34960,9 @@
       <c r="BI203" t="n">
         <v>0</v>
       </c>
+      <c r="BJ203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -34519,6 +35130,9 @@
       <c r="BI204" t="n">
         <v>0</v>
       </c>
+      <c r="BJ204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -34684,6 +35298,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BI205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BJ205" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
@@ -34783,6 +35400,9 @@
       <c r="BI206" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -34950,6 +35570,9 @@
       <c r="BI207" t="n">
         <v>0.4</v>
       </c>
+      <c r="BJ207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -35117,6 +35740,9 @@
       <c r="BI208" t="n">
         <v>1</v>
       </c>
+      <c r="BJ208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -35284,6 +35910,9 @@
       <c r="BI209" t="n">
         <v>0</v>
       </c>
+      <c r="BJ209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -35451,6 +36080,9 @@
       <c r="BI210" t="n">
         <v>0</v>
       </c>
+      <c r="BJ210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -35618,6 +36250,9 @@
       <c r="BI211" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ211" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -35785,6 +36420,9 @@
       <c r="BI212" t="n">
         <v>0.09090909090909091</v>
       </c>
+      <c r="BJ212" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -35952,6 +36590,9 @@
       <c r="BI213" t="n">
         <v>0</v>
       </c>
+      <c r="BJ213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -36119,6 +36760,9 @@
       <c r="BI214" t="n">
         <v>0</v>
       </c>
+      <c r="BJ214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -36286,6 +36930,9 @@
       <c r="BI215" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ215" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -36453,6 +37100,9 @@
       <c r="BI216" t="n">
         <v>0</v>
       </c>
+      <c r="BJ216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -36620,6 +37270,9 @@
       <c r="BI217" t="n">
         <v>1</v>
       </c>
+      <c r="BJ217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -36787,6 +37440,9 @@
       <c r="BI218" t="n">
         <v>1</v>
       </c>
+      <c r="BJ218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -36954,6 +37610,9 @@
       <c r="BI219" t="n">
         <v>1</v>
       </c>
+      <c r="BJ219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -37121,6 +37780,9 @@
       <c r="BI220" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ220" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -37288,6 +37950,9 @@
       <c r="BI221" t="n">
         <v>0</v>
       </c>
+      <c r="BJ221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -37455,6 +38120,9 @@
       <c r="BI222" t="n">
         <v>0</v>
       </c>
+      <c r="BJ222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -37622,6 +38290,9 @@
       <c r="BI223" t="n">
         <v>0.8</v>
       </c>
+      <c r="BJ223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -37789,6 +38460,9 @@
       <c r="BI224" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ224" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -37956,6 +38630,9 @@
       <c r="BI225" t="n">
         <v>0</v>
       </c>
+      <c r="BJ225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -38123,6 +38800,9 @@
       <c r="BI226" t="n">
         <v>0</v>
       </c>
+      <c r="BJ226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -38290,6 +38970,9 @@
       <c r="BI227" t="n">
         <v>1</v>
       </c>
+      <c r="BJ227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -38457,6 +39140,9 @@
       <c r="BI228" t="n">
         <v>0</v>
       </c>
+      <c r="BJ228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -38624,6 +39310,9 @@
       <c r="BI229" t="n">
         <v>1</v>
       </c>
+      <c r="BJ229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -38791,6 +39480,9 @@
       <c r="BI230" t="n">
         <v>1</v>
       </c>
+      <c r="BJ230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -38958,6 +39650,9 @@
       <c r="BI231" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ231" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -39125,6 +39820,9 @@
       <c r="BI232" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -39292,6 +39990,9 @@
       <c r="BI233" t="n">
         <v>0</v>
       </c>
+      <c r="BJ233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -39459,6 +40160,9 @@
       <c r="BI234" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ234" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -39626,6 +40330,9 @@
       <c r="BI235" t="n">
         <v>1</v>
       </c>
+      <c r="BJ235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -39793,6 +40500,9 @@
       <c r="BI236" t="n">
         <v>0</v>
       </c>
+      <c r="BJ236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -39960,6 +40670,9 @@
       <c r="BI237" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -40127,6 +40840,9 @@
       <c r="BI238" t="n">
         <v>0</v>
       </c>
+      <c r="BJ238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -40294,6 +41010,9 @@
       <c r="BI239" t="n">
         <v>0</v>
       </c>
+      <c r="BJ239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -40461,6 +41180,9 @@
       <c r="BI240" t="n">
         <v>1</v>
       </c>
+      <c r="BJ240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -40628,6 +41350,9 @@
       <c r="BI241" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -40795,6 +41520,9 @@
       <c r="BI242" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ242" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -40962,6 +41690,9 @@
       <c r="BI243" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ243" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -41129,6 +41860,9 @@
       <c r="BI244" t="n">
         <v>1</v>
       </c>
+      <c r="BJ244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -41296,6 +42030,9 @@
       <c r="BI245" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ245" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -41463,6 +42200,9 @@
       <c r="BI246" t="n">
         <v>0</v>
       </c>
+      <c r="BJ246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -41630,6 +42370,9 @@
       <c r="BI247" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -41797,6 +42540,9 @@
       <c r="BI248" t="n">
         <v>0.8</v>
       </c>
+      <c r="BJ248" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -41964,6 +42710,9 @@
       <c r="BI249" t="n">
         <v>0</v>
       </c>
+      <c r="BJ249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -42131,6 +42880,9 @@
       <c r="BI250" t="n">
         <v>0</v>
       </c>
+      <c r="BJ250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -42298,6 +43050,9 @@
       <c r="BI251" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ251" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -42465,6 +43220,9 @@
       <c r="BI252" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ252" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -42632,6 +43390,9 @@
       <c r="BI253" t="n">
         <v>0</v>
       </c>
+      <c r="BJ253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -42799,6 +43560,9 @@
       <c r="BI254" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -42966,6 +43730,9 @@
       <c r="BI255" t="n">
         <v>1</v>
       </c>
+      <c r="BJ255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -43133,6 +43900,9 @@
       <c r="BI256" t="n">
         <v>0</v>
       </c>
+      <c r="BJ256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -43300,6 +44070,9 @@
       <c r="BI257" t="n">
         <v>1</v>
       </c>
+      <c r="BJ257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -43467,6 +44240,9 @@
       <c r="BI258" t="n">
         <v>0.2</v>
       </c>
+      <c r="BJ258" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -43634,6 +44410,9 @@
       <c r="BI259" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ259" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -43801,6 +44580,9 @@
       <c r="BI260" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ260" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -43968,6 +44750,9 @@
       <c r="BI261" t="n">
         <v>1</v>
       </c>
+      <c r="BJ261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -44135,6 +44920,9 @@
       <c r="BI262" t="n">
         <v>0</v>
       </c>
+      <c r="BJ262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -44302,6 +45090,9 @@
       <c r="BI263" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ263" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -44469,6 +45260,9 @@
       <c r="BI264" t="n">
         <v>1</v>
       </c>
+      <c r="BJ264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -44636,6 +45430,9 @@
       <c r="BI265" t="n">
         <v>0.2</v>
       </c>
+      <c r="BJ265" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -44803,6 +45600,9 @@
       <c r="BI266" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -44970,6 +45770,9 @@
       <c r="BI267" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ267" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -45137,6 +45940,9 @@
       <c r="BI268" t="n">
         <v>0</v>
       </c>
+      <c r="BJ268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -45304,6 +46110,9 @@
       <c r="BI269" t="n">
         <v>0</v>
       </c>
+      <c r="BJ269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -45469,6 +46278,9 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="BI270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BJ270" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -45548,6 +46360,7 @@
       <c r="BG271" t="inlineStr"/>
       <c r="BH271" t="inlineStr"/>
       <c r="BI271" t="inlineStr"/>
+      <c r="BJ271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -45715,6 +46528,9 @@
       <c r="BI272" t="n">
         <v>1</v>
       </c>
+      <c r="BJ272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -45882,6 +46698,9 @@
       <c r="BI273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BJ273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -46049,6 +46868,9 @@
       <c r="BI274" t="n">
         <v>0</v>
       </c>
+      <c r="BJ274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -46216,6 +47038,9 @@
       <c r="BI275" t="n">
         <v>1</v>
       </c>
+      <c r="BJ275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -46383,6 +47208,9 @@
       <c r="BI276" t="n">
         <v>0</v>
       </c>
+      <c r="BJ276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -46550,6 +47378,9 @@
       <c r="BI277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BJ277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -46717,6 +47548,9 @@
       <c r="BI278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BJ278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -46884,6 +47718,9 @@
       <c r="BI279" t="n">
         <v>0</v>
       </c>
+      <c r="BJ279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -47051,6 +47888,9 @@
       <c r="BI280" t="n">
         <v>0</v>
       </c>
+      <c r="BJ280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -47218,6 +48058,9 @@
       <c r="BI281" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ281" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -47385,6 +48228,9 @@
       <c r="BI282" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BJ282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -47552,6 +48398,9 @@
       <c r="BI283" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ283" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -47719,6 +48568,9 @@
       <c r="BI284" t="n">
         <v>1</v>
       </c>
+      <c r="BJ284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -47886,6 +48738,9 @@
       <c r="BI285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="BJ285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -48053,6 +48908,9 @@
       <c r="BI286" t="n">
         <v>0.8</v>
       </c>
+      <c r="BJ286" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -48220,6 +49078,9 @@
       <c r="BI287" t="n">
         <v>0</v>
       </c>
+      <c r="BJ287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -48387,6 +49248,9 @@
       <c r="BI288" t="n">
         <v>1</v>
       </c>
+      <c r="BJ288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -48554,6 +49418,9 @@
       <c r="BI289" t="n">
         <v>0</v>
       </c>
+      <c r="BJ289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -48721,6 +49588,9 @@
       <c r="BI290" t="n">
         <v>0</v>
       </c>
+      <c r="BJ290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -48888,6 +49758,9 @@
       <c r="BI291" t="n">
         <v>1</v>
       </c>
+      <c r="BJ291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -49055,6 +49928,9 @@
       <c r="BI292" t="n">
         <v>0</v>
       </c>
+      <c r="BJ292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -49222,6 +50098,9 @@
       <c r="BI293" t="n">
         <v>0</v>
       </c>
+      <c r="BJ293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -49389,6 +50268,9 @@
       <c r="BI294" t="n">
         <v>0</v>
       </c>
+      <c r="BJ294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -49556,6 +50438,9 @@
       <c r="BI295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="BJ295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -49723,6 +50608,9 @@
       <c r="BI296" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ296" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -49890,6 +50778,9 @@
       <c r="BI297" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BJ297" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -50057,6 +50948,9 @@
       <c r="BI298" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ298" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -50224,6 +51118,9 @@
       <c r="BI299" t="n">
         <v>0</v>
       </c>
+      <c r="BJ299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -50391,6 +51288,9 @@
       <c r="BI300" t="n">
         <v>0</v>
       </c>
+      <c r="BJ300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -50558,6 +51458,9 @@
       <c r="BI301" t="n">
         <v>1</v>
       </c>
+      <c r="BJ301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -50725,6 +51628,9 @@
       <c r="BI302" t="n">
         <v>0</v>
       </c>
+      <c r="BJ302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -50892,6 +51798,9 @@
       <c r="BI303" t="n">
         <v>1</v>
       </c>
+      <c r="BJ303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -51059,6 +51968,9 @@
       <c r="BI304" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -51226,6 +52138,9 @@
       <c r="BI305" t="n">
         <v>0</v>
       </c>
+      <c r="BJ305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -51393,6 +52308,9 @@
       <c r="BI306" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BJ306" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -51560,6 +52478,9 @@
       <c r="BI307" t="n">
         <v>0</v>
       </c>
+      <c r="BJ307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -51727,6 +52648,9 @@
       <c r="BI308" t="n">
         <v>0</v>
       </c>
+      <c r="BJ308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -51894,6 +52818,9 @@
       <c r="BI309" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -52061,6 +52988,9 @@
       <c r="BI310" t="n">
         <v>0</v>
       </c>
+      <c r="BJ310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -52228,6 +53158,9 @@
       <c r="BI311" t="n">
         <v>0</v>
       </c>
+      <c r="BJ311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -52395,6 +53328,9 @@
       <c r="BI312" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -52562,6 +53498,9 @@
       <c r="BI313" t="n">
         <v>1</v>
       </c>
+      <c r="BJ313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -52729,6 +53668,9 @@
       <c r="BI314" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -52896,6 +53838,9 @@
       <c r="BI315" t="n">
         <v>0</v>
       </c>
+      <c r="BJ315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -53063,6 +54008,9 @@
       <c r="BI316" t="n">
         <v>0.6</v>
       </c>
+      <c r="BJ316" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -53230,6 +54178,9 @@
       <c r="BI317" t="n">
         <v>0</v>
       </c>
+      <c r="BJ317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -53397,6 +54348,9 @@
       <c r="BI318" t="n">
         <v>0</v>
       </c>
+      <c r="BJ318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -53564,6 +54518,9 @@
       <c r="BI319" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -53731,6 +54688,9 @@
       <c r="BI320" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ320" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -53898,6 +54858,9 @@
       <c r="BI321" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ321" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -54065,6 +55028,9 @@
       <c r="BI322" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -54232,6 +55198,9 @@
       <c r="BI323" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -54399,6 +55368,9 @@
       <c r="BI324" t="n">
         <v>0</v>
       </c>
+      <c r="BJ324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -54566,6 +55538,9 @@
       <c r="BI325" t="n">
         <v>1</v>
       </c>
+      <c r="BJ325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -54733,6 +55708,9 @@
       <c r="BI326" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -54900,6 +55878,9 @@
       <c r="BI327" t="n">
         <v>0</v>
       </c>
+      <c r="BJ327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -55067,6 +56048,9 @@
       <c r="BI328" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ328" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -55234,6 +56218,9 @@
       <c r="BI329" t="n">
         <v>1</v>
       </c>
+      <c r="BJ329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -55401,6 +56388,9 @@
       <c r="BI330" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -55568,6 +56558,9 @@
       <c r="BI331" t="n">
         <v>1</v>
       </c>
+      <c r="BJ331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -55735,6 +56728,9 @@
       <c r="BI332" t="n">
         <v>0</v>
       </c>
+      <c r="BJ332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -55902,6 +56898,9 @@
       <c r="BI333" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -56069,6 +57068,9 @@
       <c r="BI334" t="n">
         <v>1</v>
       </c>
+      <c r="BJ334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -56236,6 +57238,9 @@
       <c r="BI335" t="n">
         <v>0</v>
       </c>
+      <c r="BJ335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -56403,6 +57408,9 @@
       <c r="BI336" t="n">
         <v>1</v>
       </c>
+      <c r="BJ336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -56570,6 +57578,9 @@
       <c r="BI337" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ337" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -56737,6 +57748,9 @@
       <c r="BI338" t="n">
         <v>1</v>
       </c>
+      <c r="BJ338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -56904,6 +57918,9 @@
       <c r="BI339" t="n">
         <v>1</v>
       </c>
+      <c r="BJ339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -57071,6 +58088,9 @@
       <c r="BI340" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ340" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -57238,6 +58258,9 @@
       <c r="BI341" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -57405,6 +58428,9 @@
       <c r="BI342" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -57572,6 +58598,9 @@
       <c r="BI343" t="n">
         <v>0</v>
       </c>
+      <c r="BJ343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -57739,6 +58768,9 @@
       <c r="BI344" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -57906,6 +58938,9 @@
       <c r="BI345" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ345" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -58073,6 +59108,9 @@
       <c r="BI346" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -58240,6 +59278,9 @@
       <c r="BI347" t="n">
         <v>0</v>
       </c>
+      <c r="BJ347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -58407,6 +59448,9 @@
       <c r="BI348" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -58574,6 +59618,9 @@
       <c r="BI349" t="n">
         <v>0</v>
       </c>
+      <c r="BJ349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -58741,6 +59788,9 @@
       <c r="BI350" t="n">
         <v>1</v>
       </c>
+      <c r="BJ350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -58908,6 +59958,9 @@
       <c r="BI351" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -59075,6 +60128,9 @@
       <c r="BI352" t="n">
         <v>0</v>
       </c>
+      <c r="BJ352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -59242,6 +60298,9 @@
       <c r="BI353" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BJ353" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -59409,6 +60468,9 @@
       <c r="BI354" t="n">
         <v>0.625</v>
       </c>
+      <c r="BJ354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -59576,6 +60638,9 @@
       <c r="BI355" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BJ355" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -59743,6 +60808,9 @@
       <c r="BI356" t="n">
         <v>0</v>
       </c>
+      <c r="BJ356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -59910,6 +60978,9 @@
       <c r="BI357" t="n">
         <v>0.8</v>
       </c>
+      <c r="BJ357" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -60077,6 +61148,9 @@
       <c r="BI358" t="n">
         <v>1</v>
       </c>
+      <c r="BJ358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -60244,6 +61318,9 @@
       <c r="BI359" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ359" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -60411,6 +61488,9 @@
       <c r="BI360" t="n">
         <v>0.4</v>
       </c>
+      <c r="BJ360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -60578,6 +61658,9 @@
       <c r="BI361" t="n">
         <v>1</v>
       </c>
+      <c r="BJ361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -60745,6 +61828,9 @@
       <c r="BI362" t="n">
         <v>1</v>
       </c>
+      <c r="BJ362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -60912,6 +61998,9 @@
       <c r="BI363" t="n">
         <v>0</v>
       </c>
+      <c r="BJ363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -61079,6 +62168,9 @@
       <c r="BI364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BJ364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -61246,6 +62338,9 @@
       <c r="BI365" t="n">
         <v>1</v>
       </c>
+      <c r="BJ365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -61413,6 +62508,9 @@
       <c r="BI366" t="n">
         <v>0.75</v>
       </c>
+      <c r="BJ366" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -61580,6 +62678,9 @@
       <c r="BI367" t="n">
         <v>0.2</v>
       </c>
+      <c r="BJ367" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -61747,6 +62848,9 @@
       <c r="BI368" t="n">
         <v>1</v>
       </c>
+      <c r="BJ368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -61914,6 +63018,9 @@
       <c r="BI369" t="n">
         <v>1</v>
       </c>
+      <c r="BJ369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -62081,6 +63188,9 @@
       <c r="BI370" t="n">
         <v>0</v>
       </c>
+      <c r="BJ370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -62248,6 +63358,9 @@
       <c r="BI371" t="n">
         <v>1</v>
       </c>
+      <c r="BJ371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -62415,6 +63528,9 @@
       <c r="BI372" t="n">
         <v>1</v>
       </c>
+      <c r="BJ372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -62582,6 +63698,9 @@
       <c r="BI373" t="n">
         <v>0</v>
       </c>
+      <c r="BJ373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -62749,6 +63868,9 @@
       <c r="BI374" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -62916,6 +64038,9 @@
       <c r="BI375" t="n">
         <v>1</v>
       </c>
+      <c r="BJ375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -63083,6 +64208,9 @@
       <c r="BI376" t="n">
         <v>0</v>
       </c>
+      <c r="BJ376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -63250,6 +64378,9 @@
       <c r="BI377" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -63417,6 +64548,9 @@
       <c r="BI378" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ378" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -63584,6 +64718,9 @@
       <c r="BI379" t="n">
         <v>1</v>
       </c>
+      <c r="BJ379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -63751,6 +64888,9 @@
       <c r="BI380" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -63918,6 +65058,9 @@
       <c r="BI381" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -64085,6 +65228,9 @@
       <c r="BI382" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -64252,6 +65398,9 @@
       <c r="BI383" t="n">
         <v>0</v>
       </c>
+      <c r="BJ383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -64419,6 +65568,9 @@
       <c r="BI384" t="n">
         <v>1</v>
       </c>
+      <c r="BJ384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -64586,6 +65738,9 @@
       <c r="BI385" t="n">
         <v>0</v>
       </c>
+      <c r="BJ385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -64753,6 +65908,9 @@
       <c r="BI386" t="n">
         <v>1</v>
       </c>
+      <c r="BJ386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -64920,6 +66078,9 @@
       <c r="BI387" t="n">
         <v>1</v>
       </c>
+      <c r="BJ387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -65087,6 +66248,9 @@
       <c r="BI388" t="n">
         <v>1</v>
       </c>
+      <c r="BJ388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -65254,6 +66418,9 @@
       <c r="BI389" t="n">
         <v>0.625</v>
       </c>
+      <c r="BJ389" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -65421,6 +66588,9 @@
       <c r="BI390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BJ390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -65588,6 +66758,9 @@
       <c r="BI391" t="n">
         <v>0</v>
       </c>
+      <c r="BJ391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -65755,6 +66928,9 @@
       <c r="BI392" t="n">
         <v>0.2727272727272727</v>
       </c>
+      <c r="BJ392" t="n">
+        <v>0.2727272727272727</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -65922,6 +67098,9 @@
       <c r="BI393" t="n">
         <v>1</v>
       </c>
+      <c r="BJ393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -66089,6 +67268,9 @@
       <c r="BI394" t="n">
         <v>1</v>
       </c>
+      <c r="BJ394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -66256,6 +67438,9 @@
       <c r="BI395" t="n">
         <v>1</v>
       </c>
+      <c r="BJ395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -66423,6 +67608,9 @@
       <c r="BI396" t="n">
         <v>1</v>
       </c>
+      <c r="BJ396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -66590,6 +67778,9 @@
       <c r="BI397" t="n">
         <v>1</v>
       </c>
+      <c r="BJ397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -66757,6 +67948,9 @@
       <c r="BI398" t="n">
         <v>1</v>
       </c>
+      <c r="BJ398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -66924,6 +68118,9 @@
       <c r="BI399" t="n">
         <v>0.25</v>
       </c>
+      <c r="BJ399" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -67091,6 +68288,9 @@
       <c r="BI400" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ400" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -67258,6 +68458,9 @@
       <c r="BI401" t="n">
         <v>0</v>
       </c>
+      <c r="BJ401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -67425,6 +68628,9 @@
       <c r="BI402" t="n">
         <v>0.5</v>
       </c>
+      <c r="BJ402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -67590,6 +68796,9 @@
         <v>1</v>
       </c>
       <c r="BI403" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -67669,6 +68878,7 @@
       <c r="BG404" t="inlineStr"/>
       <c r="BH404" t="inlineStr"/>
       <c r="BI404" t="inlineStr"/>
+      <c r="BJ404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -67856,6 +69066,9 @@
       <c r="BI405" t="n">
         <v>807</v>
       </c>
+      <c r="BJ405" t="n">
+        <v>807</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -68043,6 +69256,9 @@
       <c r="BI406" t="n">
         <v>2188</v>
       </c>
+      <c r="BJ406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -68230,6 +69446,9 @@
       <c r="BI407" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BJ407" t="n">
+        <v>0.3688</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -68417,6 +69636,9 @@
       <c r="BI408" t="n">
         <v>1921</v>
       </c>
+      <c r="BJ408" t="n">
+        <v>1921</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -68604,6 +69826,9 @@
       <c r="BI409" t="n">
         <v>2188</v>
       </c>
+      <c r="BJ409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -68791,6 +70016,9 @@
       <c r="BI410" t="n">
         <v>0.878</v>
       </c>
+      <c r="BJ410" t="n">
+        <v>0.878</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -68956,6 +70184,9 @@
       <c r="BI411" t="n">
         <v>620</v>
       </c>
+      <c r="BJ411" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -69143,6 +70374,9 @@
       <c r="BI412" t="n">
         <v>2188</v>
       </c>
+      <c r="BJ412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -69306,6 +70540,9 @@
       <c r="BI413" t="n">
         <v>0.2834</v>
       </c>
+      <c r="BJ413" t="n">
+        <v>0.1138</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -69493,6 +70730,9 @@
       <c r="BI414" t="n">
         <v>807</v>
       </c>
+      <c r="BJ414" t="n">
+        <v>807</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -69680,6 +70920,9 @@
       <c r="BI415" t="n">
         <v>2188</v>
       </c>
+      <c r="BJ415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -69867,6 +71110,9 @@
       <c r="BI416" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BJ416" t="n">
+        <v>0.3688</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -70054,6 +71300,9 @@
       <c r="BI417" t="n">
         <v>2137</v>
       </c>
+      <c r="BJ417" t="n">
+        <v>2137</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -70241,6 +71490,9 @@
       <c r="BI418" t="n">
         <v>2188</v>
       </c>
+      <c r="BJ418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -70428,6 +71680,9 @@
       <c r="BI419" t="n">
         <v>0.9767</v>
       </c>
+      <c r="BJ419" t="n">
+        <v>0.9767</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ419"/>
+  <dimension ref="A1:BK419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,11 @@
           <t>2025-09-01</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -909,6 +914,9 @@
       <c r="BJ2" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1079,6 +1087,9 @@
       <c r="BJ3" t="n">
         <v>1</v>
       </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1249,6 +1260,9 @@
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1419,6 +1433,9 @@
       <c r="BJ5" t="n">
         <v>1</v>
       </c>
+      <c r="BK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1589,6 +1606,9 @@
       <c r="BJ6" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1759,6 +1779,9 @@
       <c r="BJ7" t="n">
         <v>0.2222222222222222</v>
       </c>
+      <c r="BK7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1929,6 +1952,9 @@
       <c r="BJ8" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BK8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2099,6 +2125,9 @@
       <c r="BJ9" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BK9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2269,6 +2298,9 @@
       <c r="BJ10" t="n">
         <v>0.6</v>
       </c>
+      <c r="BK10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2437,6 +2469,9 @@
         <v>1</v>
       </c>
       <c r="BJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,6 +2586,9 @@
       <c r="BJ12" t="n">
         <v>1</v>
       </c>
+      <c r="BK12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2721,6 +2759,9 @@
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2891,6 +2932,9 @@
       <c r="BJ14" t="n">
         <v>0</v>
       </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3061,6 +3105,9 @@
       <c r="BJ15" t="n">
         <v>0.625</v>
       </c>
+      <c r="BK15" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3231,6 +3278,9 @@
       <c r="BJ16" t="n">
         <v>1</v>
       </c>
+      <c r="BK16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3401,6 +3451,9 @@
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3571,6 +3624,9 @@
       <c r="BJ18" t="n">
         <v>1</v>
       </c>
+      <c r="BK18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3741,6 +3797,9 @@
       <c r="BJ19" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3911,6 +3970,9 @@
       <c r="BJ20" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK20" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4081,6 +4143,9 @@
       <c r="BJ21" t="n">
         <v>1</v>
       </c>
+      <c r="BK21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4251,6 +4316,9 @@
       <c r="BJ22" t="n">
         <v>0</v>
       </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4421,6 +4489,9 @@
       <c r="BJ23" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4591,6 +4662,9 @@
       <c r="BJ24" t="n">
         <v>0.2</v>
       </c>
+      <c r="BK24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4761,6 +4835,9 @@
       <c r="BJ25" t="n">
         <v>0</v>
       </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4931,6 +5008,9 @@
       <c r="BJ26" t="n">
         <v>0</v>
       </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5101,6 +5181,9 @@
       <c r="BJ27" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5271,6 +5354,9 @@
       <c r="BJ28" t="n">
         <v>1</v>
       </c>
+      <c r="BK28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5441,6 +5527,9 @@
       <c r="BJ29" t="n">
         <v>1</v>
       </c>
+      <c r="BK29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5611,6 +5700,9 @@
       <c r="BJ30" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -5781,6 +5873,9 @@
       <c r="BJ31" t="n">
         <v>0</v>
       </c>
+      <c r="BK31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -5951,6 +6046,9 @@
       <c r="BJ32" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BK32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6121,6 +6219,9 @@
       <c r="BJ33" t="n">
         <v>0</v>
       </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6291,6 +6392,9 @@
       <c r="BJ34" t="n">
         <v>1</v>
       </c>
+      <c r="BK34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6461,6 +6565,9 @@
       <c r="BJ35" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK35" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6631,6 +6738,9 @@
       <c r="BJ36" t="n">
         <v>0</v>
       </c>
+      <c r="BK36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -6801,6 +6911,9 @@
       <c r="BJ37" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -6971,6 +7084,9 @@
       <c r="BJ38" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BK38" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7141,6 +7257,9 @@
       <c r="BJ39" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK39" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7309,6 +7428,9 @@
         <v>1</v>
       </c>
       <c r="BJ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7423,6 +7545,9 @@
       <c r="BJ41" t="n">
         <v>0</v>
       </c>
+      <c r="BK41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7593,6 +7718,9 @@
       <c r="BJ42" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK42" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -7763,6 +7891,9 @@
       <c r="BJ43" t="n">
         <v>1</v>
       </c>
+      <c r="BK43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -7933,6 +8064,9 @@
       <c r="BJ44" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -8103,6 +8237,9 @@
       <c r="BJ45" t="n">
         <v>0</v>
       </c>
+      <c r="BK45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -8273,6 +8410,9 @@
       <c r="BJ46" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BK46" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -8443,6 +8583,9 @@
       <c r="BJ47" t="n">
         <v>0</v>
       </c>
+      <c r="BK47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -8613,6 +8756,9 @@
       <c r="BJ48" t="n">
         <v>0</v>
       </c>
+      <c r="BK48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -8783,6 +8929,9 @@
       <c r="BJ49" t="n">
         <v>0</v>
       </c>
+      <c r="BK49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -8953,6 +9102,9 @@
       <c r="BJ50" t="n">
         <v>0</v>
       </c>
+      <c r="BK50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -9123,6 +9275,9 @@
       <c r="BJ51" t="n">
         <v>1</v>
       </c>
+      <c r="BK51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9293,6 +9448,9 @@
       <c r="BJ52" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -9463,6 +9621,9 @@
       <c r="BJ53" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK53" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -9633,6 +9794,9 @@
       <c r="BJ54" t="n">
         <v>0</v>
       </c>
+      <c r="BK54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -9803,6 +9967,9 @@
       <c r="BJ55" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK55" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -9973,6 +10140,9 @@
       <c r="BJ56" t="n">
         <v>0</v>
       </c>
+      <c r="BK56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -10143,6 +10313,9 @@
       <c r="BJ57" t="n">
         <v>0</v>
       </c>
+      <c r="BK57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -10313,6 +10486,9 @@
       <c r="BJ58" t="n">
         <v>0</v>
       </c>
+      <c r="BK58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -10483,6 +10659,9 @@
       <c r="BJ59" t="n">
         <v>0</v>
       </c>
+      <c r="BK59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -10653,6 +10832,9 @@
       <c r="BJ60" t="n">
         <v>1</v>
       </c>
+      <c r="BK60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -10823,6 +11005,9 @@
       <c r="BJ61" t="n">
         <v>0</v>
       </c>
+      <c r="BK61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -10993,6 +11178,9 @@
       <c r="BJ62" t="n">
         <v>0</v>
       </c>
+      <c r="BK62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -11163,6 +11351,9 @@
       <c r="BJ63" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BK63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -11333,6 +11524,9 @@
       <c r="BJ64" t="n">
         <v>1</v>
       </c>
+      <c r="BK64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -11503,6 +11697,9 @@
       <c r="BJ65" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -11673,6 +11870,9 @@
       <c r="BJ66" t="n">
         <v>0</v>
       </c>
+      <c r="BK66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -11843,6 +12043,9 @@
       <c r="BJ67" t="n">
         <v>0</v>
       </c>
+      <c r="BK67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -12013,6 +12216,9 @@
       <c r="BJ68" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK68" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -12183,6 +12389,9 @@
       <c r="BJ69" t="n">
         <v>0</v>
       </c>
+      <c r="BK69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -12353,6 +12562,9 @@
       <c r="BJ70" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BK70" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -12523,6 +12735,9 @@
       <c r="BJ71" t="n">
         <v>0</v>
       </c>
+      <c r="BK71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -12693,6 +12908,9 @@
       <c r="BJ72" t="n">
         <v>0</v>
       </c>
+      <c r="BK72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -12863,6 +13081,9 @@
       <c r="BJ73" t="n">
         <v>0</v>
       </c>
+      <c r="BK73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -13033,6 +13254,9 @@
       <c r="BJ74" t="n">
         <v>0</v>
       </c>
+      <c r="BK74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -13203,6 +13427,9 @@
       <c r="BJ75" t="n">
         <v>0</v>
       </c>
+      <c r="BK75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -13373,6 +13600,9 @@
       <c r="BJ76" t="n">
         <v>0</v>
       </c>
+      <c r="BK76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -13543,6 +13773,9 @@
       <c r="BJ77" t="n">
         <v>1</v>
       </c>
+      <c r="BK77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -13713,6 +13946,9 @@
       <c r="BJ78" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK78" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -13883,6 +14119,9 @@
       <c r="BJ79" t="n">
         <v>1</v>
       </c>
+      <c r="BK79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -14053,6 +14292,9 @@
       <c r="BJ80" t="n">
         <v>0</v>
       </c>
+      <c r="BK80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -14223,6 +14465,9 @@
       <c r="BJ81" t="n">
         <v>0</v>
       </c>
+      <c r="BK81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -14393,6 +14638,9 @@
       <c r="BJ82" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK82" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -14563,6 +14811,9 @@
       <c r="BJ83" t="n">
         <v>0</v>
       </c>
+      <c r="BK83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -14733,6 +14984,9 @@
       <c r="BJ84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BK84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -14903,6 +15157,9 @@
       <c r="BJ85" t="n">
         <v>0</v>
       </c>
+      <c r="BK85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -15073,6 +15330,9 @@
       <c r="BJ86" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -15243,6 +15503,9 @@
       <c r="BJ87" t="n">
         <v>0</v>
       </c>
+      <c r="BK87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -15413,6 +15676,9 @@
       <c r="BJ88" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -15583,6 +15849,9 @@
       <c r="BJ89" t="n">
         <v>0</v>
       </c>
+      <c r="BK89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -15753,6 +16022,9 @@
       <c r="BJ90" t="n">
         <v>0</v>
       </c>
+      <c r="BK90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -15923,6 +16195,9 @@
       <c r="BJ91" t="n">
         <v>0</v>
       </c>
+      <c r="BK91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -16093,6 +16368,9 @@
       <c r="BJ92" t="n">
         <v>0</v>
       </c>
+      <c r="BK92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -16263,6 +16541,9 @@
       <c r="BJ93" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK93" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -16433,6 +16714,9 @@
       <c r="BJ94" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK94" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -16603,6 +16887,9 @@
       <c r="BJ95" t="n">
         <v>1</v>
       </c>
+      <c r="BK95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -16773,6 +17060,9 @@
       <c r="BJ96" t="n">
         <v>0</v>
       </c>
+      <c r="BK96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -16943,6 +17233,9 @@
       <c r="BJ97" t="n">
         <v>0.375</v>
       </c>
+      <c r="BK97" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -17113,6 +17406,9 @@
       <c r="BJ98" t="n">
         <v>1</v>
       </c>
+      <c r="BK98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -17283,6 +17579,9 @@
       <c r="BJ99" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK99" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -17453,6 +17752,9 @@
       <c r="BJ100" t="n">
         <v>0.375</v>
       </c>
+      <c r="BK100" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -17623,6 +17925,9 @@
       <c r="BJ101" t="n">
         <v>1</v>
       </c>
+      <c r="BK101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -17793,6 +18098,9 @@
       <c r="BJ102" t="n">
         <v>0</v>
       </c>
+      <c r="BK102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -17963,6 +18271,9 @@
       <c r="BJ103" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK103" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -18133,6 +18444,9 @@
       <c r="BJ104" t="n">
         <v>1</v>
       </c>
+      <c r="BK104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -18303,6 +18617,9 @@
       <c r="BJ105" t="n">
         <v>0</v>
       </c>
+      <c r="BK105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -18473,6 +18790,9 @@
       <c r="BJ106" t="n">
         <v>0</v>
       </c>
+      <c r="BK106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -18643,6 +18963,9 @@
       <c r="BJ107" t="n">
         <v>0</v>
       </c>
+      <c r="BK107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -18813,6 +19136,9 @@
       <c r="BJ108" t="n">
         <v>0</v>
       </c>
+      <c r="BK108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -18983,6 +19309,9 @@
       <c r="BJ109" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK109" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -19153,6 +19482,9 @@
       <c r="BJ110" t="n">
         <v>0</v>
       </c>
+      <c r="BK110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -19323,6 +19655,9 @@
       <c r="BJ111" t="n">
         <v>1</v>
       </c>
+      <c r="BK111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -19493,6 +19828,9 @@
       <c r="BJ112" t="n">
         <v>1</v>
       </c>
+      <c r="BK112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -19663,6 +20001,9 @@
       <c r="BJ113" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK113" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -19833,6 +20174,9 @@
       <c r="BJ114" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -20003,6 +20347,9 @@
       <c r="BJ115" t="n">
         <v>0</v>
       </c>
+      <c r="BK115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -20173,6 +20520,9 @@
       <c r="BJ116" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK116" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -20343,6 +20693,9 @@
       <c r="BJ117" t="n">
         <v>1</v>
       </c>
+      <c r="BK117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -20513,6 +20866,9 @@
       <c r="BJ118" t="n">
         <v>0</v>
       </c>
+      <c r="BK118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -20683,6 +21039,9 @@
       <c r="BJ119" t="n">
         <v>0.625</v>
       </c>
+      <c r="BK119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -20853,6 +21212,9 @@
       <c r="BJ120" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK120" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -21023,6 +21385,9 @@
       <c r="BJ121" t="n">
         <v>0.375</v>
       </c>
+      <c r="BK121" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -21193,6 +21558,9 @@
       <c r="BJ122" t="n">
         <v>0</v>
       </c>
+      <c r="BK122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -21363,6 +21731,9 @@
       <c r="BJ123" t="n">
         <v>0</v>
       </c>
+      <c r="BK123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -21533,6 +21904,9 @@
       <c r="BJ124" t="n">
         <v>0</v>
       </c>
+      <c r="BK124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -21703,6 +22077,9 @@
       <c r="BJ125" t="n">
         <v>0</v>
       </c>
+      <c r="BK125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -21873,6 +22250,9 @@
       <c r="BJ126" t="n">
         <v>0</v>
       </c>
+      <c r="BK126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -22043,6 +22423,9 @@
       <c r="BJ127" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK127" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -22213,6 +22596,9 @@
       <c r="BJ128" t="n">
         <v>0</v>
       </c>
+      <c r="BK128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -22383,6 +22769,9 @@
       <c r="BJ129" t="n">
         <v>1</v>
       </c>
+      <c r="BK129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -22553,6 +22942,9 @@
       <c r="BJ130" t="n">
         <v>0.625</v>
       </c>
+      <c r="BK130" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -22723,6 +23115,9 @@
       <c r="BJ131" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -22893,6 +23288,9 @@
       <c r="BJ132" t="n">
         <v>0</v>
       </c>
+      <c r="BK132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -23063,6 +23461,9 @@
       <c r="BJ133" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -23233,6 +23634,9 @@
       <c r="BJ134" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK134" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -23403,6 +23807,9 @@
       <c r="BJ135" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK135" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -23573,6 +23980,9 @@
       <c r="BJ136" t="n">
         <v>0</v>
       </c>
+      <c r="BK136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -23743,6 +24153,9 @@
       <c r="BJ137" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -23913,6 +24326,9 @@
       <c r="BJ138" t="n">
         <v>0</v>
       </c>
+      <c r="BK138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -24083,6 +24499,9 @@
       <c r="BJ139" t="n">
         <v>0</v>
       </c>
+      <c r="BK139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -24253,6 +24672,9 @@
       <c r="BJ140" t="n">
         <v>0.125</v>
       </c>
+      <c r="BK140" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -24423,6 +24845,9 @@
       <c r="BJ141" t="n">
         <v>0.375</v>
       </c>
+      <c r="BK141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -24593,6 +25018,9 @@
       <c r="BJ142" t="n">
         <v>0</v>
       </c>
+      <c r="BK142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -24763,6 +25191,9 @@
       <c r="BJ143" t="n">
         <v>0</v>
       </c>
+      <c r="BK143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -24933,6 +25364,9 @@
       <c r="BJ144" t="n">
         <v>1</v>
       </c>
+      <c r="BK144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -25103,6 +25537,9 @@
       <c r="BJ145" t="n">
         <v>0</v>
       </c>
+      <c r="BK145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -25273,6 +25710,9 @@
       <c r="BJ146" t="n">
         <v>0</v>
       </c>
+      <c r="BK146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -25443,6 +25883,9 @@
       <c r="BJ147" t="n">
         <v>0</v>
       </c>
+      <c r="BK147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -25613,6 +26056,9 @@
       <c r="BJ148" t="n">
         <v>0</v>
       </c>
+      <c r="BK148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -25783,6 +26229,9 @@
       <c r="BJ149" t="n">
         <v>1</v>
       </c>
+      <c r="BK149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -25953,6 +26402,9 @@
       <c r="BJ150" t="n">
         <v>0.375</v>
       </c>
+      <c r="BK150" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -26123,6 +26575,9 @@
       <c r="BJ151" t="n">
         <v>0</v>
       </c>
+      <c r="BK151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -26293,6 +26748,9 @@
       <c r="BJ152" t="n">
         <v>0</v>
       </c>
+      <c r="BK152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -26463,6 +26921,9 @@
       <c r="BJ153" t="n">
         <v>1</v>
       </c>
+      <c r="BK153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -26633,6 +27094,9 @@
       <c r="BJ154" t="n">
         <v>0</v>
       </c>
+      <c r="BK154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -26803,6 +27267,9 @@
       <c r="BJ155" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK155" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -26973,6 +27440,9 @@
       <c r="BJ156" t="n">
         <v>0</v>
       </c>
+      <c r="BK156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -27143,6 +27613,9 @@
       <c r="BJ157" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -27313,6 +27786,9 @@
       <c r="BJ158" t="n">
         <v>1</v>
       </c>
+      <c r="BK158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -27483,6 +27959,9 @@
       <c r="BJ159" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK159" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -27653,6 +28132,9 @@
       <c r="BJ160" t="n">
         <v>1</v>
       </c>
+      <c r="BK160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -27823,6 +28305,9 @@
       <c r="BJ161" t="n">
         <v>0</v>
       </c>
+      <c r="BK161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -27993,6 +28478,9 @@
       <c r="BJ162" t="n">
         <v>0</v>
       </c>
+      <c r="BK162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -28163,6 +28651,9 @@
       <c r="BJ163" t="n">
         <v>1</v>
       </c>
+      <c r="BK163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -28333,6 +28824,9 @@
       <c r="BJ164" t="n">
         <v>1</v>
       </c>
+      <c r="BK164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -28503,6 +28997,9 @@
       <c r="BJ165" t="n">
         <v>0</v>
       </c>
+      <c r="BK165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -28673,6 +29170,9 @@
       <c r="BJ166" t="n">
         <v>1</v>
       </c>
+      <c r="BK166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -28843,6 +29343,9 @@
       <c r="BJ167" t="n">
         <v>0</v>
       </c>
+      <c r="BK167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -29013,6 +29516,9 @@
       <c r="BJ168" t="n">
         <v>1</v>
       </c>
+      <c r="BK168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -29183,6 +29689,9 @@
       <c r="BJ169" t="n">
         <v>1</v>
       </c>
+      <c r="BK169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -29353,6 +29862,9 @@
       <c r="BJ170" t="n">
         <v>1</v>
       </c>
+      <c r="BK170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -29523,6 +30035,9 @@
       <c r="BJ171" t="n">
         <v>1</v>
       </c>
+      <c r="BK171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -29693,6 +30208,9 @@
       <c r="BJ172" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK172" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -29863,6 +30381,9 @@
       <c r="BJ173" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK173" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -30033,6 +30554,9 @@
       <c r="BJ174" t="n">
         <v>1</v>
       </c>
+      <c r="BK174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -30203,6 +30727,9 @@
       <c r="BJ175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BK175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -30373,6 +30900,9 @@
       <c r="BJ176" t="n">
         <v>0</v>
       </c>
+      <c r="BK176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -30543,6 +31073,9 @@
       <c r="BJ177" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BK177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -30713,6 +31246,9 @@
       <c r="BJ178" t="n">
         <v>0</v>
       </c>
+      <c r="BK178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -30883,6 +31419,9 @@
       <c r="BJ179" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK179" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -31053,6 +31592,9 @@
       <c r="BJ180" t="n">
         <v>0.8</v>
       </c>
+      <c r="BK180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -31223,6 +31765,9 @@
       <c r="BJ181" t="n">
         <v>0</v>
       </c>
+      <c r="BK181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -31393,6 +31938,9 @@
       <c r="BJ182" t="n">
         <v>0</v>
       </c>
+      <c r="BK182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -31563,6 +32111,9 @@
       <c r="BJ183" t="n">
         <v>1</v>
       </c>
+      <c r="BK183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -31733,6 +32284,9 @@
       <c r="BJ184" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BK184" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -31903,6 +32457,9 @@
       <c r="BJ185" t="n">
         <v>0</v>
       </c>
+      <c r="BK185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -32073,6 +32630,9 @@
       <c r="BJ186" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK186" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -32243,6 +32803,9 @@
       <c r="BJ187" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BK187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -32413,6 +32976,9 @@
       <c r="BJ188" t="n">
         <v>0</v>
       </c>
+      <c r="BK188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -32583,6 +33149,9 @@
       <c r="BJ189" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK189" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -32753,6 +33322,9 @@
       <c r="BJ190" t="n">
         <v>0.6</v>
       </c>
+      <c r="BK190" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -32923,6 +33495,9 @@
       <c r="BJ191" t="n">
         <v>1</v>
       </c>
+      <c r="BK191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -33093,6 +33668,9 @@
       <c r="BJ192" t="n">
         <v>0</v>
       </c>
+      <c r="BK192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -33263,6 +33841,9 @@
       <c r="BJ193" t="n">
         <v>1</v>
       </c>
+      <c r="BK193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -33433,6 +34014,9 @@
       <c r="BJ194" t="n">
         <v>0</v>
       </c>
+      <c r="BK194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -33603,6 +34187,9 @@
       <c r="BJ195" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK195" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -33773,6 +34360,9 @@
       <c r="BJ196" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -33943,6 +34533,9 @@
       <c r="BJ197" t="n">
         <v>1</v>
       </c>
+      <c r="BK197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -34113,6 +34706,9 @@
       <c r="BJ198" t="n">
         <v>0</v>
       </c>
+      <c r="BK198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -34283,6 +34879,9 @@
       <c r="BJ199" t="n">
         <v>0</v>
       </c>
+      <c r="BK199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -34453,6 +35052,9 @@
       <c r="BJ200" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -34623,6 +35225,9 @@
       <c r="BJ201" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK201" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -34793,6 +35398,9 @@
       <c r="BJ202" t="n">
         <v>0.8</v>
       </c>
+      <c r="BK202" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -34963,6 +35571,9 @@
       <c r="BJ203" t="n">
         <v>0</v>
       </c>
+      <c r="BK203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -35133,6 +35744,9 @@
       <c r="BJ204" t="n">
         <v>0</v>
       </c>
+      <c r="BK204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -35301,6 +35915,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BJ205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BK205" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
@@ -35403,6 +36020,9 @@
       <c r="BJ206" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -35573,6 +36193,9 @@
       <c r="BJ207" t="n">
         <v>0.4</v>
       </c>
+      <c r="BK207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -35743,6 +36366,9 @@
       <c r="BJ208" t="n">
         <v>1</v>
       </c>
+      <c r="BK208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -35913,6 +36539,9 @@
       <c r="BJ209" t="n">
         <v>0</v>
       </c>
+      <c r="BK209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -36083,6 +36712,9 @@
       <c r="BJ210" t="n">
         <v>0</v>
       </c>
+      <c r="BK210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -36253,6 +36885,9 @@
       <c r="BJ211" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK211" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -36423,6 +37058,9 @@
       <c r="BJ212" t="n">
         <v>0.09090909090909091</v>
       </c>
+      <c r="BK212" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -36593,6 +37231,9 @@
       <c r="BJ213" t="n">
         <v>0</v>
       </c>
+      <c r="BK213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -36763,6 +37404,9 @@
       <c r="BJ214" t="n">
         <v>0</v>
       </c>
+      <c r="BK214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -36933,6 +37577,9 @@
       <c r="BJ215" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK215" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -37103,6 +37750,9 @@
       <c r="BJ216" t="n">
         <v>0</v>
       </c>
+      <c r="BK216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -37273,6 +37923,9 @@
       <c r="BJ217" t="n">
         <v>1</v>
       </c>
+      <c r="BK217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -37443,6 +38096,9 @@
       <c r="BJ218" t="n">
         <v>1</v>
       </c>
+      <c r="BK218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -37613,6 +38269,9 @@
       <c r="BJ219" t="n">
         <v>1</v>
       </c>
+      <c r="BK219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -37783,6 +38442,9 @@
       <c r="BJ220" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK220" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -37953,6 +38615,9 @@
       <c r="BJ221" t="n">
         <v>0</v>
       </c>
+      <c r="BK221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -38123,6 +38788,9 @@
       <c r="BJ222" t="n">
         <v>0</v>
       </c>
+      <c r="BK222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -38293,6 +38961,9 @@
       <c r="BJ223" t="n">
         <v>0.8</v>
       </c>
+      <c r="BK223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -38463,6 +39134,9 @@
       <c r="BJ224" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK224" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -38633,6 +39307,9 @@
       <c r="BJ225" t="n">
         <v>0</v>
       </c>
+      <c r="BK225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -38803,6 +39480,9 @@
       <c r="BJ226" t="n">
         <v>0</v>
       </c>
+      <c r="BK226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -38973,6 +39653,9 @@
       <c r="BJ227" t="n">
         <v>1</v>
       </c>
+      <c r="BK227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -39143,6 +39826,9 @@
       <c r="BJ228" t="n">
         <v>0</v>
       </c>
+      <c r="BK228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -39313,6 +39999,9 @@
       <c r="BJ229" t="n">
         <v>1</v>
       </c>
+      <c r="BK229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -39483,6 +40172,9 @@
       <c r="BJ230" t="n">
         <v>1</v>
       </c>
+      <c r="BK230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -39653,6 +40345,9 @@
       <c r="BJ231" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK231" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -39823,6 +40518,9 @@
       <c r="BJ232" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -39993,6 +40691,9 @@
       <c r="BJ233" t="n">
         <v>0</v>
       </c>
+      <c r="BK233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -40163,6 +40864,9 @@
       <c r="BJ234" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK234" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -40333,6 +41037,9 @@
       <c r="BJ235" t="n">
         <v>1</v>
       </c>
+      <c r="BK235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -40503,6 +41210,9 @@
       <c r="BJ236" t="n">
         <v>0</v>
       </c>
+      <c r="BK236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -40673,6 +41383,9 @@
       <c r="BJ237" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -40843,6 +41556,9 @@
       <c r="BJ238" t="n">
         <v>0</v>
       </c>
+      <c r="BK238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -41013,6 +41729,9 @@
       <c r="BJ239" t="n">
         <v>0</v>
       </c>
+      <c r="BK239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -41183,6 +41902,9 @@
       <c r="BJ240" t="n">
         <v>1</v>
       </c>
+      <c r="BK240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -41353,6 +42075,9 @@
       <c r="BJ241" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -41523,6 +42248,9 @@
       <c r="BJ242" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK242" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -41693,6 +42421,9 @@
       <c r="BJ243" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK243" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -41863,6 +42594,9 @@
       <c r="BJ244" t="n">
         <v>1</v>
       </c>
+      <c r="BK244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -42033,6 +42767,9 @@
       <c r="BJ245" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK245" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -42203,6 +42940,9 @@
       <c r="BJ246" t="n">
         <v>0</v>
       </c>
+      <c r="BK246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -42373,6 +43113,9 @@
       <c r="BJ247" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -42543,6 +43286,9 @@
       <c r="BJ248" t="n">
         <v>0.8</v>
       </c>
+      <c r="BK248" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -42713,6 +43459,9 @@
       <c r="BJ249" t="n">
         <v>0</v>
       </c>
+      <c r="BK249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -42883,6 +43632,9 @@
       <c r="BJ250" t="n">
         <v>0</v>
       </c>
+      <c r="BK250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -43053,6 +43805,9 @@
       <c r="BJ251" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK251" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -43223,6 +43978,9 @@
       <c r="BJ252" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK252" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -43393,6 +44151,9 @@
       <c r="BJ253" t="n">
         <v>0</v>
       </c>
+      <c r="BK253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -43563,6 +44324,9 @@
       <c r="BJ254" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -43733,6 +44497,9 @@
       <c r="BJ255" t="n">
         <v>1</v>
       </c>
+      <c r="BK255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -43903,6 +44670,9 @@
       <c r="BJ256" t="n">
         <v>0</v>
       </c>
+      <c r="BK256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -44073,6 +44843,9 @@
       <c r="BJ257" t="n">
         <v>1</v>
       </c>
+      <c r="BK257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -44243,6 +45016,9 @@
       <c r="BJ258" t="n">
         <v>0.2</v>
       </c>
+      <c r="BK258" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -44413,6 +45189,9 @@
       <c r="BJ259" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK259" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -44583,6 +45362,9 @@
       <c r="BJ260" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK260" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -44753,6 +45535,9 @@
       <c r="BJ261" t="n">
         <v>1</v>
       </c>
+      <c r="BK261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -44923,6 +45708,9 @@
       <c r="BJ262" t="n">
         <v>0</v>
       </c>
+      <c r="BK262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -45093,6 +45881,9 @@
       <c r="BJ263" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK263" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -45263,6 +46054,9 @@
       <c r="BJ264" t="n">
         <v>1</v>
       </c>
+      <c r="BK264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -45433,6 +46227,9 @@
       <c r="BJ265" t="n">
         <v>0.2</v>
       </c>
+      <c r="BK265" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -45603,6 +46400,9 @@
       <c r="BJ266" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -45773,6 +46573,9 @@
       <c r="BJ267" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK267" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -45943,6 +46746,9 @@
       <c r="BJ268" t="n">
         <v>0</v>
       </c>
+      <c r="BK268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -46113,6 +46919,9 @@
       <c r="BJ269" t="n">
         <v>0</v>
       </c>
+      <c r="BK269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -46281,6 +47090,9 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="BJ270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BK270" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -46361,6 +47173,7 @@
       <c r="BH271" t="inlineStr"/>
       <c r="BI271" t="inlineStr"/>
       <c r="BJ271" t="inlineStr"/>
+      <c r="BK271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -46531,6 +47344,9 @@
       <c r="BJ272" t="n">
         <v>1</v>
       </c>
+      <c r="BK272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -46701,6 +47517,9 @@
       <c r="BJ273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BK273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -46871,6 +47690,9 @@
       <c r="BJ274" t="n">
         <v>0</v>
       </c>
+      <c r="BK274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -47041,6 +47863,9 @@
       <c r="BJ275" t="n">
         <v>1</v>
       </c>
+      <c r="BK275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -47211,6 +48036,9 @@
       <c r="BJ276" t="n">
         <v>0</v>
       </c>
+      <c r="BK276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -47381,6 +48209,9 @@
       <c r="BJ277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BK277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -47551,6 +48382,9 @@
       <c r="BJ278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BK278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -47721,6 +48555,9 @@
       <c r="BJ279" t="n">
         <v>0</v>
       </c>
+      <c r="BK279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -47891,6 +48728,9 @@
       <c r="BJ280" t="n">
         <v>0</v>
       </c>
+      <c r="BK280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -48061,6 +48901,9 @@
       <c r="BJ281" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK281" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -48231,6 +49074,9 @@
       <c r="BJ282" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BK282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -48401,6 +49247,9 @@
       <c r="BJ283" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK283" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -48571,6 +49420,9 @@
       <c r="BJ284" t="n">
         <v>1</v>
       </c>
+      <c r="BK284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -48741,6 +49593,9 @@
       <c r="BJ285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="BK285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -48911,6 +49766,9 @@
       <c r="BJ286" t="n">
         <v>0.8</v>
       </c>
+      <c r="BK286" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -49081,6 +49939,9 @@
       <c r="BJ287" t="n">
         <v>0</v>
       </c>
+      <c r="BK287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -49251,6 +50112,9 @@
       <c r="BJ288" t="n">
         <v>1</v>
       </c>
+      <c r="BK288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -49421,6 +50285,9 @@
       <c r="BJ289" t="n">
         <v>0</v>
       </c>
+      <c r="BK289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -49591,6 +50458,9 @@
       <c r="BJ290" t="n">
         <v>0</v>
       </c>
+      <c r="BK290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -49761,6 +50631,9 @@
       <c r="BJ291" t="n">
         <v>1</v>
       </c>
+      <c r="BK291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -49931,6 +50804,9 @@
       <c r="BJ292" t="n">
         <v>0</v>
       </c>
+      <c r="BK292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -50101,6 +50977,9 @@
       <c r="BJ293" t="n">
         <v>0</v>
       </c>
+      <c r="BK293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -50271,6 +51150,9 @@
       <c r="BJ294" t="n">
         <v>0</v>
       </c>
+      <c r="BK294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -50441,6 +51323,9 @@
       <c r="BJ295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="BK295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -50611,6 +51496,9 @@
       <c r="BJ296" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK296" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -50781,6 +51669,9 @@
       <c r="BJ297" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BK297" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -50951,6 +51842,9 @@
       <c r="BJ298" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK298" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -51121,6 +52015,9 @@
       <c r="BJ299" t="n">
         <v>0</v>
       </c>
+      <c r="BK299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -51291,6 +52188,9 @@
       <c r="BJ300" t="n">
         <v>0</v>
       </c>
+      <c r="BK300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -51461,6 +52361,9 @@
       <c r="BJ301" t="n">
         <v>1</v>
       </c>
+      <c r="BK301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -51631,6 +52534,9 @@
       <c r="BJ302" t="n">
         <v>0</v>
       </c>
+      <c r="BK302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -51801,6 +52707,9 @@
       <c r="BJ303" t="n">
         <v>1</v>
       </c>
+      <c r="BK303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -51971,6 +52880,9 @@
       <c r="BJ304" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -52141,6 +53053,9 @@
       <c r="BJ305" t="n">
         <v>0</v>
       </c>
+      <c r="BK305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -52311,6 +53226,9 @@
       <c r="BJ306" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BK306" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -52481,6 +53399,9 @@
       <c r="BJ307" t="n">
         <v>0</v>
       </c>
+      <c r="BK307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -52651,6 +53572,9 @@
       <c r="BJ308" t="n">
         <v>0</v>
       </c>
+      <c r="BK308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -52821,6 +53745,9 @@
       <c r="BJ309" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -52991,6 +53918,9 @@
       <c r="BJ310" t="n">
         <v>0</v>
       </c>
+      <c r="BK310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -53161,6 +54091,9 @@
       <c r="BJ311" t="n">
         <v>0</v>
       </c>
+      <c r="BK311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -53331,6 +54264,9 @@
       <c r="BJ312" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -53501,6 +54437,9 @@
       <c r="BJ313" t="n">
         <v>1</v>
       </c>
+      <c r="BK313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -53671,6 +54610,9 @@
       <c r="BJ314" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -53841,6 +54783,9 @@
       <c r="BJ315" t="n">
         <v>0</v>
       </c>
+      <c r="BK315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -54011,6 +54956,9 @@
       <c r="BJ316" t="n">
         <v>0.6</v>
       </c>
+      <c r="BK316" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -54181,6 +55129,9 @@
       <c r="BJ317" t="n">
         <v>0</v>
       </c>
+      <c r="BK317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -54351,6 +55302,9 @@
       <c r="BJ318" t="n">
         <v>0</v>
       </c>
+      <c r="BK318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -54521,6 +55475,9 @@
       <c r="BJ319" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -54691,6 +55648,9 @@
       <c r="BJ320" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK320" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -54861,6 +55821,9 @@
       <c r="BJ321" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK321" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -55031,6 +55994,9 @@
       <c r="BJ322" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -55201,6 +56167,9 @@
       <c r="BJ323" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -55371,6 +56340,9 @@
       <c r="BJ324" t="n">
         <v>0</v>
       </c>
+      <c r="BK324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -55541,6 +56513,9 @@
       <c r="BJ325" t="n">
         <v>1</v>
       </c>
+      <c r="BK325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -55711,6 +56686,9 @@
       <c r="BJ326" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -55881,6 +56859,9 @@
       <c r="BJ327" t="n">
         <v>0</v>
       </c>
+      <c r="BK327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -56051,6 +57032,9 @@
       <c r="BJ328" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK328" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -56221,6 +57205,9 @@
       <c r="BJ329" t="n">
         <v>1</v>
       </c>
+      <c r="BK329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -56391,6 +57378,9 @@
       <c r="BJ330" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -56561,6 +57551,9 @@
       <c r="BJ331" t="n">
         <v>1</v>
       </c>
+      <c r="BK331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -56731,6 +57724,9 @@
       <c r="BJ332" t="n">
         <v>0</v>
       </c>
+      <c r="BK332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -56901,6 +57897,9 @@
       <c r="BJ333" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -57071,6 +58070,9 @@
       <c r="BJ334" t="n">
         <v>1</v>
       </c>
+      <c r="BK334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -57241,6 +58243,9 @@
       <c r="BJ335" t="n">
         <v>0</v>
       </c>
+      <c r="BK335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -57411,6 +58416,9 @@
       <c r="BJ336" t="n">
         <v>1</v>
       </c>
+      <c r="BK336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -57581,6 +58589,9 @@
       <c r="BJ337" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK337" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -57751,6 +58762,9 @@
       <c r="BJ338" t="n">
         <v>1</v>
       </c>
+      <c r="BK338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -57921,6 +58935,9 @@
       <c r="BJ339" t="n">
         <v>1</v>
       </c>
+      <c r="BK339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -58091,6 +59108,9 @@
       <c r="BJ340" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK340" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -58261,6 +59281,9 @@
       <c r="BJ341" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -58431,6 +59454,9 @@
       <c r="BJ342" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -58601,6 +59627,9 @@
       <c r="BJ343" t="n">
         <v>0</v>
       </c>
+      <c r="BK343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -58771,6 +59800,9 @@
       <c r="BJ344" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -58941,6 +59973,9 @@
       <c r="BJ345" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK345" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -59111,6 +60146,9 @@
       <c r="BJ346" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -59281,6 +60319,9 @@
       <c r="BJ347" t="n">
         <v>0</v>
       </c>
+      <c r="BK347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -59451,6 +60492,9 @@
       <c r="BJ348" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -59621,6 +60665,9 @@
       <c r="BJ349" t="n">
         <v>0</v>
       </c>
+      <c r="BK349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -59791,6 +60838,9 @@
       <c r="BJ350" t="n">
         <v>1</v>
       </c>
+      <c r="BK350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -59961,6 +61011,9 @@
       <c r="BJ351" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -60131,6 +61184,9 @@
       <c r="BJ352" t="n">
         <v>0</v>
       </c>
+      <c r="BK352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -60301,6 +61357,9 @@
       <c r="BJ353" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BK353" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -60471,6 +61530,9 @@
       <c r="BJ354" t="n">
         <v>0.625</v>
       </c>
+      <c r="BK354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -60641,6 +61703,9 @@
       <c r="BJ355" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BK355" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -60811,6 +61876,9 @@
       <c r="BJ356" t="n">
         <v>0</v>
       </c>
+      <c r="BK356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -60981,6 +62049,9 @@
       <c r="BJ357" t="n">
         <v>0.8</v>
       </c>
+      <c r="BK357" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -61151,6 +62222,9 @@
       <c r="BJ358" t="n">
         <v>1</v>
       </c>
+      <c r="BK358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -61321,6 +62395,9 @@
       <c r="BJ359" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK359" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -61491,6 +62568,9 @@
       <c r="BJ360" t="n">
         <v>0.4</v>
       </c>
+      <c r="BK360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -61661,6 +62741,9 @@
       <c r="BJ361" t="n">
         <v>1</v>
       </c>
+      <c r="BK361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -61831,6 +62914,9 @@
       <c r="BJ362" t="n">
         <v>1</v>
       </c>
+      <c r="BK362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -62001,6 +63087,9 @@
       <c r="BJ363" t="n">
         <v>0</v>
       </c>
+      <c r="BK363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -62171,6 +63260,9 @@
       <c r="BJ364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BK364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -62341,6 +63433,9 @@
       <c r="BJ365" t="n">
         <v>1</v>
       </c>
+      <c r="BK365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -62511,6 +63606,9 @@
       <c r="BJ366" t="n">
         <v>0.75</v>
       </c>
+      <c r="BK366" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -62681,6 +63779,9 @@
       <c r="BJ367" t="n">
         <v>0.2</v>
       </c>
+      <c r="BK367" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -62851,6 +63952,9 @@
       <c r="BJ368" t="n">
         <v>1</v>
       </c>
+      <c r="BK368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -63021,6 +64125,9 @@
       <c r="BJ369" t="n">
         <v>1</v>
       </c>
+      <c r="BK369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -63191,6 +64298,9 @@
       <c r="BJ370" t="n">
         <v>0</v>
       </c>
+      <c r="BK370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -63361,6 +64471,9 @@
       <c r="BJ371" t="n">
         <v>1</v>
       </c>
+      <c r="BK371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -63531,6 +64644,9 @@
       <c r="BJ372" t="n">
         <v>1</v>
       </c>
+      <c r="BK372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -63701,6 +64817,9 @@
       <c r="BJ373" t="n">
         <v>0</v>
       </c>
+      <c r="BK373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -63871,6 +64990,9 @@
       <c r="BJ374" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -64041,6 +65163,9 @@
       <c r="BJ375" t="n">
         <v>1</v>
       </c>
+      <c r="BK375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -64211,6 +65336,9 @@
       <c r="BJ376" t="n">
         <v>0</v>
       </c>
+      <c r="BK376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -64381,6 +65509,9 @@
       <c r="BJ377" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -64551,6 +65682,9 @@
       <c r="BJ378" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK378" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -64721,6 +65855,9 @@
       <c r="BJ379" t="n">
         <v>1</v>
       </c>
+      <c r="BK379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -64891,6 +66028,9 @@
       <c r="BJ380" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -65061,6 +66201,9 @@
       <c r="BJ381" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -65231,6 +66374,9 @@
       <c r="BJ382" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -65401,6 +66547,9 @@
       <c r="BJ383" t="n">
         <v>0</v>
       </c>
+      <c r="BK383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -65571,6 +66720,9 @@
       <c r="BJ384" t="n">
         <v>1</v>
       </c>
+      <c r="BK384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -65741,6 +66893,9 @@
       <c r="BJ385" t="n">
         <v>0</v>
       </c>
+      <c r="BK385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -65911,6 +67066,9 @@
       <c r="BJ386" t="n">
         <v>1</v>
       </c>
+      <c r="BK386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -66081,6 +67239,9 @@
       <c r="BJ387" t="n">
         <v>1</v>
       </c>
+      <c r="BK387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -66251,6 +67412,9 @@
       <c r="BJ388" t="n">
         <v>1</v>
       </c>
+      <c r="BK388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -66421,6 +67585,9 @@
       <c r="BJ389" t="n">
         <v>0.625</v>
       </c>
+      <c r="BK389" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -66591,6 +67758,9 @@
       <c r="BJ390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BK390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -66761,6 +67931,9 @@
       <c r="BJ391" t="n">
         <v>0</v>
       </c>
+      <c r="BK391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -66931,6 +68104,9 @@
       <c r="BJ392" t="n">
         <v>0.2727272727272727</v>
       </c>
+      <c r="BK392" t="n">
+        <v>0.2727272727272727</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -67101,6 +68277,9 @@
       <c r="BJ393" t="n">
         <v>1</v>
       </c>
+      <c r="BK393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -67271,6 +68450,9 @@
       <c r="BJ394" t="n">
         <v>1</v>
       </c>
+      <c r="BK394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -67441,6 +68623,9 @@
       <c r="BJ395" t="n">
         <v>1</v>
       </c>
+      <c r="BK395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -67611,6 +68796,9 @@
       <c r="BJ396" t="n">
         <v>1</v>
       </c>
+      <c r="BK396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -67781,6 +68969,9 @@
       <c r="BJ397" t="n">
         <v>1</v>
       </c>
+      <c r="BK397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -67951,6 +69142,9 @@
       <c r="BJ398" t="n">
         <v>1</v>
       </c>
+      <c r="BK398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -68121,6 +69315,9 @@
       <c r="BJ399" t="n">
         <v>0.25</v>
       </c>
+      <c r="BK399" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -68291,6 +69488,9 @@
       <c r="BJ400" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK400" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -68461,6 +69661,9 @@
       <c r="BJ401" t="n">
         <v>0</v>
       </c>
+      <c r="BK401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -68631,6 +69834,9 @@
       <c r="BJ402" t="n">
         <v>0.5</v>
       </c>
+      <c r="BK402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -68799,6 +70005,9 @@
         <v>1</v>
       </c>
       <c r="BJ403" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -68879,6 +70088,7 @@
       <c r="BH404" t="inlineStr"/>
       <c r="BI404" t="inlineStr"/>
       <c r="BJ404" t="inlineStr"/>
+      <c r="BK404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -69069,6 +70279,9 @@
       <c r="BJ405" t="n">
         <v>807</v>
       </c>
+      <c r="BK405" t="n">
+        <v>807</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -69259,6 +70472,9 @@
       <c r="BJ406" t="n">
         <v>2188</v>
       </c>
+      <c r="BK406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -69449,6 +70665,9 @@
       <c r="BJ407" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BK407" t="n">
+        <v>0.3688</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -69639,6 +70858,9 @@
       <c r="BJ408" t="n">
         <v>1921</v>
       </c>
+      <c r="BK408" t="n">
+        <v>1921</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -69829,6 +71051,9 @@
       <c r="BJ409" t="n">
         <v>2188</v>
       </c>
+      <c r="BK409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -70019,6 +71244,9 @@
       <c r="BJ410" t="n">
         <v>0.878</v>
       </c>
+      <c r="BK410" t="n">
+        <v>0.878</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -70187,6 +71415,9 @@
       <c r="BJ411" t="n">
         <v>249</v>
       </c>
+      <c r="BK411" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -70377,6 +71608,9 @@
       <c r="BJ412" t="n">
         <v>2188</v>
       </c>
+      <c r="BK412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -70543,6 +71777,9 @@
       <c r="BJ413" t="n">
         <v>0.1138</v>
       </c>
+      <c r="BK413" t="n">
+        <v>0.1138</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -70733,6 +71970,9 @@
       <c r="BJ414" t="n">
         <v>807</v>
       </c>
+      <c r="BK414" t="n">
+        <v>807</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -70923,6 +72163,9 @@
       <c r="BJ415" t="n">
         <v>2188</v>
       </c>
+      <c r="BK415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -71113,6 +72356,9 @@
       <c r="BJ416" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BK416" t="n">
+        <v>0.3688</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -71303,6 +72549,9 @@
       <c r="BJ417" t="n">
         <v>2137</v>
       </c>
+      <c r="BK417" t="n">
+        <v>2137</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -71493,6 +72742,9 @@
       <c r="BJ418" t="n">
         <v>2188</v>
       </c>
+      <c r="BK418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -71683,6 +72935,9 @@
       <c r="BJ419" t="n">
         <v>0.9767</v>
       </c>
+      <c r="BK419" t="n">
+        <v>0.9767</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK419"/>
+  <dimension ref="A1:BM419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,16 @@
           <t>2025-09-02</t>
         </is>
       </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -917,6 +927,12 @@
       <c r="BK2" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1090,6 +1106,12 @@
       <c r="BK3" t="n">
         <v>1</v>
       </c>
+      <c r="BL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1263,6 +1285,12 @@
       <c r="BK4" t="n">
         <v>0</v>
       </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1436,6 +1464,12 @@
       <c r="BK5" t="n">
         <v>1</v>
       </c>
+      <c r="BL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1609,6 +1643,12 @@
       <c r="BK6" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1782,6 +1822,12 @@
       <c r="BK7" t="n">
         <v>0.2222222222222222</v>
       </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1955,6 +2001,12 @@
       <c r="BK8" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2128,6 +2180,12 @@
       <c r="BK9" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2301,6 +2359,12 @@
       <c r="BK10" t="n">
         <v>0.6</v>
       </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2472,6 +2536,12 @@
         <v>1</v>
       </c>
       <c r="BK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,6 +2659,12 @@
       <c r="BK12" t="n">
         <v>1</v>
       </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2762,6 +2838,12 @@
       <c r="BK13" t="n">
         <v>0</v>
       </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2935,6 +3017,12 @@
       <c r="BK14" t="n">
         <v>0</v>
       </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3108,6 +3196,12 @@
       <c r="BK15" t="n">
         <v>0.625</v>
       </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3281,6 +3375,12 @@
       <c r="BK16" t="n">
         <v>1</v>
       </c>
+      <c r="BL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3454,6 +3554,12 @@
       <c r="BK17" t="n">
         <v>0</v>
       </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3627,6 +3733,12 @@
       <c r="BK18" t="n">
         <v>1</v>
       </c>
+      <c r="BL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3800,6 +3912,12 @@
       <c r="BK19" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3973,6 +4091,12 @@
       <c r="BK20" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4146,6 +4270,12 @@
       <c r="BK21" t="n">
         <v>1</v>
       </c>
+      <c r="BL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4319,6 +4449,12 @@
       <c r="BK22" t="n">
         <v>0</v>
       </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4492,6 +4628,12 @@
       <c r="BK23" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4665,6 +4807,12 @@
       <c r="BK24" t="n">
         <v>0.2</v>
       </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4838,6 +4986,12 @@
       <c r="BK25" t="n">
         <v>0</v>
       </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -5011,6 +5165,12 @@
       <c r="BK26" t="n">
         <v>0</v>
       </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5184,6 +5344,12 @@
       <c r="BK27" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5357,6 +5523,12 @@
       <c r="BK28" t="n">
         <v>1</v>
       </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5530,6 +5702,12 @@
       <c r="BK29" t="n">
         <v>1</v>
       </c>
+      <c r="BL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5703,6 +5881,12 @@
       <c r="BK30" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -5876,6 +6060,12 @@
       <c r="BK31" t="n">
         <v>0</v>
       </c>
+      <c r="BL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -6049,6 +6239,12 @@
       <c r="BK32" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6222,6 +6418,12 @@
       <c r="BK33" t="n">
         <v>0</v>
       </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6395,6 +6597,12 @@
       <c r="BK34" t="n">
         <v>1</v>
       </c>
+      <c r="BL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6568,6 +6776,12 @@
       <c r="BK35" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6741,6 +6955,12 @@
       <c r="BK36" t="n">
         <v>0</v>
       </c>
+      <c r="BL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -6914,6 +7134,12 @@
       <c r="BK37" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -7087,6 +7313,12 @@
       <c r="BK38" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7260,6 +7492,12 @@
       <c r="BK39" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7431,6 +7669,12 @@
         <v>1</v>
       </c>
       <c r="BK40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7548,6 +7792,12 @@
       <c r="BK41" t="n">
         <v>0</v>
       </c>
+      <c r="BL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7721,6 +7971,12 @@
       <c r="BK42" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -7894,6 +8150,12 @@
       <c r="BK43" t="n">
         <v>1</v>
       </c>
+      <c r="BL43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -8067,6 +8329,12 @@
       <c r="BK44" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -8240,6 +8508,12 @@
       <c r="BK45" t="n">
         <v>0</v>
       </c>
+      <c r="BL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -8413,6 +8687,12 @@
       <c r="BK46" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -8586,6 +8866,12 @@
       <c r="BK47" t="n">
         <v>0</v>
       </c>
+      <c r="BL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -8759,6 +9045,12 @@
       <c r="BK48" t="n">
         <v>0</v>
       </c>
+      <c r="BL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -8932,6 +9224,12 @@
       <c r="BK49" t="n">
         <v>0</v>
       </c>
+      <c r="BL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -9105,6 +9403,12 @@
       <c r="BK50" t="n">
         <v>0</v>
       </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -9278,6 +9582,12 @@
       <c r="BK51" t="n">
         <v>1</v>
       </c>
+      <c r="BL51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9451,6 +9761,12 @@
       <c r="BK52" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -9624,6 +9940,12 @@
       <c r="BK53" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -9797,6 +10119,12 @@
       <c r="BK54" t="n">
         <v>0</v>
       </c>
+      <c r="BL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -9970,6 +10298,12 @@
       <c r="BK55" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -10143,6 +10477,12 @@
       <c r="BK56" t="n">
         <v>0</v>
       </c>
+      <c r="BL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -10316,6 +10656,12 @@
       <c r="BK57" t="n">
         <v>0</v>
       </c>
+      <c r="BL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -10489,6 +10835,12 @@
       <c r="BK58" t="n">
         <v>0</v>
       </c>
+      <c r="BL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -10662,6 +11014,12 @@
       <c r="BK59" t="n">
         <v>0</v>
       </c>
+      <c r="BL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -10835,6 +11193,12 @@
       <c r="BK60" t="n">
         <v>1</v>
       </c>
+      <c r="BL60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -11008,6 +11372,12 @@
       <c r="BK61" t="n">
         <v>0</v>
       </c>
+      <c r="BL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -11181,6 +11551,12 @@
       <c r="BK62" t="n">
         <v>0</v>
       </c>
+      <c r="BL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -11354,6 +11730,12 @@
       <c r="BK63" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -11527,6 +11909,12 @@
       <c r="BK64" t="n">
         <v>1</v>
       </c>
+      <c r="BL64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -11700,6 +12088,12 @@
       <c r="BK65" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -11873,6 +12267,12 @@
       <c r="BK66" t="n">
         <v>0</v>
       </c>
+      <c r="BL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -12046,6 +12446,12 @@
       <c r="BK67" t="n">
         <v>0</v>
       </c>
+      <c r="BL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -12219,6 +12625,12 @@
       <c r="BK68" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -12392,6 +12804,12 @@
       <c r="BK69" t="n">
         <v>0</v>
       </c>
+      <c r="BL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -12565,6 +12983,12 @@
       <c r="BK70" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -12738,6 +13162,12 @@
       <c r="BK71" t="n">
         <v>0</v>
       </c>
+      <c r="BL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -12911,6 +13341,12 @@
       <c r="BK72" t="n">
         <v>0</v>
       </c>
+      <c r="BL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -13084,6 +13520,12 @@
       <c r="BK73" t="n">
         <v>0</v>
       </c>
+      <c r="BL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -13257,6 +13699,12 @@
       <c r="BK74" t="n">
         <v>0</v>
       </c>
+      <c r="BL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -13430,6 +13878,12 @@
       <c r="BK75" t="n">
         <v>0</v>
       </c>
+      <c r="BL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -13603,6 +14057,12 @@
       <c r="BK76" t="n">
         <v>0</v>
       </c>
+      <c r="BL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -13776,6 +14236,12 @@
       <c r="BK77" t="n">
         <v>1</v>
       </c>
+      <c r="BL77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -13949,6 +14415,12 @@
       <c r="BK78" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -14122,6 +14594,12 @@
       <c r="BK79" t="n">
         <v>1</v>
       </c>
+      <c r="BL79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -14295,6 +14773,12 @@
       <c r="BK80" t="n">
         <v>0</v>
       </c>
+      <c r="BL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -14468,6 +14952,12 @@
       <c r="BK81" t="n">
         <v>0</v>
       </c>
+      <c r="BL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -14641,6 +15131,12 @@
       <c r="BK82" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -14814,6 +15310,12 @@
       <c r="BK83" t="n">
         <v>0</v>
       </c>
+      <c r="BL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -14987,6 +15489,12 @@
       <c r="BK84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -15160,6 +15668,12 @@
       <c r="BK85" t="n">
         <v>0</v>
       </c>
+      <c r="BL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -15333,6 +15847,12 @@
       <c r="BK86" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -15506,6 +16026,12 @@
       <c r="BK87" t="n">
         <v>0</v>
       </c>
+      <c r="BL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -15679,6 +16205,12 @@
       <c r="BK88" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -15852,6 +16384,12 @@
       <c r="BK89" t="n">
         <v>0</v>
       </c>
+      <c r="BL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -16025,6 +16563,12 @@
       <c r="BK90" t="n">
         <v>0</v>
       </c>
+      <c r="BL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -16198,6 +16742,12 @@
       <c r="BK91" t="n">
         <v>0</v>
       </c>
+      <c r="BL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -16371,6 +16921,12 @@
       <c r="BK92" t="n">
         <v>0</v>
       </c>
+      <c r="BL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -16544,6 +17100,12 @@
       <c r="BK93" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -16717,6 +17279,12 @@
       <c r="BK94" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -16890,6 +17458,12 @@
       <c r="BK95" t="n">
         <v>1</v>
       </c>
+      <c r="BL95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -17063,6 +17637,12 @@
       <c r="BK96" t="n">
         <v>0</v>
       </c>
+      <c r="BL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -17236,6 +17816,12 @@
       <c r="BK97" t="n">
         <v>0.375</v>
       </c>
+      <c r="BL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -17409,6 +17995,12 @@
       <c r="BK98" t="n">
         <v>1</v>
       </c>
+      <c r="BL98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -17582,6 +18174,12 @@
       <c r="BK99" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -17755,6 +18353,12 @@
       <c r="BK100" t="n">
         <v>0.375</v>
       </c>
+      <c r="BL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -17928,6 +18532,12 @@
       <c r="BK101" t="n">
         <v>1</v>
       </c>
+      <c r="BL101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -18101,6 +18711,12 @@
       <c r="BK102" t="n">
         <v>0</v>
       </c>
+      <c r="BL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -18274,6 +18890,12 @@
       <c r="BK103" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -18447,6 +19069,12 @@
       <c r="BK104" t="n">
         <v>1</v>
       </c>
+      <c r="BL104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -18620,6 +19248,12 @@
       <c r="BK105" t="n">
         <v>0</v>
       </c>
+      <c r="BL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -18793,6 +19427,12 @@
       <c r="BK106" t="n">
         <v>0</v>
       </c>
+      <c r="BL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -18966,6 +19606,12 @@
       <c r="BK107" t="n">
         <v>0</v>
       </c>
+      <c r="BL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -19139,6 +19785,12 @@
       <c r="BK108" t="n">
         <v>0</v>
       </c>
+      <c r="BL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -19312,6 +19964,12 @@
       <c r="BK109" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -19485,6 +20143,12 @@
       <c r="BK110" t="n">
         <v>0</v>
       </c>
+      <c r="BL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -19658,6 +20322,12 @@
       <c r="BK111" t="n">
         <v>1</v>
       </c>
+      <c r="BL111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -19831,6 +20501,12 @@
       <c r="BK112" t="n">
         <v>1</v>
       </c>
+      <c r="BL112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -20004,6 +20680,12 @@
       <c r="BK113" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -20177,6 +20859,12 @@
       <c r="BK114" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -20350,6 +21038,12 @@
       <c r="BK115" t="n">
         <v>0</v>
       </c>
+      <c r="BL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -20523,6 +21217,12 @@
       <c r="BK116" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -20696,6 +21396,12 @@
       <c r="BK117" t="n">
         <v>1</v>
       </c>
+      <c r="BL117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -20869,6 +21575,12 @@
       <c r="BK118" t="n">
         <v>0</v>
       </c>
+      <c r="BL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -21042,6 +21754,12 @@
       <c r="BK119" t="n">
         <v>0.625</v>
       </c>
+      <c r="BL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -21215,6 +21933,12 @@
       <c r="BK120" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -21388,6 +22112,12 @@
       <c r="BK121" t="n">
         <v>0.375</v>
       </c>
+      <c r="BL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -21561,6 +22291,12 @@
       <c r="BK122" t="n">
         <v>0</v>
       </c>
+      <c r="BL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -21734,6 +22470,12 @@
       <c r="BK123" t="n">
         <v>0</v>
       </c>
+      <c r="BL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -21907,6 +22649,12 @@
       <c r="BK124" t="n">
         <v>0</v>
       </c>
+      <c r="BL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -22080,6 +22828,12 @@
       <c r="BK125" t="n">
         <v>0</v>
       </c>
+      <c r="BL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -22253,6 +23007,12 @@
       <c r="BK126" t="n">
         <v>0</v>
       </c>
+      <c r="BL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -22426,6 +23186,12 @@
       <c r="BK127" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -22599,6 +23365,12 @@
       <c r="BK128" t="n">
         <v>0</v>
       </c>
+      <c r="BL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -22772,6 +23544,12 @@
       <c r="BK129" t="n">
         <v>1</v>
       </c>
+      <c r="BL129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -22945,6 +23723,12 @@
       <c r="BK130" t="n">
         <v>0.625</v>
       </c>
+      <c r="BL130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -23118,6 +23902,12 @@
       <c r="BK131" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -23291,6 +24081,12 @@
       <c r="BK132" t="n">
         <v>0</v>
       </c>
+      <c r="BL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -23464,6 +24260,12 @@
       <c r="BK133" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -23637,6 +24439,12 @@
       <c r="BK134" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -23810,6 +24618,12 @@
       <c r="BK135" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -23983,6 +24797,12 @@
       <c r="BK136" t="n">
         <v>0</v>
       </c>
+      <c r="BL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -24156,6 +24976,12 @@
       <c r="BK137" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -24329,6 +25155,12 @@
       <c r="BK138" t="n">
         <v>0</v>
       </c>
+      <c r="BL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -24502,6 +25334,12 @@
       <c r="BK139" t="n">
         <v>0</v>
       </c>
+      <c r="BL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -24675,6 +25513,12 @@
       <c r="BK140" t="n">
         <v>0.125</v>
       </c>
+      <c r="BL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -24848,6 +25692,12 @@
       <c r="BK141" t="n">
         <v>0.375</v>
       </c>
+      <c r="BL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -25021,6 +25871,12 @@
       <c r="BK142" t="n">
         <v>0</v>
       </c>
+      <c r="BL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -25194,6 +26050,12 @@
       <c r="BK143" t="n">
         <v>0</v>
       </c>
+      <c r="BL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -25367,6 +26229,12 @@
       <c r="BK144" t="n">
         <v>1</v>
       </c>
+      <c r="BL144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -25540,6 +26408,12 @@
       <c r="BK145" t="n">
         <v>0</v>
       </c>
+      <c r="BL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -25713,6 +26587,12 @@
       <c r="BK146" t="n">
         <v>0</v>
       </c>
+      <c r="BL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -25886,6 +26766,12 @@
       <c r="BK147" t="n">
         <v>0</v>
       </c>
+      <c r="BL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -26059,6 +26945,12 @@
       <c r="BK148" t="n">
         <v>0</v>
       </c>
+      <c r="BL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -26232,6 +27124,12 @@
       <c r="BK149" t="n">
         <v>1</v>
       </c>
+      <c r="BL149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -26405,6 +27303,12 @@
       <c r="BK150" t="n">
         <v>0.375</v>
       </c>
+      <c r="BL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -26578,6 +27482,12 @@
       <c r="BK151" t="n">
         <v>0</v>
       </c>
+      <c r="BL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -26751,6 +27661,12 @@
       <c r="BK152" t="n">
         <v>0</v>
       </c>
+      <c r="BL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -26924,6 +27840,12 @@
       <c r="BK153" t="n">
         <v>1</v>
       </c>
+      <c r="BL153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -27097,6 +28019,12 @@
       <c r="BK154" t="n">
         <v>0</v>
       </c>
+      <c r="BL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -27270,6 +28198,12 @@
       <c r="BK155" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -27443,6 +28377,12 @@
       <c r="BK156" t="n">
         <v>0</v>
       </c>
+      <c r="BL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -27616,6 +28556,12 @@
       <c r="BK157" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -27789,6 +28735,12 @@
       <c r="BK158" t="n">
         <v>1</v>
       </c>
+      <c r="BL158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -27962,6 +28914,12 @@
       <c r="BK159" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -28135,6 +29093,12 @@
       <c r="BK160" t="n">
         <v>1</v>
       </c>
+      <c r="BL160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -28308,6 +29272,12 @@
       <c r="BK161" t="n">
         <v>0</v>
       </c>
+      <c r="BL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -28481,6 +29451,12 @@
       <c r="BK162" t="n">
         <v>0</v>
       </c>
+      <c r="BL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -28654,6 +29630,12 @@
       <c r="BK163" t="n">
         <v>1</v>
       </c>
+      <c r="BL163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -28827,6 +29809,12 @@
       <c r="BK164" t="n">
         <v>1</v>
       </c>
+      <c r="BL164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -29000,6 +29988,12 @@
       <c r="BK165" t="n">
         <v>0</v>
       </c>
+      <c r="BL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -29173,6 +30167,12 @@
       <c r="BK166" t="n">
         <v>1</v>
       </c>
+      <c r="BL166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -29346,6 +30346,12 @@
       <c r="BK167" t="n">
         <v>0</v>
       </c>
+      <c r="BL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -29519,6 +30525,12 @@
       <c r="BK168" t="n">
         <v>1</v>
       </c>
+      <c r="BL168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -29692,6 +30704,12 @@
       <c r="BK169" t="n">
         <v>1</v>
       </c>
+      <c r="BL169" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -29865,6 +30883,12 @@
       <c r="BK170" t="n">
         <v>1</v>
       </c>
+      <c r="BL170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -30038,6 +31062,12 @@
       <c r="BK171" t="n">
         <v>1</v>
       </c>
+      <c r="BL171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -30211,6 +31241,12 @@
       <c r="BK172" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -30384,6 +31420,12 @@
       <c r="BK173" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -30557,6 +31599,12 @@
       <c r="BK174" t="n">
         <v>1</v>
       </c>
+      <c r="BL174" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -30730,6 +31778,12 @@
       <c r="BK175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -30903,6 +31957,12 @@
       <c r="BK176" t="n">
         <v>0</v>
       </c>
+      <c r="BL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -31076,6 +32136,12 @@
       <c r="BK177" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -31249,6 +32315,12 @@
       <c r="BK178" t="n">
         <v>0</v>
       </c>
+      <c r="BL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -31422,6 +32494,12 @@
       <c r="BK179" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -31595,6 +32673,12 @@
       <c r="BK180" t="n">
         <v>0.8</v>
       </c>
+      <c r="BL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -31768,6 +32852,12 @@
       <c r="BK181" t="n">
         <v>0</v>
       </c>
+      <c r="BL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -31941,6 +33031,12 @@
       <c r="BK182" t="n">
         <v>0</v>
       </c>
+      <c r="BL182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -32114,6 +33210,12 @@
       <c r="BK183" t="n">
         <v>1</v>
       </c>
+      <c r="BL183" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -32287,6 +33389,12 @@
       <c r="BK184" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -32460,6 +33568,12 @@
       <c r="BK185" t="n">
         <v>0</v>
       </c>
+      <c r="BL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -32633,6 +33747,12 @@
       <c r="BK186" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -32806,6 +33926,12 @@
       <c r="BK187" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BL187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -32979,6 +34105,12 @@
       <c r="BK188" t="n">
         <v>0</v>
       </c>
+      <c r="BL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -33152,6 +34284,12 @@
       <c r="BK189" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -33325,6 +34463,12 @@
       <c r="BK190" t="n">
         <v>0.6</v>
       </c>
+      <c r="BL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -33498,6 +34642,12 @@
       <c r="BK191" t="n">
         <v>1</v>
       </c>
+      <c r="BL191" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -33671,6 +34821,12 @@
       <c r="BK192" t="n">
         <v>0</v>
       </c>
+      <c r="BL192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -33844,6 +35000,12 @@
       <c r="BK193" t="n">
         <v>1</v>
       </c>
+      <c r="BL193" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -34017,6 +35179,12 @@
       <c r="BK194" t="n">
         <v>0</v>
       </c>
+      <c r="BL194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -34190,6 +35358,12 @@
       <c r="BK195" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -34363,6 +35537,12 @@
       <c r="BK196" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -34536,6 +35716,12 @@
       <c r="BK197" t="n">
         <v>1</v>
       </c>
+      <c r="BL197" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -34709,6 +35895,12 @@
       <c r="BK198" t="n">
         <v>0</v>
       </c>
+      <c r="BL198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -34882,6 +36074,12 @@
       <c r="BK199" t="n">
         <v>0</v>
       </c>
+      <c r="BL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -35055,6 +36253,12 @@
       <c r="BK200" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -35228,6 +36432,12 @@
       <c r="BK201" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -35401,6 +36611,12 @@
       <c r="BK202" t="n">
         <v>0.8</v>
       </c>
+      <c r="BL202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -35574,6 +36790,12 @@
       <c r="BK203" t="n">
         <v>0</v>
       </c>
+      <c r="BL203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -35747,6 +36969,12 @@
       <c r="BK204" t="n">
         <v>0</v>
       </c>
+      <c r="BL204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -35918,6 +37146,12 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BK205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM205" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
@@ -36023,6 +37257,12 @@
       <c r="BK206" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -36196,6 +37436,12 @@
       <c r="BK207" t="n">
         <v>0.4</v>
       </c>
+      <c r="BL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -36369,6 +37615,12 @@
       <c r="BK208" t="n">
         <v>1</v>
       </c>
+      <c r="BL208" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -36542,6 +37794,12 @@
       <c r="BK209" t="n">
         <v>0</v>
       </c>
+      <c r="BL209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -36715,6 +37973,12 @@
       <c r="BK210" t="n">
         <v>0</v>
       </c>
+      <c r="BL210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -36888,6 +38152,12 @@
       <c r="BK211" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -37061,6 +38331,12 @@
       <c r="BK212" t="n">
         <v>0.09090909090909091</v>
       </c>
+      <c r="BL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -37234,6 +38510,12 @@
       <c r="BK213" t="n">
         <v>0</v>
       </c>
+      <c r="BL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -37407,6 +38689,12 @@
       <c r="BK214" t="n">
         <v>0</v>
       </c>
+      <c r="BL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -37580,6 +38868,12 @@
       <c r="BK215" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -37753,6 +39047,12 @@
       <c r="BK216" t="n">
         <v>0</v>
       </c>
+      <c r="BL216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -37926,6 +39226,12 @@
       <c r="BK217" t="n">
         <v>1</v>
       </c>
+      <c r="BL217" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -38099,6 +39405,12 @@
       <c r="BK218" t="n">
         <v>1</v>
       </c>
+      <c r="BL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -38272,6 +39584,12 @@
       <c r="BK219" t="n">
         <v>1</v>
       </c>
+      <c r="BL219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -38445,6 +39763,12 @@
       <c r="BK220" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -38618,6 +39942,12 @@
       <c r="BK221" t="n">
         <v>0</v>
       </c>
+      <c r="BL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -38791,6 +40121,12 @@
       <c r="BK222" t="n">
         <v>0</v>
       </c>
+      <c r="BL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -38964,6 +40300,12 @@
       <c r="BK223" t="n">
         <v>0.8</v>
       </c>
+      <c r="BL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -39137,6 +40479,12 @@
       <c r="BK224" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -39310,6 +40658,12 @@
       <c r="BK225" t="n">
         <v>0</v>
       </c>
+      <c r="BL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -39483,6 +40837,12 @@
       <c r="BK226" t="n">
         <v>0</v>
       </c>
+      <c r="BL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -39656,6 +41016,12 @@
       <c r="BK227" t="n">
         <v>1</v>
       </c>
+      <c r="BL227" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -39829,6 +41195,12 @@
       <c r="BK228" t="n">
         <v>0</v>
       </c>
+      <c r="BL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -40002,6 +41374,12 @@
       <c r="BK229" t="n">
         <v>1</v>
       </c>
+      <c r="BL229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -40175,6 +41553,12 @@
       <c r="BK230" t="n">
         <v>1</v>
       </c>
+      <c r="BL230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -40348,6 +41732,12 @@
       <c r="BK231" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -40521,6 +41911,12 @@
       <c r="BK232" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -40694,6 +42090,12 @@
       <c r="BK233" t="n">
         <v>0</v>
       </c>
+      <c r="BL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -40867,6 +42269,12 @@
       <c r="BK234" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -41040,6 +42448,12 @@
       <c r="BK235" t="n">
         <v>1</v>
       </c>
+      <c r="BL235" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -41213,6 +42627,12 @@
       <c r="BK236" t="n">
         <v>0</v>
       </c>
+      <c r="BL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -41386,6 +42806,12 @@
       <c r="BK237" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -41559,6 +42985,12 @@
       <c r="BK238" t="n">
         <v>0</v>
       </c>
+      <c r="BL238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -41732,6 +43164,12 @@
       <c r="BK239" t="n">
         <v>0</v>
       </c>
+      <c r="BL239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -41905,6 +43343,12 @@
       <c r="BK240" t="n">
         <v>1</v>
       </c>
+      <c r="BL240" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -42078,6 +43522,12 @@
       <c r="BK241" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -42251,6 +43701,12 @@
       <c r="BK242" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -42424,6 +43880,12 @@
       <c r="BK243" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -42597,6 +44059,12 @@
       <c r="BK244" t="n">
         <v>1</v>
       </c>
+      <c r="BL244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -42770,6 +44238,12 @@
       <c r="BK245" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -42943,6 +44417,12 @@
       <c r="BK246" t="n">
         <v>0</v>
       </c>
+      <c r="BL246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -43116,6 +44596,12 @@
       <c r="BK247" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -43289,6 +44775,12 @@
       <c r="BK248" t="n">
         <v>0.8</v>
       </c>
+      <c r="BL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -43462,6 +44954,12 @@
       <c r="BK249" t="n">
         <v>0</v>
       </c>
+      <c r="BL249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -43635,6 +45133,12 @@
       <c r="BK250" t="n">
         <v>0</v>
       </c>
+      <c r="BL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -43808,6 +45312,12 @@
       <c r="BK251" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -43981,6 +45491,12 @@
       <c r="BK252" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -44154,6 +45670,12 @@
       <c r="BK253" t="n">
         <v>0</v>
       </c>
+      <c r="BL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -44327,6 +45849,12 @@
       <c r="BK254" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -44500,6 +46028,12 @@
       <c r="BK255" t="n">
         <v>1</v>
       </c>
+      <c r="BL255" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -44673,6 +46207,12 @@
       <c r="BK256" t="n">
         <v>0</v>
       </c>
+      <c r="BL256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -44846,6 +46386,12 @@
       <c r="BK257" t="n">
         <v>1</v>
       </c>
+      <c r="BL257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -45019,6 +46565,12 @@
       <c r="BK258" t="n">
         <v>0.2</v>
       </c>
+      <c r="BL258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM258" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -45192,6 +46744,12 @@
       <c r="BK259" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM259" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -45365,6 +46923,12 @@
       <c r="BK260" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM260" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -45538,6 +47102,12 @@
       <c r="BK261" t="n">
         <v>1</v>
       </c>
+      <c r="BL261" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -45711,6 +47281,12 @@
       <c r="BK262" t="n">
         <v>0</v>
       </c>
+      <c r="BL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -45884,6 +47460,12 @@
       <c r="BK263" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -46057,6 +47639,12 @@
       <c r="BK264" t="n">
         <v>1</v>
       </c>
+      <c r="BL264" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -46230,6 +47818,12 @@
       <c r="BK265" t="n">
         <v>0.2</v>
       </c>
+      <c r="BL265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -46403,6 +47997,12 @@
       <c r="BK266" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -46576,6 +48176,12 @@
       <c r="BK267" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM267" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -46749,6 +48355,12 @@
       <c r="BK268" t="n">
         <v>0</v>
       </c>
+      <c r="BL268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -46922,6 +48534,12 @@
       <c r="BK269" t="n">
         <v>0</v>
       </c>
+      <c r="BL269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -47093,6 +48711,12 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="BK270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BL270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM270" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -47174,6 +48798,8 @@
       <c r="BI271" t="inlineStr"/>
       <c r="BJ271" t="inlineStr"/>
       <c r="BK271" t="inlineStr"/>
+      <c r="BL271" t="inlineStr"/>
+      <c r="BM271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -47347,6 +48973,12 @@
       <c r="BK272" t="n">
         <v>1</v>
       </c>
+      <c r="BL272" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -47520,6 +49152,12 @@
       <c r="BK273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BL273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -47693,6 +49331,12 @@
       <c r="BK274" t="n">
         <v>0</v>
       </c>
+      <c r="BL274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -47866,6 +49510,12 @@
       <c r="BK275" t="n">
         <v>1</v>
       </c>
+      <c r="BL275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -48039,6 +49689,12 @@
       <c r="BK276" t="n">
         <v>0</v>
       </c>
+      <c r="BL276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -48212,6 +49868,12 @@
       <c r="BK277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BL277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -48385,6 +50047,12 @@
       <c r="BK278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BL278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -48558,6 +50226,12 @@
       <c r="BK279" t="n">
         <v>0</v>
       </c>
+      <c r="BL279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -48731,6 +50405,12 @@
       <c r="BK280" t="n">
         <v>0</v>
       </c>
+      <c r="BL280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -48904,6 +50584,12 @@
       <c r="BK281" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM281" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -49077,6 +50763,12 @@
       <c r="BK282" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BL282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -49250,6 +50942,12 @@
       <c r="BK283" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM283" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -49423,6 +51121,12 @@
       <c r="BK284" t="n">
         <v>1</v>
       </c>
+      <c r="BL284" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -49596,6 +51300,12 @@
       <c r="BK285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="BL285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -49769,6 +51479,12 @@
       <c r="BK286" t="n">
         <v>0.8</v>
       </c>
+      <c r="BL286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM286" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -49942,6 +51658,12 @@
       <c r="BK287" t="n">
         <v>0</v>
       </c>
+      <c r="BL287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -50115,6 +51837,12 @@
       <c r="BK288" t="n">
         <v>1</v>
       </c>
+      <c r="BL288" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -50288,6 +52016,12 @@
       <c r="BK289" t="n">
         <v>0</v>
       </c>
+      <c r="BL289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -50461,6 +52195,12 @@
       <c r="BK290" t="n">
         <v>0</v>
       </c>
+      <c r="BL290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -50634,6 +52374,12 @@
       <c r="BK291" t="n">
         <v>1</v>
       </c>
+      <c r="BL291" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -50807,6 +52553,12 @@
       <c r="BK292" t="n">
         <v>0</v>
       </c>
+      <c r="BL292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -50980,6 +52732,12 @@
       <c r="BK293" t="n">
         <v>0</v>
       </c>
+      <c r="BL293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM293" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -51153,6 +52911,12 @@
       <c r="BK294" t="n">
         <v>0</v>
       </c>
+      <c r="BL294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -51326,6 +53090,12 @@
       <c r="BK295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="BL295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -51499,6 +53269,12 @@
       <c r="BK296" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM296" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -51672,6 +53448,12 @@
       <c r="BK297" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BL297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -51845,6 +53627,12 @@
       <c r="BK298" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL298" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM298" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -52018,6 +53806,12 @@
       <c r="BK299" t="n">
         <v>0</v>
       </c>
+      <c r="BL299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM299" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -52191,6 +53985,12 @@
       <c r="BK300" t="n">
         <v>0</v>
       </c>
+      <c r="BL300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -52364,6 +54164,12 @@
       <c r="BK301" t="n">
         <v>1</v>
       </c>
+      <c r="BL301" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -52537,6 +54343,12 @@
       <c r="BK302" t="n">
         <v>0</v>
       </c>
+      <c r="BL302" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -52710,6 +54522,12 @@
       <c r="BK303" t="n">
         <v>1</v>
       </c>
+      <c r="BL303" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -52883,6 +54701,12 @@
       <c r="BK304" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL304" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -53056,6 +54880,12 @@
       <c r="BK305" t="n">
         <v>0</v>
       </c>
+      <c r="BL305" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -53229,6 +55059,12 @@
       <c r="BK306" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BL306" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM306" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -53402,6 +55238,12 @@
       <c r="BK307" t="n">
         <v>0</v>
       </c>
+      <c r="BL307" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -53575,6 +55417,12 @@
       <c r="BK308" t="n">
         <v>0</v>
       </c>
+      <c r="BL308" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -53748,6 +55596,12 @@
       <c r="BK309" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL309" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -53921,6 +55775,12 @@
       <c r="BK310" t="n">
         <v>0</v>
       </c>
+      <c r="BL310" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -54094,6 +55954,12 @@
       <c r="BK311" t="n">
         <v>0</v>
       </c>
+      <c r="BL311" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -54267,6 +56133,12 @@
       <c r="BK312" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL312" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -54440,6 +56312,12 @@
       <c r="BK313" t="n">
         <v>1</v>
       </c>
+      <c r="BL313" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -54613,6 +56491,12 @@
       <c r="BK314" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL314" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -54786,6 +56670,12 @@
       <c r="BK315" t="n">
         <v>0</v>
       </c>
+      <c r="BL315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -54959,6 +56849,12 @@
       <c r="BK316" t="n">
         <v>0.6</v>
       </c>
+      <c r="BL316" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM316" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -55132,6 +57028,12 @@
       <c r="BK317" t="n">
         <v>0</v>
       </c>
+      <c r="BL317" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -55305,6 +57207,12 @@
       <c r="BK318" t="n">
         <v>0</v>
       </c>
+      <c r="BL318" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -55478,6 +57386,12 @@
       <c r="BK319" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL319" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -55651,6 +57565,12 @@
       <c r="BK320" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL320" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -55824,6 +57744,12 @@
       <c r="BK321" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL321" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM321" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -55997,6 +57923,12 @@
       <c r="BK322" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -56170,6 +58102,12 @@
       <c r="BK323" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -56343,6 +58281,12 @@
       <c r="BK324" t="n">
         <v>0</v>
       </c>
+      <c r="BL324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -56516,6 +58460,12 @@
       <c r="BK325" t="n">
         <v>1</v>
       </c>
+      <c r="BL325" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -56689,6 +58639,12 @@
       <c r="BK326" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -56862,6 +58818,12 @@
       <c r="BK327" t="n">
         <v>0</v>
       </c>
+      <c r="BL327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -57035,6 +58997,12 @@
       <c r="BK328" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL328" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -57208,6 +59176,12 @@
       <c r="BK329" t="n">
         <v>1</v>
       </c>
+      <c r="BL329" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -57381,6 +59355,12 @@
       <c r="BK330" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL330" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -57554,6 +59534,12 @@
       <c r="BK331" t="n">
         <v>1</v>
       </c>
+      <c r="BL331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -57727,6 +59713,12 @@
       <c r="BK332" t="n">
         <v>0</v>
       </c>
+      <c r="BL332" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -57900,6 +59892,12 @@
       <c r="BK333" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL333" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -58073,6 +60071,12 @@
       <c r="BK334" t="n">
         <v>1</v>
       </c>
+      <c r="BL334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -58246,6 +60250,12 @@
       <c r="BK335" t="n">
         <v>0</v>
       </c>
+      <c r="BL335" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -58419,6 +60429,12 @@
       <c r="BK336" t="n">
         <v>1</v>
       </c>
+      <c r="BL336" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -58592,6 +60608,12 @@
       <c r="BK337" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL337" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -58765,6 +60787,12 @@
       <c r="BK338" t="n">
         <v>1</v>
       </c>
+      <c r="BL338" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -58938,6 +60966,12 @@
       <c r="BK339" t="n">
         <v>1</v>
       </c>
+      <c r="BL339" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -59111,6 +61145,12 @@
       <c r="BK340" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL340" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM340" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -59284,6 +61324,12 @@
       <c r="BK341" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL341" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -59457,6 +61503,12 @@
       <c r="BK342" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL342" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -59630,6 +61682,12 @@
       <c r="BK343" t="n">
         <v>0</v>
       </c>
+      <c r="BL343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -59803,6 +61861,12 @@
       <c r="BK344" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL344" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -59976,6 +62040,12 @@
       <c r="BK345" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL345" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM345" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -60149,6 +62219,12 @@
       <c r="BK346" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL346" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -60322,6 +62398,12 @@
       <c r="BK347" t="n">
         <v>0</v>
       </c>
+      <c r="BL347" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -60495,6 +62577,12 @@
       <c r="BK348" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL348" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -60668,6 +62756,12 @@
       <c r="BK349" t="n">
         <v>0</v>
       </c>
+      <c r="BL349" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -60841,6 +62935,12 @@
       <c r="BK350" t="n">
         <v>1</v>
       </c>
+      <c r="BL350" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -61014,6 +63114,12 @@
       <c r="BK351" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL351" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -61187,6 +63293,12 @@
       <c r="BK352" t="n">
         <v>0</v>
       </c>
+      <c r="BL352" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -61360,6 +63472,12 @@
       <c r="BK353" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BL353" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM353" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -61533,6 +63651,12 @@
       <c r="BK354" t="n">
         <v>0.625</v>
       </c>
+      <c r="BL354" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -61706,6 +63830,12 @@
       <c r="BK355" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BL355" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM355" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -61879,6 +64009,12 @@
       <c r="BK356" t="n">
         <v>0</v>
       </c>
+      <c r="BL356" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -62052,6 +64188,12 @@
       <c r="BK357" t="n">
         <v>0.8</v>
       </c>
+      <c r="BL357" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM357" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -62225,6 +64367,12 @@
       <c r="BK358" t="n">
         <v>1</v>
       </c>
+      <c r="BL358" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -62398,6 +64546,12 @@
       <c r="BK359" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL359" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM359" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -62571,6 +64725,12 @@
       <c r="BK360" t="n">
         <v>0.4</v>
       </c>
+      <c r="BL360" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -62744,6 +64904,12 @@
       <c r="BK361" t="n">
         <v>1</v>
       </c>
+      <c r="BL361" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -62917,6 +65083,12 @@
       <c r="BK362" t="n">
         <v>1</v>
       </c>
+      <c r="BL362" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -63090,6 +65262,12 @@
       <c r="BK363" t="n">
         <v>0</v>
       </c>
+      <c r="BL363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -63263,6 +65441,12 @@
       <c r="BK364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BL364" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -63436,6 +65620,12 @@
       <c r="BK365" t="n">
         <v>1</v>
       </c>
+      <c r="BL365" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -63609,6 +65799,12 @@
       <c r="BK366" t="n">
         <v>0.75</v>
       </c>
+      <c r="BL366" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM366" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -63782,6 +65978,12 @@
       <c r="BK367" t="n">
         <v>0.2</v>
       </c>
+      <c r="BL367" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM367" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -63955,6 +66157,12 @@
       <c r="BK368" t="n">
         <v>1</v>
       </c>
+      <c r="BL368" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -64128,6 +66336,12 @@
       <c r="BK369" t="n">
         <v>1</v>
       </c>
+      <c r="BL369" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -64301,6 +66515,12 @@
       <c r="BK370" t="n">
         <v>0</v>
       </c>
+      <c r="BL370" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -64474,6 +66694,12 @@
       <c r="BK371" t="n">
         <v>1</v>
       </c>
+      <c r="BL371" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -64647,6 +66873,12 @@
       <c r="BK372" t="n">
         <v>1</v>
       </c>
+      <c r="BL372" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -64820,6 +67052,12 @@
       <c r="BK373" t="n">
         <v>0</v>
       </c>
+      <c r="BL373" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -64993,6 +67231,12 @@
       <c r="BK374" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL374" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -65166,6 +67410,12 @@
       <c r="BK375" t="n">
         <v>1</v>
       </c>
+      <c r="BL375" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -65339,6 +67589,12 @@
       <c r="BK376" t="n">
         <v>0</v>
       </c>
+      <c r="BL376" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -65512,6 +67768,12 @@
       <c r="BK377" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL377" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -65685,6 +67947,12 @@
       <c r="BK378" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL378" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM378" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -65858,6 +68126,12 @@
       <c r="BK379" t="n">
         <v>1</v>
       </c>
+      <c r="BL379" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -66031,6 +68305,12 @@
       <c r="BK380" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL380" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -66204,6 +68484,12 @@
       <c r="BK381" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL381" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -66377,6 +68663,12 @@
       <c r="BK382" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL382" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -66550,6 +68842,12 @@
       <c r="BK383" t="n">
         <v>0</v>
       </c>
+      <c r="BL383" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM383" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -66723,6 +69021,12 @@
       <c r="BK384" t="n">
         <v>1</v>
       </c>
+      <c r="BL384" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -66896,6 +69200,12 @@
       <c r="BK385" t="n">
         <v>0</v>
       </c>
+      <c r="BL385" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -67069,6 +69379,12 @@
       <c r="BK386" t="n">
         <v>1</v>
       </c>
+      <c r="BL386" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -67242,6 +69558,12 @@
       <c r="BK387" t="n">
         <v>1</v>
       </c>
+      <c r="BL387" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -67415,6 +69737,12 @@
       <c r="BK388" t="n">
         <v>1</v>
       </c>
+      <c r="BL388" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -67588,6 +69916,12 @@
       <c r="BK389" t="n">
         <v>0.625</v>
       </c>
+      <c r="BL389" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM389" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -67761,6 +70095,12 @@
       <c r="BK390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BL390" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -67934,6 +70274,12 @@
       <c r="BK391" t="n">
         <v>0</v>
       </c>
+      <c r="BL391" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -68107,6 +70453,12 @@
       <c r="BK392" t="n">
         <v>0.2727272727272727</v>
       </c>
+      <c r="BL392" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM392" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -68280,6 +70632,12 @@
       <c r="BK393" t="n">
         <v>1</v>
       </c>
+      <c r="BL393" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -68453,6 +70811,12 @@
       <c r="BK394" t="n">
         <v>1</v>
       </c>
+      <c r="BL394" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -68626,6 +70990,12 @@
       <c r="BK395" t="n">
         <v>1</v>
       </c>
+      <c r="BL395" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -68799,6 +71169,12 @@
       <c r="BK396" t="n">
         <v>1</v>
       </c>
+      <c r="BL396" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -68972,6 +71348,12 @@
       <c r="BK397" t="n">
         <v>1</v>
       </c>
+      <c r="BL397" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -69145,6 +71527,12 @@
       <c r="BK398" t="n">
         <v>1</v>
       </c>
+      <c r="BL398" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -69318,6 +71706,12 @@
       <c r="BK399" t="n">
         <v>0.25</v>
       </c>
+      <c r="BL399" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -69491,6 +71885,12 @@
       <c r="BK400" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL400" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM400" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -69664,6 +72064,12 @@
       <c r="BK401" t="n">
         <v>0</v>
       </c>
+      <c r="BL401" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -69837,6 +72243,12 @@
       <c r="BK402" t="n">
         <v>0.5</v>
       </c>
+      <c r="BL402" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -70008,6 +72420,12 @@
         <v>1</v>
       </c>
       <c r="BK403" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL403" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -70089,6 +72507,8 @@
       <c r="BI404" t="inlineStr"/>
       <c r="BJ404" t="inlineStr"/>
       <c r="BK404" t="inlineStr"/>
+      <c r="BL404" t="inlineStr"/>
+      <c r="BM404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -70282,6 +72702,12 @@
       <c r="BK405" t="n">
         <v>807</v>
       </c>
+      <c r="BL405" t="n">
+        <v>357</v>
+      </c>
+      <c r="BM405" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -70475,6 +72901,12 @@
       <c r="BK406" t="n">
         <v>2188</v>
       </c>
+      <c r="BL406" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BM406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -70668,6 +73100,12 @@
       <c r="BK407" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BL407" t="n">
+        <v>0.1632</v>
+      </c>
+      <c r="BM407" t="n">
+        <v>0.3757</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -70861,6 +73299,12 @@
       <c r="BK408" t="n">
         <v>1921</v>
       </c>
+      <c r="BL408" t="n">
+        <v>1929</v>
+      </c>
+      <c r="BM408" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -71054,6 +73498,12 @@
       <c r="BK409" t="n">
         <v>2188</v>
       </c>
+      <c r="BL409" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BM409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -71247,6 +73697,12 @@
       <c r="BK410" t="n">
         <v>0.878</v>
       </c>
+      <c r="BL410" t="n">
+        <v>0.8816000000000001</v>
+      </c>
+      <c r="BM410" t="n">
+        <v>0.904</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -71418,6 +73874,12 @@
       <c r="BK411" t="n">
         <v>249</v>
       </c>
+      <c r="BL411" t="n">
+        <v>610</v>
+      </c>
+      <c r="BM411" t="n">
+        <v>1217</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -71611,6 +74073,12 @@
       <c r="BK412" t="n">
         <v>2188</v>
       </c>
+      <c r="BL412" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BM412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -71780,6 +74248,12 @@
       <c r="BK413" t="n">
         <v>0.1138</v>
       </c>
+      <c r="BL413" t="n">
+        <v>0.2788</v>
+      </c>
+      <c r="BM413" t="n">
+        <v>0.5562</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -71973,6 +74447,12 @@
       <c r="BK414" t="n">
         <v>807</v>
       </c>
+      <c r="BL414" t="n">
+        <v>357</v>
+      </c>
+      <c r="BM414" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -72166,6 +74646,12 @@
       <c r="BK415" t="n">
         <v>2188</v>
       </c>
+      <c r="BL415" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BM415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -72359,6 +74845,12 @@
       <c r="BK416" t="n">
         <v>0.3688</v>
       </c>
+      <c r="BL416" t="n">
+        <v>0.1632</v>
+      </c>
+      <c r="BM416" t="n">
+        <v>0.3757</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -72552,6 +75044,12 @@
       <c r="BK417" t="n">
         <v>2137</v>
       </c>
+      <c r="BL417" t="n">
+        <v>2137</v>
+      </c>
+      <c r="BM417" t="n">
+        <v>2140</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -72745,6 +75243,12 @@
       <c r="BK418" t="n">
         <v>2188</v>
       </c>
+      <c r="BL418" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BM418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -72938,6 +75442,12 @@
       <c r="BK419" t="n">
         <v>0.9767</v>
       </c>
+      <c r="BL419" t="n">
+        <v>0.976691042047532</v>
+      </c>
+      <c r="BM419" t="n">
+        <v>0.9781</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM419"/>
+  <dimension ref="A1:BN419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +754,11 @@
           <t>2025-09-08</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-08_v2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -933,6 +938,9 @@
       <c r="BM2" t="n">
         <v>0.4</v>
       </c>
+      <c r="BN2" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1112,6 +1120,9 @@
       <c r="BM3" t="n">
         <v>1</v>
       </c>
+      <c r="BN3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1291,6 +1302,9 @@
       <c r="BM4" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BN4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1470,6 +1484,9 @@
       <c r="BM5" t="n">
         <v>1</v>
       </c>
+      <c r="BN5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1649,6 +1666,9 @@
       <c r="BM6" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1828,6 +1848,9 @@
       <c r="BM7" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="BN7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2007,6 +2030,9 @@
       <c r="BM8" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BN8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2186,6 +2212,9 @@
       <c r="BM9" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BN9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2365,6 +2394,9 @@
       <c r="BM10" t="n">
         <v>0.6</v>
       </c>
+      <c r="BN10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2542,6 +2574,9 @@
         <v>1</v>
       </c>
       <c r="BM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2665,6 +2700,9 @@
       <c r="BM12" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2844,6 +2882,9 @@
       <c r="BM13" t="n">
         <v>0</v>
       </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3023,6 +3064,9 @@
       <c r="BM14" t="n">
         <v>0</v>
       </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3202,6 +3246,9 @@
       <c r="BM15" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN15" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3381,6 +3428,9 @@
       <c r="BM16" t="n">
         <v>1</v>
       </c>
+      <c r="BN16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3560,6 +3610,9 @@
       <c r="BM17" t="n">
         <v>0</v>
       </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3739,6 +3792,9 @@
       <c r="BM18" t="n">
         <v>1</v>
       </c>
+      <c r="BN18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3918,6 +3974,9 @@
       <c r="BM19" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4097,6 +4156,9 @@
       <c r="BM20" t="n">
         <v>0</v>
       </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4276,6 +4338,9 @@
       <c r="BM21" t="n">
         <v>1</v>
       </c>
+      <c r="BN21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4455,6 +4520,9 @@
       <c r="BM22" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4634,6 +4702,9 @@
       <c r="BM23" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4813,6 +4884,9 @@
       <c r="BM24" t="n">
         <v>0.2</v>
       </c>
+      <c r="BN24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4992,6 +5066,9 @@
       <c r="BM25" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -5171,6 +5248,9 @@
       <c r="BM26" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5350,6 +5430,9 @@
       <c r="BM27" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5529,6 +5612,9 @@
       <c r="BM28" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="BN28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5708,6 +5794,9 @@
       <c r="BM29" t="n">
         <v>1</v>
       </c>
+      <c r="BN29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5887,6 +5976,9 @@
       <c r="BM30" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -6066,6 +6158,9 @@
       <c r="BM31" t="n">
         <v>0</v>
       </c>
+      <c r="BN31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -6245,6 +6340,9 @@
       <c r="BM32" t="n">
         <v>0</v>
       </c>
+      <c r="BN32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6424,6 +6522,9 @@
       <c r="BM33" t="n">
         <v>0</v>
       </c>
+      <c r="BN33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6603,6 +6704,9 @@
       <c r="BM34" t="n">
         <v>1</v>
       </c>
+      <c r="BN34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6782,6 +6886,9 @@
       <c r="BM35" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6961,6 +7068,9 @@
       <c r="BM36" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -7140,6 +7250,9 @@
       <c r="BM37" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -7319,6 +7432,9 @@
       <c r="BM38" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7498,6 +7614,9 @@
       <c r="BM39" t="n">
         <v>1</v>
       </c>
+      <c r="BN39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7675,6 +7794,9 @@
         <v>1</v>
       </c>
       <c r="BM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,6 +7920,9 @@
       <c r="BM41" t="n">
         <v>0</v>
       </c>
+      <c r="BN41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7977,6 +8102,9 @@
       <c r="BM42" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -8156,6 +8284,9 @@
       <c r="BM43" t="n">
         <v>1</v>
       </c>
+      <c r="BN43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -8335,6 +8466,9 @@
       <c r="BM44" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -8514,6 +8648,9 @@
       <c r="BM45" t="n">
         <v>0</v>
       </c>
+      <c r="BN45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -8693,6 +8830,9 @@
       <c r="BM46" t="n">
         <v>1</v>
       </c>
+      <c r="BN46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -8872,6 +9012,9 @@
       <c r="BM47" t="n">
         <v>0</v>
       </c>
+      <c r="BN47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -9051,6 +9194,9 @@
       <c r="BM48" t="n">
         <v>0</v>
       </c>
+      <c r="BN48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -9230,6 +9376,9 @@
       <c r="BM49" t="n">
         <v>0</v>
       </c>
+      <c r="BN49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -9409,6 +9558,9 @@
       <c r="BM50" t="n">
         <v>0</v>
       </c>
+      <c r="BN50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -9588,6 +9740,9 @@
       <c r="BM51" t="n">
         <v>1</v>
       </c>
+      <c r="BN51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9767,6 +9922,9 @@
       <c r="BM52" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -9946,6 +10104,9 @@
       <c r="BM53" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -10125,6 +10286,9 @@
       <c r="BM54" t="n">
         <v>0</v>
       </c>
+      <c r="BN54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -10304,6 +10468,9 @@
       <c r="BM55" t="n">
         <v>0</v>
       </c>
+      <c r="BN55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -10483,6 +10650,9 @@
       <c r="BM56" t="n">
         <v>0</v>
       </c>
+      <c r="BN56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -10662,6 +10832,9 @@
       <c r="BM57" t="n">
         <v>0</v>
       </c>
+      <c r="BN57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -10841,6 +11014,9 @@
       <c r="BM58" t="n">
         <v>0</v>
       </c>
+      <c r="BN58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -11020,6 +11196,9 @@
       <c r="BM59" t="n">
         <v>0</v>
       </c>
+      <c r="BN59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -11199,6 +11378,9 @@
       <c r="BM60" t="n">
         <v>1</v>
       </c>
+      <c r="BN60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -11378,6 +11560,9 @@
       <c r="BM61" t="n">
         <v>0</v>
       </c>
+      <c r="BN61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -11557,6 +11742,9 @@
       <c r="BM62" t="n">
         <v>0</v>
       </c>
+      <c r="BN62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -11736,6 +11924,9 @@
       <c r="BM63" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BN63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -11915,6 +12106,9 @@
       <c r="BM64" t="n">
         <v>1</v>
       </c>
+      <c r="BN64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -12094,6 +12288,9 @@
       <c r="BM65" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -12273,6 +12470,9 @@
       <c r="BM66" t="n">
         <v>0</v>
       </c>
+      <c r="BN66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -12452,6 +12652,9 @@
       <c r="BM67" t="n">
         <v>0</v>
       </c>
+      <c r="BN67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -12631,6 +12834,9 @@
       <c r="BM68" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN68" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -12810,6 +13016,9 @@
       <c r="BM69" t="n">
         <v>0</v>
       </c>
+      <c r="BN69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -12989,6 +13198,9 @@
       <c r="BM70" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BN70" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -13168,6 +13380,9 @@
       <c r="BM71" t="n">
         <v>0</v>
       </c>
+      <c r="BN71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -13347,6 +13562,9 @@
       <c r="BM72" t="n">
         <v>0</v>
       </c>
+      <c r="BN72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -13526,6 +13744,9 @@
       <c r="BM73" t="n">
         <v>0</v>
       </c>
+      <c r="BN73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -13705,6 +13926,9 @@
       <c r="BM74" t="n">
         <v>0</v>
       </c>
+      <c r="BN74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -13884,6 +14108,9 @@
       <c r="BM75" t="n">
         <v>0</v>
       </c>
+      <c r="BN75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -14063,6 +14290,9 @@
       <c r="BM76" t="n">
         <v>0</v>
       </c>
+      <c r="BN76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -14242,6 +14472,9 @@
       <c r="BM77" t="n">
         <v>1</v>
       </c>
+      <c r="BN77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -14421,6 +14654,9 @@
       <c r="BM78" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN78" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -14600,6 +14836,9 @@
       <c r="BM79" t="n">
         <v>1</v>
       </c>
+      <c r="BN79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -14779,6 +15018,9 @@
       <c r="BM80" t="n">
         <v>0</v>
       </c>
+      <c r="BN80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -14958,6 +15200,9 @@
       <c r="BM81" t="n">
         <v>0</v>
       </c>
+      <c r="BN81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -15137,6 +15382,9 @@
       <c r="BM82" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN82" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -15316,6 +15564,9 @@
       <c r="BM83" t="n">
         <v>0</v>
       </c>
+      <c r="BN83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -15495,6 +15746,9 @@
       <c r="BM84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BN84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -15674,6 +15928,9 @@
       <c r="BM85" t="n">
         <v>0</v>
       </c>
+      <c r="BN85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -15853,6 +16110,9 @@
       <c r="BM86" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -16032,6 +16292,9 @@
       <c r="BM87" t="n">
         <v>0</v>
       </c>
+      <c r="BN87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -16211,6 +16474,9 @@
       <c r="BM88" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -16390,6 +16656,9 @@
       <c r="BM89" t="n">
         <v>0</v>
       </c>
+      <c r="BN89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -16569,6 +16838,9 @@
       <c r="BM90" t="n">
         <v>0</v>
       </c>
+      <c r="BN90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -16748,6 +17020,9 @@
       <c r="BM91" t="n">
         <v>0</v>
       </c>
+      <c r="BN91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -16927,6 +17202,9 @@
       <c r="BM92" t="n">
         <v>0</v>
       </c>
+      <c r="BN92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -17106,6 +17384,9 @@
       <c r="BM93" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN93" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -17285,6 +17566,9 @@
       <c r="BM94" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN94" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -17464,6 +17748,9 @@
       <c r="BM95" t="n">
         <v>1</v>
       </c>
+      <c r="BN95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -17643,6 +17930,9 @@
       <c r="BM96" t="n">
         <v>0</v>
       </c>
+      <c r="BN96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -17822,6 +18112,9 @@
       <c r="BM97" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN97" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -18001,6 +18294,9 @@
       <c r="BM98" t="n">
         <v>1</v>
       </c>
+      <c r="BN98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -18180,6 +18476,9 @@
       <c r="BM99" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN99" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -18359,6 +18658,9 @@
       <c r="BM100" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN100" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -18538,6 +18840,9 @@
       <c r="BM101" t="n">
         <v>1</v>
       </c>
+      <c r="BN101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -18717,6 +19022,9 @@
       <c r="BM102" t="n">
         <v>0</v>
       </c>
+      <c r="BN102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -18896,6 +19204,9 @@
       <c r="BM103" t="n">
         <v>0.375</v>
       </c>
+      <c r="BN103" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -19075,6 +19386,9 @@
       <c r="BM104" t="n">
         <v>1</v>
       </c>
+      <c r="BN104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -19254,6 +19568,9 @@
       <c r="BM105" t="n">
         <v>0</v>
       </c>
+      <c r="BN105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -19433,6 +19750,9 @@
       <c r="BM106" t="n">
         <v>0</v>
       </c>
+      <c r="BN106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -19612,6 +19932,9 @@
       <c r="BM107" t="n">
         <v>0</v>
       </c>
+      <c r="BN107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -19791,6 +20114,9 @@
       <c r="BM108" t="n">
         <v>0</v>
       </c>
+      <c r="BN108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -19970,6 +20296,9 @@
       <c r="BM109" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN109" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -20149,6 +20478,9 @@
       <c r="BM110" t="n">
         <v>0</v>
       </c>
+      <c r="BN110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -20328,6 +20660,9 @@
       <c r="BM111" t="n">
         <v>1</v>
       </c>
+      <c r="BN111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -20507,6 +20842,9 @@
       <c r="BM112" t="n">
         <v>1</v>
       </c>
+      <c r="BN112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -20686,6 +21024,9 @@
       <c r="BM113" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -20865,6 +21206,9 @@
       <c r="BM114" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -21044,6 +21388,9 @@
       <c r="BM115" t="n">
         <v>0</v>
       </c>
+      <c r="BN115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -21223,6 +21570,9 @@
       <c r="BM116" t="n">
         <v>0</v>
       </c>
+      <c r="BN116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -21402,6 +21752,9 @@
       <c r="BM117" t="n">
         <v>1</v>
       </c>
+      <c r="BN117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -21581,6 +21934,9 @@
       <c r="BM118" t="n">
         <v>0</v>
       </c>
+      <c r="BN118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -21760,6 +22116,9 @@
       <c r="BM119" t="n">
         <v>0.625</v>
       </c>
+      <c r="BN119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -21939,6 +22298,9 @@
       <c r="BM120" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN120" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -22118,6 +22480,9 @@
       <c r="BM121" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN121" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -22297,6 +22662,9 @@
       <c r="BM122" t="n">
         <v>0</v>
       </c>
+      <c r="BN122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -22476,6 +22844,9 @@
       <c r="BM123" t="n">
         <v>0</v>
       </c>
+      <c r="BN123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -22655,6 +23026,9 @@
       <c r="BM124" t="n">
         <v>0</v>
       </c>
+      <c r="BN124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -22834,6 +23208,9 @@
       <c r="BM125" t="n">
         <v>0</v>
       </c>
+      <c r="BN125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -23013,6 +23390,9 @@
       <c r="BM126" t="n">
         <v>0</v>
       </c>
+      <c r="BN126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -23192,6 +23572,9 @@
       <c r="BM127" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN127" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -23371,6 +23754,9 @@
       <c r="BM128" t="n">
         <v>0</v>
       </c>
+      <c r="BN128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -23550,6 +23936,9 @@
       <c r="BM129" t="n">
         <v>1</v>
       </c>
+      <c r="BN129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -23729,6 +24118,9 @@
       <c r="BM130" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN130" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -23908,6 +24300,9 @@
       <c r="BM131" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -24087,6 +24482,9 @@
       <c r="BM132" t="n">
         <v>0</v>
       </c>
+      <c r="BN132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -24266,6 +24664,9 @@
       <c r="BM133" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -24445,6 +24846,9 @@
       <c r="BM134" t="n">
         <v>0</v>
       </c>
+      <c r="BN134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -24624,6 +25028,9 @@
       <c r="BM135" t="n">
         <v>0</v>
       </c>
+      <c r="BN135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -24803,6 +25210,9 @@
       <c r="BM136" t="n">
         <v>0</v>
       </c>
+      <c r="BN136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -24982,6 +25392,9 @@
       <c r="BM137" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -25161,6 +25574,9 @@
       <c r="BM138" t="n">
         <v>0</v>
       </c>
+      <c r="BN138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -25340,6 +25756,9 @@
       <c r="BM139" t="n">
         <v>0</v>
       </c>
+      <c r="BN139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -25519,6 +25938,9 @@
       <c r="BM140" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN140" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -25698,6 +26120,9 @@
       <c r="BM141" t="n">
         <v>0.375</v>
       </c>
+      <c r="BN141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -25877,6 +26302,9 @@
       <c r="BM142" t="n">
         <v>0</v>
       </c>
+      <c r="BN142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -26056,6 +26484,9 @@
       <c r="BM143" t="n">
         <v>0</v>
       </c>
+      <c r="BN143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -26235,6 +26666,9 @@
       <c r="BM144" t="n">
         <v>1</v>
       </c>
+      <c r="BN144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -26414,6 +26848,9 @@
       <c r="BM145" t="n">
         <v>0</v>
       </c>
+      <c r="BN145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -26593,6 +27030,9 @@
       <c r="BM146" t="n">
         <v>0</v>
       </c>
+      <c r="BN146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -26772,6 +27212,9 @@
       <c r="BM147" t="n">
         <v>0</v>
       </c>
+      <c r="BN147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -26951,6 +27394,9 @@
       <c r="BM148" t="n">
         <v>0</v>
       </c>
+      <c r="BN148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -27130,6 +27576,9 @@
       <c r="BM149" t="n">
         <v>1</v>
       </c>
+      <c r="BN149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -27309,6 +27758,9 @@
       <c r="BM150" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN150" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -27488,6 +27940,9 @@
       <c r="BM151" t="n">
         <v>0</v>
       </c>
+      <c r="BN151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -27667,6 +28122,9 @@
       <c r="BM152" t="n">
         <v>0</v>
       </c>
+      <c r="BN152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -27846,6 +28304,9 @@
       <c r="BM153" t="n">
         <v>1</v>
       </c>
+      <c r="BN153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -28025,6 +28486,9 @@
       <c r="BM154" t="n">
         <v>0</v>
       </c>
+      <c r="BN154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -28204,6 +28668,9 @@
       <c r="BM155" t="n">
         <v>0.375</v>
       </c>
+      <c r="BN155" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -28383,6 +28850,9 @@
       <c r="BM156" t="n">
         <v>0.125</v>
       </c>
+      <c r="BN156" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -28562,6 +29032,9 @@
       <c r="BM157" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -28741,6 +29214,9 @@
       <c r="BM158" t="n">
         <v>1</v>
       </c>
+      <c r="BN158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -28920,6 +29396,9 @@
       <c r="BM159" t="n">
         <v>1</v>
       </c>
+      <c r="BN159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -29099,6 +29578,9 @@
       <c r="BM160" t="n">
         <v>1</v>
       </c>
+      <c r="BN160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -29278,6 +29760,9 @@
       <c r="BM161" t="n">
         <v>0</v>
       </c>
+      <c r="BN161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -29457,6 +29942,9 @@
       <c r="BM162" t="n">
         <v>0</v>
       </c>
+      <c r="BN162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -29636,6 +30124,9 @@
       <c r="BM163" t="n">
         <v>1</v>
       </c>
+      <c r="BN163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -29815,6 +30306,9 @@
       <c r="BM164" t="n">
         <v>1</v>
       </c>
+      <c r="BN164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -29994,6 +30488,9 @@
       <c r="BM165" t="n">
         <v>0</v>
       </c>
+      <c r="BN165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -30173,6 +30670,9 @@
       <c r="BM166" t="n">
         <v>1</v>
       </c>
+      <c r="BN166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -30352,6 +30852,9 @@
       <c r="BM167" t="n">
         <v>0</v>
       </c>
+      <c r="BN167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -30531,6 +31034,9 @@
       <c r="BM168" t="n">
         <v>1</v>
       </c>
+      <c r="BN168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -30710,6 +31216,9 @@
       <c r="BM169" t="n">
         <v>1</v>
       </c>
+      <c r="BN169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -30889,6 +31398,9 @@
       <c r="BM170" t="n">
         <v>1</v>
       </c>
+      <c r="BN170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -31068,6 +31580,9 @@
       <c r="BM171" t="n">
         <v>1</v>
       </c>
+      <c r="BN171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -31247,6 +31762,9 @@
       <c r="BM172" t="n">
         <v>0.625</v>
       </c>
+      <c r="BN172" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -31426,6 +31944,9 @@
       <c r="BM173" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN173" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -31605,6 +32126,9 @@
       <c r="BM174" t="n">
         <v>1</v>
       </c>
+      <c r="BN174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -31784,6 +32308,9 @@
       <c r="BM175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BN175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -31963,6 +32490,9 @@
       <c r="BM176" t="n">
         <v>0</v>
       </c>
+      <c r="BN176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -32142,6 +32672,9 @@
       <c r="BM177" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BN177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -32321,6 +32854,9 @@
       <c r="BM178" t="n">
         <v>0</v>
       </c>
+      <c r="BN178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -32500,6 +33036,9 @@
       <c r="BM179" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN179" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -32679,6 +33218,9 @@
       <c r="BM180" t="n">
         <v>0.8</v>
       </c>
+      <c r="BN180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -32858,6 +33400,9 @@
       <c r="BM181" t="n">
         <v>0</v>
       </c>
+      <c r="BN181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -33037,6 +33582,9 @@
       <c r="BM182" t="n">
         <v>0</v>
       </c>
+      <c r="BN182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -33216,6 +33764,9 @@
       <c r="BM183" t="n">
         <v>1</v>
       </c>
+      <c r="BN183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -33395,6 +33946,9 @@
       <c r="BM184" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="BN184" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -33574,6 +34128,9 @@
       <c r="BM185" t="n">
         <v>0</v>
       </c>
+      <c r="BN185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -33753,6 +34310,9 @@
       <c r="BM186" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN186" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -33932,6 +34492,9 @@
       <c r="BM187" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BN187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -34111,6 +34674,9 @@
       <c r="BM188" t="n">
         <v>0</v>
       </c>
+      <c r="BN188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -34290,6 +34856,9 @@
       <c r="BM189" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN189" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -34469,6 +35038,9 @@
       <c r="BM190" t="n">
         <v>0.8</v>
       </c>
+      <c r="BN190" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -34648,6 +35220,9 @@
       <c r="BM191" t="n">
         <v>1</v>
       </c>
+      <c r="BN191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -34827,6 +35402,9 @@
       <c r="BM192" t="n">
         <v>0</v>
       </c>
+      <c r="BN192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -35006,6 +35584,9 @@
       <c r="BM193" t="n">
         <v>1</v>
       </c>
+      <c r="BN193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -35185,6 +35766,9 @@
       <c r="BM194" t="n">
         <v>0</v>
       </c>
+      <c r="BN194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -35364,6 +35948,9 @@
       <c r="BM195" t="n">
         <v>1</v>
       </c>
+      <c r="BN195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -35543,6 +36130,9 @@
       <c r="BM196" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -35722,6 +36312,9 @@
       <c r="BM197" t="n">
         <v>1</v>
       </c>
+      <c r="BN197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -35901,6 +36494,9 @@
       <c r="BM198" t="n">
         <v>0</v>
       </c>
+      <c r="BN198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -36080,6 +36676,9 @@
       <c r="BM199" t="n">
         <v>0</v>
       </c>
+      <c r="BN199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -36259,6 +36858,9 @@
       <c r="BM200" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -36438,6 +37040,9 @@
       <c r="BM201" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN201" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -36617,6 +37222,9 @@
       <c r="BM202" t="n">
         <v>0.8</v>
       </c>
+      <c r="BN202" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -36796,6 +37404,9 @@
       <c r="BM203" t="n">
         <v>0</v>
       </c>
+      <c r="BN203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -36975,6 +37586,9 @@
       <c r="BM204" t="n">
         <v>0</v>
       </c>
+      <c r="BN204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -37152,6 +37766,9 @@
         <v>0</v>
       </c>
       <c r="BM205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BN205" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
@@ -37263,6 +37880,9 @@
       <c r="BM206" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -37442,6 +38062,9 @@
       <c r="BM207" t="n">
         <v>0.4</v>
       </c>
+      <c r="BN207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -37621,6 +38244,9 @@
       <c r="BM208" t="n">
         <v>1</v>
       </c>
+      <c r="BN208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -37800,6 +38426,9 @@
       <c r="BM209" t="n">
         <v>0</v>
       </c>
+      <c r="BN209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -37979,6 +38608,9 @@
       <c r="BM210" t="n">
         <v>0</v>
       </c>
+      <c r="BN210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -38158,6 +38790,9 @@
       <c r="BM211" t="n">
         <v>0.375</v>
       </c>
+      <c r="BN211" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -38337,6 +38972,9 @@
       <c r="BM212" t="n">
         <v>0.1818181818181818</v>
       </c>
+      <c r="BN212" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -38516,6 +39154,9 @@
       <c r="BM213" t="n">
         <v>0</v>
       </c>
+      <c r="BN213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -38695,6 +39336,9 @@
       <c r="BM214" t="n">
         <v>0</v>
       </c>
+      <c r="BN214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -38874,6 +39518,9 @@
       <c r="BM215" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN215" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -39053,6 +39700,9 @@
       <c r="BM216" t="n">
         <v>0</v>
       </c>
+      <c r="BN216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -39232,6 +39882,9 @@
       <c r="BM217" t="n">
         <v>1</v>
       </c>
+      <c r="BN217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -39411,6 +40064,9 @@
       <c r="BM218" t="n">
         <v>1</v>
       </c>
+      <c r="BN218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -39590,6 +40246,9 @@
       <c r="BM219" t="n">
         <v>1</v>
       </c>
+      <c r="BN219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -39769,6 +40428,9 @@
       <c r="BM220" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN220" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -39948,6 +40610,9 @@
       <c r="BM221" t="n">
         <v>0</v>
       </c>
+      <c r="BN221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -40127,6 +40792,9 @@
       <c r="BM222" t="n">
         <v>0</v>
       </c>
+      <c r="BN222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -40306,6 +40974,9 @@
       <c r="BM223" t="n">
         <v>0.8</v>
       </c>
+      <c r="BN223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -40485,6 +41156,9 @@
       <c r="BM224" t="n">
         <v>0</v>
       </c>
+      <c r="BN224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -40664,6 +41338,9 @@
       <c r="BM225" t="n">
         <v>0</v>
       </c>
+      <c r="BN225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -40843,6 +41520,9 @@
       <c r="BM226" t="n">
         <v>0</v>
       </c>
+      <c r="BN226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -41022,6 +41702,9 @@
       <c r="BM227" t="n">
         <v>1</v>
       </c>
+      <c r="BN227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -41201,6 +41884,9 @@
       <c r="BM228" t="n">
         <v>0</v>
       </c>
+      <c r="BN228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -41380,6 +42066,9 @@
       <c r="BM229" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN229" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -41559,6 +42248,9 @@
       <c r="BM230" t="n">
         <v>1</v>
       </c>
+      <c r="BN230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -41738,6 +42430,9 @@
       <c r="BM231" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN231" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -41917,6 +42612,9 @@
       <c r="BM232" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -42096,6 +42794,9 @@
       <c r="BM233" t="n">
         <v>0</v>
       </c>
+      <c r="BN233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -42275,6 +42976,9 @@
       <c r="BM234" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN234" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -42454,6 +43158,9 @@
       <c r="BM235" t="n">
         <v>1</v>
       </c>
+      <c r="BN235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -42633,6 +43340,9 @@
       <c r="BM236" t="n">
         <v>0</v>
       </c>
+      <c r="BN236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -42812,6 +43522,9 @@
       <c r="BM237" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -42991,6 +43704,9 @@
       <c r="BM238" t="n">
         <v>0</v>
       </c>
+      <c r="BN238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -43170,6 +43886,9 @@
       <c r="BM239" t="n">
         <v>0</v>
       </c>
+      <c r="BN239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -43349,6 +44068,9 @@
       <c r="BM240" t="n">
         <v>1</v>
       </c>
+      <c r="BN240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -43528,6 +44250,9 @@
       <c r="BM241" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -43707,6 +44432,9 @@
       <c r="BM242" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN242" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -43886,6 +44614,9 @@
       <c r="BM243" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN243" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -44065,6 +44796,9 @@
       <c r="BM244" t="n">
         <v>1</v>
       </c>
+      <c r="BN244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -44244,6 +44978,9 @@
       <c r="BM245" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN245" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -44423,6 +45160,9 @@
       <c r="BM246" t="n">
         <v>0</v>
       </c>
+      <c r="BN246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -44602,6 +45342,9 @@
       <c r="BM247" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -44781,6 +45524,9 @@
       <c r="BM248" t="n">
         <v>0.4</v>
       </c>
+      <c r="BN248" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -44960,6 +45706,9 @@
       <c r="BM249" t="n">
         <v>0</v>
       </c>
+      <c r="BN249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -45139,6 +45888,9 @@
       <c r="BM250" t="n">
         <v>0</v>
       </c>
+      <c r="BN250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -45318,6 +46070,9 @@
       <c r="BM251" t="n">
         <v>0.375</v>
       </c>
+      <c r="BN251" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -45497,6 +46252,9 @@
       <c r="BM252" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN252" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -45676,6 +46434,9 @@
       <c r="BM253" t="n">
         <v>0</v>
       </c>
+      <c r="BN253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -45855,6 +46616,9 @@
       <c r="BM254" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -46034,6 +46798,9 @@
       <c r="BM255" t="n">
         <v>1</v>
       </c>
+      <c r="BN255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -46213,6 +46980,9 @@
       <c r="BM256" t="n">
         <v>0</v>
       </c>
+      <c r="BN256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -46392,6 +47162,9 @@
       <c r="BM257" t="n">
         <v>1</v>
       </c>
+      <c r="BN257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -46571,6 +47344,9 @@
       <c r="BM258" t="n">
         <v>0.6</v>
       </c>
+      <c r="BN258" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -46750,6 +47526,9 @@
       <c r="BM259" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN259" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -46929,6 +47708,9 @@
       <c r="BM260" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN260" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -47108,6 +47890,9 @@
       <c r="BM261" t="n">
         <v>1</v>
       </c>
+      <c r="BN261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -47287,6 +48072,9 @@
       <c r="BM262" t="n">
         <v>0</v>
       </c>
+      <c r="BN262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -47466,6 +48254,9 @@
       <c r="BM263" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN263" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -47645,6 +48436,9 @@
       <c r="BM264" t="n">
         <v>1</v>
       </c>
+      <c r="BN264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -47824,6 +48618,9 @@
       <c r="BM265" t="n">
         <v>0</v>
       </c>
+      <c r="BN265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -48003,6 +48800,9 @@
       <c r="BM266" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -48182,6 +48982,9 @@
       <c r="BM267" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN267" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -48361,6 +49164,9 @@
       <c r="BM268" t="n">
         <v>0</v>
       </c>
+      <c r="BN268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -48540,6 +49346,9 @@
       <c r="BM269" t="n">
         <v>0</v>
       </c>
+      <c r="BN269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -48717,6 +49526,9 @@
         <v>0</v>
       </c>
       <c r="BM270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BN270" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -48800,6 +49612,7 @@
       <c r="BK271" t="inlineStr"/>
       <c r="BL271" t="inlineStr"/>
       <c r="BM271" t="inlineStr"/>
+      <c r="BN271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -48979,6 +49792,9 @@
       <c r="BM272" t="n">
         <v>1</v>
       </c>
+      <c r="BN272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -49158,6 +49974,9 @@
       <c r="BM273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BN273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -49337,6 +50156,9 @@
       <c r="BM274" t="n">
         <v>0</v>
       </c>
+      <c r="BN274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -49516,6 +50338,9 @@
       <c r="BM275" t="n">
         <v>1</v>
       </c>
+      <c r="BN275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -49695,6 +50520,9 @@
       <c r="BM276" t="n">
         <v>0</v>
       </c>
+      <c r="BN276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -49874,6 +50702,9 @@
       <c r="BM277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BN277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -50053,6 +50884,9 @@
       <c r="BM278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BN278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -50232,6 +51066,9 @@
       <c r="BM279" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BN279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -50411,6 +51248,9 @@
       <c r="BM280" t="n">
         <v>0</v>
       </c>
+      <c r="BN280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -50590,6 +51430,9 @@
       <c r="BM281" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN281" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -50769,6 +51612,9 @@
       <c r="BM282" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BN282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -50948,6 +51794,9 @@
       <c r="BM283" t="n">
         <v>0.625</v>
       </c>
+      <c r="BN283" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -51127,6 +51976,9 @@
       <c r="BM284" t="n">
         <v>1</v>
       </c>
+      <c r="BN284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -51306,6 +52158,9 @@
       <c r="BM285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="BN285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -51485,6 +52340,9 @@
       <c r="BM286" t="n">
         <v>0.8</v>
       </c>
+      <c r="BN286" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -51664,6 +52522,9 @@
       <c r="BM287" t="n">
         <v>0</v>
       </c>
+      <c r="BN287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -51843,6 +52704,9 @@
       <c r="BM288" t="n">
         <v>1</v>
       </c>
+      <c r="BN288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -52022,6 +52886,9 @@
       <c r="BM289" t="n">
         <v>0</v>
       </c>
+      <c r="BN289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -52201,6 +53068,9 @@
       <c r="BM290" t="n">
         <v>0</v>
       </c>
+      <c r="BN290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -52380,6 +53250,9 @@
       <c r="BM291" t="n">
         <v>1</v>
       </c>
+      <c r="BN291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -52559,6 +53432,9 @@
       <c r="BM292" t="n">
         <v>0</v>
       </c>
+      <c r="BN292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -52738,6 +53614,9 @@
       <c r="BM293" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BN293" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -52917,6 +53796,9 @@
       <c r="BM294" t="n">
         <v>0</v>
       </c>
+      <c r="BN294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -53096,6 +53978,9 @@
       <c r="BM295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="BN295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -53275,6 +54160,9 @@
       <c r="BM296" t="n">
         <v>0.375</v>
       </c>
+      <c r="BN296" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -53454,6 +54342,9 @@
       <c r="BM297" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BN297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -53633,6 +54524,9 @@
       <c r="BM298" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BN298" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -53812,6 +54706,9 @@
       <c r="BM299" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BN299" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -53991,6 +54888,9 @@
       <c r="BM300" t="n">
         <v>0</v>
       </c>
+      <c r="BN300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -54170,6 +55070,9 @@
       <c r="BM301" t="n">
         <v>1</v>
       </c>
+      <c r="BN301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -54349,6 +55252,9 @@
       <c r="BM302" t="n">
         <v>0</v>
       </c>
+      <c r="BN302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -54528,6 +55434,9 @@
       <c r="BM303" t="n">
         <v>1</v>
       </c>
+      <c r="BN303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -54707,6 +55616,9 @@
       <c r="BM304" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -54886,6 +55798,9 @@
       <c r="BM305" t="n">
         <v>0</v>
       </c>
+      <c r="BN305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -55065,6 +55980,9 @@
       <c r="BM306" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BN306" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -55244,6 +56162,9 @@
       <c r="BM307" t="n">
         <v>0</v>
       </c>
+      <c r="BN307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -55423,6 +56344,9 @@
       <c r="BM308" t="n">
         <v>0</v>
       </c>
+      <c r="BN308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -55602,6 +56526,9 @@
       <c r="BM309" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -55781,6 +56708,9 @@
       <c r="BM310" t="n">
         <v>0</v>
       </c>
+      <c r="BN310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -55960,6 +56890,9 @@
       <c r="BM311" t="n">
         <v>0</v>
       </c>
+      <c r="BN311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -56139,6 +57072,9 @@
       <c r="BM312" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -56318,6 +57254,9 @@
       <c r="BM313" t="n">
         <v>1</v>
       </c>
+      <c r="BN313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -56497,6 +57436,9 @@
       <c r="BM314" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -56676,6 +57618,9 @@
       <c r="BM315" t="n">
         <v>0</v>
       </c>
+      <c r="BN315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -56855,6 +57800,9 @@
       <c r="BM316" t="n">
         <v>0.6</v>
       </c>
+      <c r="BN316" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -57034,6 +57982,9 @@
       <c r="BM317" t="n">
         <v>0</v>
       </c>
+      <c r="BN317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -57213,6 +58164,9 @@
       <c r="BM318" t="n">
         <v>0</v>
       </c>
+      <c r="BN318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -57392,6 +58346,9 @@
       <c r="BM319" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -57571,6 +58528,9 @@
       <c r="BM320" t="n">
         <v>1</v>
       </c>
+      <c r="BN320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -57750,6 +58710,9 @@
       <c r="BM321" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN321" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -57929,6 +58892,9 @@
       <c r="BM322" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -58108,6 +59074,9 @@
       <c r="BM323" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -58287,6 +59256,9 @@
       <c r="BM324" t="n">
         <v>0</v>
       </c>
+      <c r="BN324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -58466,6 +59438,9 @@
       <c r="BM325" t="n">
         <v>1</v>
       </c>
+      <c r="BN325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -58645,6 +59620,9 @@
       <c r="BM326" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -58824,6 +59802,9 @@
       <c r="BM327" t="n">
         <v>0</v>
       </c>
+      <c r="BN327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -59003,6 +59984,9 @@
       <c r="BM328" t="n">
         <v>1</v>
       </c>
+      <c r="BN328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -59182,6 +60166,9 @@
       <c r="BM329" t="n">
         <v>1</v>
       </c>
+      <c r="BN329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -59361,6 +60348,9 @@
       <c r="BM330" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -59540,6 +60530,9 @@
       <c r="BM331" t="n">
         <v>1</v>
       </c>
+      <c r="BN331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -59719,6 +60712,9 @@
       <c r="BM332" t="n">
         <v>0</v>
       </c>
+      <c r="BN332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -59898,6 +60894,9 @@
       <c r="BM333" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -60077,6 +61076,9 @@
       <c r="BM334" t="n">
         <v>1</v>
       </c>
+      <c r="BN334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -60256,6 +61258,9 @@
       <c r="BM335" t="n">
         <v>0</v>
       </c>
+      <c r="BN335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -60435,6 +61440,9 @@
       <c r="BM336" t="n">
         <v>1</v>
       </c>
+      <c r="BN336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -60614,6 +61622,9 @@
       <c r="BM337" t="n">
         <v>0</v>
       </c>
+      <c r="BN337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -60793,6 +61804,9 @@
       <c r="BM338" t="n">
         <v>1</v>
       </c>
+      <c r="BN338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -60972,6 +61986,9 @@
       <c r="BM339" t="n">
         <v>1</v>
       </c>
+      <c r="BN339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -61151,6 +62168,9 @@
       <c r="BM340" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN340" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -61330,6 +62350,9 @@
       <c r="BM341" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -61509,6 +62532,9 @@
       <c r="BM342" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -61688,6 +62714,9 @@
       <c r="BM343" t="n">
         <v>0</v>
       </c>
+      <c r="BN343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -61867,6 +62896,9 @@
       <c r="BM344" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -62046,6 +63078,9 @@
       <c r="BM345" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN345" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -62225,6 +63260,9 @@
       <c r="BM346" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -62404,6 +63442,9 @@
       <c r="BM347" t="n">
         <v>0</v>
       </c>
+      <c r="BN347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -62583,6 +63624,9 @@
       <c r="BM348" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -62762,6 +63806,9 @@
       <c r="BM349" t="n">
         <v>0</v>
       </c>
+      <c r="BN349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -62941,6 +63988,9 @@
       <c r="BM350" t="n">
         <v>1</v>
       </c>
+      <c r="BN350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -63120,6 +64170,9 @@
       <c r="BM351" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -63299,6 +64352,9 @@
       <c r="BM352" t="n">
         <v>0</v>
       </c>
+      <c r="BN352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -63478,6 +64534,9 @@
       <c r="BM353" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN353" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -63657,6 +64716,9 @@
       <c r="BM354" t="n">
         <v>0.625</v>
       </c>
+      <c r="BN354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -63836,6 +64898,9 @@
       <c r="BM355" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN355" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -64015,6 +65080,9 @@
       <c r="BM356" t="n">
         <v>0</v>
       </c>
+      <c r="BN356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -64194,6 +65262,9 @@
       <c r="BM357" t="n">
         <v>0.6</v>
       </c>
+      <c r="BN357" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -64373,6 +65444,9 @@
       <c r="BM358" t="n">
         <v>1</v>
       </c>
+      <c r="BN358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -64552,6 +65626,9 @@
       <c r="BM359" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN359" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -64731,6 +65808,9 @@
       <c r="BM360" t="n">
         <v>0.4</v>
       </c>
+      <c r="BN360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -64910,6 +65990,9 @@
       <c r="BM361" t="n">
         <v>1</v>
       </c>
+      <c r="BN361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -65089,6 +66172,9 @@
       <c r="BM362" t="n">
         <v>1</v>
       </c>
+      <c r="BN362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -65268,6 +66354,9 @@
       <c r="BM363" t="n">
         <v>0</v>
       </c>
+      <c r="BN363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -65447,6 +66536,9 @@
       <c r="BM364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BN364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -65626,6 +66718,9 @@
       <c r="BM365" t="n">
         <v>1</v>
       </c>
+      <c r="BN365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -65805,6 +66900,9 @@
       <c r="BM366" t="n">
         <v>0.625</v>
       </c>
+      <c r="BN366" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -65984,6 +67082,9 @@
       <c r="BM367" t="n">
         <v>0.4</v>
       </c>
+      <c r="BN367" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -66163,6 +67264,9 @@
       <c r="BM368" t="n">
         <v>1</v>
       </c>
+      <c r="BN368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -66342,6 +67446,9 @@
       <c r="BM369" t="n">
         <v>1</v>
       </c>
+      <c r="BN369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -66521,6 +67628,9 @@
       <c r="BM370" t="n">
         <v>0</v>
       </c>
+      <c r="BN370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -66700,6 +67810,9 @@
       <c r="BM371" t="n">
         <v>1</v>
       </c>
+      <c r="BN371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -66879,6 +67992,9 @@
       <c r="BM372" t="n">
         <v>1</v>
       </c>
+      <c r="BN372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -67058,6 +68174,9 @@
       <c r="BM373" t="n">
         <v>0</v>
       </c>
+      <c r="BN373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -67237,6 +68356,9 @@
       <c r="BM374" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -67416,6 +68538,9 @@
       <c r="BM375" t="n">
         <v>1</v>
       </c>
+      <c r="BN375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -67595,6 +68720,9 @@
       <c r="BM376" t="n">
         <v>0</v>
       </c>
+      <c r="BN376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -67774,6 +68902,9 @@
       <c r="BM377" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -67953,6 +69084,9 @@
       <c r="BM378" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN378" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -68132,6 +69266,9 @@
       <c r="BM379" t="n">
         <v>1</v>
       </c>
+      <c r="BN379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -68311,6 +69448,9 @@
       <c r="BM380" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -68490,6 +69630,9 @@
       <c r="BM381" t="n">
         <v>0.25</v>
       </c>
+      <c r="BN381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -68669,6 +69812,9 @@
       <c r="BM382" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -68848,6 +69994,9 @@
       <c r="BM383" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BN383" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -69027,6 +70176,9 @@
       <c r="BM384" t="n">
         <v>1</v>
       </c>
+      <c r="BN384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -69206,6 +70358,9 @@
       <c r="BM385" t="n">
         <v>0</v>
       </c>
+      <c r="BN385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -69385,6 +70540,9 @@
       <c r="BM386" t="n">
         <v>1</v>
       </c>
+      <c r="BN386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -69564,6 +70722,9 @@
       <c r="BM387" t="n">
         <v>1</v>
       </c>
+      <c r="BN387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -69743,6 +70904,9 @@
       <c r="BM388" t="n">
         <v>1</v>
       </c>
+      <c r="BN388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -69922,6 +71086,9 @@
       <c r="BM389" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN389" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -70101,6 +71268,9 @@
       <c r="BM390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BN390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -70280,6 +71450,9 @@
       <c r="BM391" t="n">
         <v>0</v>
       </c>
+      <c r="BN391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -70459,6 +71632,9 @@
       <c r="BM392" t="n">
         <v>0.1818181818181818</v>
       </c>
+      <c r="BN392" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -70638,6 +71814,9 @@
       <c r="BM393" t="n">
         <v>1</v>
       </c>
+      <c r="BN393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -70817,6 +71996,9 @@
       <c r="BM394" t="n">
         <v>1</v>
       </c>
+      <c r="BN394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -70996,6 +72178,9 @@
       <c r="BM395" t="n">
         <v>1</v>
       </c>
+      <c r="BN395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -71175,6 +72360,9 @@
       <c r="BM396" t="n">
         <v>1</v>
       </c>
+      <c r="BN396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -71354,6 +72542,9 @@
       <c r="BM397" t="n">
         <v>1</v>
       </c>
+      <c r="BN397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -71533,6 +72724,9 @@
       <c r="BM398" t="n">
         <v>1</v>
       </c>
+      <c r="BN398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -71712,6 +72906,9 @@
       <c r="BM399" t="n">
         <v>0</v>
       </c>
+      <c r="BN399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -71891,6 +73088,9 @@
       <c r="BM400" t="n">
         <v>0.75</v>
       </c>
+      <c r="BN400" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -72070,6 +73270,9 @@
       <c r="BM401" t="n">
         <v>0</v>
       </c>
+      <c r="BN401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -72249,6 +73452,9 @@
       <c r="BM402" t="n">
         <v>0.5</v>
       </c>
+      <c r="BN402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -72426,6 +73632,9 @@
         <v>1</v>
       </c>
       <c r="BM403" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -72509,6 +73718,7 @@
       <c r="BK404" t="inlineStr"/>
       <c r="BL404" t="inlineStr"/>
       <c r="BM404" t="inlineStr"/>
+      <c r="BN404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -72708,6 +73918,9 @@
       <c r="BM405" t="n">
         <v>822</v>
       </c>
+      <c r="BN405" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -72907,6 +74120,9 @@
       <c r="BM406" t="n">
         <v>2188</v>
       </c>
+      <c r="BN406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -73106,6 +74322,9 @@
       <c r="BM407" t="n">
         <v>0.3757</v>
       </c>
+      <c r="BN407" t="n">
+        <v>0.3757</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -73305,6 +74524,9 @@
       <c r="BM408" t="n">
         <v>1978</v>
       </c>
+      <c r="BN408" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -73504,6 +74726,9 @@
       <c r="BM409" t="n">
         <v>2188</v>
       </c>
+      <c r="BN409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -73703,6 +74928,9 @@
       <c r="BM410" t="n">
         <v>0.904</v>
       </c>
+      <c r="BN410" t="n">
+        <v>0.904</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -73880,6 +75108,9 @@
       <c r="BM411" t="n">
         <v>1217</v>
       </c>
+      <c r="BN411" t="n">
+        <v>1217</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -74079,6 +75310,9 @@
       <c r="BM412" t="n">
         <v>2188</v>
       </c>
+      <c r="BN412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -74254,6 +75488,9 @@
       <c r="BM413" t="n">
         <v>0.5562</v>
       </c>
+      <c r="BN413" t="n">
+        <v>0.5562</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -74453,6 +75690,9 @@
       <c r="BM414" t="n">
         <v>822</v>
       </c>
+      <c r="BN414" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -74652,6 +75892,9 @@
       <c r="BM415" t="n">
         <v>2188</v>
       </c>
+      <c r="BN415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -74851,6 +76094,9 @@
       <c r="BM416" t="n">
         <v>0.3757</v>
       </c>
+      <c r="BN416" t="n">
+        <v>0.3757</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -75050,6 +76296,9 @@
       <c r="BM417" t="n">
         <v>2140</v>
       </c>
+      <c r="BN417" t="n">
+        <v>2140</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -75249,6 +76498,9 @@
       <c r="BM418" t="n">
         <v>2188</v>
       </c>
+      <c r="BN418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -75448,6 +76700,9 @@
       <c r="BM419" t="n">
         <v>0.9781</v>
       </c>
+      <c r="BN419" t="n">
+        <v>0.9781</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN419"/>
+  <dimension ref="A1:BO419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,11 @@
           <t>2025-09-08_v2</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -941,6 +946,9 @@
       <c r="BN2" t="n">
         <v>0.4</v>
       </c>
+      <c r="BO2" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1123,6 +1131,7 @@
       <c r="BN3" t="n">
         <v>1</v>
       </c>
+      <c r="BO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1305,6 +1314,7 @@
       <c r="BN4" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1487,6 +1497,7 @@
       <c r="BN5" t="n">
         <v>1</v>
       </c>
+      <c r="BO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1669,6 +1680,7 @@
       <c r="BN6" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1851,6 +1863,7 @@
       <c r="BN7" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="BO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2033,6 +2046,7 @@
       <c r="BN8" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2215,6 +2229,7 @@
       <c r="BN9" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2397,6 +2412,7 @@
       <c r="BN10" t="n">
         <v>0.6</v>
       </c>
+      <c r="BO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2579,6 +2595,7 @@
       <c r="BN11" t="n">
         <v>1</v>
       </c>
+      <c r="BO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2703,6 +2720,7 @@
       <c r="BN12" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2885,6 +2903,7 @@
       <c r="BN13" t="n">
         <v>0</v>
       </c>
+      <c r="BO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3067,6 +3086,7 @@
       <c r="BN14" t="n">
         <v>0</v>
       </c>
+      <c r="BO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3249,6 +3269,7 @@
       <c r="BN15" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3431,6 +3452,7 @@
       <c r="BN16" t="n">
         <v>1</v>
       </c>
+      <c r="BO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3613,6 +3635,7 @@
       <c r="BN17" t="n">
         <v>0</v>
       </c>
+      <c r="BO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3795,6 +3818,7 @@
       <c r="BN18" t="n">
         <v>1</v>
       </c>
+      <c r="BO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3977,6 +4001,7 @@
       <c r="BN19" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4159,6 +4184,7 @@
       <c r="BN20" t="n">
         <v>0</v>
       </c>
+      <c r="BO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4341,6 +4367,7 @@
       <c r="BN21" t="n">
         <v>1</v>
       </c>
+      <c r="BO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4523,6 +4550,7 @@
       <c r="BN22" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4705,6 +4733,7 @@
       <c r="BN23" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4887,6 +4916,7 @@
       <c r="BN24" t="n">
         <v>0.2</v>
       </c>
+      <c r="BO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -5069,6 +5099,7 @@
       <c r="BN25" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -5251,6 +5282,7 @@
       <c r="BN26" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5433,6 +5465,7 @@
       <c r="BN27" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5615,6 +5648,7 @@
       <c r="BN28" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="BO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5797,6 +5831,7 @@
       <c r="BN29" t="n">
         <v>1</v>
       </c>
+      <c r="BO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5979,6 +6014,7 @@
       <c r="BN30" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -6161,6 +6197,7 @@
       <c r="BN31" t="n">
         <v>0</v>
       </c>
+      <c r="BO31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -6343,6 +6380,7 @@
       <c r="BN32" t="n">
         <v>0</v>
       </c>
+      <c r="BO32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6525,6 +6563,7 @@
       <c r="BN33" t="n">
         <v>0</v>
       </c>
+      <c r="BO33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6707,6 +6746,7 @@
       <c r="BN34" t="n">
         <v>1</v>
       </c>
+      <c r="BO34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6889,6 +6929,7 @@
       <c r="BN35" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -7071,6 +7112,7 @@
       <c r="BN36" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -7253,6 +7295,7 @@
       <c r="BN37" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -7435,6 +7478,7 @@
       <c r="BN38" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7617,6 +7661,7 @@
       <c r="BN39" t="n">
         <v>1</v>
       </c>
+      <c r="BO39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7799,6 +7844,7 @@
       <c r="BN40" t="n">
         <v>1</v>
       </c>
+      <c r="BO40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -7923,6 +7969,7 @@
       <c r="BN41" t="n">
         <v>0</v>
       </c>
+      <c r="BO41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -8105,6 +8152,7 @@
       <c r="BN42" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -8287,6 +8335,7 @@
       <c r="BN43" t="n">
         <v>1</v>
       </c>
+      <c r="BO43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -8469,6 +8518,7 @@
       <c r="BN44" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -8651,6 +8701,7 @@
       <c r="BN45" t="n">
         <v>0</v>
       </c>
+      <c r="BO45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -8833,6 +8884,7 @@
       <c r="BN46" t="n">
         <v>1</v>
       </c>
+      <c r="BO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -9015,6 +9067,7 @@
       <c r="BN47" t="n">
         <v>0</v>
       </c>
+      <c r="BO47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -9197,6 +9250,7 @@
       <c r="BN48" t="n">
         <v>0</v>
       </c>
+      <c r="BO48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -9379,6 +9433,7 @@
       <c r="BN49" t="n">
         <v>0</v>
       </c>
+      <c r="BO49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -9561,6 +9616,7 @@
       <c r="BN50" t="n">
         <v>0</v>
       </c>
+      <c r="BO50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -9743,6 +9799,7 @@
       <c r="BN51" t="n">
         <v>1</v>
       </c>
+      <c r="BO51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9925,6 +9982,7 @@
       <c r="BN52" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -10107,6 +10165,7 @@
       <c r="BN53" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -10289,6 +10348,7 @@
       <c r="BN54" t="n">
         <v>0</v>
       </c>
+      <c r="BO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -10471,6 +10531,7 @@
       <c r="BN55" t="n">
         <v>0</v>
       </c>
+      <c r="BO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -10653,6 +10714,7 @@
       <c r="BN56" t="n">
         <v>0</v>
       </c>
+      <c r="BO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -10835,6 +10897,7 @@
       <c r="BN57" t="n">
         <v>0</v>
       </c>
+      <c r="BO57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -11017,6 +11080,7 @@
       <c r="BN58" t="n">
         <v>0</v>
       </c>
+      <c r="BO58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -11199,6 +11263,7 @@
       <c r="BN59" t="n">
         <v>0</v>
       </c>
+      <c r="BO59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -11381,6 +11446,7 @@
       <c r="BN60" t="n">
         <v>1</v>
       </c>
+      <c r="BO60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -11563,6 +11629,7 @@
       <c r="BN61" t="n">
         <v>0</v>
       </c>
+      <c r="BO61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -11745,6 +11812,7 @@
       <c r="BN62" t="n">
         <v>0</v>
       </c>
+      <c r="BO62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -11927,6 +11995,7 @@
       <c r="BN63" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BO63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -12109,6 +12178,7 @@
       <c r="BN64" t="n">
         <v>1</v>
       </c>
+      <c r="BO64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -12291,6 +12361,7 @@
       <c r="BN65" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -12473,6 +12544,7 @@
       <c r="BN66" t="n">
         <v>0</v>
       </c>
+      <c r="BO66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -12655,6 +12727,7 @@
       <c r="BN67" t="n">
         <v>0</v>
       </c>
+      <c r="BO67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -12837,6 +12910,7 @@
       <c r="BN68" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -13019,6 +13093,7 @@
       <c r="BN69" t="n">
         <v>0</v>
       </c>
+      <c r="BO69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -13201,6 +13276,7 @@
       <c r="BN70" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BO70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -13383,6 +13459,7 @@
       <c r="BN71" t="n">
         <v>0</v>
       </c>
+      <c r="BO71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -13565,6 +13642,7 @@
       <c r="BN72" t="n">
         <v>0</v>
       </c>
+      <c r="BO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -13747,6 +13825,7 @@
       <c r="BN73" t="n">
         <v>0</v>
       </c>
+      <c r="BO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -13929,6 +14008,7 @@
       <c r="BN74" t="n">
         <v>0</v>
       </c>
+      <c r="BO74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -14111,6 +14191,7 @@
       <c r="BN75" t="n">
         <v>0</v>
       </c>
+      <c r="BO75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -14293,6 +14374,7 @@
       <c r="BN76" t="n">
         <v>0</v>
       </c>
+      <c r="BO76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -14475,6 +14557,7 @@
       <c r="BN77" t="n">
         <v>1</v>
       </c>
+      <c r="BO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -14657,6 +14740,7 @@
       <c r="BN78" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -14839,6 +14923,7 @@
       <c r="BN79" t="n">
         <v>1</v>
       </c>
+      <c r="BO79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -15021,6 +15106,7 @@
       <c r="BN80" t="n">
         <v>0</v>
       </c>
+      <c r="BO80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -15203,6 +15289,7 @@
       <c r="BN81" t="n">
         <v>0</v>
       </c>
+      <c r="BO81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -15385,6 +15472,7 @@
       <c r="BN82" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -15567,6 +15655,7 @@
       <c r="BN83" t="n">
         <v>0</v>
       </c>
+      <c r="BO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -15749,6 +15838,7 @@
       <c r="BN84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="BO84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -15931,6 +16021,7 @@
       <c r="BN85" t="n">
         <v>0</v>
       </c>
+      <c r="BO85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -16113,6 +16204,7 @@
       <c r="BN86" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -16295,6 +16387,7 @@
       <c r="BN87" t="n">
         <v>0</v>
       </c>
+      <c r="BO87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -16477,6 +16570,7 @@
       <c r="BN88" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -16659,6 +16753,7 @@
       <c r="BN89" t="n">
         <v>0</v>
       </c>
+      <c r="BO89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -16841,6 +16936,7 @@
       <c r="BN90" t="n">
         <v>0</v>
       </c>
+      <c r="BO90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -17023,6 +17119,7 @@
       <c r="BN91" t="n">
         <v>0</v>
       </c>
+      <c r="BO91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -17205,6 +17302,7 @@
       <c r="BN92" t="n">
         <v>0</v>
       </c>
+      <c r="BO92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -17387,6 +17485,7 @@
       <c r="BN93" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -17569,6 +17668,7 @@
       <c r="BN94" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -17751,6 +17851,7 @@
       <c r="BN95" t="n">
         <v>1</v>
       </c>
+      <c r="BO95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -17933,6 +18034,7 @@
       <c r="BN96" t="n">
         <v>0</v>
       </c>
+      <c r="BO96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -18115,6 +18217,7 @@
       <c r="BN97" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -18297,6 +18400,7 @@
       <c r="BN98" t="n">
         <v>1</v>
       </c>
+      <c r="BO98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -18479,6 +18583,7 @@
       <c r="BN99" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -18661,6 +18766,7 @@
       <c r="BN100" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -18843,6 +18949,7 @@
       <c r="BN101" t="n">
         <v>1</v>
       </c>
+      <c r="BO101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -19025,6 +19132,7 @@
       <c r="BN102" t="n">
         <v>0</v>
       </c>
+      <c r="BO102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -19207,6 +19315,7 @@
       <c r="BN103" t="n">
         <v>0.375</v>
       </c>
+      <c r="BO103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -19389,6 +19498,7 @@
       <c r="BN104" t="n">
         <v>1</v>
       </c>
+      <c r="BO104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -19571,6 +19681,7 @@
       <c r="BN105" t="n">
         <v>0</v>
       </c>
+      <c r="BO105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -19753,6 +19864,7 @@
       <c r="BN106" t="n">
         <v>0</v>
       </c>
+      <c r="BO106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -19935,6 +20047,7 @@
       <c r="BN107" t="n">
         <v>0</v>
       </c>
+      <c r="BO107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -20117,6 +20230,7 @@
       <c r="BN108" t="n">
         <v>0</v>
       </c>
+      <c r="BO108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -20299,6 +20413,7 @@
       <c r="BN109" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -20481,6 +20596,7 @@
       <c r="BN110" t="n">
         <v>0</v>
       </c>
+      <c r="BO110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -20663,6 +20779,7 @@
       <c r="BN111" t="n">
         <v>1</v>
       </c>
+      <c r="BO111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -20845,6 +20962,7 @@
       <c r="BN112" t="n">
         <v>1</v>
       </c>
+      <c r="BO112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -21027,6 +21145,7 @@
       <c r="BN113" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -21209,6 +21328,7 @@
       <c r="BN114" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -21391,6 +21511,7 @@
       <c r="BN115" t="n">
         <v>0</v>
       </c>
+      <c r="BO115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -21573,6 +21694,7 @@
       <c r="BN116" t="n">
         <v>0</v>
       </c>
+      <c r="BO116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -21755,6 +21877,7 @@
       <c r="BN117" t="n">
         <v>1</v>
       </c>
+      <c r="BO117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -21937,6 +22060,7 @@
       <c r="BN118" t="n">
         <v>0</v>
       </c>
+      <c r="BO118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -22119,6 +22243,7 @@
       <c r="BN119" t="n">
         <v>0.625</v>
       </c>
+      <c r="BO119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -22301,6 +22426,7 @@
       <c r="BN120" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -22483,6 +22609,7 @@
       <c r="BN121" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -22665,6 +22792,7 @@
       <c r="BN122" t="n">
         <v>0</v>
       </c>
+      <c r="BO122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -22847,6 +22975,7 @@
       <c r="BN123" t="n">
         <v>0</v>
       </c>
+      <c r="BO123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -23029,6 +23158,7 @@
       <c r="BN124" t="n">
         <v>0</v>
       </c>
+      <c r="BO124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -23211,6 +23341,7 @@
       <c r="BN125" t="n">
         <v>0</v>
       </c>
+      <c r="BO125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -23393,6 +23524,7 @@
       <c r="BN126" t="n">
         <v>0</v>
       </c>
+      <c r="BO126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -23575,6 +23707,7 @@
       <c r="BN127" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -23757,6 +23890,7 @@
       <c r="BN128" t="n">
         <v>0</v>
       </c>
+      <c r="BO128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -23939,6 +24073,7 @@
       <c r="BN129" t="n">
         <v>1</v>
       </c>
+      <c r="BO129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -24121,6 +24256,7 @@
       <c r="BN130" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -24303,6 +24439,7 @@
       <c r="BN131" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -24485,6 +24622,7 @@
       <c r="BN132" t="n">
         <v>0</v>
       </c>
+      <c r="BO132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -24667,6 +24805,7 @@
       <c r="BN133" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -24849,6 +24988,7 @@
       <c r="BN134" t="n">
         <v>0</v>
       </c>
+      <c r="BO134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -25031,6 +25171,7 @@
       <c r="BN135" t="n">
         <v>0</v>
       </c>
+      <c r="BO135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -25213,6 +25354,7 @@
       <c r="BN136" t="n">
         <v>0</v>
       </c>
+      <c r="BO136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -25395,6 +25537,7 @@
       <c r="BN137" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -25577,6 +25720,7 @@
       <c r="BN138" t="n">
         <v>0</v>
       </c>
+      <c r="BO138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -25759,6 +25903,7 @@
       <c r="BN139" t="n">
         <v>0</v>
       </c>
+      <c r="BO139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -25941,6 +26086,7 @@
       <c r="BN140" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -26123,6 +26269,7 @@
       <c r="BN141" t="n">
         <v>0.375</v>
       </c>
+      <c r="BO141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -26305,6 +26452,7 @@
       <c r="BN142" t="n">
         <v>0</v>
       </c>
+      <c r="BO142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -26487,6 +26635,7 @@
       <c r="BN143" t="n">
         <v>0</v>
       </c>
+      <c r="BO143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -26669,6 +26818,7 @@
       <c r="BN144" t="n">
         <v>1</v>
       </c>
+      <c r="BO144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -26851,6 +27001,7 @@
       <c r="BN145" t="n">
         <v>0</v>
       </c>
+      <c r="BO145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -27033,6 +27184,7 @@
       <c r="BN146" t="n">
         <v>0</v>
       </c>
+      <c r="BO146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -27215,6 +27367,7 @@
       <c r="BN147" t="n">
         <v>0</v>
       </c>
+      <c r="BO147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -27397,6 +27550,7 @@
       <c r="BN148" t="n">
         <v>0</v>
       </c>
+      <c r="BO148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -27579,6 +27733,7 @@
       <c r="BN149" t="n">
         <v>1</v>
       </c>
+      <c r="BO149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -27761,6 +27916,7 @@
       <c r="BN150" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -27943,6 +28099,7 @@
       <c r="BN151" t="n">
         <v>0</v>
       </c>
+      <c r="BO151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -28125,6 +28282,7 @@
       <c r="BN152" t="n">
         <v>0</v>
       </c>
+      <c r="BO152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -28307,6 +28465,7 @@
       <c r="BN153" t="n">
         <v>1</v>
       </c>
+      <c r="BO153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -28489,6 +28648,7 @@
       <c r="BN154" t="n">
         <v>0</v>
       </c>
+      <c r="BO154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -28671,6 +28831,7 @@
       <c r="BN155" t="n">
         <v>0.375</v>
       </c>
+      <c r="BO155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -28853,6 +29014,7 @@
       <c r="BN156" t="n">
         <v>0.125</v>
       </c>
+      <c r="BO156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -29035,6 +29197,7 @@
       <c r="BN157" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -29217,6 +29380,7 @@
       <c r="BN158" t="n">
         <v>1</v>
       </c>
+      <c r="BO158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -29399,6 +29563,7 @@
       <c r="BN159" t="n">
         <v>1</v>
       </c>
+      <c r="BO159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -29581,6 +29746,7 @@
       <c r="BN160" t="n">
         <v>1</v>
       </c>
+      <c r="BO160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -29763,6 +29929,7 @@
       <c r="BN161" t="n">
         <v>0</v>
       </c>
+      <c r="BO161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -29945,6 +30112,7 @@
       <c r="BN162" t="n">
         <v>0</v>
       </c>
+      <c r="BO162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -30127,6 +30295,7 @@
       <c r="BN163" t="n">
         <v>1</v>
       </c>
+      <c r="BO163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -30309,6 +30478,7 @@
       <c r="BN164" t="n">
         <v>1</v>
       </c>
+      <c r="BO164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -30491,6 +30661,7 @@
       <c r="BN165" t="n">
         <v>0</v>
       </c>
+      <c r="BO165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -30673,6 +30844,7 @@
       <c r="BN166" t="n">
         <v>1</v>
       </c>
+      <c r="BO166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -30855,6 +31027,7 @@
       <c r="BN167" t="n">
         <v>0</v>
       </c>
+      <c r="BO167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -31037,6 +31210,7 @@
       <c r="BN168" t="n">
         <v>1</v>
       </c>
+      <c r="BO168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -31219,6 +31393,7 @@
       <c r="BN169" t="n">
         <v>1</v>
       </c>
+      <c r="BO169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -31401,6 +31576,7 @@
       <c r="BN170" t="n">
         <v>1</v>
       </c>
+      <c r="BO170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -31583,6 +31759,7 @@
       <c r="BN171" t="n">
         <v>1</v>
       </c>
+      <c r="BO171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -31765,6 +31942,7 @@
       <c r="BN172" t="n">
         <v>0.625</v>
       </c>
+      <c r="BO172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -31947,6 +32125,7 @@
       <c r="BN173" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -32129,6 +32308,7 @@
       <c r="BN174" t="n">
         <v>1</v>
       </c>
+      <c r="BO174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -32311,6 +32491,7 @@
       <c r="BN175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BO175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -32493,6 +32674,7 @@
       <c r="BN176" t="n">
         <v>0</v>
       </c>
+      <c r="BO176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -32675,6 +32857,7 @@
       <c r="BN177" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BO177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -32857,6 +33040,7 @@
       <c r="BN178" t="n">
         <v>0</v>
       </c>
+      <c r="BO178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -33039,6 +33223,7 @@
       <c r="BN179" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -33221,6 +33406,7 @@
       <c r="BN180" t="n">
         <v>0.8</v>
       </c>
+      <c r="BO180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -33403,6 +33589,7 @@
       <c r="BN181" t="n">
         <v>0</v>
       </c>
+      <c r="BO181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -33585,6 +33772,7 @@
       <c r="BN182" t="n">
         <v>0</v>
       </c>
+      <c r="BO182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -33767,6 +33955,7 @@
       <c r="BN183" t="n">
         <v>1</v>
       </c>
+      <c r="BO183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -33949,6 +34138,7 @@
       <c r="BN184" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="BO184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -34131,6 +34321,7 @@
       <c r="BN185" t="n">
         <v>0</v>
       </c>
+      <c r="BO185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -34313,6 +34504,7 @@
       <c r="BN186" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -34495,6 +34687,7 @@
       <c r="BN187" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BO187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -34677,6 +34870,7 @@
       <c r="BN188" t="n">
         <v>0</v>
       </c>
+      <c r="BO188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -34859,6 +35053,7 @@
       <c r="BN189" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -35041,6 +35236,7 @@
       <c r="BN190" t="n">
         <v>0.8</v>
       </c>
+      <c r="BO190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -35223,6 +35419,7 @@
       <c r="BN191" t="n">
         <v>1</v>
       </c>
+      <c r="BO191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -35405,6 +35602,7 @@
       <c r="BN192" t="n">
         <v>0</v>
       </c>
+      <c r="BO192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -35587,6 +35785,7 @@
       <c r="BN193" t="n">
         <v>1</v>
       </c>
+      <c r="BO193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -35769,6 +35968,7 @@
       <c r="BN194" t="n">
         <v>0</v>
       </c>
+      <c r="BO194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -35951,6 +36151,7 @@
       <c r="BN195" t="n">
         <v>1</v>
       </c>
+      <c r="BO195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -36133,6 +36334,7 @@
       <c r="BN196" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -36315,6 +36517,7 @@
       <c r="BN197" t="n">
         <v>1</v>
       </c>
+      <c r="BO197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -36497,6 +36700,7 @@
       <c r="BN198" t="n">
         <v>0</v>
       </c>
+      <c r="BO198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -36679,6 +36883,7 @@
       <c r="BN199" t="n">
         <v>0</v>
       </c>
+      <c r="BO199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -36861,6 +37066,7 @@
       <c r="BN200" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -37043,6 +37249,7 @@
       <c r="BN201" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -37225,6 +37432,7 @@
       <c r="BN202" t="n">
         <v>0.8</v>
       </c>
+      <c r="BO202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -37407,6 +37615,7 @@
       <c r="BN203" t="n">
         <v>0</v>
       </c>
+      <c r="BO203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -37589,6 +37798,7 @@
       <c r="BN204" t="n">
         <v>0</v>
       </c>
+      <c r="BO204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -37771,6 +37981,7 @@
       <c r="BN205" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BO205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -37883,6 +38094,7 @@
       <c r="BN206" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -38065,6 +38277,7 @@
       <c r="BN207" t="n">
         <v>0.4</v>
       </c>
+      <c r="BO207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -38247,6 +38460,7 @@
       <c r="BN208" t="n">
         <v>1</v>
       </c>
+      <c r="BO208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -38429,6 +38643,7 @@
       <c r="BN209" t="n">
         <v>0</v>
       </c>
+      <c r="BO209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -38611,6 +38826,7 @@
       <c r="BN210" t="n">
         <v>0</v>
       </c>
+      <c r="BO210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -38793,6 +39009,7 @@
       <c r="BN211" t="n">
         <v>0.375</v>
       </c>
+      <c r="BO211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -38975,6 +39192,7 @@
       <c r="BN212" t="n">
         <v>0.1818181818181818</v>
       </c>
+      <c r="BO212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -39157,6 +39375,7 @@
       <c r="BN213" t="n">
         <v>0</v>
       </c>
+      <c r="BO213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -39339,6 +39558,7 @@
       <c r="BN214" t="n">
         <v>0</v>
       </c>
+      <c r="BO214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -39521,6 +39741,7 @@
       <c r="BN215" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -39703,6 +39924,7 @@
       <c r="BN216" t="n">
         <v>0</v>
       </c>
+      <c r="BO216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -39885,6 +40107,7 @@
       <c r="BN217" t="n">
         <v>1</v>
       </c>
+      <c r="BO217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -40067,6 +40290,7 @@
       <c r="BN218" t="n">
         <v>1</v>
       </c>
+      <c r="BO218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -40249,6 +40473,7 @@
       <c r="BN219" t="n">
         <v>1</v>
       </c>
+      <c r="BO219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -40431,6 +40656,7 @@
       <c r="BN220" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -40613,6 +40839,7 @@
       <c r="BN221" t="n">
         <v>0</v>
       </c>
+      <c r="BO221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -40795,6 +41022,7 @@
       <c r="BN222" t="n">
         <v>0</v>
       </c>
+      <c r="BO222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -40977,6 +41205,7 @@
       <c r="BN223" t="n">
         <v>0.8</v>
       </c>
+      <c r="BO223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -41159,6 +41388,7 @@
       <c r="BN224" t="n">
         <v>0</v>
       </c>
+      <c r="BO224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -41341,6 +41571,7 @@
       <c r="BN225" t="n">
         <v>0</v>
       </c>
+      <c r="BO225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -41523,6 +41754,7 @@
       <c r="BN226" t="n">
         <v>0</v>
       </c>
+      <c r="BO226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -41705,6 +41937,7 @@
       <c r="BN227" t="n">
         <v>1</v>
       </c>
+      <c r="BO227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -41887,6 +42120,7 @@
       <c r="BN228" t="n">
         <v>0</v>
       </c>
+      <c r="BO228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -42069,6 +42303,7 @@
       <c r="BN229" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -42251,6 +42486,7 @@
       <c r="BN230" t="n">
         <v>1</v>
       </c>
+      <c r="BO230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -42433,6 +42669,7 @@
       <c r="BN231" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -42615,6 +42852,7 @@
       <c r="BN232" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -42797,6 +43035,7 @@
       <c r="BN233" t="n">
         <v>0</v>
       </c>
+      <c r="BO233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -42979,6 +43218,7 @@
       <c r="BN234" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -43161,6 +43401,7 @@
       <c r="BN235" t="n">
         <v>1</v>
       </c>
+      <c r="BO235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -43343,6 +43584,7 @@
       <c r="BN236" t="n">
         <v>0</v>
       </c>
+      <c r="BO236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -43525,6 +43767,7 @@
       <c r="BN237" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -43707,6 +43950,7 @@
       <c r="BN238" t="n">
         <v>0</v>
       </c>
+      <c r="BO238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -43889,6 +44133,7 @@
       <c r="BN239" t="n">
         <v>0</v>
       </c>
+      <c r="BO239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -44071,6 +44316,7 @@
       <c r="BN240" t="n">
         <v>1</v>
       </c>
+      <c r="BO240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -44253,6 +44499,7 @@
       <c r="BN241" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -44435,6 +44682,7 @@
       <c r="BN242" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -44617,6 +44865,7 @@
       <c r="BN243" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -44799,6 +45048,7 @@
       <c r="BN244" t="n">
         <v>1</v>
       </c>
+      <c r="BO244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -44981,6 +45231,7 @@
       <c r="BN245" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -45163,6 +45414,7 @@
       <c r="BN246" t="n">
         <v>0</v>
       </c>
+      <c r="BO246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -45345,6 +45597,7 @@
       <c r="BN247" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -45527,6 +45780,7 @@
       <c r="BN248" t="n">
         <v>0.4</v>
       </c>
+      <c r="BO248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -45709,6 +45963,7 @@
       <c r="BN249" t="n">
         <v>0</v>
       </c>
+      <c r="BO249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -45891,6 +46146,7 @@
       <c r="BN250" t="n">
         <v>0</v>
       </c>
+      <c r="BO250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -46073,6 +46329,7 @@
       <c r="BN251" t="n">
         <v>0.375</v>
       </c>
+      <c r="BO251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -46255,6 +46512,7 @@
       <c r="BN252" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -46437,6 +46695,7 @@
       <c r="BN253" t="n">
         <v>0</v>
       </c>
+      <c r="BO253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -46619,6 +46878,7 @@
       <c r="BN254" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -46801,6 +47061,7 @@
       <c r="BN255" t="n">
         <v>1</v>
       </c>
+      <c r="BO255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -46983,6 +47244,7 @@
       <c r="BN256" t="n">
         <v>0</v>
       </c>
+      <c r="BO256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -47165,6 +47427,7 @@
       <c r="BN257" t="n">
         <v>1</v>
       </c>
+      <c r="BO257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -47347,6 +47610,7 @@
       <c r="BN258" t="n">
         <v>0.6</v>
       </c>
+      <c r="BO258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -47529,6 +47793,7 @@
       <c r="BN259" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -47711,6 +47976,7 @@
       <c r="BN260" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -47893,6 +48159,7 @@
       <c r="BN261" t="n">
         <v>1</v>
       </c>
+      <c r="BO261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -48075,6 +48342,7 @@
       <c r="BN262" t="n">
         <v>0</v>
       </c>
+      <c r="BO262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -48257,6 +48525,7 @@
       <c r="BN263" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -48439,6 +48708,7 @@
       <c r="BN264" t="n">
         <v>1</v>
       </c>
+      <c r="BO264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -48621,6 +48891,7 @@
       <c r="BN265" t="n">
         <v>0</v>
       </c>
+      <c r="BO265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -48803,6 +49074,7 @@
       <c r="BN266" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -48985,6 +49257,7 @@
       <c r="BN267" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -49167,6 +49440,7 @@
       <c r="BN268" t="n">
         <v>0</v>
       </c>
+      <c r="BO268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -49349,6 +49623,7 @@
       <c r="BN269" t="n">
         <v>0</v>
       </c>
+      <c r="BO269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -49531,6 +49806,7 @@
       <c r="BN270" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="BO270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -49613,6 +49889,7 @@
       <c r="BL271" t="inlineStr"/>
       <c r="BM271" t="inlineStr"/>
       <c r="BN271" t="inlineStr"/>
+      <c r="BO271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -49795,6 +50072,7 @@
       <c r="BN272" t="n">
         <v>1</v>
       </c>
+      <c r="BO272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -49977,6 +50255,7 @@
       <c r="BN273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BO273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -50159,6 +50438,7 @@
       <c r="BN274" t="n">
         <v>0</v>
       </c>
+      <c r="BO274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -50341,6 +50621,7 @@
       <c r="BN275" t="n">
         <v>1</v>
       </c>
+      <c r="BO275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -50523,6 +50804,7 @@
       <c r="BN276" t="n">
         <v>0</v>
       </c>
+      <c r="BO276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -50705,6 +50987,7 @@
       <c r="BN277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="BO277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -50887,6 +51170,7 @@
       <c r="BN278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BO278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -51069,6 +51353,7 @@
       <c r="BN279" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BO279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -51251,6 +51536,7 @@
       <c r="BN280" t="n">
         <v>0</v>
       </c>
+      <c r="BO280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -51433,6 +51719,7 @@
       <c r="BN281" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -51615,6 +51902,7 @@
       <c r="BN282" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="BO282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -51797,6 +52085,7 @@
       <c r="BN283" t="n">
         <v>0.625</v>
       </c>
+      <c r="BO283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -51979,6 +52268,7 @@
       <c r="BN284" t="n">
         <v>1</v>
       </c>
+      <c r="BO284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -52161,6 +52451,7 @@
       <c r="BN285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="BO285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -52343,6 +52634,7 @@
       <c r="BN286" t="n">
         <v>0.8</v>
       </c>
+      <c r="BO286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -52525,6 +52817,7 @@
       <c r="BN287" t="n">
         <v>0</v>
       </c>
+      <c r="BO287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -52707,6 +53000,7 @@
       <c r="BN288" t="n">
         <v>1</v>
       </c>
+      <c r="BO288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -52889,6 +53183,7 @@
       <c r="BN289" t="n">
         <v>0</v>
       </c>
+      <c r="BO289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -53071,6 +53366,7 @@
       <c r="BN290" t="n">
         <v>0</v>
       </c>
+      <c r="BO290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -53253,6 +53549,7 @@
       <c r="BN291" t="n">
         <v>1</v>
       </c>
+      <c r="BO291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -53435,6 +53732,7 @@
       <c r="BN292" t="n">
         <v>0</v>
       </c>
+      <c r="BO292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -53617,6 +53915,7 @@
       <c r="BN293" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BO293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -53799,6 +54098,7 @@
       <c r="BN294" t="n">
         <v>0</v>
       </c>
+      <c r="BO294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -53981,6 +54281,7 @@
       <c r="BN295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="BO295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -54163,6 +54464,7 @@
       <c r="BN296" t="n">
         <v>0.375</v>
       </c>
+      <c r="BO296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -54345,6 +54647,7 @@
       <c r="BN297" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="BO297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -54527,6 +54830,7 @@
       <c r="BN298" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BO298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -54709,6 +55013,7 @@
       <c r="BN299" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BO299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -54891,6 +55196,7 @@
       <c r="BN300" t="n">
         <v>0</v>
       </c>
+      <c r="BO300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -55073,6 +55379,7 @@
       <c r="BN301" t="n">
         <v>1</v>
       </c>
+      <c r="BO301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -55255,6 +55562,7 @@
       <c r="BN302" t="n">
         <v>0</v>
       </c>
+      <c r="BO302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -55437,6 +55745,7 @@
       <c r="BN303" t="n">
         <v>1</v>
       </c>
+      <c r="BO303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -55619,6 +55928,7 @@
       <c r="BN304" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -55801,6 +56111,7 @@
       <c r="BN305" t="n">
         <v>0</v>
       </c>
+      <c r="BO305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -55983,6 +56294,7 @@
       <c r="BN306" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="BO306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -56165,6 +56477,7 @@
       <c r="BN307" t="n">
         <v>0</v>
       </c>
+      <c r="BO307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -56347,6 +56660,7 @@
       <c r="BN308" t="n">
         <v>0</v>
       </c>
+      <c r="BO308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -56529,6 +56843,7 @@
       <c r="BN309" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -56711,6 +57026,7 @@
       <c r="BN310" t="n">
         <v>0</v>
       </c>
+      <c r="BO310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -56893,6 +57209,7 @@
       <c r="BN311" t="n">
         <v>0</v>
       </c>
+      <c r="BO311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -57075,6 +57392,7 @@
       <c r="BN312" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -57257,6 +57575,7 @@
       <c r="BN313" t="n">
         <v>1</v>
       </c>
+      <c r="BO313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -57439,6 +57758,7 @@
       <c r="BN314" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -57621,6 +57941,7 @@
       <c r="BN315" t="n">
         <v>0</v>
       </c>
+      <c r="BO315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -57803,6 +58124,7 @@
       <c r="BN316" t="n">
         <v>0.6</v>
       </c>
+      <c r="BO316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -57985,6 +58307,7 @@
       <c r="BN317" t="n">
         <v>0</v>
       </c>
+      <c r="BO317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -58167,6 +58490,7 @@
       <c r="BN318" t="n">
         <v>0</v>
       </c>
+      <c r="BO318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -58349,6 +58673,7 @@
       <c r="BN319" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -58531,6 +58856,7 @@
       <c r="BN320" t="n">
         <v>1</v>
       </c>
+      <c r="BO320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -58713,6 +59039,7 @@
       <c r="BN321" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -58895,6 +59222,7 @@
       <c r="BN322" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -59077,6 +59405,7 @@
       <c r="BN323" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -59259,6 +59588,7 @@
       <c r="BN324" t="n">
         <v>0</v>
       </c>
+      <c r="BO324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -59441,6 +59771,7 @@
       <c r="BN325" t="n">
         <v>1</v>
       </c>
+      <c r="BO325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -59623,6 +59954,7 @@
       <c r="BN326" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -59805,6 +60137,7 @@
       <c r="BN327" t="n">
         <v>0</v>
       </c>
+      <c r="BO327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -59987,6 +60320,7 @@
       <c r="BN328" t="n">
         <v>1</v>
       </c>
+      <c r="BO328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -60169,6 +60503,7 @@
       <c r="BN329" t="n">
         <v>1</v>
       </c>
+      <c r="BO329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -60351,6 +60686,7 @@
       <c r="BN330" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -60533,6 +60869,7 @@
       <c r="BN331" t="n">
         <v>1</v>
       </c>
+      <c r="BO331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -60715,6 +61052,7 @@
       <c r="BN332" t="n">
         <v>0</v>
       </c>
+      <c r="BO332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -60897,6 +61235,7 @@
       <c r="BN333" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -61079,6 +61418,7 @@
       <c r="BN334" t="n">
         <v>1</v>
       </c>
+      <c r="BO334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -61261,6 +61601,7 @@
       <c r="BN335" t="n">
         <v>0</v>
       </c>
+      <c r="BO335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -61443,6 +61784,7 @@
       <c r="BN336" t="n">
         <v>1</v>
       </c>
+      <c r="BO336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -61625,6 +61967,7 @@
       <c r="BN337" t="n">
         <v>0</v>
       </c>
+      <c r="BO337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -61807,6 +62150,7 @@
       <c r="BN338" t="n">
         <v>1</v>
       </c>
+      <c r="BO338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -61989,6 +62333,7 @@
       <c r="BN339" t="n">
         <v>1</v>
       </c>
+      <c r="BO339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -62171,6 +62516,7 @@
       <c r="BN340" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -62353,6 +62699,7 @@
       <c r="BN341" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -62535,6 +62882,7 @@
       <c r="BN342" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -62717,6 +63065,7 @@
       <c r="BN343" t="n">
         <v>0</v>
       </c>
+      <c r="BO343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -62899,6 +63248,7 @@
       <c r="BN344" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -63081,6 +63431,7 @@
       <c r="BN345" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -63263,6 +63614,7 @@
       <c r="BN346" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -63445,6 +63797,7 @@
       <c r="BN347" t="n">
         <v>0</v>
       </c>
+      <c r="BO347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -63627,6 +63980,7 @@
       <c r="BN348" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -63809,6 +64163,7 @@
       <c r="BN349" t="n">
         <v>0</v>
       </c>
+      <c r="BO349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -63991,6 +64346,7 @@
       <c r="BN350" t="n">
         <v>1</v>
       </c>
+      <c r="BO350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -64173,6 +64529,7 @@
       <c r="BN351" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -64355,6 +64712,7 @@
       <c r="BN352" t="n">
         <v>0</v>
       </c>
+      <c r="BO352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -64537,6 +64895,7 @@
       <c r="BN353" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -64719,6 +65078,7 @@
       <c r="BN354" t="n">
         <v>0.625</v>
       </c>
+      <c r="BO354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -64901,6 +65261,7 @@
       <c r="BN355" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -65083,6 +65444,7 @@
       <c r="BN356" t="n">
         <v>0</v>
       </c>
+      <c r="BO356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -65265,6 +65627,7 @@
       <c r="BN357" t="n">
         <v>0.6</v>
       </c>
+      <c r="BO357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -65447,6 +65810,7 @@
       <c r="BN358" t="n">
         <v>1</v>
       </c>
+      <c r="BO358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -65629,6 +65993,7 @@
       <c r="BN359" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -65811,6 +66176,7 @@
       <c r="BN360" t="n">
         <v>0.4</v>
       </c>
+      <c r="BO360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -65993,6 +66359,7 @@
       <c r="BN361" t="n">
         <v>1</v>
       </c>
+      <c r="BO361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -66175,6 +66542,7 @@
       <c r="BN362" t="n">
         <v>1</v>
       </c>
+      <c r="BO362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -66357,6 +66725,7 @@
       <c r="BN363" t="n">
         <v>0</v>
       </c>
+      <c r="BO363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -66539,6 +66908,7 @@
       <c r="BN364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="BO364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -66721,6 +67091,7 @@
       <c r="BN365" t="n">
         <v>1</v>
       </c>
+      <c r="BO365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -66903,6 +67274,7 @@
       <c r="BN366" t="n">
         <v>0.625</v>
       </c>
+      <c r="BO366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -67085,6 +67457,7 @@
       <c r="BN367" t="n">
         <v>0.4</v>
       </c>
+      <c r="BO367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -67267,6 +67640,7 @@
       <c r="BN368" t="n">
         <v>1</v>
       </c>
+      <c r="BO368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -67449,6 +67823,7 @@
       <c r="BN369" t="n">
         <v>1</v>
       </c>
+      <c r="BO369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -67631,6 +68006,7 @@
       <c r="BN370" t="n">
         <v>0</v>
       </c>
+      <c r="BO370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -67813,6 +68189,7 @@
       <c r="BN371" t="n">
         <v>1</v>
       </c>
+      <c r="BO371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -67995,6 +68372,7 @@
       <c r="BN372" t="n">
         <v>1</v>
       </c>
+      <c r="BO372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -68177,6 +68555,7 @@
       <c r="BN373" t="n">
         <v>0</v>
       </c>
+      <c r="BO373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -68359,6 +68738,7 @@
       <c r="BN374" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -68541,6 +68921,7 @@
       <c r="BN375" t="n">
         <v>1</v>
       </c>
+      <c r="BO375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -68723,6 +69104,7 @@
       <c r="BN376" t="n">
         <v>0</v>
       </c>
+      <c r="BO376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -68905,6 +69287,7 @@
       <c r="BN377" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -69087,6 +69470,7 @@
       <c r="BN378" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -69269,6 +69653,7 @@
       <c r="BN379" t="n">
         <v>1</v>
       </c>
+      <c r="BO379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -69451,6 +69836,7 @@
       <c r="BN380" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -69633,6 +70019,7 @@
       <c r="BN381" t="n">
         <v>0.25</v>
       </c>
+      <c r="BO381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -69815,6 +70202,7 @@
       <c r="BN382" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -69997,6 +70385,7 @@
       <c r="BN383" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="BO383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -70179,6 +70568,7 @@
       <c r="BN384" t="n">
         <v>1</v>
       </c>
+      <c r="BO384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -70361,6 +70751,7 @@
       <c r="BN385" t="n">
         <v>0</v>
       </c>
+      <c r="BO385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -70543,6 +70934,7 @@
       <c r="BN386" t="n">
         <v>1</v>
       </c>
+      <c r="BO386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -70725,6 +71117,7 @@
       <c r="BN387" t="n">
         <v>1</v>
       </c>
+      <c r="BO387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -70907,6 +71300,7 @@
       <c r="BN388" t="n">
         <v>1</v>
       </c>
+      <c r="BO388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -71089,6 +71483,7 @@
       <c r="BN389" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -71271,6 +71666,7 @@
       <c r="BN390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="BO390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -71453,6 +71849,7 @@
       <c r="BN391" t="n">
         <v>0</v>
       </c>
+      <c r="BO391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -71635,6 +72032,7 @@
       <c r="BN392" t="n">
         <v>0.1818181818181818</v>
       </c>
+      <c r="BO392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -71817,6 +72215,7 @@
       <c r="BN393" t="n">
         <v>1</v>
       </c>
+      <c r="BO393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -71999,6 +72398,7 @@
       <c r="BN394" t="n">
         <v>1</v>
       </c>
+      <c r="BO394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -72181,6 +72581,7 @@
       <c r="BN395" t="n">
         <v>1</v>
       </c>
+      <c r="BO395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -72363,6 +72764,7 @@
       <c r="BN396" t="n">
         <v>1</v>
       </c>
+      <c r="BO396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -72545,6 +72947,7 @@
       <c r="BN397" t="n">
         <v>1</v>
       </c>
+      <c r="BO397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -72727,6 +73130,7 @@
       <c r="BN398" t="n">
         <v>1</v>
       </c>
+      <c r="BO398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -72909,6 +73313,7 @@
       <c r="BN399" t="n">
         <v>0</v>
       </c>
+      <c r="BO399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -73091,6 +73496,7 @@
       <c r="BN400" t="n">
         <v>0.75</v>
       </c>
+      <c r="BO400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -73273,6 +73679,7 @@
       <c r="BN401" t="n">
         <v>0</v>
       </c>
+      <c r="BO401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -73455,6 +73862,7 @@
       <c r="BN402" t="n">
         <v>0.5</v>
       </c>
+      <c r="BO402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -73637,6 +74045,7 @@
       <c r="BN403" t="n">
         <v>1</v>
       </c>
+      <c r="BO403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -73719,6 +74128,7 @@
       <c r="BL404" t="inlineStr"/>
       <c r="BM404" t="inlineStr"/>
       <c r="BN404" t="inlineStr"/>
+      <c r="BO404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -73921,6 +74331,9 @@
       <c r="BN405" t="n">
         <v>822</v>
       </c>
+      <c r="BO405" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -74123,6 +74536,9 @@
       <c r="BN406" t="n">
         <v>2188</v>
       </c>
+      <c r="BO406" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -74325,6 +74741,9 @@
       <c r="BN407" t="n">
         <v>0.3757</v>
       </c>
+      <c r="BO407" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -74527,6 +74946,9 @@
       <c r="BN408" t="n">
         <v>1978</v>
       </c>
+      <c r="BO408" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -74729,6 +75151,9 @@
       <c r="BN409" t="n">
         <v>2188</v>
       </c>
+      <c r="BO409" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -74931,6 +75356,9 @@
       <c r="BN410" t="n">
         <v>0.904</v>
       </c>
+      <c r="BO410" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -75111,6 +75539,9 @@
       <c r="BN411" t="n">
         <v>1217</v>
       </c>
+      <c r="BO411" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -75313,6 +75744,9 @@
       <c r="BN412" t="n">
         <v>2188</v>
       </c>
+      <c r="BO412" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -75491,6 +75925,9 @@
       <c r="BN413" t="n">
         <v>0.5562</v>
       </c>
+      <c r="BO413" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -75693,6 +76130,9 @@
       <c r="BN414" t="n">
         <v>822</v>
       </c>
+      <c r="BO414" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -75895,6 +76335,9 @@
       <c r="BN415" t="n">
         <v>2188</v>
       </c>
+      <c r="BO415" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -76097,6 +76540,9 @@
       <c r="BN416" t="n">
         <v>0.3757</v>
       </c>
+      <c r="BO416" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -76299,6 +76745,9 @@
       <c r="BN417" t="n">
         <v>2140</v>
       </c>
+      <c r="BO417" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -76501,6 +76950,9 @@
       <c r="BN418" t="n">
         <v>2188</v>
       </c>
+      <c r="BO418" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -76703,6 +77155,9 @@
       <c r="BN419" t="n">
         <v>0.9781</v>
       </c>
+      <c r="BO419" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO419"/>
+  <dimension ref="A1:BP419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,11 @@
           <t>2025-09-09</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -949,6 +954,9 @@
       <c r="BO2" t="n">
         <v>0.4</v>
       </c>
+      <c r="BP2" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1132,6 +1140,9 @@
         <v>1</v>
       </c>
       <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1315,6 +1326,9 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1498,6 +1512,9 @@
         <v>1</v>
       </c>
       <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1681,6 +1698,9 @@
         <v>0.25</v>
       </c>
       <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1864,6 +1884,9 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2047,6 +2070,9 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2230,6 +2256,9 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2413,6 +2442,9 @@
         <v>0.6</v>
       </c>
       <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2596,6 +2628,9 @@
         <v>1</v>
       </c>
       <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2721,6 +2756,9 @@
         <v>0.5</v>
       </c>
       <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2904,6 +2942,9 @@
         <v>0</v>
       </c>
       <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3087,6 +3128,9 @@
         <v>0</v>
       </c>
       <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3270,6 +3314,9 @@
         <v>0.75</v>
       </c>
       <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3453,6 +3500,9 @@
         <v>1</v>
       </c>
       <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3636,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3819,6 +3872,9 @@
         <v>1</v>
       </c>
       <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4002,6 +4058,9 @@
         <v>0.25</v>
       </c>
       <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4185,6 +4244,9 @@
         <v>0</v>
       </c>
       <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4368,6 +4430,9 @@
         <v>1</v>
       </c>
       <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4551,6 +4616,9 @@
         <v>0.5</v>
       </c>
       <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4734,6 +4802,9 @@
         <v>0.25</v>
       </c>
       <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4917,6 +4988,9 @@
         <v>0.2</v>
       </c>
       <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -5100,6 +5174,9 @@
         <v>0.5</v>
       </c>
       <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -5283,6 +5360,9 @@
         <v>0.5</v>
       </c>
       <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5466,6 +5546,9 @@
         <v>0.5</v>
       </c>
       <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5649,6 +5732,9 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5832,6 +5918,9 @@
         <v>1</v>
       </c>
       <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -6015,6 +6104,9 @@
         <v>0.5</v>
       </c>
       <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -6198,6 +6290,9 @@
         <v>0</v>
       </c>
       <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -6381,6 +6476,9 @@
         <v>0</v>
       </c>
       <c r="BO32" t="inlineStr"/>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6564,6 +6662,9 @@
         <v>0</v>
       </c>
       <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6747,6 +6848,9 @@
         <v>1</v>
       </c>
       <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6930,6 +7034,9 @@
         <v>0.5</v>
       </c>
       <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -7113,6 +7220,9 @@
         <v>0.25</v>
       </c>
       <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -7296,6 +7406,9 @@
         <v>0.5</v>
       </c>
       <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -7479,6 +7592,9 @@
         <v>0.5</v>
       </c>
       <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7662,6 +7778,9 @@
         <v>1</v>
       </c>
       <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7845,6 +7964,9 @@
         <v>1</v>
       </c>
       <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -7970,6 +8092,9 @@
         <v>0</v>
       </c>
       <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -8153,6 +8278,9 @@
         <v>0.5</v>
       </c>
       <c r="BO42" t="inlineStr"/>
+      <c r="BP42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -8336,6 +8464,9 @@
         <v>1</v>
       </c>
       <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -8519,6 +8650,9 @@
         <v>0.5</v>
       </c>
       <c r="BO44" t="inlineStr"/>
+      <c r="BP44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -8702,6 +8836,9 @@
         <v>0</v>
       </c>
       <c r="BO45" t="inlineStr"/>
+      <c r="BP45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -8885,6 +9022,9 @@
         <v>1</v>
       </c>
       <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -9068,6 +9208,9 @@
         <v>0</v>
       </c>
       <c r="BO47" t="inlineStr"/>
+      <c r="BP47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -9251,6 +9394,9 @@
         <v>0</v>
       </c>
       <c r="BO48" t="inlineStr"/>
+      <c r="BP48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -9434,6 +9580,9 @@
         <v>0</v>
       </c>
       <c r="BO49" t="inlineStr"/>
+      <c r="BP49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -9617,6 +9766,9 @@
         <v>0</v>
       </c>
       <c r="BO50" t="inlineStr"/>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -9800,6 +9952,9 @@
         <v>1</v>
       </c>
       <c r="BO51" t="inlineStr"/>
+      <c r="BP51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -9983,6 +10138,9 @@
         <v>0.25</v>
       </c>
       <c r="BO52" t="inlineStr"/>
+      <c r="BP52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -10166,6 +10324,9 @@
         <v>0.5</v>
       </c>
       <c r="BO53" t="inlineStr"/>
+      <c r="BP53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -10349,6 +10510,9 @@
         <v>0</v>
       </c>
       <c r="BO54" t="inlineStr"/>
+      <c r="BP54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -10532,6 +10696,9 @@
         <v>0</v>
       </c>
       <c r="BO55" t="inlineStr"/>
+      <c r="BP55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -10715,6 +10882,9 @@
         <v>0</v>
       </c>
       <c r="BO56" t="inlineStr"/>
+      <c r="BP56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -10898,6 +11068,9 @@
         <v>0</v>
       </c>
       <c r="BO57" t="inlineStr"/>
+      <c r="BP57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -11081,6 +11254,9 @@
         <v>0</v>
       </c>
       <c r="BO58" t="inlineStr"/>
+      <c r="BP58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -11264,6 +11440,9 @@
         <v>0</v>
       </c>
       <c r="BO59" t="inlineStr"/>
+      <c r="BP59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -11447,6 +11626,9 @@
         <v>1</v>
       </c>
       <c r="BO60" t="inlineStr"/>
+      <c r="BP60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -11630,6 +11812,9 @@
         <v>0</v>
       </c>
       <c r="BO61" t="inlineStr"/>
+      <c r="BP61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -11813,6 +11998,9 @@
         <v>0</v>
       </c>
       <c r="BO62" t="inlineStr"/>
+      <c r="BP62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -11996,6 +12184,9 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BO63" t="inlineStr"/>
+      <c r="BP63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -12179,6 +12370,9 @@
         <v>1</v>
       </c>
       <c r="BO64" t="inlineStr"/>
+      <c r="BP64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -12362,6 +12556,9 @@
         <v>0.125</v>
       </c>
       <c r="BO65" t="inlineStr"/>
+      <c r="BP65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -12545,6 +12742,9 @@
         <v>0</v>
       </c>
       <c r="BO66" t="inlineStr"/>
+      <c r="BP66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -12728,6 +12928,9 @@
         <v>0</v>
       </c>
       <c r="BO67" t="inlineStr"/>
+      <c r="BP67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -12911,6 +13114,9 @@
         <v>0.125</v>
       </c>
       <c r="BO68" t="inlineStr"/>
+      <c r="BP68" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -13094,6 +13300,9 @@
         <v>0</v>
       </c>
       <c r="BO69" t="inlineStr"/>
+      <c r="BP69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -13277,6 +13486,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BO70" t="inlineStr"/>
+      <c r="BP70" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -13460,6 +13672,9 @@
         <v>0</v>
       </c>
       <c r="BO71" t="inlineStr"/>
+      <c r="BP71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -13643,6 +13858,9 @@
         <v>0</v>
       </c>
       <c r="BO72" t="inlineStr"/>
+      <c r="BP72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -13826,6 +14044,9 @@
         <v>0</v>
       </c>
       <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -14009,6 +14230,9 @@
         <v>0</v>
       </c>
       <c r="BO74" t="inlineStr"/>
+      <c r="BP74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -14192,6 +14416,9 @@
         <v>0</v>
       </c>
       <c r="BO75" t="inlineStr"/>
+      <c r="BP75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -14375,6 +14602,9 @@
         <v>0</v>
       </c>
       <c r="BO76" t="inlineStr"/>
+      <c r="BP76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -14558,6 +14788,9 @@
         <v>1</v>
       </c>
       <c r="BO77" t="inlineStr"/>
+      <c r="BP77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -14741,6 +14974,9 @@
         <v>0.125</v>
       </c>
       <c r="BO78" t="inlineStr"/>
+      <c r="BP78" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -14924,6 +15160,9 @@
         <v>1</v>
       </c>
       <c r="BO79" t="inlineStr"/>
+      <c r="BP79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -15107,6 +15346,9 @@
         <v>0</v>
       </c>
       <c r="BO80" t="inlineStr"/>
+      <c r="BP80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -15290,6 +15532,9 @@
         <v>0</v>
       </c>
       <c r="BO81" t="inlineStr"/>
+      <c r="BP81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -15473,6 +15718,9 @@
         <v>0.125</v>
       </c>
       <c r="BO82" t="inlineStr"/>
+      <c r="BP82" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -15656,6 +15904,9 @@
         <v>0</v>
       </c>
       <c r="BO83" t="inlineStr"/>
+      <c r="BP83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -15839,6 +16090,9 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="BO84" t="inlineStr"/>
+      <c r="BP84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -16022,6 +16276,9 @@
         <v>0</v>
       </c>
       <c r="BO85" t="inlineStr"/>
+      <c r="BP85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -16205,6 +16462,9 @@
         <v>0.5</v>
       </c>
       <c r="BO86" t="inlineStr"/>
+      <c r="BP86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -16388,6 +16648,9 @@
         <v>0</v>
       </c>
       <c r="BO87" t="inlineStr"/>
+      <c r="BP87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -16571,6 +16834,9 @@
         <v>0.125</v>
       </c>
       <c r="BO88" t="inlineStr"/>
+      <c r="BP88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -16754,6 +17020,9 @@
         <v>0</v>
       </c>
       <c r="BO89" t="inlineStr"/>
+      <c r="BP89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -16937,6 +17206,9 @@
         <v>0</v>
       </c>
       <c r="BO90" t="inlineStr"/>
+      <c r="BP90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -17120,6 +17392,9 @@
         <v>0</v>
       </c>
       <c r="BO91" t="inlineStr"/>
+      <c r="BP91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -17303,6 +17578,9 @@
         <v>0</v>
       </c>
       <c r="BO92" t="inlineStr"/>
+      <c r="BP92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -17486,6 +17764,9 @@
         <v>0.25</v>
       </c>
       <c r="BO93" t="inlineStr"/>
+      <c r="BP93" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -17669,6 +17950,9 @@
         <v>0.25</v>
       </c>
       <c r="BO94" t="inlineStr"/>
+      <c r="BP94" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -17852,6 +18136,9 @@
         <v>1</v>
       </c>
       <c r="BO95" t="inlineStr"/>
+      <c r="BP95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -18035,6 +18322,9 @@
         <v>0</v>
       </c>
       <c r="BO96" t="inlineStr"/>
+      <c r="BP96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -18218,6 +18508,9 @@
         <v>0.25</v>
       </c>
       <c r="BO97" t="inlineStr"/>
+      <c r="BP97" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -18401,6 +18694,9 @@
         <v>1</v>
       </c>
       <c r="BO98" t="inlineStr"/>
+      <c r="BP98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -18584,6 +18880,9 @@
         <v>0.125</v>
       </c>
       <c r="BO99" t="inlineStr"/>
+      <c r="BP99" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -18767,6 +19066,9 @@
         <v>0.25</v>
       </c>
       <c r="BO100" t="inlineStr"/>
+      <c r="BP100" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -18950,6 +19252,9 @@
         <v>1</v>
       </c>
       <c r="BO101" t="inlineStr"/>
+      <c r="BP101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -19133,6 +19438,9 @@
         <v>0</v>
       </c>
       <c r="BO102" t="inlineStr"/>
+      <c r="BP102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -19316,6 +19624,9 @@
         <v>0.375</v>
       </c>
       <c r="BO103" t="inlineStr"/>
+      <c r="BP103" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -19499,6 +19810,9 @@
         <v>1</v>
       </c>
       <c r="BO104" t="inlineStr"/>
+      <c r="BP104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -19682,6 +19996,9 @@
         <v>0</v>
       </c>
       <c r="BO105" t="inlineStr"/>
+      <c r="BP105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -19865,6 +20182,9 @@
         <v>0</v>
       </c>
       <c r="BO106" t="inlineStr"/>
+      <c r="BP106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -20048,6 +20368,9 @@
         <v>0</v>
       </c>
       <c r="BO107" t="inlineStr"/>
+      <c r="BP107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -20231,6 +20554,9 @@
         <v>0</v>
       </c>
       <c r="BO108" t="inlineStr"/>
+      <c r="BP108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -20414,6 +20740,9 @@
         <v>0.125</v>
       </c>
       <c r="BO109" t="inlineStr"/>
+      <c r="BP109" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -20597,6 +20926,9 @@
         <v>0</v>
       </c>
       <c r="BO110" t="inlineStr"/>
+      <c r="BP110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -20780,6 +21112,9 @@
         <v>1</v>
       </c>
       <c r="BO111" t="inlineStr"/>
+      <c r="BP111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -20963,6 +21298,9 @@
         <v>1</v>
       </c>
       <c r="BO112" t="inlineStr"/>
+      <c r="BP112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -21146,6 +21484,9 @@
         <v>0.5</v>
       </c>
       <c r="BO113" t="inlineStr"/>
+      <c r="BP113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -21329,6 +21670,9 @@
         <v>0.25</v>
       </c>
       <c r="BO114" t="inlineStr"/>
+      <c r="BP114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -21512,6 +21856,9 @@
         <v>0</v>
       </c>
       <c r="BO115" t="inlineStr"/>
+      <c r="BP115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -21695,6 +22042,9 @@
         <v>0</v>
       </c>
       <c r="BO116" t="inlineStr"/>
+      <c r="BP116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -21878,6 +22228,9 @@
         <v>1</v>
       </c>
       <c r="BO117" t="inlineStr"/>
+      <c r="BP117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -22061,6 +22414,9 @@
         <v>0</v>
       </c>
       <c r="BO118" t="inlineStr"/>
+      <c r="BP118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -22244,6 +22600,9 @@
         <v>0.625</v>
       </c>
       <c r="BO119" t="inlineStr"/>
+      <c r="BP119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -22427,6 +22786,9 @@
         <v>0.125</v>
       </c>
       <c r="BO120" t="inlineStr"/>
+      <c r="BP120" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -22610,6 +22972,9 @@
         <v>0.5</v>
       </c>
       <c r="BO121" t="inlineStr"/>
+      <c r="BP121" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -22793,6 +23158,9 @@
         <v>0</v>
       </c>
       <c r="BO122" t="inlineStr"/>
+      <c r="BP122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -22976,6 +23344,9 @@
         <v>0</v>
       </c>
       <c r="BO123" t="inlineStr"/>
+      <c r="BP123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -23159,6 +23530,9 @@
         <v>0</v>
       </c>
       <c r="BO124" t="inlineStr"/>
+      <c r="BP124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -23342,6 +23716,9 @@
         <v>0</v>
       </c>
       <c r="BO125" t="inlineStr"/>
+      <c r="BP125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -23525,6 +23902,9 @@
         <v>0</v>
       </c>
       <c r="BO126" t="inlineStr"/>
+      <c r="BP126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -23708,6 +24088,9 @@
         <v>0.25</v>
       </c>
       <c r="BO127" t="inlineStr"/>
+      <c r="BP127" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -23891,6 +24274,9 @@
         <v>0</v>
       </c>
       <c r="BO128" t="inlineStr"/>
+      <c r="BP128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -24074,6 +24460,9 @@
         <v>1</v>
       </c>
       <c r="BO129" t="inlineStr"/>
+      <c r="BP129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -24257,6 +24646,9 @@
         <v>0.5</v>
       </c>
       <c r="BO130" t="inlineStr"/>
+      <c r="BP130" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -24440,6 +24832,9 @@
         <v>0.25</v>
       </c>
       <c r="BO131" t="inlineStr"/>
+      <c r="BP131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -24623,6 +25018,9 @@
         <v>0</v>
       </c>
       <c r="BO132" t="inlineStr"/>
+      <c r="BP132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -24806,6 +25204,9 @@
         <v>0.25</v>
       </c>
       <c r="BO133" t="inlineStr"/>
+      <c r="BP133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -24989,6 +25390,9 @@
         <v>0</v>
       </c>
       <c r="BO134" t="inlineStr"/>
+      <c r="BP134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -25172,6 +25576,9 @@
         <v>0</v>
       </c>
       <c r="BO135" t="inlineStr"/>
+      <c r="BP135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -25355,6 +25762,9 @@
         <v>0</v>
       </c>
       <c r="BO136" t="inlineStr"/>
+      <c r="BP136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -25538,6 +25948,9 @@
         <v>0.125</v>
       </c>
       <c r="BO137" t="inlineStr"/>
+      <c r="BP137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -25721,6 +26134,9 @@
         <v>0</v>
       </c>
       <c r="BO138" t="inlineStr"/>
+      <c r="BP138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -25904,6 +26320,9 @@
         <v>0</v>
       </c>
       <c r="BO139" t="inlineStr"/>
+      <c r="BP139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -26087,6 +26506,9 @@
         <v>0.125</v>
       </c>
       <c r="BO140" t="inlineStr"/>
+      <c r="BP140" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -26270,6 +26692,9 @@
         <v>0.375</v>
       </c>
       <c r="BO141" t="inlineStr"/>
+      <c r="BP141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -26453,6 +26878,9 @@
         <v>0</v>
       </c>
       <c r="BO142" t="inlineStr"/>
+      <c r="BP142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -26636,6 +27064,9 @@
         <v>0</v>
       </c>
       <c r="BO143" t="inlineStr"/>
+      <c r="BP143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -26819,6 +27250,9 @@
         <v>1</v>
       </c>
       <c r="BO144" t="inlineStr"/>
+      <c r="BP144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -27002,6 +27436,9 @@
         <v>0</v>
       </c>
       <c r="BO145" t="inlineStr"/>
+      <c r="BP145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -27185,6 +27622,9 @@
         <v>0</v>
       </c>
       <c r="BO146" t="inlineStr"/>
+      <c r="BP146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -27368,6 +27808,9 @@
         <v>0</v>
       </c>
       <c r="BO147" t="inlineStr"/>
+      <c r="BP147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -27551,6 +27994,9 @@
         <v>0</v>
       </c>
       <c r="BO148" t="inlineStr"/>
+      <c r="BP148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -27734,6 +28180,9 @@
         <v>1</v>
       </c>
       <c r="BO149" t="inlineStr"/>
+      <c r="BP149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -27917,6 +28366,9 @@
         <v>0.5</v>
       </c>
       <c r="BO150" t="inlineStr"/>
+      <c r="BP150" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -28100,6 +28552,9 @@
         <v>0</v>
       </c>
       <c r="BO151" t="inlineStr"/>
+      <c r="BP151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -28283,6 +28738,9 @@
         <v>0</v>
       </c>
       <c r="BO152" t="inlineStr"/>
+      <c r="BP152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -28466,6 +28924,9 @@
         <v>1</v>
       </c>
       <c r="BO153" t="inlineStr"/>
+      <c r="BP153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -28649,6 +29110,9 @@
         <v>0</v>
       </c>
       <c r="BO154" t="inlineStr"/>
+      <c r="BP154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -28832,6 +29296,9 @@
         <v>0.375</v>
       </c>
       <c r="BO155" t="inlineStr"/>
+      <c r="BP155" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -29015,6 +29482,9 @@
         <v>0.125</v>
       </c>
       <c r="BO156" t="inlineStr"/>
+      <c r="BP156" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -29198,6 +29668,9 @@
         <v>0.75</v>
       </c>
       <c r="BO157" t="inlineStr"/>
+      <c r="BP157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -29381,6 +29854,9 @@
         <v>1</v>
       </c>
       <c r="BO158" t="inlineStr"/>
+      <c r="BP158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -29564,6 +30040,9 @@
         <v>1</v>
       </c>
       <c r="BO159" t="inlineStr"/>
+      <c r="BP159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -29747,6 +30226,9 @@
         <v>1</v>
       </c>
       <c r="BO160" t="inlineStr"/>
+      <c r="BP160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -29930,6 +30412,9 @@
         <v>0</v>
       </c>
       <c r="BO161" t="inlineStr"/>
+      <c r="BP161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -30113,6 +30598,9 @@
         <v>0</v>
       </c>
       <c r="BO162" t="inlineStr"/>
+      <c r="BP162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -30296,6 +30784,9 @@
         <v>1</v>
       </c>
       <c r="BO163" t="inlineStr"/>
+      <c r="BP163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -30479,6 +30970,9 @@
         <v>1</v>
       </c>
       <c r="BO164" t="inlineStr"/>
+      <c r="BP164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -30662,6 +31156,9 @@
         <v>0</v>
       </c>
       <c r="BO165" t="inlineStr"/>
+      <c r="BP165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -30845,6 +31342,9 @@
         <v>1</v>
       </c>
       <c r="BO166" t="inlineStr"/>
+      <c r="BP166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -31028,6 +31528,9 @@
         <v>0</v>
       </c>
       <c r="BO167" t="inlineStr"/>
+      <c r="BP167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -31211,6 +31714,9 @@
         <v>1</v>
       </c>
       <c r="BO168" t="inlineStr"/>
+      <c r="BP168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -31394,6 +31900,9 @@
         <v>1</v>
       </c>
       <c r="BO169" t="inlineStr"/>
+      <c r="BP169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -31577,6 +32086,9 @@
         <v>1</v>
       </c>
       <c r="BO170" t="inlineStr"/>
+      <c r="BP170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -31760,6 +32272,9 @@
         <v>1</v>
       </c>
       <c r="BO171" t="inlineStr"/>
+      <c r="BP171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -31943,6 +32458,9 @@
         <v>0.625</v>
       </c>
       <c r="BO172" t="inlineStr"/>
+      <c r="BP172" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -32126,6 +32644,9 @@
         <v>0.5</v>
       </c>
       <c r="BO173" t="inlineStr"/>
+      <c r="BP173" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -32309,6 +32830,9 @@
         <v>1</v>
       </c>
       <c r="BO174" t="inlineStr"/>
+      <c r="BP174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -32492,6 +33016,9 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="BO175" t="inlineStr"/>
+      <c r="BP175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -32675,6 +33202,9 @@
         <v>0</v>
       </c>
       <c r="BO176" t="inlineStr"/>
+      <c r="BP176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -32858,6 +33388,9 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BO177" t="inlineStr"/>
+      <c r="BP177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -33041,6 +33574,9 @@
         <v>0</v>
       </c>
       <c r="BO178" t="inlineStr"/>
+      <c r="BP178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -33224,6 +33760,9 @@
         <v>0.5</v>
       </c>
       <c r="BO179" t="inlineStr"/>
+      <c r="BP179" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -33407,6 +33946,9 @@
         <v>0.8</v>
       </c>
       <c r="BO180" t="inlineStr"/>
+      <c r="BP180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -33590,6 +34132,9 @@
         <v>0</v>
       </c>
       <c r="BO181" t="inlineStr"/>
+      <c r="BP181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -33773,6 +34318,9 @@
         <v>0</v>
       </c>
       <c r="BO182" t="inlineStr"/>
+      <c r="BP182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -33956,6 +34504,9 @@
         <v>1</v>
       </c>
       <c r="BO183" t="inlineStr"/>
+      <c r="BP183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -34139,6 +34690,9 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="BO184" t="inlineStr"/>
+      <c r="BP184" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -34322,6 +34876,9 @@
         <v>0</v>
       </c>
       <c r="BO185" t="inlineStr"/>
+      <c r="BP185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -34505,6 +35062,9 @@
         <v>0.5</v>
       </c>
       <c r="BO186" t="inlineStr"/>
+      <c r="BP186" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -34688,6 +35248,9 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BO187" t="inlineStr"/>
+      <c r="BP187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -34871,6 +35434,9 @@
         <v>0</v>
       </c>
       <c r="BO188" t="inlineStr"/>
+      <c r="BP188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -35054,6 +35620,9 @@
         <v>0.25</v>
       </c>
       <c r="BO189" t="inlineStr"/>
+      <c r="BP189" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -35237,6 +35806,9 @@
         <v>0.8</v>
       </c>
       <c r="BO190" t="inlineStr"/>
+      <c r="BP190" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -35420,6 +35992,9 @@
         <v>1</v>
       </c>
       <c r="BO191" t="inlineStr"/>
+      <c r="BP191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -35603,6 +36178,9 @@
         <v>0</v>
       </c>
       <c r="BO192" t="inlineStr"/>
+      <c r="BP192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -35786,6 +36364,9 @@
         <v>1</v>
       </c>
       <c r="BO193" t="inlineStr"/>
+      <c r="BP193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -35969,6 +36550,9 @@
         <v>0</v>
       </c>
       <c r="BO194" t="inlineStr"/>
+      <c r="BP194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -36152,6 +36736,9 @@
         <v>1</v>
       </c>
       <c r="BO195" t="inlineStr"/>
+      <c r="BP195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -36335,6 +36922,9 @@
         <v>0.75</v>
       </c>
       <c r="BO196" t="inlineStr"/>
+      <c r="BP196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -36518,6 +37108,9 @@
         <v>1</v>
       </c>
       <c r="BO197" t="inlineStr"/>
+      <c r="BP197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -36701,6 +37294,9 @@
         <v>0</v>
       </c>
       <c r="BO198" t="inlineStr"/>
+      <c r="BP198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -36884,6 +37480,9 @@
         <v>0</v>
       </c>
       <c r="BO199" t="inlineStr"/>
+      <c r="BP199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -37067,6 +37666,9 @@
         <v>0.25</v>
       </c>
       <c r="BO200" t="inlineStr"/>
+      <c r="BP200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -37250,6 +37852,9 @@
         <v>0.25</v>
       </c>
       <c r="BO201" t="inlineStr"/>
+      <c r="BP201" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -37433,6 +38038,9 @@
         <v>0.8</v>
       </c>
       <c r="BO202" t="inlineStr"/>
+      <c r="BP202" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -37616,6 +38224,9 @@
         <v>0</v>
       </c>
       <c r="BO203" t="inlineStr"/>
+      <c r="BP203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -37799,6 +38410,9 @@
         <v>0</v>
       </c>
       <c r="BO204" t="inlineStr"/>
+      <c r="BP204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -37982,6 +38596,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BO205" t="inlineStr"/>
+      <c r="BP205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -38095,6 +38712,9 @@
         <v>0.5</v>
       </c>
       <c r="BO206" t="inlineStr"/>
+      <c r="BP206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -38278,6 +38898,9 @@
         <v>0.4</v>
       </c>
       <c r="BO207" t="inlineStr"/>
+      <c r="BP207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -38461,6 +39084,9 @@
         <v>1</v>
       </c>
       <c r="BO208" t="inlineStr"/>
+      <c r="BP208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -38644,6 +39270,9 @@
         <v>0</v>
       </c>
       <c r="BO209" t="inlineStr"/>
+      <c r="BP209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -38827,6 +39456,9 @@
         <v>0</v>
       </c>
       <c r="BO210" t="inlineStr"/>
+      <c r="BP210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -39010,6 +39642,9 @@
         <v>0.375</v>
       </c>
       <c r="BO211" t="inlineStr"/>
+      <c r="BP211" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -39193,6 +39828,9 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="BO212" t="inlineStr"/>
+      <c r="BP212" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -39376,6 +40014,9 @@
         <v>0</v>
       </c>
       <c r="BO213" t="inlineStr"/>
+      <c r="BP213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -39559,6 +40200,9 @@
         <v>0</v>
       </c>
       <c r="BO214" t="inlineStr"/>
+      <c r="BP214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -39742,6 +40386,9 @@
         <v>0.25</v>
       </c>
       <c r="BO215" t="inlineStr"/>
+      <c r="BP215" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -39925,6 +40572,9 @@
         <v>0</v>
       </c>
       <c r="BO216" t="inlineStr"/>
+      <c r="BP216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -40108,6 +40758,9 @@
         <v>1</v>
       </c>
       <c r="BO217" t="inlineStr"/>
+      <c r="BP217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -40291,6 +40944,9 @@
         <v>1</v>
       </c>
       <c r="BO218" t="inlineStr"/>
+      <c r="BP218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -40474,6 +41130,9 @@
         <v>1</v>
       </c>
       <c r="BO219" t="inlineStr"/>
+      <c r="BP219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -40657,6 +41316,9 @@
         <v>0.25</v>
       </c>
       <c r="BO220" t="inlineStr"/>
+      <c r="BP220" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -40840,6 +41502,9 @@
         <v>0</v>
       </c>
       <c r="BO221" t="inlineStr"/>
+      <c r="BP221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -41023,6 +41688,9 @@
         <v>0</v>
       </c>
       <c r="BO222" t="inlineStr"/>
+      <c r="BP222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -41206,6 +41874,9 @@
         <v>0.8</v>
       </c>
       <c r="BO223" t="inlineStr"/>
+      <c r="BP223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -41389,6 +42060,9 @@
         <v>0</v>
       </c>
       <c r="BO224" t="inlineStr"/>
+      <c r="BP224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -41572,6 +42246,9 @@
         <v>0</v>
       </c>
       <c r="BO225" t="inlineStr"/>
+      <c r="BP225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -41755,6 +42432,9 @@
         <v>0</v>
       </c>
       <c r="BO226" t="inlineStr"/>
+      <c r="BP226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -41938,6 +42618,9 @@
         <v>1</v>
       </c>
       <c r="BO227" t="inlineStr"/>
+      <c r="BP227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -42121,6 +42804,9 @@
         <v>0</v>
       </c>
       <c r="BO228" t="inlineStr"/>
+      <c r="BP228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -42304,6 +42990,9 @@
         <v>0.75</v>
       </c>
       <c r="BO229" t="inlineStr"/>
+      <c r="BP229" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -42487,6 +43176,9 @@
         <v>1</v>
       </c>
       <c r="BO230" t="inlineStr"/>
+      <c r="BP230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -42670,6 +43362,9 @@
         <v>0.75</v>
       </c>
       <c r="BO231" t="inlineStr"/>
+      <c r="BP231" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -42853,6 +43548,9 @@
         <v>0.5</v>
       </c>
       <c r="BO232" t="inlineStr"/>
+      <c r="BP232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -43036,6 +43734,9 @@
         <v>0</v>
       </c>
       <c r="BO233" t="inlineStr"/>
+      <c r="BP233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -43219,6 +43920,9 @@
         <v>0.5</v>
       </c>
       <c r="BO234" t="inlineStr"/>
+      <c r="BP234" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -43402,6 +44106,9 @@
         <v>1</v>
       </c>
       <c r="BO235" t="inlineStr"/>
+      <c r="BP235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -43585,6 +44292,9 @@
         <v>0</v>
       </c>
       <c r="BO236" t="inlineStr"/>
+      <c r="BP236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -43768,6 +44478,9 @@
         <v>0.5</v>
       </c>
       <c r="BO237" t="inlineStr"/>
+      <c r="BP237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -43951,6 +44664,9 @@
         <v>0</v>
       </c>
       <c r="BO238" t="inlineStr"/>
+      <c r="BP238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -44134,6 +44850,9 @@
         <v>0</v>
       </c>
       <c r="BO239" t="inlineStr"/>
+      <c r="BP239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -44317,6 +45036,9 @@
         <v>1</v>
       </c>
       <c r="BO240" t="inlineStr"/>
+      <c r="BP240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -44500,6 +45222,9 @@
         <v>0.5</v>
       </c>
       <c r="BO241" t="inlineStr"/>
+      <c r="BP241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -44683,6 +45408,9 @@
         <v>0.5</v>
       </c>
       <c r="BO242" t="inlineStr"/>
+      <c r="BP242" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -44866,6 +45594,9 @@
         <v>0.5</v>
       </c>
       <c r="BO243" t="inlineStr"/>
+      <c r="BP243" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -45049,6 +45780,9 @@
         <v>1</v>
       </c>
       <c r="BO244" t="inlineStr"/>
+      <c r="BP244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -45232,6 +45966,9 @@
         <v>0.5</v>
       </c>
       <c r="BO245" t="inlineStr"/>
+      <c r="BP245" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -45415,6 +46152,9 @@
         <v>0</v>
       </c>
       <c r="BO246" t="inlineStr"/>
+      <c r="BP246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -45598,6 +46338,9 @@
         <v>0.5</v>
       </c>
       <c r="BO247" t="inlineStr"/>
+      <c r="BP247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -45781,6 +46524,9 @@
         <v>0.4</v>
       </c>
       <c r="BO248" t="inlineStr"/>
+      <c r="BP248" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -45964,6 +46710,9 @@
         <v>0</v>
       </c>
       <c r="BO249" t="inlineStr"/>
+      <c r="BP249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -46147,6 +46896,9 @@
         <v>0</v>
       </c>
       <c r="BO250" t="inlineStr"/>
+      <c r="BP250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -46330,6 +47082,9 @@
         <v>0.375</v>
       </c>
       <c r="BO251" t="inlineStr"/>
+      <c r="BP251" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -46513,6 +47268,9 @@
         <v>0.25</v>
       </c>
       <c r="BO252" t="inlineStr"/>
+      <c r="BP252" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -46696,6 +47454,9 @@
         <v>0</v>
       </c>
       <c r="BO253" t="inlineStr"/>
+      <c r="BP253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -46879,6 +47640,9 @@
         <v>0.5</v>
       </c>
       <c r="BO254" t="inlineStr"/>
+      <c r="BP254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -47062,6 +47826,9 @@
         <v>1</v>
       </c>
       <c r="BO255" t="inlineStr"/>
+      <c r="BP255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -47245,6 +48012,9 @@
         <v>0</v>
       </c>
       <c r="BO256" t="inlineStr"/>
+      <c r="BP256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -47428,6 +48198,9 @@
         <v>1</v>
       </c>
       <c r="BO257" t="inlineStr"/>
+      <c r="BP257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -47611,6 +48384,9 @@
         <v>0.6</v>
       </c>
       <c r="BO258" t="inlineStr"/>
+      <c r="BP258" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -47794,6 +48570,9 @@
         <v>0.5</v>
       </c>
       <c r="BO259" t="inlineStr"/>
+      <c r="BP259" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -47977,6 +48756,9 @@
         <v>0.5</v>
       </c>
       <c r="BO260" t="inlineStr"/>
+      <c r="BP260" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -48160,6 +48942,9 @@
         <v>1</v>
       </c>
       <c r="BO261" t="inlineStr"/>
+      <c r="BP261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -48343,6 +49128,9 @@
         <v>0</v>
       </c>
       <c r="BO262" t="inlineStr"/>
+      <c r="BP262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -48526,6 +49314,9 @@
         <v>0.25</v>
       </c>
       <c r="BO263" t="inlineStr"/>
+      <c r="BP263" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -48709,6 +49500,9 @@
         <v>1</v>
       </c>
       <c r="BO264" t="inlineStr"/>
+      <c r="BP264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -48892,6 +49686,9 @@
         <v>0</v>
       </c>
       <c r="BO265" t="inlineStr"/>
+      <c r="BP265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -49075,6 +49872,9 @@
         <v>0.5</v>
       </c>
       <c r="BO266" t="inlineStr"/>
+      <c r="BP266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -49258,6 +50058,9 @@
         <v>0.75</v>
       </c>
       <c r="BO267" t="inlineStr"/>
+      <c r="BP267" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -49441,6 +50244,9 @@
         <v>0</v>
       </c>
       <c r="BO268" t="inlineStr"/>
+      <c r="BP268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -49624,6 +50430,9 @@
         <v>0</v>
       </c>
       <c r="BO269" t="inlineStr"/>
+      <c r="BP269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -49807,6 +50616,9 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="BO270" t="inlineStr"/>
+      <c r="BP270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -49890,6 +50702,7 @@
       <c r="BM271" t="inlineStr"/>
       <c r="BN271" t="inlineStr"/>
       <c r="BO271" t="inlineStr"/>
+      <c r="BP271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -50073,6 +50886,9 @@
         <v>1</v>
       </c>
       <c r="BO272" t="inlineStr"/>
+      <c r="BP272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -50256,6 +51072,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BO273" t="inlineStr"/>
+      <c r="BP273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -50439,6 +51258,9 @@
         <v>0</v>
       </c>
       <c r="BO274" t="inlineStr"/>
+      <c r="BP274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -50622,6 +51444,9 @@
         <v>1</v>
       </c>
       <c r="BO275" t="inlineStr"/>
+      <c r="BP275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -50805,6 +51630,9 @@
         <v>0</v>
       </c>
       <c r="BO276" t="inlineStr"/>
+      <c r="BP276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -50988,6 +51816,9 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="BO277" t="inlineStr"/>
+      <c r="BP277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -51171,6 +52002,9 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="BO278" t="inlineStr"/>
+      <c r="BP278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -51354,6 +52188,9 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="BO279" t="inlineStr"/>
+      <c r="BP279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -51537,6 +52374,9 @@
         <v>0</v>
       </c>
       <c r="BO280" t="inlineStr"/>
+      <c r="BP280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -51720,6 +52560,9 @@
         <v>0.5</v>
       </c>
       <c r="BO281" t="inlineStr"/>
+      <c r="BP281" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -51903,6 +52746,9 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="BO282" t="inlineStr"/>
+      <c r="BP282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -52086,6 +52932,9 @@
         <v>0.625</v>
       </c>
       <c r="BO283" t="inlineStr"/>
+      <c r="BP283" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -52269,6 +53118,9 @@
         <v>1</v>
       </c>
       <c r="BO284" t="inlineStr"/>
+      <c r="BP284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -52452,6 +53304,9 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="BO285" t="inlineStr"/>
+      <c r="BP285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -52635,6 +53490,9 @@
         <v>0.8</v>
       </c>
       <c r="BO286" t="inlineStr"/>
+      <c r="BP286" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -52818,6 +53676,9 @@
         <v>0</v>
       </c>
       <c r="BO287" t="inlineStr"/>
+      <c r="BP287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -53001,6 +53862,9 @@
         <v>1</v>
       </c>
       <c r="BO288" t="inlineStr"/>
+      <c r="BP288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -53184,6 +54048,9 @@
         <v>0</v>
       </c>
       <c r="BO289" t="inlineStr"/>
+      <c r="BP289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -53367,6 +54234,9 @@
         <v>0</v>
       </c>
       <c r="BO290" t="inlineStr"/>
+      <c r="BP290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -53550,6 +54420,9 @@
         <v>1</v>
       </c>
       <c r="BO291" t="inlineStr"/>
+      <c r="BP291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -53733,6 +54606,9 @@
         <v>0</v>
       </c>
       <c r="BO292" t="inlineStr"/>
+      <c r="BP292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -53916,6 +54792,9 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BO293" t="inlineStr"/>
+      <c r="BP293" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -54099,6 +54978,9 @@
         <v>0</v>
       </c>
       <c r="BO294" t="inlineStr"/>
+      <c r="BP294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -54282,6 +55164,9 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="BO295" t="inlineStr"/>
+      <c r="BP295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -54465,6 +55350,9 @@
         <v>0.375</v>
       </c>
       <c r="BO296" t="inlineStr"/>
+      <c r="BP296" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -54648,6 +55536,9 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="BO297" t="inlineStr"/>
+      <c r="BP297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -54831,6 +55722,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BO298" t="inlineStr"/>
+      <c r="BP298" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -55014,6 +55908,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BO299" t="inlineStr"/>
+      <c r="BP299" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -55197,6 +56094,9 @@
         <v>0</v>
       </c>
       <c r="BO300" t="inlineStr"/>
+      <c r="BP300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -55380,6 +56280,9 @@
         <v>1</v>
       </c>
       <c r="BO301" t="inlineStr"/>
+      <c r="BP301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -55563,6 +56466,9 @@
         <v>0</v>
       </c>
       <c r="BO302" t="inlineStr"/>
+      <c r="BP302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -55746,6 +56652,9 @@
         <v>1</v>
       </c>
       <c r="BO303" t="inlineStr"/>
+      <c r="BP303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -55929,6 +56838,9 @@
         <v>0.5</v>
       </c>
       <c r="BO304" t="inlineStr"/>
+      <c r="BP304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -56112,6 +57024,9 @@
         <v>0</v>
       </c>
       <c r="BO305" t="inlineStr"/>
+      <c r="BP305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -56295,6 +57210,9 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BO306" t="inlineStr"/>
+      <c r="BP306" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -56478,6 +57396,9 @@
         <v>0</v>
       </c>
       <c r="BO307" t="inlineStr"/>
+      <c r="BP307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -56661,6 +57582,9 @@
         <v>0</v>
       </c>
       <c r="BO308" t="inlineStr"/>
+      <c r="BP308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -56844,6 +57768,9 @@
         <v>0.25</v>
       </c>
       <c r="BO309" t="inlineStr"/>
+      <c r="BP309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -57027,6 +57954,9 @@
         <v>0</v>
       </c>
       <c r="BO310" t="inlineStr"/>
+      <c r="BP310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -57210,6 +58140,9 @@
         <v>0</v>
       </c>
       <c r="BO311" t="inlineStr"/>
+      <c r="BP311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -57393,6 +58326,9 @@
         <v>0.75</v>
       </c>
       <c r="BO312" t="inlineStr"/>
+      <c r="BP312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -57576,6 +58512,9 @@
         <v>1</v>
       </c>
       <c r="BO313" t="inlineStr"/>
+      <c r="BP313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -57759,6 +58698,9 @@
         <v>0.25</v>
       </c>
       <c r="BO314" t="inlineStr"/>
+      <c r="BP314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -57942,6 +58884,9 @@
         <v>0</v>
       </c>
       <c r="BO315" t="inlineStr"/>
+      <c r="BP315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -58125,6 +59070,9 @@
         <v>0.6</v>
       </c>
       <c r="BO316" t="inlineStr"/>
+      <c r="BP316" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -58308,6 +59256,9 @@
         <v>0</v>
       </c>
       <c r="BO317" t="inlineStr"/>
+      <c r="BP317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -58491,6 +59442,9 @@
         <v>0</v>
       </c>
       <c r="BO318" t="inlineStr"/>
+      <c r="BP318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -58674,6 +59628,9 @@
         <v>0.5</v>
       </c>
       <c r="BO319" t="inlineStr"/>
+      <c r="BP319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -58857,6 +59814,9 @@
         <v>1</v>
       </c>
       <c r="BO320" t="inlineStr"/>
+      <c r="BP320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -59040,6 +60000,9 @@
         <v>0.5</v>
       </c>
       <c r="BO321" t="inlineStr"/>
+      <c r="BP321" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -59223,6 +60186,9 @@
         <v>0.75</v>
       </c>
       <c r="BO322" t="inlineStr"/>
+      <c r="BP322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -59406,6 +60372,9 @@
         <v>0.5</v>
       </c>
       <c r="BO323" t="inlineStr"/>
+      <c r="BP323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -59589,6 +60558,9 @@
         <v>0</v>
       </c>
       <c r="BO324" t="inlineStr"/>
+      <c r="BP324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -59772,6 +60744,9 @@
         <v>1</v>
       </c>
       <c r="BO325" t="inlineStr"/>
+      <c r="BP325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -59955,6 +60930,9 @@
         <v>0.75</v>
       </c>
       <c r="BO326" t="inlineStr"/>
+      <c r="BP326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -60138,6 +61116,9 @@
         <v>0</v>
       </c>
       <c r="BO327" t="inlineStr"/>
+      <c r="BP327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -60321,6 +61302,9 @@
         <v>1</v>
       </c>
       <c r="BO328" t="inlineStr"/>
+      <c r="BP328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -60504,6 +61488,9 @@
         <v>1</v>
       </c>
       <c r="BO329" t="inlineStr"/>
+      <c r="BP329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -60687,6 +61674,9 @@
         <v>0.25</v>
       </c>
       <c r="BO330" t="inlineStr"/>
+      <c r="BP330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -60870,6 +61860,9 @@
         <v>1</v>
       </c>
       <c r="BO331" t="inlineStr"/>
+      <c r="BP331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -61053,6 +62046,9 @@
         <v>0</v>
       </c>
       <c r="BO332" t="inlineStr"/>
+      <c r="BP332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -61236,6 +62232,9 @@
         <v>0.75</v>
       </c>
       <c r="BO333" t="inlineStr"/>
+      <c r="BP333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -61419,6 +62418,9 @@
         <v>1</v>
       </c>
       <c r="BO334" t="inlineStr"/>
+      <c r="BP334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -61602,6 +62604,9 @@
         <v>0</v>
       </c>
       <c r="BO335" t="inlineStr"/>
+      <c r="BP335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -61785,6 +62790,9 @@
         <v>1</v>
       </c>
       <c r="BO336" t="inlineStr"/>
+      <c r="BP336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -61968,6 +62976,9 @@
         <v>0</v>
       </c>
       <c r="BO337" t="inlineStr"/>
+      <c r="BP337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -62151,6 +63162,9 @@
         <v>1</v>
       </c>
       <c r="BO338" t="inlineStr"/>
+      <c r="BP338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -62334,6 +63348,9 @@
         <v>1</v>
       </c>
       <c r="BO339" t="inlineStr"/>
+      <c r="BP339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -62517,6 +63534,9 @@
         <v>0.5</v>
       </c>
       <c r="BO340" t="inlineStr"/>
+      <c r="BP340" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -62700,6 +63720,9 @@
         <v>0.25</v>
       </c>
       <c r="BO341" t="inlineStr"/>
+      <c r="BP341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -62883,6 +63906,9 @@
         <v>0.5</v>
       </c>
       <c r="BO342" t="inlineStr"/>
+      <c r="BP342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -63066,6 +64092,9 @@
         <v>0</v>
       </c>
       <c r="BO343" t="inlineStr"/>
+      <c r="BP343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -63249,6 +64278,9 @@
         <v>0.5</v>
       </c>
       <c r="BO344" t="inlineStr"/>
+      <c r="BP344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -63432,6 +64464,9 @@
         <v>0.5</v>
       </c>
       <c r="BO345" t="inlineStr"/>
+      <c r="BP345" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -63615,6 +64650,9 @@
         <v>0.25</v>
       </c>
       <c r="BO346" t="inlineStr"/>
+      <c r="BP346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -63798,6 +64836,9 @@
         <v>0</v>
       </c>
       <c r="BO347" t="inlineStr"/>
+      <c r="BP347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -63981,6 +65022,9 @@
         <v>0.5</v>
       </c>
       <c r="BO348" t="inlineStr"/>
+      <c r="BP348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -64164,6 +65208,9 @@
         <v>0</v>
       </c>
       <c r="BO349" t="inlineStr"/>
+      <c r="BP349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -64347,6 +65394,9 @@
         <v>1</v>
       </c>
       <c r="BO350" t="inlineStr"/>
+      <c r="BP350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -64530,6 +65580,9 @@
         <v>0.75</v>
       </c>
       <c r="BO351" t="inlineStr"/>
+      <c r="BP351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -64713,6 +65766,9 @@
         <v>0</v>
       </c>
       <c r="BO352" t="inlineStr"/>
+      <c r="BP352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -64896,6 +65952,9 @@
         <v>0.5</v>
       </c>
       <c r="BO353" t="inlineStr"/>
+      <c r="BP353" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -65079,6 +66138,9 @@
         <v>0.625</v>
       </c>
       <c r="BO354" t="inlineStr"/>
+      <c r="BP354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -65262,6 +66324,9 @@
         <v>0.5</v>
       </c>
       <c r="BO355" t="inlineStr"/>
+      <c r="BP355" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -65445,6 +66510,9 @@
         <v>0</v>
       </c>
       <c r="BO356" t="inlineStr"/>
+      <c r="BP356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -65628,6 +66696,9 @@
         <v>0.6</v>
       </c>
       <c r="BO357" t="inlineStr"/>
+      <c r="BP357" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -65811,6 +66882,9 @@
         <v>1</v>
       </c>
       <c r="BO358" t="inlineStr"/>
+      <c r="BP358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -65994,6 +67068,9 @@
         <v>0.75</v>
       </c>
       <c r="BO359" t="inlineStr"/>
+      <c r="BP359" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -66177,6 +67254,9 @@
         <v>0.4</v>
       </c>
       <c r="BO360" t="inlineStr"/>
+      <c r="BP360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -66360,6 +67440,9 @@
         <v>1</v>
       </c>
       <c r="BO361" t="inlineStr"/>
+      <c r="BP361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -66543,6 +67626,9 @@
         <v>1</v>
       </c>
       <c r="BO362" t="inlineStr"/>
+      <c r="BP362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -66726,6 +67812,9 @@
         <v>0</v>
       </c>
       <c r="BO363" t="inlineStr"/>
+      <c r="BP363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -66909,6 +67998,9 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="BO364" t="inlineStr"/>
+      <c r="BP364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -67092,6 +68184,9 @@
         <v>1</v>
       </c>
       <c r="BO365" t="inlineStr"/>
+      <c r="BP365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -67275,6 +68370,9 @@
         <v>0.625</v>
       </c>
       <c r="BO366" t="inlineStr"/>
+      <c r="BP366" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -67458,6 +68556,9 @@
         <v>0.4</v>
       </c>
       <c r="BO367" t="inlineStr"/>
+      <c r="BP367" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -67641,6 +68742,9 @@
         <v>1</v>
       </c>
       <c r="BO368" t="inlineStr"/>
+      <c r="BP368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -67824,6 +68928,9 @@
         <v>1</v>
       </c>
       <c r="BO369" t="inlineStr"/>
+      <c r="BP369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -68007,6 +69114,9 @@
         <v>0</v>
       </c>
       <c r="BO370" t="inlineStr"/>
+      <c r="BP370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -68190,6 +69300,9 @@
         <v>1</v>
       </c>
       <c r="BO371" t="inlineStr"/>
+      <c r="BP371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -68373,6 +69486,9 @@
         <v>1</v>
       </c>
       <c r="BO372" t="inlineStr"/>
+      <c r="BP372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -68556,6 +69672,9 @@
         <v>0</v>
       </c>
       <c r="BO373" t="inlineStr"/>
+      <c r="BP373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -68739,6 +69858,9 @@
         <v>0.5</v>
       </c>
       <c r="BO374" t="inlineStr"/>
+      <c r="BP374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -68922,6 +70044,9 @@
         <v>1</v>
       </c>
       <c r="BO375" t="inlineStr"/>
+      <c r="BP375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -69105,6 +70230,9 @@
         <v>0</v>
       </c>
       <c r="BO376" t="inlineStr"/>
+      <c r="BP376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -69288,6 +70416,9 @@
         <v>0.5</v>
       </c>
       <c r="BO377" t="inlineStr"/>
+      <c r="BP377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -69471,6 +70602,9 @@
         <v>0.75</v>
       </c>
       <c r="BO378" t="inlineStr"/>
+      <c r="BP378" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -69654,6 +70788,9 @@
         <v>1</v>
       </c>
       <c r="BO379" t="inlineStr"/>
+      <c r="BP379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -69837,6 +70974,9 @@
         <v>0.5</v>
       </c>
       <c r="BO380" t="inlineStr"/>
+      <c r="BP380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -70020,6 +71160,9 @@
         <v>0.25</v>
       </c>
       <c r="BO381" t="inlineStr"/>
+      <c r="BP381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -70203,6 +71346,9 @@
         <v>0.5</v>
       </c>
       <c r="BO382" t="inlineStr"/>
+      <c r="BP382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -70386,6 +71532,9 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="BO383" t="inlineStr"/>
+      <c r="BP383" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -70569,6 +71718,9 @@
         <v>1</v>
       </c>
       <c r="BO384" t="inlineStr"/>
+      <c r="BP384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -70752,6 +71904,9 @@
         <v>0</v>
       </c>
       <c r="BO385" t="inlineStr"/>
+      <c r="BP385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -70935,6 +72090,9 @@
         <v>1</v>
       </c>
       <c r="BO386" t="inlineStr"/>
+      <c r="BP386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -71118,6 +72276,9 @@
         <v>1</v>
       </c>
       <c r="BO387" t="inlineStr"/>
+      <c r="BP387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -71301,6 +72462,9 @@
         <v>1</v>
       </c>
       <c r="BO388" t="inlineStr"/>
+      <c r="BP388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -71484,6 +72648,9 @@
         <v>0.75</v>
       </c>
       <c r="BO389" t="inlineStr"/>
+      <c r="BP389" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -71667,6 +72834,9 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="BO390" t="inlineStr"/>
+      <c r="BP390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -71850,6 +73020,9 @@
         <v>0</v>
       </c>
       <c r="BO391" t="inlineStr"/>
+      <c r="BP391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -72033,6 +73206,9 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="BO392" t="inlineStr"/>
+      <c r="BP392" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -72216,6 +73392,9 @@
         <v>1</v>
       </c>
       <c r="BO393" t="inlineStr"/>
+      <c r="BP393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -72399,6 +73578,9 @@
         <v>1</v>
       </c>
       <c r="BO394" t="inlineStr"/>
+      <c r="BP394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -72582,6 +73764,9 @@
         <v>1</v>
       </c>
       <c r="BO395" t="inlineStr"/>
+      <c r="BP395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -72765,6 +73950,9 @@
         <v>1</v>
       </c>
       <c r="BO396" t="inlineStr"/>
+      <c r="BP396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -72948,6 +74136,9 @@
         <v>1</v>
       </c>
       <c r="BO397" t="inlineStr"/>
+      <c r="BP397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -73131,6 +74322,9 @@
         <v>1</v>
       </c>
       <c r="BO398" t="inlineStr"/>
+      <c r="BP398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -73314,6 +74508,9 @@
         <v>0</v>
       </c>
       <c r="BO399" t="inlineStr"/>
+      <c r="BP399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -73497,6 +74694,9 @@
         <v>0.75</v>
       </c>
       <c r="BO400" t="inlineStr"/>
+      <c r="BP400" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -73680,6 +74880,9 @@
         <v>0</v>
       </c>
       <c r="BO401" t="inlineStr"/>
+      <c r="BP401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -73863,6 +75066,9 @@
         <v>0.5</v>
       </c>
       <c r="BO402" t="inlineStr"/>
+      <c r="BP402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -74046,6 +75252,9 @@
         <v>1</v>
       </c>
       <c r="BO403" t="inlineStr"/>
+      <c r="BP403" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -74129,6 +75338,7 @@
       <c r="BM404" t="inlineStr"/>
       <c r="BN404" t="inlineStr"/>
       <c r="BO404" t="inlineStr"/>
+      <c r="BP404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -74334,6 +75544,9 @@
       <c r="BO405" t="n">
         <v>4</v>
       </c>
+      <c r="BP405" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -74539,6 +75752,9 @@
       <c r="BO406" t="n">
         <v>10</v>
       </c>
+      <c r="BP406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -74744,6 +75960,9 @@
       <c r="BO407" t="n">
         <v>0.4</v>
       </c>
+      <c r="BP407" t="n">
+        <v>0.3757</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -74949,6 +76168,9 @@
       <c r="BO408" t="n">
         <v>10</v>
       </c>
+      <c r="BP408" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -75154,6 +76376,9 @@
       <c r="BO409" t="n">
         <v>10</v>
       </c>
+      <c r="BP409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -75359,6 +76584,9 @@
       <c r="BO410" t="n">
         <v>1</v>
       </c>
+      <c r="BP410" t="n">
+        <v>0.9016999999999999</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -75542,6 +76770,9 @@
       <c r="BO411" t="n">
         <v>9</v>
       </c>
+      <c r="BP411" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -75747,6 +76978,9 @@
       <c r="BO412" t="n">
         <v>10</v>
       </c>
+      <c r="BP412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -75928,6 +77162,9 @@
       <c r="BO413" t="n">
         <v>0.9</v>
       </c>
+      <c r="BP413" t="n">
+        <v>0.1952</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -76133,6 +77370,9 @@
       <c r="BO414" t="n">
         <v>4</v>
       </c>
+      <c r="BP414" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -76338,6 +77578,9 @@
       <c r="BO415" t="n">
         <v>10</v>
       </c>
+      <c r="BP415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -76543,6 +77786,9 @@
       <c r="BO416" t="n">
         <v>0.4</v>
       </c>
+      <c r="BP416" t="n">
+        <v>0.3757</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -76748,6 +77994,9 @@
       <c r="BO417" t="n">
         <v>10</v>
       </c>
+      <c r="BP417" t="n">
+        <v>2140</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -76953,6 +78202,9 @@
       <c r="BO418" t="n">
         <v>10</v>
       </c>
+      <c r="BP418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -77158,6 +78410,9 @@
       <c r="BO419" t="n">
         <v>1</v>
       </c>
+      <c r="BP419" t="n">
+        <v>0.9781</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC419"/>
+  <dimension ref="A1:CD419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,6 +834,11 @@
           <t>2025-09-14_v6</t>
         </is>
       </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1061,6 +1066,9 @@
       <c r="CC2" t="n">
         <v>0.4</v>
       </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CC3" t="n">
         <v>1</v>
       </c>
+      <c r="CD3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1505,6 +1516,9 @@
       <c r="CC4" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CD4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1726,6 +1740,9 @@
       <c r="CC5" t="n">
         <v>1</v>
       </c>
+      <c r="CD5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1947,6 +1964,9 @@
       <c r="CC6" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD6" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2168,6 +2188,9 @@
       <c r="CC7" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="CD7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2389,6 +2412,9 @@
       <c r="CC8" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="CD8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2610,6 +2636,9 @@
       <c r="CC9" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CD9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2831,6 +2860,9 @@
       <c r="CC10" t="n">
         <v>0.6</v>
       </c>
+      <c r="CD10" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3050,6 +3082,9 @@
         <v>1</v>
       </c>
       <c r="CC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3215,6 +3250,9 @@
       <c r="CC12" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3436,6 +3474,9 @@
       <c r="CC13" t="n">
         <v>0</v>
       </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3657,6 +3698,9 @@
       <c r="CC14" t="n">
         <v>0</v>
       </c>
+      <c r="CD14" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3878,6 +3922,9 @@
       <c r="CC15" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD15" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4099,6 +4146,9 @@
       <c r="CC16" t="n">
         <v>1</v>
       </c>
+      <c r="CD16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4320,6 +4370,9 @@
       <c r="CC17" t="n">
         <v>0</v>
       </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4541,6 +4594,9 @@
       <c r="CC18" t="n">
         <v>1</v>
       </c>
+      <c r="CD18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4762,6 +4818,9 @@
       <c r="CC19" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4983,6 +5042,9 @@
       <c r="CC20" t="n">
         <v>0</v>
       </c>
+      <c r="CD20" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5204,6 +5266,9 @@
       <c r="CC21" t="n">
         <v>1</v>
       </c>
+      <c r="CD21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5425,6 +5490,9 @@
       <c r="CC22" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD22" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5646,6 +5714,9 @@
       <c r="CC23" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -5867,6 +5938,9 @@
       <c r="CC24" t="n">
         <v>0.2</v>
       </c>
+      <c r="CD24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -6088,6 +6162,9 @@
       <c r="CC25" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD25" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -6309,6 +6386,9 @@
       <c r="CC26" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -6530,6 +6610,9 @@
       <c r="CC27" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD27" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -6751,6 +6834,9 @@
       <c r="CC28" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="CD28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -6972,6 +7058,9 @@
       <c r="CC29" t="n">
         <v>1</v>
       </c>
+      <c r="CD29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -7193,6 +7282,9 @@
       <c r="CC30" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD30" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -7414,6 +7506,9 @@
       <c r="CC31" t="n">
         <v>0</v>
       </c>
+      <c r="CD31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -7635,6 +7730,9 @@
       <c r="CC32" t="n">
         <v>0</v>
       </c>
+      <c r="CD32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -7856,6 +7954,9 @@
       <c r="CC33" t="n">
         <v>0</v>
       </c>
+      <c r="CD33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -8077,6 +8178,9 @@
       <c r="CC34" t="n">
         <v>1</v>
       </c>
+      <c r="CD34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -8298,6 +8402,9 @@
       <c r="CC35" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD35" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -8519,6 +8626,9 @@
       <c r="CC36" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -8740,6 +8850,9 @@
       <c r="CC37" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -8961,6 +9074,9 @@
       <c r="CC38" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -9182,6 +9298,9 @@
       <c r="CC39" t="n">
         <v>1</v>
       </c>
+      <c r="CD39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -9401,6 +9520,9 @@
         <v>1</v>
       </c>
       <c r="CC40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9566,6 +9688,9 @@
       <c r="CC41" t="n">
         <v>0</v>
       </c>
+      <c r="CD41" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -9787,6 +9912,9 @@
       <c r="CC42" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD42" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -10008,6 +10136,9 @@
       <c r="CC43" t="n">
         <v>1</v>
       </c>
+      <c r="CD43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -10229,6 +10360,9 @@
       <c r="CC44" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD44" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -10450,6 +10584,9 @@
       <c r="CC45" t="n">
         <v>0</v>
       </c>
+      <c r="CD45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -10671,6 +10808,9 @@
       <c r="CC46" t="n">
         <v>1</v>
       </c>
+      <c r="CD46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -10892,6 +11032,9 @@
       <c r="CC47" t="n">
         <v>0</v>
       </c>
+      <c r="CD47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -11113,6 +11256,9 @@
       <c r="CC48" t="n">
         <v>0</v>
       </c>
+      <c r="CD48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -11334,6 +11480,9 @@
       <c r="CC49" t="n">
         <v>0</v>
       </c>
+      <c r="CD49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -11555,6 +11704,9 @@
       <c r="CC50" t="n">
         <v>0</v>
       </c>
+      <c r="CD50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -11776,6 +11928,9 @@
       <c r="CC51" t="n">
         <v>1</v>
       </c>
+      <c r="CD51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -11997,6 +12152,9 @@
       <c r="CC52" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -12218,6 +12376,9 @@
       <c r="CC53" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD53" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -12439,6 +12600,9 @@
       <c r="CC54" t="n">
         <v>0</v>
       </c>
+      <c r="CD54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -12660,6 +12824,9 @@
       <c r="CC55" t="n">
         <v>0</v>
       </c>
+      <c r="CD55" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -12881,6 +13048,9 @@
       <c r="CC56" t="n">
         <v>0</v>
       </c>
+      <c r="CD56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -13102,6 +13272,9 @@
       <c r="CC57" t="n">
         <v>0</v>
       </c>
+      <c r="CD57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -13323,6 +13496,9 @@
       <c r="CC58" t="n">
         <v>0</v>
       </c>
+      <c r="CD58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -13544,6 +13720,9 @@
       <c r="CC59" t="n">
         <v>0</v>
       </c>
+      <c r="CD59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -13765,6 +13944,9 @@
       <c r="CC60" t="n">
         <v>1</v>
       </c>
+      <c r="CD60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -13986,6 +14168,9 @@
       <c r="CC61" t="n">
         <v>0</v>
       </c>
+      <c r="CD61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -14207,6 +14392,9 @@
       <c r="CC62" t="n">
         <v>0</v>
       </c>
+      <c r="CD62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -14428,6 +14616,9 @@
       <c r="CC63" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CD63" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -14649,6 +14840,9 @@
       <c r="CC64" t="n">
         <v>1</v>
       </c>
+      <c r="CD64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -14870,6 +15064,9 @@
       <c r="CC65" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD65" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -15091,6 +15288,9 @@
       <c r="CC66" t="n">
         <v>0</v>
       </c>
+      <c r="CD66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -15312,6 +15512,9 @@
       <c r="CC67" t="n">
         <v>0</v>
       </c>
+      <c r="CD67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -15533,6 +15736,9 @@
       <c r="CC68" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD68" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -15754,6 +15960,9 @@
       <c r="CC69" t="n">
         <v>0</v>
       </c>
+      <c r="CD69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -15975,6 +16184,9 @@
       <c r="CC70" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CD70" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -16196,6 +16408,9 @@
       <c r="CC71" t="n">
         <v>0</v>
       </c>
+      <c r="CD71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -16417,6 +16632,9 @@
       <c r="CC72" t="n">
         <v>0</v>
       </c>
+      <c r="CD72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -16638,6 +16856,9 @@
       <c r="CC73" t="n">
         <v>0</v>
       </c>
+      <c r="CD73" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -16859,6 +17080,9 @@
       <c r="CC74" t="n">
         <v>0</v>
       </c>
+      <c r="CD74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -17080,6 +17304,9 @@
       <c r="CC75" t="n">
         <v>0</v>
       </c>
+      <c r="CD75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -17301,6 +17528,9 @@
       <c r="CC76" t="n">
         <v>0</v>
       </c>
+      <c r="CD76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -17522,6 +17752,9 @@
       <c r="CC77" t="n">
         <v>1</v>
       </c>
+      <c r="CD77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -17743,6 +17976,9 @@
       <c r="CC78" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD78" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -17964,6 +18200,9 @@
       <c r="CC79" t="n">
         <v>1</v>
       </c>
+      <c r="CD79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -18185,6 +18424,9 @@
       <c r="CC80" t="n">
         <v>0</v>
       </c>
+      <c r="CD80" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -18406,6 +18648,9 @@
       <c r="CC81" t="n">
         <v>0</v>
       </c>
+      <c r="CD81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -18627,6 +18872,9 @@
       <c r="CC82" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD82" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -18848,6 +19096,9 @@
       <c r="CC83" t="n">
         <v>0</v>
       </c>
+      <c r="CD83" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -19069,6 +19320,9 @@
       <c r="CC84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="CD84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -19290,6 +19544,9 @@
       <c r="CC85" t="n">
         <v>0</v>
       </c>
+      <c r="CD85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -19511,6 +19768,9 @@
       <c r="CC86" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD86" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -19732,6 +19992,9 @@
       <c r="CC87" t="n">
         <v>0</v>
       </c>
+      <c r="CD87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -19953,6 +20216,9 @@
       <c r="CC88" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -20174,6 +20440,9 @@
       <c r="CC89" t="n">
         <v>0</v>
       </c>
+      <c r="CD89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -20395,6 +20664,9 @@
       <c r="CC90" t="n">
         <v>0</v>
       </c>
+      <c r="CD90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -20616,6 +20888,9 @@
       <c r="CC91" t="n">
         <v>0</v>
       </c>
+      <c r="CD91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -20837,6 +21112,9 @@
       <c r="CC92" t="n">
         <v>0</v>
       </c>
+      <c r="CD92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -21058,6 +21336,9 @@
       <c r="CC93" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD93" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -21279,6 +21560,9 @@
       <c r="CC94" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD94" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -21500,6 +21784,9 @@
       <c r="CC95" t="n">
         <v>1</v>
       </c>
+      <c r="CD95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -21721,6 +22008,9 @@
       <c r="CC96" t="n">
         <v>0</v>
       </c>
+      <c r="CD96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -21942,6 +22232,9 @@
       <c r="CC97" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD97" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -22163,6 +22456,9 @@
       <c r="CC98" t="n">
         <v>1</v>
       </c>
+      <c r="CD98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -22384,6 +22680,9 @@
       <c r="CC99" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD99" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -22605,6 +22904,9 @@
       <c r="CC100" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD100" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -22826,6 +23128,9 @@
       <c r="CC101" t="n">
         <v>1</v>
       </c>
+      <c r="CD101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -23047,6 +23352,9 @@
       <c r="CC102" t="n">
         <v>0</v>
       </c>
+      <c r="CD102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -23268,6 +23576,9 @@
       <c r="CC103" t="n">
         <v>0.375</v>
       </c>
+      <c r="CD103" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -23489,6 +23800,9 @@
       <c r="CC104" t="n">
         <v>1</v>
       </c>
+      <c r="CD104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -23710,6 +24024,9 @@
       <c r="CC105" t="n">
         <v>0</v>
       </c>
+      <c r="CD105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -23931,6 +24248,9 @@
       <c r="CC106" t="n">
         <v>0</v>
       </c>
+      <c r="CD106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -24152,6 +24472,9 @@
       <c r="CC107" t="n">
         <v>0</v>
       </c>
+      <c r="CD107" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -24373,6 +24696,9 @@
       <c r="CC108" t="n">
         <v>0</v>
       </c>
+      <c r="CD108" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -24594,6 +24920,9 @@
       <c r="CC109" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD109" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -24815,6 +25144,9 @@
       <c r="CC110" t="n">
         <v>0</v>
       </c>
+      <c r="CD110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -25036,6 +25368,9 @@
       <c r="CC111" t="n">
         <v>1</v>
       </c>
+      <c r="CD111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -25257,6 +25592,9 @@
       <c r="CC112" t="n">
         <v>1</v>
       </c>
+      <c r="CD112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -25478,6 +25816,9 @@
       <c r="CC113" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -25699,6 +26040,9 @@
       <c r="CC114" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD114" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -25920,6 +26264,9 @@
       <c r="CC115" t="n">
         <v>0</v>
       </c>
+      <c r="CD115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -26141,6 +26488,9 @@
       <c r="CC116" t="n">
         <v>0</v>
       </c>
+      <c r="CD116" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -26362,6 +26712,9 @@
       <c r="CC117" t="n">
         <v>1</v>
       </c>
+      <c r="CD117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -26583,6 +26936,9 @@
       <c r="CC118" t="n">
         <v>0</v>
       </c>
+      <c r="CD118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -26804,6 +27160,9 @@
       <c r="CC119" t="n">
         <v>0.625</v>
       </c>
+      <c r="CD119" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -27025,6 +27384,9 @@
       <c r="CC120" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD120" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -27246,6 +27608,9 @@
       <c r="CC121" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD121" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -27467,6 +27832,9 @@
       <c r="CC122" t="n">
         <v>0</v>
       </c>
+      <c r="CD122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -27688,6 +28056,9 @@
       <c r="CC123" t="n">
         <v>0</v>
       </c>
+      <c r="CD123" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -27909,6 +28280,9 @@
       <c r="CC124" t="n">
         <v>0</v>
       </c>
+      <c r="CD124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -28130,6 +28504,9 @@
       <c r="CC125" t="n">
         <v>0</v>
       </c>
+      <c r="CD125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -28351,6 +28728,9 @@
       <c r="CC126" t="n">
         <v>0</v>
       </c>
+      <c r="CD126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -28572,6 +28952,9 @@
       <c r="CC127" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD127" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -28793,6 +29176,9 @@
       <c r="CC128" t="n">
         <v>0</v>
       </c>
+      <c r="CD128" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -29014,6 +29400,9 @@
       <c r="CC129" t="n">
         <v>1</v>
       </c>
+      <c r="CD129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -29235,6 +29624,9 @@
       <c r="CC130" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD130" t="n">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -29456,6 +29848,9 @@
       <c r="CC131" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD131" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -29677,6 +30072,9 @@
       <c r="CC132" t="n">
         <v>0</v>
       </c>
+      <c r="CD132" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -29898,6 +30296,9 @@
       <c r="CC133" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -30119,6 +30520,9 @@
       <c r="CC134" t="n">
         <v>0</v>
       </c>
+      <c r="CD134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -30340,6 +30744,9 @@
       <c r="CC135" t="n">
         <v>0</v>
       </c>
+      <c r="CD135" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -30561,6 +30968,9 @@
       <c r="CC136" t="n">
         <v>0</v>
       </c>
+      <c r="CD136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -30782,6 +31192,9 @@
       <c r="CC137" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD137" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -31003,6 +31416,9 @@
       <c r="CC138" t="n">
         <v>0</v>
       </c>
+      <c r="CD138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -31224,6 +31640,9 @@
       <c r="CC139" t="n">
         <v>0</v>
       </c>
+      <c r="CD139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -31445,6 +31864,9 @@
       <c r="CC140" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD140" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -31666,6 +32088,9 @@
       <c r="CC141" t="n">
         <v>0.375</v>
       </c>
+      <c r="CD141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -31887,6 +32312,9 @@
       <c r="CC142" t="n">
         <v>0</v>
       </c>
+      <c r="CD142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -32108,6 +32536,9 @@
       <c r="CC143" t="n">
         <v>0</v>
       </c>
+      <c r="CD143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -32329,6 +32760,9 @@
       <c r="CC144" t="n">
         <v>1</v>
       </c>
+      <c r="CD144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -32550,6 +32984,9 @@
       <c r="CC145" t="n">
         <v>0</v>
       </c>
+      <c r="CD145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -32771,6 +33208,9 @@
       <c r="CC146" t="n">
         <v>0</v>
       </c>
+      <c r="CD146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -32992,6 +33432,9 @@
       <c r="CC147" t="n">
         <v>0</v>
       </c>
+      <c r="CD147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -33213,6 +33656,9 @@
       <c r="CC148" t="n">
         <v>0</v>
       </c>
+      <c r="CD148" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -33434,6 +33880,9 @@
       <c r="CC149" t="n">
         <v>1</v>
       </c>
+      <c r="CD149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -33655,6 +34104,9 @@
       <c r="CC150" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD150" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -33876,6 +34328,9 @@
       <c r="CC151" t="n">
         <v>0</v>
       </c>
+      <c r="CD151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -34097,6 +34552,9 @@
       <c r="CC152" t="n">
         <v>0</v>
       </c>
+      <c r="CD152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -34318,6 +34776,9 @@
       <c r="CC153" t="n">
         <v>1</v>
       </c>
+      <c r="CD153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -34539,6 +35000,9 @@
       <c r="CC154" t="n">
         <v>0</v>
       </c>
+      <c r="CD154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -34760,6 +35224,9 @@
       <c r="CC155" t="n">
         <v>0.375</v>
       </c>
+      <c r="CD155" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -34981,6 +35448,9 @@
       <c r="CC156" t="n">
         <v>0.125</v>
       </c>
+      <c r="CD156" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -35202,6 +35672,9 @@
       <c r="CC157" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -35423,6 +35896,9 @@
       <c r="CC158" t="n">
         <v>1</v>
       </c>
+      <c r="CD158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -35644,6 +36120,9 @@
       <c r="CC159" t="n">
         <v>1</v>
       </c>
+      <c r="CD159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -35865,6 +36344,9 @@
       <c r="CC160" t="n">
         <v>1</v>
       </c>
+      <c r="CD160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -36086,6 +36568,9 @@
       <c r="CC161" t="n">
         <v>0</v>
       </c>
+      <c r="CD161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -36307,6 +36792,9 @@
       <c r="CC162" t="n">
         <v>0</v>
       </c>
+      <c r="CD162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -36528,6 +37016,9 @@
       <c r="CC163" t="n">
         <v>1</v>
       </c>
+      <c r="CD163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -36749,6 +37240,9 @@
       <c r="CC164" t="n">
         <v>1</v>
       </c>
+      <c r="CD164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -36970,6 +37464,9 @@
       <c r="CC165" t="n">
         <v>0</v>
       </c>
+      <c r="CD165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -37191,6 +37688,9 @@
       <c r="CC166" t="n">
         <v>1</v>
       </c>
+      <c r="CD166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -37412,6 +37912,9 @@
       <c r="CC167" t="n">
         <v>0</v>
       </c>
+      <c r="CD167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -37633,6 +38136,9 @@
       <c r="CC168" t="n">
         <v>1</v>
       </c>
+      <c r="CD168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -37854,6 +38360,9 @@
       <c r="CC169" t="n">
         <v>1</v>
       </c>
+      <c r="CD169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -38075,6 +38584,9 @@
       <c r="CC170" t="n">
         <v>1</v>
       </c>
+      <c r="CD170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -38296,6 +38808,9 @@
       <c r="CC171" t="n">
         <v>1</v>
       </c>
+      <c r="CD171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -38517,6 +39032,9 @@
       <c r="CC172" t="n">
         <v>0.625</v>
       </c>
+      <c r="CD172" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -38738,6 +39256,9 @@
       <c r="CC173" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -38959,6 +39480,9 @@
       <c r="CC174" t="n">
         <v>1</v>
       </c>
+      <c r="CD174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -39180,6 +39704,9 @@
       <c r="CC175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CD175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -39401,6 +39928,9 @@
       <c r="CC176" t="n">
         <v>0</v>
       </c>
+      <c r="CD176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -39622,6 +40152,9 @@
       <c r="CC177" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CD177" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -39843,6 +40376,9 @@
       <c r="CC178" t="n">
         <v>0</v>
       </c>
+      <c r="CD178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -40064,6 +40600,9 @@
       <c r="CC179" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD179" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -40285,6 +40824,9 @@
       <c r="CC180" t="n">
         <v>0.8</v>
       </c>
+      <c r="CD180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -40506,6 +41048,9 @@
       <c r="CC181" t="n">
         <v>0</v>
       </c>
+      <c r="CD181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -40727,6 +41272,9 @@
       <c r="CC182" t="n">
         <v>0</v>
       </c>
+      <c r="CD182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -40948,6 +41496,9 @@
       <c r="CC183" t="n">
         <v>1</v>
       </c>
+      <c r="CD183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -41169,6 +41720,9 @@
       <c r="CC184" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="CD184" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -41390,6 +41944,9 @@
       <c r="CC185" t="n">
         <v>0</v>
       </c>
+      <c r="CD185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -41611,6 +42168,9 @@
       <c r="CC186" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD186" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -41832,6 +42392,9 @@
       <c r="CC187" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CD187" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -42053,6 +42616,9 @@
       <c r="CC188" t="n">
         <v>0</v>
       </c>
+      <c r="CD188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -42274,6 +42840,9 @@
       <c r="CC189" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD189" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -42495,6 +43064,9 @@
       <c r="CC190" t="n">
         <v>0.8</v>
       </c>
+      <c r="CD190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -42716,6 +43288,9 @@
       <c r="CC191" t="n">
         <v>1</v>
       </c>
+      <c r="CD191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -42937,6 +43512,9 @@
       <c r="CC192" t="n">
         <v>0</v>
       </c>
+      <c r="CD192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -43158,6 +43736,9 @@
       <c r="CC193" t="n">
         <v>1</v>
       </c>
+      <c r="CD193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -43379,6 +43960,9 @@
       <c r="CC194" t="n">
         <v>0</v>
       </c>
+      <c r="CD194" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -43600,6 +44184,9 @@
       <c r="CC195" t="n">
         <v>1</v>
       </c>
+      <c r="CD195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -43821,6 +44408,9 @@
       <c r="CC196" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -44042,6 +44632,9 @@
       <c r="CC197" t="n">
         <v>1</v>
       </c>
+      <c r="CD197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -44263,6 +44856,9 @@
       <c r="CC198" t="n">
         <v>0</v>
       </c>
+      <c r="CD198" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -44484,6 +45080,9 @@
       <c r="CC199" t="n">
         <v>0</v>
       </c>
+      <c r="CD199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -44705,6 +45304,9 @@
       <c r="CC200" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -44926,6 +45528,9 @@
       <c r="CC201" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD201" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -45147,6 +45752,9 @@
       <c r="CC202" t="n">
         <v>0.8</v>
       </c>
+      <c r="CD202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -45368,6 +45976,9 @@
       <c r="CC203" t="n">
         <v>0</v>
       </c>
+      <c r="CD203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -45589,6 +46200,9 @@
       <c r="CC204" t="n">
         <v>0</v>
       </c>
+      <c r="CD204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -45809,6 +46423,9 @@
       </c>
       <c r="CC205" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="CD205" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206">
@@ -45961,6 +46578,9 @@
       <c r="CC206" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -46182,6 +46802,9 @@
       <c r="CC207" t="n">
         <v>0.4</v>
       </c>
+      <c r="CD207" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -46403,6 +47026,9 @@
       <c r="CC208" t="n">
         <v>1</v>
       </c>
+      <c r="CD208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -46624,6 +47250,9 @@
       <c r="CC209" t="n">
         <v>0</v>
       </c>
+      <c r="CD209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -46845,6 +47474,9 @@
       <c r="CC210" t="n">
         <v>0</v>
       </c>
+      <c r="CD210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -47066,6 +47698,9 @@
       <c r="CC211" t="n">
         <v>0.375</v>
       </c>
+      <c r="CD211" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -47287,6 +47922,9 @@
       <c r="CC212" t="n">
         <v>0.1818181818181818</v>
       </c>
+      <c r="CD212" t="n">
+        <v>0.3636363636363636</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -47508,6 +48146,9 @@
       <c r="CC213" t="n">
         <v>0</v>
       </c>
+      <c r="CD213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -47729,6 +48370,9 @@
       <c r="CC214" t="n">
         <v>0</v>
       </c>
+      <c r="CD214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -47950,6 +48594,9 @@
       <c r="CC215" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD215" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -48171,6 +48818,9 @@
       <c r="CC216" t="n">
         <v>0</v>
       </c>
+      <c r="CD216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -48392,6 +49042,9 @@
       <c r="CC217" t="n">
         <v>1</v>
       </c>
+      <c r="CD217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -48613,6 +49266,9 @@
       <c r="CC218" t="n">
         <v>1</v>
       </c>
+      <c r="CD218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -48834,6 +49490,9 @@
       <c r="CC219" t="n">
         <v>1</v>
       </c>
+      <c r="CD219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -49055,6 +49714,9 @@
       <c r="CC220" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD220" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -49276,6 +49938,9 @@
       <c r="CC221" t="n">
         <v>0</v>
       </c>
+      <c r="CD221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -49497,6 +50162,9 @@
       <c r="CC222" t="n">
         <v>0</v>
       </c>
+      <c r="CD222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -49718,6 +50386,9 @@
       <c r="CC223" t="n">
         <v>0.8</v>
       </c>
+      <c r="CD223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -49939,6 +50610,9 @@
       <c r="CC224" t="n">
         <v>0</v>
       </c>
+      <c r="CD224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -50160,6 +50834,9 @@
       <c r="CC225" t="n">
         <v>0</v>
       </c>
+      <c r="CD225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -50381,6 +51058,9 @@
       <c r="CC226" t="n">
         <v>0</v>
       </c>
+      <c r="CD226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -50602,6 +51282,9 @@
       <c r="CC227" t="n">
         <v>1</v>
       </c>
+      <c r="CD227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -50823,6 +51506,9 @@
       <c r="CC228" t="n">
         <v>0</v>
       </c>
+      <c r="CD228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -51044,6 +51730,9 @@
       <c r="CC229" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD229" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -51265,6 +51954,9 @@
       <c r="CC230" t="n">
         <v>1</v>
       </c>
+      <c r="CD230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -51486,6 +52178,9 @@
       <c r="CC231" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD231" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -51707,6 +52402,9 @@
       <c r="CC232" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -51928,6 +52626,9 @@
       <c r="CC233" t="n">
         <v>0</v>
       </c>
+      <c r="CD233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -52149,6 +52850,9 @@
       <c r="CC234" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -52370,6 +53074,9 @@
       <c r="CC235" t="n">
         <v>1</v>
       </c>
+      <c r="CD235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -52591,6 +53298,9 @@
       <c r="CC236" t="n">
         <v>0</v>
       </c>
+      <c r="CD236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -52812,6 +53522,9 @@
       <c r="CC237" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -53033,6 +53746,9 @@
       <c r="CC238" t="n">
         <v>0</v>
       </c>
+      <c r="CD238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -53254,6 +53970,9 @@
       <c r="CC239" t="n">
         <v>0</v>
       </c>
+      <c r="CD239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -53475,6 +54194,9 @@
       <c r="CC240" t="n">
         <v>1</v>
       </c>
+      <c r="CD240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -53696,6 +54418,9 @@
       <c r="CC241" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -53917,6 +54642,9 @@
       <c r="CC242" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD242" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -54138,6 +54866,9 @@
       <c r="CC243" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD243" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -54359,6 +55090,9 @@
       <c r="CC244" t="n">
         <v>1</v>
       </c>
+      <c r="CD244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -54580,6 +55314,9 @@
       <c r="CC245" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD245" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -54801,6 +55538,9 @@
       <c r="CC246" t="n">
         <v>0</v>
       </c>
+      <c r="CD246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -55022,6 +55762,9 @@
       <c r="CC247" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -55243,6 +55986,9 @@
       <c r="CC248" t="n">
         <v>0.4</v>
       </c>
+      <c r="CD248" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -55464,6 +56210,9 @@
       <c r="CC249" t="n">
         <v>0</v>
       </c>
+      <c r="CD249" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -55685,6 +56434,9 @@
       <c r="CC250" t="n">
         <v>0</v>
       </c>
+      <c r="CD250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -55906,6 +56658,9 @@
       <c r="CC251" t="n">
         <v>0.375</v>
       </c>
+      <c r="CD251" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -56127,6 +56882,9 @@
       <c r="CC252" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD252" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -56348,6 +57106,9 @@
       <c r="CC253" t="n">
         <v>0</v>
       </c>
+      <c r="CD253" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -56569,6 +57330,9 @@
       <c r="CC254" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -56790,6 +57554,9 @@
       <c r="CC255" t="n">
         <v>1</v>
       </c>
+      <c r="CD255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -57011,6 +57778,9 @@
       <c r="CC256" t="n">
         <v>0</v>
       </c>
+      <c r="CD256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -57232,6 +58002,9 @@
       <c r="CC257" t="n">
         <v>1</v>
       </c>
+      <c r="CD257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -57453,6 +58226,9 @@
       <c r="CC258" t="n">
         <v>0.6</v>
       </c>
+      <c r="CD258" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -57674,6 +58450,9 @@
       <c r="CC259" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD259" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -57895,6 +58674,9 @@
       <c r="CC260" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD260" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -58116,6 +58898,9 @@
       <c r="CC261" t="n">
         <v>1</v>
       </c>
+      <c r="CD261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -58337,6 +59122,9 @@
       <c r="CC262" t="n">
         <v>0</v>
       </c>
+      <c r="CD262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -58558,6 +59346,9 @@
       <c r="CC263" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD263" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -58779,6 +59570,9 @@
       <c r="CC264" t="n">
         <v>1</v>
       </c>
+      <c r="CD264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -59000,6 +59794,9 @@
       <c r="CC265" t="n">
         <v>0</v>
       </c>
+      <c r="CD265" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -59221,6 +60018,9 @@
       <c r="CC266" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -59442,6 +60242,9 @@
       <c r="CC267" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -59663,6 +60466,9 @@
       <c r="CC268" t="n">
         <v>0</v>
       </c>
+      <c r="CD268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -59884,6 +60690,9 @@
       <c r="CC269" t="n">
         <v>0</v>
       </c>
+      <c r="CD269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -60103,6 +60912,9 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="CC270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CD270" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -60202,6 +61014,7 @@
       <c r="CA271" t="inlineStr"/>
       <c r="CB271" t="inlineStr"/>
       <c r="CC271" t="inlineStr"/>
+      <c r="CD271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -60423,6 +61236,9 @@
       <c r="CC272" t="n">
         <v>1</v>
       </c>
+      <c r="CD272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -60644,6 +61460,9 @@
       <c r="CC273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CD273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -60865,6 +61684,9 @@
       <c r="CC274" t="n">
         <v>0</v>
       </c>
+      <c r="CD274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -61086,6 +61908,9 @@
       <c r="CC275" t="n">
         <v>1</v>
       </c>
+      <c r="CD275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -61307,6 +62132,9 @@
       <c r="CC276" t="n">
         <v>0</v>
       </c>
+      <c r="CD276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -61528,6 +62356,9 @@
       <c r="CC277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CD277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -61749,6 +62580,9 @@
       <c r="CC278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CD278" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -61970,6 +62804,9 @@
       <c r="CC279" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CD279" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -62191,6 +63028,9 @@
       <c r="CC280" t="n">
         <v>0</v>
       </c>
+      <c r="CD280" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -62412,6 +63252,9 @@
       <c r="CC281" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD281" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -62633,6 +63476,9 @@
       <c r="CC282" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CD282" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -62854,6 +63700,9 @@
       <c r="CC283" t="n">
         <v>0.625</v>
       </c>
+      <c r="CD283" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -63075,6 +63924,9 @@
       <c r="CC284" t="n">
         <v>1</v>
       </c>
+      <c r="CD284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -63296,6 +64148,9 @@
       <c r="CC285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="CD285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -63517,6 +64372,9 @@
       <c r="CC286" t="n">
         <v>0.8</v>
       </c>
+      <c r="CD286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -63738,6 +64596,9 @@
       <c r="CC287" t="n">
         <v>0</v>
       </c>
+      <c r="CD287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -63959,6 +64820,9 @@
       <c r="CC288" t="n">
         <v>1</v>
       </c>
+      <c r="CD288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -64180,6 +65044,9 @@
       <c r="CC289" t="n">
         <v>0</v>
       </c>
+      <c r="CD289" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -64401,6 +65268,9 @@
       <c r="CC290" t="n">
         <v>0</v>
       </c>
+      <c r="CD290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -64622,6 +65492,9 @@
       <c r="CC291" t="n">
         <v>1</v>
       </c>
+      <c r="CD291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -64843,6 +65716,9 @@
       <c r="CC292" t="n">
         <v>0</v>
       </c>
+      <c r="CD292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -65064,6 +65940,9 @@
       <c r="CC293" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CD293" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -65285,6 +66164,9 @@
       <c r="CC294" t="n">
         <v>0</v>
       </c>
+      <c r="CD294" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -65506,6 +66388,9 @@
       <c r="CC295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CD295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -65727,6 +66612,9 @@
       <c r="CC296" t="n">
         <v>0.375</v>
       </c>
+      <c r="CD296" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -65948,6 +66836,9 @@
       <c r="CC297" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CD297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -66169,6 +67060,9 @@
       <c r="CC298" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CD298" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -66390,6 +67284,9 @@
       <c r="CC299" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CD299" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -66611,6 +67508,9 @@
       <c r="CC300" t="n">
         <v>0</v>
       </c>
+      <c r="CD300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -66832,6 +67732,9 @@
       <c r="CC301" t="n">
         <v>1</v>
       </c>
+      <c r="CD301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -67053,6 +67956,9 @@
       <c r="CC302" t="n">
         <v>0</v>
       </c>
+      <c r="CD302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -67274,6 +68180,9 @@
       <c r="CC303" t="n">
         <v>1</v>
       </c>
+      <c r="CD303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -67495,6 +68404,9 @@
       <c r="CC304" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -67716,6 +68628,9 @@
       <c r="CC305" t="n">
         <v>0</v>
       </c>
+      <c r="CD305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -67937,6 +68852,9 @@
       <c r="CC306" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CD306" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -68158,6 +69076,9 @@
       <c r="CC307" t="n">
         <v>0</v>
       </c>
+      <c r="CD307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -68379,6 +69300,9 @@
       <c r="CC308" t="n">
         <v>0</v>
       </c>
+      <c r="CD308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -68600,6 +69524,9 @@
       <c r="CC309" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -68821,6 +69748,9 @@
       <c r="CC310" t="n">
         <v>0</v>
       </c>
+      <c r="CD310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -69042,6 +69972,9 @@
       <c r="CC311" t="n">
         <v>0</v>
       </c>
+      <c r="CD311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -69263,6 +70196,9 @@
       <c r="CC312" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -69484,6 +70420,9 @@
       <c r="CC313" t="n">
         <v>1</v>
       </c>
+      <c r="CD313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -69705,6 +70644,9 @@
       <c r="CC314" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -69926,6 +70868,9 @@
       <c r="CC315" t="n">
         <v>0</v>
       </c>
+      <c r="CD315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -70147,6 +71092,9 @@
       <c r="CC316" t="n">
         <v>0.6</v>
       </c>
+      <c r="CD316" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -70368,6 +71316,9 @@
       <c r="CC317" t="n">
         <v>0</v>
       </c>
+      <c r="CD317" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -70589,6 +71540,9 @@
       <c r="CC318" t="n">
         <v>0</v>
       </c>
+      <c r="CD318" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -70810,6 +71764,9 @@
       <c r="CC319" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -71031,6 +71988,9 @@
       <c r="CC320" t="n">
         <v>1</v>
       </c>
+      <c r="CD320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -71252,6 +72212,9 @@
       <c r="CC321" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD321" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -71473,6 +72436,9 @@
       <c r="CC322" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -71694,6 +72660,9 @@
       <c r="CC323" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -71915,6 +72884,9 @@
       <c r="CC324" t="n">
         <v>0</v>
       </c>
+      <c r="CD324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -72136,6 +73108,9 @@
       <c r="CC325" t="n">
         <v>1</v>
       </c>
+      <c r="CD325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -72357,6 +73332,9 @@
       <c r="CC326" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -72578,6 +73556,9 @@
       <c r="CC327" t="n">
         <v>0</v>
       </c>
+      <c r="CD327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -72799,6 +73780,9 @@
       <c r="CC328" t="n">
         <v>1</v>
       </c>
+      <c r="CD328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -73020,6 +74004,9 @@
       <c r="CC329" t="n">
         <v>1</v>
       </c>
+      <c r="CD329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -73241,6 +74228,9 @@
       <c r="CC330" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -73462,6 +74452,9 @@
       <c r="CC331" t="n">
         <v>1</v>
       </c>
+      <c r="CD331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -73683,6 +74676,9 @@
       <c r="CC332" t="n">
         <v>0</v>
       </c>
+      <c r="CD332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -73904,6 +74900,9 @@
       <c r="CC333" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -74125,6 +75124,9 @@
       <c r="CC334" t="n">
         <v>1</v>
       </c>
+      <c r="CD334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -74346,6 +75348,9 @@
       <c r="CC335" t="n">
         <v>0</v>
       </c>
+      <c r="CD335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -74567,6 +75572,9 @@
       <c r="CC336" t="n">
         <v>1</v>
       </c>
+      <c r="CD336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -74788,6 +75796,9 @@
       <c r="CC337" t="n">
         <v>0</v>
       </c>
+      <c r="CD337" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -75009,6 +76020,9 @@
       <c r="CC338" t="n">
         <v>1</v>
       </c>
+      <c r="CD338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -75230,6 +76244,9 @@
       <c r="CC339" t="n">
         <v>1</v>
       </c>
+      <c r="CD339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -75451,6 +76468,9 @@
       <c r="CC340" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD340" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -75672,6 +76692,9 @@
       <c r="CC341" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD341" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -75893,6 +76916,9 @@
       <c r="CC342" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -76114,6 +77140,9 @@
       <c r="CC343" t="n">
         <v>0</v>
       </c>
+      <c r="CD343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -76335,6 +77364,9 @@
       <c r="CC344" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -76556,6 +77588,9 @@
       <c r="CC345" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD345" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -76777,6 +77812,9 @@
       <c r="CC346" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -76998,6 +78036,9 @@
       <c r="CC347" t="n">
         <v>0</v>
       </c>
+      <c r="CD347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -77219,6 +78260,9 @@
       <c r="CC348" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -77440,6 +78484,9 @@
       <c r="CC349" t="n">
         <v>0</v>
       </c>
+      <c r="CD349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -77661,6 +78708,9 @@
       <c r="CC350" t="n">
         <v>1</v>
       </c>
+      <c r="CD350" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -77882,6 +78932,9 @@
       <c r="CC351" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -78103,6 +79156,9 @@
       <c r="CC352" t="n">
         <v>0</v>
       </c>
+      <c r="CD352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -78324,6 +79380,9 @@
       <c r="CC353" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD353" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -78545,6 +79604,9 @@
       <c r="CC354" t="n">
         <v>0.625</v>
       </c>
+      <c r="CD354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -78766,6 +79828,9 @@
       <c r="CC355" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD355" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -78987,6 +80052,9 @@
       <c r="CC356" t="n">
         <v>0</v>
       </c>
+      <c r="CD356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -79208,6 +80276,9 @@
       <c r="CC357" t="n">
         <v>0.6</v>
       </c>
+      <c r="CD357" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -79429,6 +80500,9 @@
       <c r="CC358" t="n">
         <v>1</v>
       </c>
+      <c r="CD358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -79650,6 +80724,9 @@
       <c r="CC359" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -79871,6 +80948,9 @@
       <c r="CC360" t="n">
         <v>0.4</v>
       </c>
+      <c r="CD360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -80092,6 +81172,9 @@
       <c r="CC361" t="n">
         <v>1</v>
       </c>
+      <c r="CD361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -80313,6 +81396,9 @@
       <c r="CC362" t="n">
         <v>1</v>
       </c>
+      <c r="CD362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -80534,6 +81620,9 @@
       <c r="CC363" t="n">
         <v>1</v>
       </c>
+      <c r="CD363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -80755,6 +81844,9 @@
       <c r="CC364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CD364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -80976,6 +82068,9 @@
       <c r="CC365" t="n">
         <v>1</v>
       </c>
+      <c r="CD365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -81197,6 +82292,9 @@
       <c r="CC366" t="n">
         <v>0.625</v>
       </c>
+      <c r="CD366" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -81418,6 +82516,9 @@
       <c r="CC367" t="n">
         <v>0.4</v>
       </c>
+      <c r="CD367" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -81639,6 +82740,9 @@
       <c r="CC368" t="n">
         <v>1</v>
       </c>
+      <c r="CD368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -81860,6 +82964,9 @@
       <c r="CC369" t="n">
         <v>1</v>
       </c>
+      <c r="CD369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -82081,6 +83188,9 @@
       <c r="CC370" t="n">
         <v>0</v>
       </c>
+      <c r="CD370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -82302,6 +83412,9 @@
       <c r="CC371" t="n">
         <v>1</v>
       </c>
+      <c r="CD371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -82523,6 +83636,9 @@
       <c r="CC372" t="n">
         <v>1</v>
       </c>
+      <c r="CD372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -82744,6 +83860,9 @@
       <c r="CC373" t="n">
         <v>0</v>
       </c>
+      <c r="CD373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -82965,6 +84084,9 @@
       <c r="CC374" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -83186,6 +84308,9 @@
       <c r="CC375" t="n">
         <v>1</v>
       </c>
+      <c r="CD375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -83407,6 +84532,9 @@
       <c r="CC376" t="n">
         <v>0</v>
       </c>
+      <c r="CD376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -83628,6 +84756,9 @@
       <c r="CC377" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -83849,6 +84980,9 @@
       <c r="CC378" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -84070,6 +85204,9 @@
       <c r="CC379" t="n">
         <v>1</v>
       </c>
+      <c r="CD379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -84291,6 +85428,9 @@
       <c r="CC380" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD380" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -84512,6 +85652,9 @@
       <c r="CC381" t="n">
         <v>0.25</v>
       </c>
+      <c r="CD381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -84733,6 +85876,9 @@
       <c r="CC382" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -84954,6 +86100,9 @@
       <c r="CC383" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CD383" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -85175,6 +86324,9 @@
       <c r="CC384" t="n">
         <v>1</v>
       </c>
+      <c r="CD384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -85396,6 +86548,9 @@
       <c r="CC385" t="n">
         <v>0</v>
       </c>
+      <c r="CD385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -85617,6 +86772,9 @@
       <c r="CC386" t="n">
         <v>1</v>
       </c>
+      <c r="CD386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -85838,6 +86996,9 @@
       <c r="CC387" t="n">
         <v>1</v>
       </c>
+      <c r="CD387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -86059,6 +87220,9 @@
       <c r="CC388" t="n">
         <v>1</v>
       </c>
+      <c r="CD388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -86280,6 +87444,9 @@
       <c r="CC389" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD389" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -86501,6 +87668,9 @@
       <c r="CC390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="CD390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -86722,6 +87892,9 @@
       <c r="CC391" t="n">
         <v>0</v>
       </c>
+      <c r="CD391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -86943,6 +88116,9 @@
       <c r="CC392" t="n">
         <v>0.1818181818181818</v>
       </c>
+      <c r="CD392" t="n">
+        <v>0.8181818181818182</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -87164,6 +88340,9 @@
       <c r="CC393" t="n">
         <v>1</v>
       </c>
+      <c r="CD393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -87385,6 +88564,9 @@
       <c r="CC394" t="n">
         <v>1</v>
       </c>
+      <c r="CD394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -87606,6 +88788,9 @@
       <c r="CC395" t="n">
         <v>1</v>
       </c>
+      <c r="CD395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -87827,6 +89012,9 @@
       <c r="CC396" t="n">
         <v>1</v>
       </c>
+      <c r="CD396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -88048,6 +89236,9 @@
       <c r="CC397" t="n">
         <v>1</v>
       </c>
+      <c r="CD397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -88269,6 +89460,9 @@
       <c r="CC398" t="n">
         <v>1</v>
       </c>
+      <c r="CD398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -88490,6 +89684,9 @@
       <c r="CC399" t="n">
         <v>0</v>
       </c>
+      <c r="CD399" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -88711,6 +89908,9 @@
       <c r="CC400" t="n">
         <v>0.75</v>
       </c>
+      <c r="CD400" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -88932,6 +90132,9 @@
       <c r="CC401" t="n">
         <v>0</v>
       </c>
+      <c r="CD401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -89153,6 +90356,9 @@
       <c r="CC402" t="n">
         <v>0.5</v>
       </c>
+      <c r="CD402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -89372,6 +90578,9 @@
         <v>1</v>
       </c>
       <c r="CC403" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -89471,6 +90680,7 @@
       <c r="CA404" t="inlineStr"/>
       <c r="CB404" t="inlineStr"/>
       <c r="CC404" t="inlineStr"/>
+      <c r="CD404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -89718,6 +90928,9 @@
       <c r="CC405" t="n">
         <v>829</v>
       </c>
+      <c r="CD405" t="n">
+        <v>1936</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -89965,6 +91178,9 @@
       <c r="CC406" t="n">
         <v>2188</v>
       </c>
+      <c r="CD406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -90212,6 +91428,9 @@
       <c r="CC407" t="n">
         <v>0.3789</v>
       </c>
+      <c r="CD407" t="n">
+        <v>0.8848</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -90459,6 +91678,9 @@
       <c r="CC408" t="n">
         <v>1978</v>
       </c>
+      <c r="CD408" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -90706,6 +91928,9 @@
       <c r="CC409" t="n">
         <v>2188</v>
       </c>
+      <c r="CD409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -90953,6 +92178,9 @@
       <c r="CC410" t="n">
         <v>0.904</v>
       </c>
+      <c r="CD410" t="n">
+        <v>0.904</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -91178,6 +92406,9 @@
       <c r="CC411" t="n">
         <v>996</v>
       </c>
+      <c r="CD411" t="n">
+        <v>1475</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -91425,6 +92656,9 @@
       <c r="CC412" t="n">
         <v>2188</v>
       </c>
+      <c r="CD412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -91648,6 +92882,9 @@
       <c r="CC413" t="n">
         <v>0.4552</v>
       </c>
+      <c r="CD413" t="n">
+        <v>0.6741</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -91895,6 +93132,9 @@
       <c r="CC414" t="n">
         <v>829</v>
       </c>
+      <c r="CD414" t="n">
+        <v>968</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -92142,6 +93382,9 @@
       <c r="CC415" t="n">
         <v>2188</v>
       </c>
+      <c r="CD415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -92389,6 +93632,9 @@
       <c r="CC416" t="n">
         <v>0.3789</v>
       </c>
+      <c r="CD416" t="n">
+        <v>0.4424</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -92636,6 +93882,9 @@
       <c r="CC417" t="n">
         <v>2188</v>
       </c>
+      <c r="CD417" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -92883,6 +94132,9 @@
       <c r="CC418" t="n">
         <v>2188</v>
       </c>
+      <c r="CD418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -93130,6 +94382,9 @@
       <c r="CC419" t="n">
         <v>1</v>
       </c>
+      <c r="CD419" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD419"/>
+  <dimension ref="A1:CI419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,6 +839,31 @@
           <t>2025-09-15</t>
         </is>
       </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19_v2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19_v3</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19_v4</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19_v5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1069,6 +1094,21 @@
       <c r="CD2" t="n">
         <v>1</v>
       </c>
+      <c r="CE2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1295,6 +1335,15 @@
       <c r="CD3" t="n">
         <v>1</v>
       </c>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1519,6 +1568,15 @@
       <c r="CD4" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1743,6 +1801,15 @@
       <c r="CD5" t="n">
         <v>1</v>
       </c>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1967,6 +2034,15 @@
       <c r="CD6" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2191,6 +2267,15 @@
       <c r="CD7" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2415,6 +2500,15 @@
       <c r="CD8" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2639,6 +2733,15 @@
       <c r="CD9" t="n">
         <v>1</v>
       </c>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2863,6 +2966,15 @@
       <c r="CD10" t="n">
         <v>0.4</v>
       </c>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3085,6 +3197,15 @@
         <v>1</v>
       </c>
       <c r="CD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,6 +3374,15 @@
       <c r="CD12" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3477,6 +3607,15 @@
       <c r="CD13" t="n">
         <v>0</v>
       </c>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3701,6 +3840,15 @@
       <c r="CD14" t="n">
         <v>0.4</v>
       </c>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3925,6 +4073,15 @@
       <c r="CD15" t="n">
         <v>0.625</v>
       </c>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4149,6 +4306,15 @@
       <c r="CD16" t="n">
         <v>1</v>
       </c>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4373,6 +4539,15 @@
       <c r="CD17" t="n">
         <v>0</v>
       </c>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4597,6 +4772,15 @@
       <c r="CD18" t="n">
         <v>1</v>
       </c>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4821,6 +5005,15 @@
       <c r="CD19" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5045,6 +5238,15 @@
       <c r="CD20" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5269,6 +5471,15 @@
       <c r="CD21" t="n">
         <v>1</v>
       </c>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5493,6 +5704,15 @@
       <c r="CD22" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
+      <c r="CG22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5717,6 +5937,15 @@
       <c r="CD23" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
+      <c r="CG23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -5941,6 +6170,15 @@
       <c r="CD24" t="n">
         <v>0.2</v>
       </c>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -6165,6 +6403,15 @@
       <c r="CD25" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -6389,6 +6636,15 @@
       <c r="CD26" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -6613,6 +6869,15 @@
       <c r="CD27" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -6837,6 +7102,15 @@
       <c r="CD28" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -7061,6 +7335,15 @@
       <c r="CD29" t="n">
         <v>1</v>
       </c>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -7285,6 +7568,15 @@
       <c r="CD30" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -7509,6 +7801,15 @@
       <c r="CD31" t="n">
         <v>0</v>
       </c>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -7733,6 +8034,15 @@
       <c r="CD32" t="n">
         <v>0</v>
       </c>
+      <c r="CE32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
+      <c r="CG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH32" t="inlineStr"/>
+      <c r="CI32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -7957,6 +8267,15 @@
       <c r="CD33" t="n">
         <v>0</v>
       </c>
+      <c r="CE33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
+      <c r="CG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH33" t="inlineStr"/>
+      <c r="CI33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -8181,6 +8500,15 @@
       <c r="CD34" t="n">
         <v>1</v>
       </c>
+      <c r="CE34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
+      <c r="CG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -8405,6 +8733,15 @@
       <c r="CD35" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -8629,6 +8966,15 @@
       <c r="CD36" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH36" t="inlineStr"/>
+      <c r="CI36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -8853,6 +9199,15 @@
       <c r="CD37" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -9077,6 +9432,15 @@
       <c r="CD38" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
+      <c r="CG38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -9301,6 +9665,15 @@
       <c r="CD39" t="n">
         <v>1</v>
       </c>
+      <c r="CE39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH39" t="inlineStr"/>
+      <c r="CI39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -9523,6 +9896,15 @@
         <v>1</v>
       </c>
       <c r="CD40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE40" t="inlineStr"/>
+      <c r="CF40" t="inlineStr"/>
+      <c r="CG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH40" t="inlineStr"/>
+      <c r="CI40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9691,6 +10073,15 @@
       <c r="CD41" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE41" t="inlineStr"/>
+      <c r="CF41" t="inlineStr"/>
+      <c r="CG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH41" t="inlineStr"/>
+      <c r="CI41" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -9915,6 +10306,15 @@
       <c r="CD42" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE42" t="inlineStr"/>
+      <c r="CF42" t="inlineStr"/>
+      <c r="CG42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH42" t="inlineStr"/>
+      <c r="CI42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -10139,6 +10539,15 @@
       <c r="CD43" t="n">
         <v>1</v>
       </c>
+      <c r="CE43" t="inlineStr"/>
+      <c r="CF43" t="inlineStr"/>
+      <c r="CG43" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH43" t="inlineStr"/>
+      <c r="CI43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -10363,6 +10772,15 @@
       <c r="CD44" t="n">
         <v>0.625</v>
       </c>
+      <c r="CE44" t="inlineStr"/>
+      <c r="CF44" t="inlineStr"/>
+      <c r="CG44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH44" t="inlineStr"/>
+      <c r="CI44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -10587,6 +11005,15 @@
       <c r="CD45" t="n">
         <v>0</v>
       </c>
+      <c r="CE45" t="inlineStr"/>
+      <c r="CF45" t="inlineStr"/>
+      <c r="CG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH45" t="inlineStr"/>
+      <c r="CI45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -10811,6 +11238,15 @@
       <c r="CD46" t="n">
         <v>1</v>
       </c>
+      <c r="CE46" t="inlineStr"/>
+      <c r="CF46" t="inlineStr"/>
+      <c r="CG46" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH46" t="inlineStr"/>
+      <c r="CI46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -11035,6 +11471,15 @@
       <c r="CD47" t="n">
         <v>0</v>
       </c>
+      <c r="CE47" t="inlineStr"/>
+      <c r="CF47" t="inlineStr"/>
+      <c r="CG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH47" t="inlineStr"/>
+      <c r="CI47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -11259,6 +11704,15 @@
       <c r="CD48" t="n">
         <v>0</v>
       </c>
+      <c r="CE48" t="inlineStr"/>
+      <c r="CF48" t="inlineStr"/>
+      <c r="CG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH48" t="inlineStr"/>
+      <c r="CI48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -11483,6 +11937,15 @@
       <c r="CD49" t="n">
         <v>0</v>
       </c>
+      <c r="CE49" t="inlineStr"/>
+      <c r="CF49" t="inlineStr"/>
+      <c r="CG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH49" t="inlineStr"/>
+      <c r="CI49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -11707,6 +12170,15 @@
       <c r="CD50" t="n">
         <v>0</v>
       </c>
+      <c r="CE50" t="inlineStr"/>
+      <c r="CF50" t="inlineStr"/>
+      <c r="CG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH50" t="inlineStr"/>
+      <c r="CI50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -11931,6 +12403,15 @@
       <c r="CD51" t="n">
         <v>1</v>
       </c>
+      <c r="CE51" t="inlineStr"/>
+      <c r="CF51" t="inlineStr"/>
+      <c r="CG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH51" t="inlineStr"/>
+      <c r="CI51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -12155,6 +12636,15 @@
       <c r="CD52" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE52" t="inlineStr"/>
+      <c r="CF52" t="inlineStr"/>
+      <c r="CG52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH52" t="inlineStr"/>
+      <c r="CI52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -12379,6 +12869,15 @@
       <c r="CD53" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE53" t="inlineStr"/>
+      <c r="CF53" t="inlineStr"/>
+      <c r="CG53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH53" t="inlineStr"/>
+      <c r="CI53" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -12603,6 +13102,15 @@
       <c r="CD54" t="n">
         <v>0</v>
       </c>
+      <c r="CE54" t="inlineStr"/>
+      <c r="CF54" t="inlineStr"/>
+      <c r="CG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH54" t="inlineStr"/>
+      <c r="CI54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -12827,6 +13335,15 @@
       <c r="CD55" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE55" t="inlineStr"/>
+      <c r="CF55" t="inlineStr"/>
+      <c r="CG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH55" t="inlineStr"/>
+      <c r="CI55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -13051,6 +13568,15 @@
       <c r="CD56" t="n">
         <v>0</v>
       </c>
+      <c r="CE56" t="inlineStr"/>
+      <c r="CF56" t="inlineStr"/>
+      <c r="CG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH56" t="inlineStr"/>
+      <c r="CI56" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -13275,6 +13801,15 @@
       <c r="CD57" t="n">
         <v>0</v>
       </c>
+      <c r="CE57" t="inlineStr"/>
+      <c r="CF57" t="inlineStr"/>
+      <c r="CG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH57" t="inlineStr"/>
+      <c r="CI57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -13499,6 +14034,15 @@
       <c r="CD58" t="n">
         <v>0</v>
       </c>
+      <c r="CE58" t="inlineStr"/>
+      <c r="CF58" t="inlineStr"/>
+      <c r="CG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH58" t="inlineStr"/>
+      <c r="CI58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -13723,6 +14267,15 @@
       <c r="CD59" t="n">
         <v>0</v>
       </c>
+      <c r="CE59" t="inlineStr"/>
+      <c r="CF59" t="inlineStr"/>
+      <c r="CG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH59" t="inlineStr"/>
+      <c r="CI59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -13947,6 +14500,15 @@
       <c r="CD60" t="n">
         <v>1</v>
       </c>
+      <c r="CE60" t="inlineStr"/>
+      <c r="CF60" t="inlineStr"/>
+      <c r="CG60" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH60" t="inlineStr"/>
+      <c r="CI60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -14171,6 +14733,15 @@
       <c r="CD61" t="n">
         <v>0</v>
       </c>
+      <c r="CE61" t="inlineStr"/>
+      <c r="CF61" t="inlineStr"/>
+      <c r="CG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH61" t="inlineStr"/>
+      <c r="CI61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -14395,6 +14966,15 @@
       <c r="CD62" t="n">
         <v>0</v>
       </c>
+      <c r="CE62" t="inlineStr"/>
+      <c r="CF62" t="inlineStr"/>
+      <c r="CG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH62" t="inlineStr"/>
+      <c r="CI62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -14619,6 +15199,15 @@
       <c r="CD63" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CE63" t="inlineStr"/>
+      <c r="CF63" t="inlineStr"/>
+      <c r="CG63" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CH63" t="inlineStr"/>
+      <c r="CI63" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -14843,6 +15432,15 @@
       <c r="CD64" t="n">
         <v>1</v>
       </c>
+      <c r="CE64" t="inlineStr"/>
+      <c r="CF64" t="inlineStr"/>
+      <c r="CG64" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH64" t="inlineStr"/>
+      <c r="CI64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -15067,6 +15665,15 @@
       <c r="CD65" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE65" t="inlineStr"/>
+      <c r="CF65" t="inlineStr"/>
+      <c r="CG65" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH65" t="inlineStr"/>
+      <c r="CI65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -15291,6 +15898,15 @@
       <c r="CD66" t="n">
         <v>0</v>
       </c>
+      <c r="CE66" t="inlineStr"/>
+      <c r="CF66" t="inlineStr"/>
+      <c r="CG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH66" t="inlineStr"/>
+      <c r="CI66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -15515,6 +16131,15 @@
       <c r="CD67" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE67" t="inlineStr"/>
+      <c r="CF67" t="inlineStr"/>
+      <c r="CG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH67" t="inlineStr"/>
+      <c r="CI67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -15739,6 +16364,15 @@
       <c r="CD68" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE68" t="inlineStr"/>
+      <c r="CF68" t="inlineStr"/>
+      <c r="CG68" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH68" t="inlineStr"/>
+      <c r="CI68" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -15963,6 +16597,15 @@
       <c r="CD69" t="n">
         <v>0</v>
       </c>
+      <c r="CE69" t="inlineStr"/>
+      <c r="CF69" t="inlineStr"/>
+      <c r="CG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH69" t="inlineStr"/>
+      <c r="CI69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -16187,6 +16830,15 @@
       <c r="CD70" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CE70" t="inlineStr"/>
+      <c r="CF70" t="inlineStr"/>
+      <c r="CG70" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CH70" t="inlineStr"/>
+      <c r="CI70" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -16411,6 +17063,15 @@
       <c r="CD71" t="n">
         <v>0</v>
       </c>
+      <c r="CE71" t="inlineStr"/>
+      <c r="CF71" t="inlineStr"/>
+      <c r="CG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH71" t="inlineStr"/>
+      <c r="CI71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -16635,6 +17296,15 @@
       <c r="CD72" t="n">
         <v>0</v>
       </c>
+      <c r="CE72" t="inlineStr"/>
+      <c r="CF72" t="inlineStr"/>
+      <c r="CG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH72" t="inlineStr"/>
+      <c r="CI72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -16859,6 +17529,15 @@
       <c r="CD73" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE73" t="inlineStr"/>
+      <c r="CF73" t="inlineStr"/>
+      <c r="CG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH73" t="inlineStr"/>
+      <c r="CI73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -17083,6 +17762,15 @@
       <c r="CD74" t="n">
         <v>0</v>
       </c>
+      <c r="CE74" t="inlineStr"/>
+      <c r="CF74" t="inlineStr"/>
+      <c r="CG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH74" t="inlineStr"/>
+      <c r="CI74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -17307,6 +17995,15 @@
       <c r="CD75" t="n">
         <v>0</v>
       </c>
+      <c r="CE75" t="inlineStr"/>
+      <c r="CF75" t="inlineStr"/>
+      <c r="CG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH75" t="inlineStr"/>
+      <c r="CI75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -17531,6 +18228,15 @@
       <c r="CD76" t="n">
         <v>0</v>
       </c>
+      <c r="CE76" t="inlineStr"/>
+      <c r="CF76" t="inlineStr"/>
+      <c r="CG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH76" t="inlineStr"/>
+      <c r="CI76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -17755,6 +18461,15 @@
       <c r="CD77" t="n">
         <v>1</v>
       </c>
+      <c r="CE77" t="inlineStr"/>
+      <c r="CF77" t="inlineStr"/>
+      <c r="CG77" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH77" t="inlineStr"/>
+      <c r="CI77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -17979,6 +18694,15 @@
       <c r="CD78" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE78" t="inlineStr"/>
+      <c r="CF78" t="inlineStr"/>
+      <c r="CG78" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH78" t="inlineStr"/>
+      <c r="CI78" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -18203,6 +18927,15 @@
       <c r="CD79" t="n">
         <v>1</v>
       </c>
+      <c r="CE79" t="inlineStr"/>
+      <c r="CF79" t="inlineStr"/>
+      <c r="CG79" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH79" t="inlineStr"/>
+      <c r="CI79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -18427,6 +19160,15 @@
       <c r="CD80" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE80" t="inlineStr"/>
+      <c r="CF80" t="inlineStr"/>
+      <c r="CG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH80" t="inlineStr"/>
+      <c r="CI80" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -18651,6 +19393,15 @@
       <c r="CD81" t="n">
         <v>0</v>
       </c>
+      <c r="CE81" t="inlineStr"/>
+      <c r="CF81" t="inlineStr"/>
+      <c r="CG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH81" t="inlineStr"/>
+      <c r="CI81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -18875,6 +19626,15 @@
       <c r="CD82" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE82" t="inlineStr"/>
+      <c r="CF82" t="inlineStr"/>
+      <c r="CG82" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH82" t="inlineStr"/>
+      <c r="CI82" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -19099,6 +19859,15 @@
       <c r="CD83" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE83" t="inlineStr"/>
+      <c r="CF83" t="inlineStr"/>
+      <c r="CG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH83" t="inlineStr"/>
+      <c r="CI83" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -19323,6 +20092,15 @@
       <c r="CD84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="CE84" t="inlineStr"/>
+      <c r="CF84" t="inlineStr"/>
+      <c r="CG84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CH84" t="inlineStr"/>
+      <c r="CI84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -19547,6 +20325,15 @@
       <c r="CD85" t="n">
         <v>0</v>
       </c>
+      <c r="CE85" t="inlineStr"/>
+      <c r="CF85" t="inlineStr"/>
+      <c r="CG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH85" t="inlineStr"/>
+      <c r="CI85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -19771,6 +20558,15 @@
       <c r="CD86" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE86" t="inlineStr"/>
+      <c r="CF86" t="inlineStr"/>
+      <c r="CG86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH86" t="inlineStr"/>
+      <c r="CI86" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -19995,6 +20791,15 @@
       <c r="CD87" t="n">
         <v>0</v>
       </c>
+      <c r="CE87" t="inlineStr"/>
+      <c r="CF87" t="inlineStr"/>
+      <c r="CG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH87" t="inlineStr"/>
+      <c r="CI87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -20219,6 +21024,15 @@
       <c r="CD88" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE88" t="inlineStr"/>
+      <c r="CF88" t="inlineStr"/>
+      <c r="CG88" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH88" t="inlineStr"/>
+      <c r="CI88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -20443,6 +21257,15 @@
       <c r="CD89" t="n">
         <v>0</v>
       </c>
+      <c r="CE89" t="inlineStr"/>
+      <c r="CF89" t="inlineStr"/>
+      <c r="CG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH89" t="inlineStr"/>
+      <c r="CI89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -20667,6 +21490,15 @@
       <c r="CD90" t="n">
         <v>0</v>
       </c>
+      <c r="CE90" t="inlineStr"/>
+      <c r="CF90" t="inlineStr"/>
+      <c r="CG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH90" t="inlineStr"/>
+      <c r="CI90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -20891,6 +21723,15 @@
       <c r="CD91" t="n">
         <v>0</v>
       </c>
+      <c r="CE91" t="inlineStr"/>
+      <c r="CF91" t="inlineStr"/>
+      <c r="CG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH91" t="inlineStr"/>
+      <c r="CI91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -21115,6 +21956,15 @@
       <c r="CD92" t="n">
         <v>0</v>
       </c>
+      <c r="CE92" t="inlineStr"/>
+      <c r="CF92" t="inlineStr"/>
+      <c r="CG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH92" t="inlineStr"/>
+      <c r="CI92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -21339,6 +22189,15 @@
       <c r="CD93" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE93" t="inlineStr"/>
+      <c r="CF93" t="inlineStr"/>
+      <c r="CG93" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH93" t="inlineStr"/>
+      <c r="CI93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -21563,6 +22422,15 @@
       <c r="CD94" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE94" t="inlineStr"/>
+      <c r="CF94" t="inlineStr"/>
+      <c r="CG94" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH94" t="inlineStr"/>
+      <c r="CI94" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -21787,6 +22655,15 @@
       <c r="CD95" t="n">
         <v>1</v>
       </c>
+      <c r="CE95" t="inlineStr"/>
+      <c r="CF95" t="inlineStr"/>
+      <c r="CG95" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH95" t="inlineStr"/>
+      <c r="CI95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -22011,6 +22888,15 @@
       <c r="CD96" t="n">
         <v>0</v>
       </c>
+      <c r="CE96" t="inlineStr"/>
+      <c r="CF96" t="inlineStr"/>
+      <c r="CG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH96" t="inlineStr"/>
+      <c r="CI96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -22235,6 +23121,15 @@
       <c r="CD97" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE97" t="inlineStr"/>
+      <c r="CF97" t="inlineStr"/>
+      <c r="CG97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH97" t="inlineStr"/>
+      <c r="CI97" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -22459,6 +23354,15 @@
       <c r="CD98" t="n">
         <v>1</v>
       </c>
+      <c r="CE98" t="inlineStr"/>
+      <c r="CF98" t="inlineStr"/>
+      <c r="CG98" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH98" t="inlineStr"/>
+      <c r="CI98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -22683,6 +23587,15 @@
       <c r="CD99" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE99" t="inlineStr"/>
+      <c r="CF99" t="inlineStr"/>
+      <c r="CG99" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH99" t="inlineStr"/>
+      <c r="CI99" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -22907,6 +23820,15 @@
       <c r="CD100" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE100" t="inlineStr"/>
+      <c r="CF100" t="inlineStr"/>
+      <c r="CG100" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH100" t="inlineStr"/>
+      <c r="CI100" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -23131,6 +24053,15 @@
       <c r="CD101" t="n">
         <v>1</v>
       </c>
+      <c r="CE101" t="inlineStr"/>
+      <c r="CF101" t="inlineStr"/>
+      <c r="CG101" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH101" t="inlineStr"/>
+      <c r="CI101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -23355,6 +24286,15 @@
       <c r="CD102" t="n">
         <v>0</v>
       </c>
+      <c r="CE102" t="inlineStr"/>
+      <c r="CF102" t="inlineStr"/>
+      <c r="CG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH102" t="inlineStr"/>
+      <c r="CI102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -23579,6 +24519,15 @@
       <c r="CD103" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE103" t="inlineStr"/>
+      <c r="CF103" t="inlineStr"/>
+      <c r="CG103" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CH103" t="inlineStr"/>
+      <c r="CI103" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -23803,6 +24752,15 @@
       <c r="CD104" t="n">
         <v>1</v>
       </c>
+      <c r="CE104" t="inlineStr"/>
+      <c r="CF104" t="inlineStr"/>
+      <c r="CG104" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH104" t="inlineStr"/>
+      <c r="CI104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -24027,6 +24985,15 @@
       <c r="CD105" t="n">
         <v>0</v>
       </c>
+      <c r="CE105" t="inlineStr"/>
+      <c r="CF105" t="inlineStr"/>
+      <c r="CG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH105" t="inlineStr"/>
+      <c r="CI105" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -24251,6 +25218,15 @@
       <c r="CD106" t="n">
         <v>0</v>
       </c>
+      <c r="CE106" t="inlineStr"/>
+      <c r="CF106" t="inlineStr"/>
+      <c r="CG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH106" t="inlineStr"/>
+      <c r="CI106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -24475,6 +25451,15 @@
       <c r="CD107" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE107" t="inlineStr"/>
+      <c r="CF107" t="inlineStr"/>
+      <c r="CG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH107" t="inlineStr"/>
+      <c r="CI107" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -24699,6 +25684,15 @@
       <c r="CD108" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE108" t="inlineStr"/>
+      <c r="CF108" t="inlineStr"/>
+      <c r="CG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH108" t="inlineStr"/>
+      <c r="CI108" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -24923,6 +25917,15 @@
       <c r="CD109" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE109" t="inlineStr"/>
+      <c r="CF109" t="inlineStr"/>
+      <c r="CG109" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH109" t="inlineStr"/>
+      <c r="CI109" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -25147,6 +26150,15 @@
       <c r="CD110" t="n">
         <v>0</v>
       </c>
+      <c r="CE110" t="inlineStr"/>
+      <c r="CF110" t="inlineStr"/>
+      <c r="CG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH110" t="inlineStr"/>
+      <c r="CI110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -25371,6 +26383,15 @@
       <c r="CD111" t="n">
         <v>1</v>
       </c>
+      <c r="CE111" t="inlineStr"/>
+      <c r="CF111" t="inlineStr"/>
+      <c r="CG111" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH111" t="inlineStr"/>
+      <c r="CI111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -25595,6 +26616,15 @@
       <c r="CD112" t="n">
         <v>1</v>
       </c>
+      <c r="CE112" t="inlineStr"/>
+      <c r="CF112" t="inlineStr"/>
+      <c r="CG112" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH112" t="inlineStr"/>
+      <c r="CI112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -25819,6 +26849,15 @@
       <c r="CD113" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE113" t="inlineStr"/>
+      <c r="CF113" t="inlineStr"/>
+      <c r="CG113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH113" t="inlineStr"/>
+      <c r="CI113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -26043,6 +27082,15 @@
       <c r="CD114" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE114" t="inlineStr"/>
+      <c r="CF114" t="inlineStr"/>
+      <c r="CG114" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH114" t="inlineStr"/>
+      <c r="CI114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -26267,6 +27315,15 @@
       <c r="CD115" t="n">
         <v>0</v>
       </c>
+      <c r="CE115" t="inlineStr"/>
+      <c r="CF115" t="inlineStr"/>
+      <c r="CG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH115" t="inlineStr"/>
+      <c r="CI115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -26491,6 +27548,15 @@
       <c r="CD116" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE116" t="inlineStr"/>
+      <c r="CF116" t="inlineStr"/>
+      <c r="CG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH116" t="inlineStr"/>
+      <c r="CI116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -26715,6 +27781,15 @@
       <c r="CD117" t="n">
         <v>1</v>
       </c>
+      <c r="CE117" t="inlineStr"/>
+      <c r="CF117" t="inlineStr"/>
+      <c r="CG117" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH117" t="inlineStr"/>
+      <c r="CI117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -26939,6 +28014,15 @@
       <c r="CD118" t="n">
         <v>0</v>
       </c>
+      <c r="CE118" t="inlineStr"/>
+      <c r="CF118" t="inlineStr"/>
+      <c r="CG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH118" t="inlineStr"/>
+      <c r="CI118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -27163,6 +28247,15 @@
       <c r="CD119" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE119" t="inlineStr"/>
+      <c r="CF119" t="inlineStr"/>
+      <c r="CG119" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CH119" t="inlineStr"/>
+      <c r="CI119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -27387,6 +28480,15 @@
       <c r="CD120" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE120" t="inlineStr"/>
+      <c r="CF120" t="inlineStr"/>
+      <c r="CG120" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH120" t="inlineStr"/>
+      <c r="CI120" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -27611,6 +28713,15 @@
       <c r="CD121" t="n">
         <v>0.625</v>
       </c>
+      <c r="CE121" t="inlineStr"/>
+      <c r="CF121" t="inlineStr"/>
+      <c r="CG121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH121" t="inlineStr"/>
+      <c r="CI121" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -27835,6 +28946,15 @@
       <c r="CD122" t="n">
         <v>0</v>
       </c>
+      <c r="CE122" t="inlineStr"/>
+      <c r="CF122" t="inlineStr"/>
+      <c r="CG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH122" t="inlineStr"/>
+      <c r="CI122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -28059,6 +29179,15 @@
       <c r="CD123" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE123" t="inlineStr"/>
+      <c r="CF123" t="inlineStr"/>
+      <c r="CG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH123" t="inlineStr"/>
+      <c r="CI123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -28283,6 +29412,15 @@
       <c r="CD124" t="n">
         <v>0</v>
       </c>
+      <c r="CE124" t="inlineStr"/>
+      <c r="CF124" t="inlineStr"/>
+      <c r="CG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH124" t="inlineStr"/>
+      <c r="CI124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -28507,6 +29645,15 @@
       <c r="CD125" t="n">
         <v>0</v>
       </c>
+      <c r="CE125" t="inlineStr"/>
+      <c r="CF125" t="inlineStr"/>
+      <c r="CG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH125" t="inlineStr"/>
+      <c r="CI125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -28731,6 +29878,15 @@
       <c r="CD126" t="n">
         <v>0</v>
       </c>
+      <c r="CE126" t="inlineStr"/>
+      <c r="CF126" t="inlineStr"/>
+      <c r="CG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH126" t="inlineStr"/>
+      <c r="CI126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -28955,6 +30111,15 @@
       <c r="CD127" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE127" t="inlineStr"/>
+      <c r="CF127" t="inlineStr"/>
+      <c r="CG127" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH127" t="inlineStr"/>
+      <c r="CI127" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -29179,6 +30344,15 @@
       <c r="CD128" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE128" t="inlineStr"/>
+      <c r="CF128" t="inlineStr"/>
+      <c r="CG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH128" t="inlineStr"/>
+      <c r="CI128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -29403,6 +30577,15 @@
       <c r="CD129" t="n">
         <v>1</v>
       </c>
+      <c r="CE129" t="inlineStr"/>
+      <c r="CF129" t="inlineStr"/>
+      <c r="CG129" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH129" t="inlineStr"/>
+      <c r="CI129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -29627,6 +30810,15 @@
       <c r="CD130" t="n">
         <v>0.875</v>
       </c>
+      <c r="CE130" t="inlineStr"/>
+      <c r="CF130" t="inlineStr"/>
+      <c r="CG130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH130" t="inlineStr"/>
+      <c r="CI130" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -29851,6 +31043,15 @@
       <c r="CD131" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE131" t="inlineStr"/>
+      <c r="CF131" t="inlineStr"/>
+      <c r="CG131" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH131" t="inlineStr"/>
+      <c r="CI131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -30075,6 +31276,15 @@
       <c r="CD132" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE132" t="inlineStr"/>
+      <c r="CF132" t="inlineStr"/>
+      <c r="CG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH132" t="inlineStr"/>
+      <c r="CI132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -30299,6 +31509,15 @@
       <c r="CD133" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE133" t="inlineStr"/>
+      <c r="CF133" t="inlineStr"/>
+      <c r="CG133" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH133" t="inlineStr"/>
+      <c r="CI133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -30523,6 +31742,15 @@
       <c r="CD134" t="n">
         <v>0</v>
       </c>
+      <c r="CE134" t="inlineStr"/>
+      <c r="CF134" t="inlineStr"/>
+      <c r="CG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH134" t="inlineStr"/>
+      <c r="CI134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -30747,6 +31975,15 @@
       <c r="CD135" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE135" t="inlineStr"/>
+      <c r="CF135" t="inlineStr"/>
+      <c r="CG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH135" t="inlineStr"/>
+      <c r="CI135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -30971,6 +32208,15 @@
       <c r="CD136" t="n">
         <v>0</v>
       </c>
+      <c r="CE136" t="inlineStr"/>
+      <c r="CF136" t="inlineStr"/>
+      <c r="CG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH136" t="inlineStr"/>
+      <c r="CI136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -31195,6 +32441,15 @@
       <c r="CD137" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE137" t="inlineStr"/>
+      <c r="CF137" t="inlineStr"/>
+      <c r="CG137" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH137" t="inlineStr"/>
+      <c r="CI137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -31419,6 +32674,15 @@
       <c r="CD138" t="n">
         <v>0</v>
       </c>
+      <c r="CE138" t="inlineStr"/>
+      <c r="CF138" t="inlineStr"/>
+      <c r="CG138" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH138" t="inlineStr"/>
+      <c r="CI138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -31643,6 +32907,15 @@
       <c r="CD139" t="n">
         <v>0</v>
       </c>
+      <c r="CE139" t="inlineStr"/>
+      <c r="CF139" t="inlineStr"/>
+      <c r="CG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH139" t="inlineStr"/>
+      <c r="CI139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -31867,6 +33140,15 @@
       <c r="CD140" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE140" t="inlineStr"/>
+      <c r="CF140" t="inlineStr"/>
+      <c r="CG140" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH140" t="inlineStr"/>
+      <c r="CI140" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -32091,6 +33373,15 @@
       <c r="CD141" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE141" t="inlineStr"/>
+      <c r="CF141" t="inlineStr"/>
+      <c r="CG141" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CH141" t="inlineStr"/>
+      <c r="CI141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -32315,6 +33606,15 @@
       <c r="CD142" t="n">
         <v>0</v>
       </c>
+      <c r="CE142" t="inlineStr"/>
+      <c r="CF142" t="inlineStr"/>
+      <c r="CG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH142" t="inlineStr"/>
+      <c r="CI142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -32539,6 +33839,15 @@
       <c r="CD143" t="n">
         <v>0</v>
       </c>
+      <c r="CE143" t="inlineStr"/>
+      <c r="CF143" t="inlineStr"/>
+      <c r="CG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH143" t="inlineStr"/>
+      <c r="CI143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -32763,6 +34072,15 @@
       <c r="CD144" t="n">
         <v>1</v>
       </c>
+      <c r="CE144" t="inlineStr"/>
+      <c r="CF144" t="inlineStr"/>
+      <c r="CG144" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH144" t="inlineStr"/>
+      <c r="CI144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -32987,6 +34305,15 @@
       <c r="CD145" t="n">
         <v>0</v>
       </c>
+      <c r="CE145" t="inlineStr"/>
+      <c r="CF145" t="inlineStr"/>
+      <c r="CG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH145" t="inlineStr"/>
+      <c r="CI145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -33211,6 +34538,15 @@
       <c r="CD146" t="n">
         <v>0</v>
       </c>
+      <c r="CE146" t="inlineStr"/>
+      <c r="CF146" t="inlineStr"/>
+      <c r="CG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH146" t="inlineStr"/>
+      <c r="CI146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -33435,6 +34771,15 @@
       <c r="CD147" t="n">
         <v>0</v>
       </c>
+      <c r="CE147" t="inlineStr"/>
+      <c r="CF147" t="inlineStr"/>
+      <c r="CG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH147" t="inlineStr"/>
+      <c r="CI147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -33659,6 +35004,15 @@
       <c r="CD148" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE148" t="inlineStr"/>
+      <c r="CF148" t="inlineStr"/>
+      <c r="CG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH148" t="inlineStr"/>
+      <c r="CI148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -33883,6 +35237,15 @@
       <c r="CD149" t="n">
         <v>1</v>
       </c>
+      <c r="CE149" t="inlineStr"/>
+      <c r="CF149" t="inlineStr"/>
+      <c r="CG149" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH149" t="inlineStr"/>
+      <c r="CI149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -34107,6 +35470,15 @@
       <c r="CD150" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE150" t="inlineStr"/>
+      <c r="CF150" t="inlineStr"/>
+      <c r="CG150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH150" t="inlineStr"/>
+      <c r="CI150" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -34331,6 +35703,15 @@
       <c r="CD151" t="n">
         <v>0</v>
       </c>
+      <c r="CE151" t="inlineStr"/>
+      <c r="CF151" t="inlineStr"/>
+      <c r="CG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH151" t="inlineStr"/>
+      <c r="CI151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -34555,6 +35936,15 @@
       <c r="CD152" t="n">
         <v>0</v>
       </c>
+      <c r="CE152" t="inlineStr"/>
+      <c r="CF152" t="inlineStr"/>
+      <c r="CG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH152" t="inlineStr"/>
+      <c r="CI152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -34779,6 +36169,15 @@
       <c r="CD153" t="n">
         <v>1</v>
       </c>
+      <c r="CE153" t="inlineStr"/>
+      <c r="CF153" t="inlineStr"/>
+      <c r="CG153" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH153" t="inlineStr"/>
+      <c r="CI153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -35003,6 +36402,15 @@
       <c r="CD154" t="n">
         <v>0</v>
       </c>
+      <c r="CE154" t="inlineStr"/>
+      <c r="CF154" t="inlineStr"/>
+      <c r="CG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH154" t="inlineStr"/>
+      <c r="CI154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -35227,6 +36635,15 @@
       <c r="CD155" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE155" t="inlineStr"/>
+      <c r="CF155" t="inlineStr"/>
+      <c r="CG155" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CH155" t="inlineStr"/>
+      <c r="CI155" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -35451,6 +36868,15 @@
       <c r="CD156" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE156" t="inlineStr"/>
+      <c r="CF156" t="inlineStr"/>
+      <c r="CG156" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CH156" t="inlineStr"/>
+      <c r="CI156" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -35675,6 +37101,15 @@
       <c r="CD157" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE157" t="inlineStr"/>
+      <c r="CF157" t="inlineStr"/>
+      <c r="CG157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH157" t="inlineStr"/>
+      <c r="CI157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -35899,6 +37334,15 @@
       <c r="CD158" t="n">
         <v>1</v>
       </c>
+      <c r="CE158" t="inlineStr"/>
+      <c r="CF158" t="inlineStr"/>
+      <c r="CG158" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH158" t="inlineStr"/>
+      <c r="CI158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -36123,6 +37567,15 @@
       <c r="CD159" t="n">
         <v>1</v>
       </c>
+      <c r="CE159" t="inlineStr"/>
+      <c r="CF159" t="inlineStr"/>
+      <c r="CG159" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH159" t="inlineStr"/>
+      <c r="CI159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -36347,6 +37800,15 @@
       <c r="CD160" t="n">
         <v>1</v>
       </c>
+      <c r="CE160" t="inlineStr"/>
+      <c r="CF160" t="inlineStr"/>
+      <c r="CG160" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH160" t="inlineStr"/>
+      <c r="CI160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -36571,6 +38033,15 @@
       <c r="CD161" t="n">
         <v>0</v>
       </c>
+      <c r="CE161" t="inlineStr"/>
+      <c r="CF161" t="inlineStr"/>
+      <c r="CG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH161" t="inlineStr"/>
+      <c r="CI161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -36795,6 +38266,15 @@
       <c r="CD162" t="n">
         <v>0</v>
       </c>
+      <c r="CE162" t="inlineStr"/>
+      <c r="CF162" t="inlineStr"/>
+      <c r="CG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH162" t="inlineStr"/>
+      <c r="CI162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -37019,6 +38499,15 @@
       <c r="CD163" t="n">
         <v>1</v>
       </c>
+      <c r="CE163" t="inlineStr"/>
+      <c r="CF163" t="inlineStr"/>
+      <c r="CG163" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH163" t="inlineStr"/>
+      <c r="CI163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -37243,6 +38732,15 @@
       <c r="CD164" t="n">
         <v>1</v>
       </c>
+      <c r="CE164" t="inlineStr"/>
+      <c r="CF164" t="inlineStr"/>
+      <c r="CG164" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH164" t="inlineStr"/>
+      <c r="CI164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -37467,6 +38965,15 @@
       <c r="CD165" t="n">
         <v>0</v>
       </c>
+      <c r="CE165" t="inlineStr"/>
+      <c r="CF165" t="inlineStr"/>
+      <c r="CG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH165" t="inlineStr"/>
+      <c r="CI165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -37691,6 +39198,15 @@
       <c r="CD166" t="n">
         <v>1</v>
       </c>
+      <c r="CE166" t="inlineStr"/>
+      <c r="CF166" t="inlineStr"/>
+      <c r="CG166" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH166" t="inlineStr"/>
+      <c r="CI166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -37915,6 +39431,15 @@
       <c r="CD167" t="n">
         <v>0</v>
       </c>
+      <c r="CE167" t="inlineStr"/>
+      <c r="CF167" t="inlineStr"/>
+      <c r="CG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH167" t="inlineStr"/>
+      <c r="CI167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -38139,6 +39664,15 @@
       <c r="CD168" t="n">
         <v>1</v>
       </c>
+      <c r="CE168" t="inlineStr"/>
+      <c r="CF168" t="inlineStr"/>
+      <c r="CG168" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH168" t="inlineStr"/>
+      <c r="CI168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -38363,6 +39897,15 @@
       <c r="CD169" t="n">
         <v>1</v>
       </c>
+      <c r="CE169" t="inlineStr"/>
+      <c r="CF169" t="inlineStr"/>
+      <c r="CG169" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH169" t="inlineStr"/>
+      <c r="CI169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -38587,6 +40130,15 @@
       <c r="CD170" t="n">
         <v>1</v>
       </c>
+      <c r="CE170" t="inlineStr"/>
+      <c r="CF170" t="inlineStr"/>
+      <c r="CG170" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH170" t="inlineStr"/>
+      <c r="CI170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -38811,6 +40363,15 @@
       <c r="CD171" t="n">
         <v>1</v>
       </c>
+      <c r="CE171" t="inlineStr"/>
+      <c r="CF171" t="inlineStr"/>
+      <c r="CG171" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH171" t="inlineStr"/>
+      <c r="CI171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -39035,6 +40596,15 @@
       <c r="CD172" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE172" t="inlineStr"/>
+      <c r="CF172" t="inlineStr"/>
+      <c r="CG172" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CH172" t="inlineStr"/>
+      <c r="CI172" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -39259,6 +40829,15 @@
       <c r="CD173" t="n">
         <v>1</v>
       </c>
+      <c r="CE173" t="inlineStr"/>
+      <c r="CF173" t="inlineStr"/>
+      <c r="CG173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH173" t="inlineStr"/>
+      <c r="CI173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -39483,6 +41062,15 @@
       <c r="CD174" t="n">
         <v>1</v>
       </c>
+      <c r="CE174" t="inlineStr"/>
+      <c r="CF174" t="inlineStr"/>
+      <c r="CG174" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH174" t="inlineStr"/>
+      <c r="CI174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -39707,6 +41295,15 @@
       <c r="CD175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CE175" t="inlineStr"/>
+      <c r="CF175" t="inlineStr"/>
+      <c r="CG175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="CH175" t="inlineStr"/>
+      <c r="CI175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -39931,6 +41528,15 @@
       <c r="CD176" t="n">
         <v>0</v>
       </c>
+      <c r="CE176" t="inlineStr"/>
+      <c r="CF176" t="inlineStr"/>
+      <c r="CG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH176" t="inlineStr"/>
+      <c r="CI176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -40155,6 +41761,15 @@
       <c r="CD177" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE177" t="inlineStr"/>
+      <c r="CF177" t="inlineStr"/>
+      <c r="CG177" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CH177" t="inlineStr"/>
+      <c r="CI177" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -40379,6 +41994,15 @@
       <c r="CD178" t="n">
         <v>0</v>
       </c>
+      <c r="CE178" t="inlineStr"/>
+      <c r="CF178" t="inlineStr"/>
+      <c r="CG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH178" t="inlineStr"/>
+      <c r="CI178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -40603,6 +42227,15 @@
       <c r="CD179" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE179" t="inlineStr"/>
+      <c r="CF179" t="inlineStr"/>
+      <c r="CG179" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH179" t="inlineStr"/>
+      <c r="CI179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -40827,6 +42460,15 @@
       <c r="CD180" t="n">
         <v>0.8</v>
       </c>
+      <c r="CE180" t="inlineStr"/>
+      <c r="CF180" t="inlineStr"/>
+      <c r="CG180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH180" t="inlineStr"/>
+      <c r="CI180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -41051,6 +42693,15 @@
       <c r="CD181" t="n">
         <v>0</v>
       </c>
+      <c r="CE181" t="inlineStr"/>
+      <c r="CF181" t="inlineStr"/>
+      <c r="CG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH181" t="inlineStr"/>
+      <c r="CI181" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -41275,6 +42926,15 @@
       <c r="CD182" t="n">
         <v>0</v>
       </c>
+      <c r="CE182" t="inlineStr"/>
+      <c r="CF182" t="inlineStr"/>
+      <c r="CG182" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH182" t="inlineStr"/>
+      <c r="CI182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -41499,6 +43159,15 @@
       <c r="CD183" t="n">
         <v>1</v>
       </c>
+      <c r="CE183" t="inlineStr"/>
+      <c r="CF183" t="inlineStr"/>
+      <c r="CG183" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH183" t="inlineStr"/>
+      <c r="CI183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -41723,6 +43392,15 @@
       <c r="CD184" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="CE184" t="inlineStr"/>
+      <c r="CF184" t="inlineStr"/>
+      <c r="CG184" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CH184" t="inlineStr"/>
+      <c r="CI184" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -41947,6 +43625,15 @@
       <c r="CD185" t="n">
         <v>0</v>
       </c>
+      <c r="CE185" t="inlineStr"/>
+      <c r="CF185" t="inlineStr"/>
+      <c r="CG185" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH185" t="inlineStr"/>
+      <c r="CI185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -42171,6 +43858,15 @@
       <c r="CD186" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE186" t="inlineStr"/>
+      <c r="CF186" t="inlineStr"/>
+      <c r="CG186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH186" t="inlineStr"/>
+      <c r="CI186" t="n">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -42395,6 +44091,15 @@
       <c r="CD187" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CE187" t="inlineStr"/>
+      <c r="CF187" t="inlineStr"/>
+      <c r="CG187" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CH187" t="inlineStr"/>
+      <c r="CI187" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -42619,6 +44324,15 @@
       <c r="CD188" t="n">
         <v>0</v>
       </c>
+      <c r="CE188" t="inlineStr"/>
+      <c r="CF188" t="inlineStr"/>
+      <c r="CG188" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH188" t="inlineStr"/>
+      <c r="CI188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -42843,6 +44557,15 @@
       <c r="CD189" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE189" t="inlineStr"/>
+      <c r="CF189" t="inlineStr"/>
+      <c r="CG189" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH189" t="inlineStr"/>
+      <c r="CI189" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -43067,6 +44790,15 @@
       <c r="CD190" t="n">
         <v>1</v>
       </c>
+      <c r="CE190" t="inlineStr"/>
+      <c r="CF190" t="inlineStr"/>
+      <c r="CG190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH190" t="inlineStr"/>
+      <c r="CI190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -43291,6 +45023,15 @@
       <c r="CD191" t="n">
         <v>1</v>
       </c>
+      <c r="CE191" t="inlineStr"/>
+      <c r="CF191" t="inlineStr"/>
+      <c r="CG191" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH191" t="inlineStr"/>
+      <c r="CI191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -43515,6 +45256,15 @@
       <c r="CD192" t="n">
         <v>0</v>
       </c>
+      <c r="CE192" t="inlineStr"/>
+      <c r="CF192" t="inlineStr"/>
+      <c r="CG192" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH192" t="inlineStr"/>
+      <c r="CI192" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -43739,6 +45489,15 @@
       <c r="CD193" t="n">
         <v>1</v>
       </c>
+      <c r="CE193" t="inlineStr"/>
+      <c r="CF193" t="inlineStr"/>
+      <c r="CG193" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH193" t="inlineStr"/>
+      <c r="CI193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -43963,6 +45722,15 @@
       <c r="CD194" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE194" t="inlineStr"/>
+      <c r="CF194" t="inlineStr"/>
+      <c r="CG194" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH194" t="inlineStr"/>
+      <c r="CI194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -44187,6 +45955,15 @@
       <c r="CD195" t="n">
         <v>1</v>
       </c>
+      <c r="CE195" t="inlineStr"/>
+      <c r="CF195" t="inlineStr"/>
+      <c r="CG195" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH195" t="inlineStr"/>
+      <c r="CI195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -44411,6 +46188,15 @@
       <c r="CD196" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE196" t="inlineStr"/>
+      <c r="CF196" t="inlineStr"/>
+      <c r="CG196" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH196" t="inlineStr"/>
+      <c r="CI196" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -44635,6 +46421,15 @@
       <c r="CD197" t="n">
         <v>1</v>
       </c>
+      <c r="CE197" t="inlineStr"/>
+      <c r="CF197" t="inlineStr"/>
+      <c r="CG197" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH197" t="inlineStr"/>
+      <c r="CI197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -44859,6 +46654,15 @@
       <c r="CD198" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CE198" t="inlineStr"/>
+      <c r="CF198" t="inlineStr"/>
+      <c r="CG198" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH198" t="inlineStr"/>
+      <c r="CI198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -45083,6 +46887,15 @@
       <c r="CD199" t="n">
         <v>0</v>
       </c>
+      <c r="CE199" t="inlineStr"/>
+      <c r="CF199" t="inlineStr"/>
+      <c r="CG199" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH199" t="inlineStr"/>
+      <c r="CI199" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -45307,6 +47120,15 @@
       <c r="CD200" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE200" t="inlineStr"/>
+      <c r="CF200" t="inlineStr"/>
+      <c r="CG200" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH200" t="inlineStr"/>
+      <c r="CI200" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -45531,6 +47353,15 @@
       <c r="CD201" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE201" t="inlineStr"/>
+      <c r="CF201" t="inlineStr"/>
+      <c r="CG201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH201" t="inlineStr"/>
+      <c r="CI201" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -45755,6 +47586,15 @@
       <c r="CD202" t="n">
         <v>1</v>
       </c>
+      <c r="CE202" t="inlineStr"/>
+      <c r="CF202" t="inlineStr"/>
+      <c r="CG202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH202" t="inlineStr"/>
+      <c r="CI202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -45979,6 +47819,15 @@
       <c r="CD203" t="n">
         <v>0</v>
       </c>
+      <c r="CE203" t="inlineStr"/>
+      <c r="CF203" t="inlineStr"/>
+      <c r="CG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH203" t="inlineStr"/>
+      <c r="CI203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -46203,6 +48052,15 @@
       <c r="CD204" t="n">
         <v>0</v>
       </c>
+      <c r="CE204" t="inlineStr"/>
+      <c r="CF204" t="inlineStr"/>
+      <c r="CG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH204" t="inlineStr"/>
+      <c r="CI204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -46426,6 +48284,15 @@
       </c>
       <c r="CD205" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="CE205" t="inlineStr"/>
+      <c r="CF205" t="inlineStr"/>
+      <c r="CG205" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CH205" t="inlineStr"/>
+      <c r="CI205" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="206">
@@ -46581,6 +48448,15 @@
       <c r="CD206" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE206" t="inlineStr"/>
+      <c r="CF206" t="inlineStr"/>
+      <c r="CG206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH206" t="inlineStr"/>
+      <c r="CI206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -46805,6 +48681,15 @@
       <c r="CD207" t="n">
         <v>0.6</v>
       </c>
+      <c r="CE207" t="inlineStr"/>
+      <c r="CF207" t="inlineStr"/>
+      <c r="CG207" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH207" t="inlineStr"/>
+      <c r="CI207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -47029,6 +48914,15 @@
       <c r="CD208" t="n">
         <v>1</v>
       </c>
+      <c r="CE208" t="inlineStr"/>
+      <c r="CF208" t="inlineStr"/>
+      <c r="CG208" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH208" t="inlineStr"/>
+      <c r="CI208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -47253,6 +49147,15 @@
       <c r="CD209" t="n">
         <v>0</v>
       </c>
+      <c r="CE209" t="inlineStr"/>
+      <c r="CF209" t="inlineStr"/>
+      <c r="CG209" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH209" t="inlineStr"/>
+      <c r="CI209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -47477,6 +49380,15 @@
       <c r="CD210" t="n">
         <v>0</v>
       </c>
+      <c r="CE210" t="inlineStr"/>
+      <c r="CF210" t="inlineStr"/>
+      <c r="CG210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH210" t="inlineStr"/>
+      <c r="CI210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -47701,6 +49613,15 @@
       <c r="CD211" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE211" t="inlineStr"/>
+      <c r="CF211" t="inlineStr"/>
+      <c r="CG211" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CH211" t="inlineStr"/>
+      <c r="CI211" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -47925,6 +49846,15 @@
       <c r="CD212" t="n">
         <v>0.3636363636363636</v>
       </c>
+      <c r="CE212" t="inlineStr"/>
+      <c r="CF212" t="inlineStr"/>
+      <c r="CG212" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH212" t="inlineStr"/>
+      <c r="CI212" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -48149,6 +50079,15 @@
       <c r="CD213" t="n">
         <v>0</v>
       </c>
+      <c r="CE213" t="inlineStr"/>
+      <c r="CF213" t="inlineStr"/>
+      <c r="CG213" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH213" t="inlineStr"/>
+      <c r="CI213" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -48373,6 +50312,15 @@
       <c r="CD214" t="n">
         <v>0</v>
       </c>
+      <c r="CE214" t="inlineStr"/>
+      <c r="CF214" t="inlineStr"/>
+      <c r="CG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH214" t="inlineStr"/>
+      <c r="CI214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -48597,6 +50545,15 @@
       <c r="CD215" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE215" t="inlineStr"/>
+      <c r="CF215" t="inlineStr"/>
+      <c r="CG215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH215" t="inlineStr"/>
+      <c r="CI215" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -48821,6 +50778,15 @@
       <c r="CD216" t="n">
         <v>0</v>
       </c>
+      <c r="CE216" t="inlineStr"/>
+      <c r="CF216" t="inlineStr"/>
+      <c r="CG216" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH216" t="inlineStr"/>
+      <c r="CI216" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -49045,6 +51011,15 @@
       <c r="CD217" t="n">
         <v>1</v>
       </c>
+      <c r="CE217" t="inlineStr"/>
+      <c r="CF217" t="inlineStr"/>
+      <c r="CG217" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH217" t="inlineStr"/>
+      <c r="CI217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -49269,6 +51244,15 @@
       <c r="CD218" t="n">
         <v>1</v>
       </c>
+      <c r="CE218" t="inlineStr"/>
+      <c r="CF218" t="inlineStr"/>
+      <c r="CG218" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH218" t="inlineStr"/>
+      <c r="CI218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -49493,6 +51477,15 @@
       <c r="CD219" t="n">
         <v>1</v>
       </c>
+      <c r="CE219" t="inlineStr"/>
+      <c r="CF219" t="inlineStr"/>
+      <c r="CG219" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH219" t="inlineStr"/>
+      <c r="CI219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -49717,6 +51710,15 @@
       <c r="CD220" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE220" t="inlineStr"/>
+      <c r="CF220" t="inlineStr"/>
+      <c r="CG220" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH220" t="inlineStr"/>
+      <c r="CI220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -49941,6 +51943,15 @@
       <c r="CD221" t="n">
         <v>0</v>
       </c>
+      <c r="CE221" t="inlineStr"/>
+      <c r="CF221" t="inlineStr"/>
+      <c r="CG221" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH221" t="inlineStr"/>
+      <c r="CI221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -50165,6 +52176,15 @@
       <c r="CD222" t="n">
         <v>0</v>
       </c>
+      <c r="CE222" t="inlineStr"/>
+      <c r="CF222" t="inlineStr"/>
+      <c r="CG222" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH222" t="inlineStr"/>
+      <c r="CI222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -50389,6 +52409,15 @@
       <c r="CD223" t="n">
         <v>0.8</v>
       </c>
+      <c r="CE223" t="inlineStr"/>
+      <c r="CF223" t="inlineStr"/>
+      <c r="CG223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH223" t="inlineStr"/>
+      <c r="CI223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -50613,6 +52642,15 @@
       <c r="CD224" t="n">
         <v>0</v>
       </c>
+      <c r="CE224" t="inlineStr"/>
+      <c r="CF224" t="inlineStr"/>
+      <c r="CG224" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH224" t="inlineStr"/>
+      <c r="CI224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -50837,6 +52875,15 @@
       <c r="CD225" t="n">
         <v>0</v>
       </c>
+      <c r="CE225" t="inlineStr"/>
+      <c r="CF225" t="inlineStr"/>
+      <c r="CG225" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH225" t="inlineStr"/>
+      <c r="CI225" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -51061,6 +53108,15 @@
       <c r="CD226" t="n">
         <v>0</v>
       </c>
+      <c r="CE226" t="inlineStr"/>
+      <c r="CF226" t="inlineStr"/>
+      <c r="CG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH226" t="inlineStr"/>
+      <c r="CI226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -51285,6 +53341,15 @@
       <c r="CD227" t="n">
         <v>1</v>
       </c>
+      <c r="CE227" t="inlineStr"/>
+      <c r="CF227" t="inlineStr"/>
+      <c r="CG227" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH227" t="inlineStr"/>
+      <c r="CI227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -51509,6 +53574,15 @@
       <c r="CD228" t="n">
         <v>0</v>
       </c>
+      <c r="CE228" t="inlineStr"/>
+      <c r="CF228" t="inlineStr"/>
+      <c r="CG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH228" t="inlineStr"/>
+      <c r="CI228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -51733,6 +53807,15 @@
       <c r="CD229" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE229" t="inlineStr"/>
+      <c r="CF229" t="inlineStr"/>
+      <c r="CG229" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH229" t="inlineStr"/>
+      <c r="CI229" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -51957,6 +54040,15 @@
       <c r="CD230" t="n">
         <v>1</v>
       </c>
+      <c r="CE230" t="inlineStr"/>
+      <c r="CF230" t="inlineStr"/>
+      <c r="CG230" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH230" t="inlineStr"/>
+      <c r="CI230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -52181,6 +54273,15 @@
       <c r="CD231" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE231" t="inlineStr"/>
+      <c r="CF231" t="inlineStr"/>
+      <c r="CG231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH231" t="inlineStr"/>
+      <c r="CI231" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -52405,6 +54506,15 @@
       <c r="CD232" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE232" t="inlineStr"/>
+      <c r="CF232" t="inlineStr"/>
+      <c r="CG232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH232" t="inlineStr"/>
+      <c r="CI232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -52629,6 +54739,15 @@
       <c r="CD233" t="n">
         <v>0</v>
       </c>
+      <c r="CE233" t="inlineStr"/>
+      <c r="CF233" t="inlineStr"/>
+      <c r="CG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH233" t="inlineStr"/>
+      <c r="CI233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -52853,6 +54972,15 @@
       <c r="CD234" t="n">
         <v>1</v>
       </c>
+      <c r="CE234" t="inlineStr"/>
+      <c r="CF234" t="inlineStr"/>
+      <c r="CG234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH234" t="inlineStr"/>
+      <c r="CI234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -53077,6 +55205,15 @@
       <c r="CD235" t="n">
         <v>1</v>
       </c>
+      <c r="CE235" t="inlineStr"/>
+      <c r="CF235" t="inlineStr"/>
+      <c r="CG235" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH235" t="inlineStr"/>
+      <c r="CI235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -53301,6 +55438,15 @@
       <c r="CD236" t="n">
         <v>0</v>
       </c>
+      <c r="CE236" t="inlineStr"/>
+      <c r="CF236" t="inlineStr"/>
+      <c r="CG236" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH236" t="inlineStr"/>
+      <c r="CI236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -53525,6 +55671,15 @@
       <c r="CD237" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE237" t="inlineStr"/>
+      <c r="CF237" t="inlineStr"/>
+      <c r="CG237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH237" t="inlineStr"/>
+      <c r="CI237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -53749,6 +55904,15 @@
       <c r="CD238" t="n">
         <v>0</v>
       </c>
+      <c r="CE238" t="inlineStr"/>
+      <c r="CF238" t="inlineStr"/>
+      <c r="CG238" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH238" t="inlineStr"/>
+      <c r="CI238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -53973,6 +56137,15 @@
       <c r="CD239" t="n">
         <v>0</v>
       </c>
+      <c r="CE239" t="inlineStr"/>
+      <c r="CF239" t="inlineStr"/>
+      <c r="CG239" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH239" t="inlineStr"/>
+      <c r="CI239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -54197,6 +56370,15 @@
       <c r="CD240" t="n">
         <v>1</v>
       </c>
+      <c r="CE240" t="inlineStr"/>
+      <c r="CF240" t="inlineStr"/>
+      <c r="CG240" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH240" t="inlineStr"/>
+      <c r="CI240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -54421,6 +56603,15 @@
       <c r="CD241" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE241" t="inlineStr"/>
+      <c r="CF241" t="inlineStr"/>
+      <c r="CG241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH241" t="inlineStr"/>
+      <c r="CI241" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -54645,6 +56836,15 @@
       <c r="CD242" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE242" t="inlineStr"/>
+      <c r="CF242" t="inlineStr"/>
+      <c r="CG242" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH242" t="inlineStr"/>
+      <c r="CI242" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -54869,6 +57069,15 @@
       <c r="CD243" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE243" t="inlineStr"/>
+      <c r="CF243" t="inlineStr"/>
+      <c r="CG243" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH243" t="inlineStr"/>
+      <c r="CI243" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -55093,6 +57302,15 @@
       <c r="CD244" t="n">
         <v>1</v>
       </c>
+      <c r="CE244" t="inlineStr"/>
+      <c r="CF244" t="inlineStr"/>
+      <c r="CG244" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH244" t="inlineStr"/>
+      <c r="CI244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -55317,6 +57535,15 @@
       <c r="CD245" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE245" t="inlineStr"/>
+      <c r="CF245" t="inlineStr"/>
+      <c r="CG245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH245" t="inlineStr"/>
+      <c r="CI245" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -55541,6 +57768,15 @@
       <c r="CD246" t="n">
         <v>0</v>
       </c>
+      <c r="CE246" t="inlineStr"/>
+      <c r="CF246" t="inlineStr"/>
+      <c r="CG246" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH246" t="inlineStr"/>
+      <c r="CI246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -55765,6 +58001,15 @@
       <c r="CD247" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE247" t="inlineStr"/>
+      <c r="CF247" t="inlineStr"/>
+      <c r="CG247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH247" t="inlineStr"/>
+      <c r="CI247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -55989,6 +58234,15 @@
       <c r="CD248" t="n">
         <v>0.6</v>
       </c>
+      <c r="CE248" t="inlineStr"/>
+      <c r="CF248" t="inlineStr"/>
+      <c r="CG248" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH248" t="inlineStr"/>
+      <c r="CI248" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -56213,6 +58467,15 @@
       <c r="CD249" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE249" t="inlineStr"/>
+      <c r="CF249" t="inlineStr"/>
+      <c r="CG249" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH249" t="inlineStr"/>
+      <c r="CI249" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -56437,6 +58700,15 @@
       <c r="CD250" t="n">
         <v>0</v>
       </c>
+      <c r="CE250" t="inlineStr"/>
+      <c r="CF250" t="inlineStr"/>
+      <c r="CG250" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH250" t="inlineStr"/>
+      <c r="CI250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -56661,6 +58933,15 @@
       <c r="CD251" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE251" t="inlineStr"/>
+      <c r="CF251" t="inlineStr"/>
+      <c r="CG251" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CH251" t="inlineStr"/>
+      <c r="CI251" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -56885,6 +59166,15 @@
       <c r="CD252" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE252" t="inlineStr"/>
+      <c r="CF252" t="inlineStr"/>
+      <c r="CG252" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH252" t="inlineStr"/>
+      <c r="CI252" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -57109,6 +59399,15 @@
       <c r="CD253" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE253" t="inlineStr"/>
+      <c r="CF253" t="inlineStr"/>
+      <c r="CG253" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH253" t="inlineStr"/>
+      <c r="CI253" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -57333,6 +59632,15 @@
       <c r="CD254" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE254" t="inlineStr"/>
+      <c r="CF254" t="inlineStr"/>
+      <c r="CG254" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH254" t="inlineStr"/>
+      <c r="CI254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -57557,6 +59865,15 @@
       <c r="CD255" t="n">
         <v>1</v>
       </c>
+      <c r="CE255" t="inlineStr"/>
+      <c r="CF255" t="inlineStr"/>
+      <c r="CG255" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH255" t="inlineStr"/>
+      <c r="CI255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -57781,6 +60098,15 @@
       <c r="CD256" t="n">
         <v>0</v>
       </c>
+      <c r="CE256" t="inlineStr"/>
+      <c r="CF256" t="inlineStr"/>
+      <c r="CG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH256" t="inlineStr"/>
+      <c r="CI256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -58005,6 +60331,15 @@
       <c r="CD257" t="n">
         <v>1</v>
       </c>
+      <c r="CE257" t="inlineStr"/>
+      <c r="CF257" t="inlineStr"/>
+      <c r="CG257" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH257" t="inlineStr"/>
+      <c r="CI257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -58229,6 +60564,15 @@
       <c r="CD258" t="n">
         <v>0.8</v>
       </c>
+      <c r="CE258" t="inlineStr"/>
+      <c r="CF258" t="inlineStr"/>
+      <c r="CG258" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CH258" t="inlineStr"/>
+      <c r="CI258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -58453,6 +60797,15 @@
       <c r="CD259" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE259" t="inlineStr"/>
+      <c r="CF259" t="inlineStr"/>
+      <c r="CG259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH259" t="inlineStr"/>
+      <c r="CI259" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -58677,6 +61030,15 @@
       <c r="CD260" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE260" t="inlineStr"/>
+      <c r="CF260" t="inlineStr"/>
+      <c r="CG260" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH260" t="inlineStr"/>
+      <c r="CI260" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -58901,6 +61263,15 @@
       <c r="CD261" t="n">
         <v>1</v>
       </c>
+      <c r="CE261" t="inlineStr"/>
+      <c r="CF261" t="inlineStr"/>
+      <c r="CG261" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH261" t="inlineStr"/>
+      <c r="CI261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -59125,6 +61496,15 @@
       <c r="CD262" t="n">
         <v>0</v>
       </c>
+      <c r="CE262" t="inlineStr"/>
+      <c r="CF262" t="inlineStr"/>
+      <c r="CG262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH262" t="inlineStr"/>
+      <c r="CI262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -59349,6 +61729,15 @@
       <c r="CD263" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE263" t="inlineStr"/>
+      <c r="CF263" t="inlineStr"/>
+      <c r="CG263" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH263" t="inlineStr"/>
+      <c r="CI263" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -59573,6 +61962,15 @@
       <c r="CD264" t="n">
         <v>1</v>
       </c>
+      <c r="CE264" t="inlineStr"/>
+      <c r="CF264" t="inlineStr"/>
+      <c r="CG264" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH264" t="inlineStr"/>
+      <c r="CI264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -59797,6 +62195,15 @@
       <c r="CD265" t="n">
         <v>0.2</v>
       </c>
+      <c r="CE265" t="inlineStr"/>
+      <c r="CF265" t="inlineStr"/>
+      <c r="CG265" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH265" t="inlineStr"/>
+      <c r="CI265" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -60021,6 +62428,15 @@
       <c r="CD266" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE266" t="inlineStr"/>
+      <c r="CF266" t="inlineStr"/>
+      <c r="CG266" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH266" t="inlineStr"/>
+      <c r="CI266" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -60245,6 +62661,15 @@
       <c r="CD267" t="n">
         <v>1</v>
       </c>
+      <c r="CE267" t="inlineStr"/>
+      <c r="CF267" t="inlineStr"/>
+      <c r="CG267" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH267" t="inlineStr"/>
+      <c r="CI267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -60469,6 +62894,15 @@
       <c r="CD268" t="n">
         <v>0</v>
       </c>
+      <c r="CE268" t="inlineStr"/>
+      <c r="CF268" t="inlineStr"/>
+      <c r="CG268" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH268" t="inlineStr"/>
+      <c r="CI268" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -60693,6 +63127,15 @@
       <c r="CD269" t="n">
         <v>0</v>
       </c>
+      <c r="CE269" t="inlineStr"/>
+      <c r="CF269" t="inlineStr"/>
+      <c r="CG269" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH269" t="inlineStr"/>
+      <c r="CI269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -60916,6 +63359,15 @@
       </c>
       <c r="CD270" t="n">
         <v>0.7142857142857143</v>
+      </c>
+      <c r="CE270" t="inlineStr"/>
+      <c r="CF270" t="inlineStr"/>
+      <c r="CG270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CH270" t="inlineStr"/>
+      <c r="CI270" t="n">
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="271">
@@ -61015,6 +63467,11 @@
       <c r="CB271" t="inlineStr"/>
       <c r="CC271" t="inlineStr"/>
       <c r="CD271" t="inlineStr"/>
+      <c r="CE271" t="inlineStr"/>
+      <c r="CF271" t="inlineStr"/>
+      <c r="CG271" t="inlineStr"/>
+      <c r="CH271" t="inlineStr"/>
+      <c r="CI271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -61239,6 +63696,15 @@
       <c r="CD272" t="n">
         <v>1</v>
       </c>
+      <c r="CE272" t="inlineStr"/>
+      <c r="CF272" t="inlineStr"/>
+      <c r="CG272" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH272" t="inlineStr"/>
+      <c r="CI272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -61463,6 +63929,15 @@
       <c r="CD273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CE273" t="inlineStr"/>
+      <c r="CF273" t="inlineStr"/>
+      <c r="CG273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CH273" t="inlineStr"/>
+      <c r="CI273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -61687,6 +64162,15 @@
       <c r="CD274" t="n">
         <v>0</v>
       </c>
+      <c r="CE274" t="inlineStr"/>
+      <c r="CF274" t="inlineStr"/>
+      <c r="CG274" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH274" t="inlineStr"/>
+      <c r="CI274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -61911,6 +64395,15 @@
       <c r="CD275" t="n">
         <v>1</v>
       </c>
+      <c r="CE275" t="inlineStr"/>
+      <c r="CF275" t="inlineStr"/>
+      <c r="CG275" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH275" t="inlineStr"/>
+      <c r="CI275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -62135,6 +64628,15 @@
       <c r="CD276" t="n">
         <v>0</v>
       </c>
+      <c r="CE276" t="inlineStr"/>
+      <c r="CF276" t="inlineStr"/>
+      <c r="CG276" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH276" t="inlineStr"/>
+      <c r="CI276" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -62359,6 +64861,15 @@
       <c r="CD277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CE277" t="inlineStr"/>
+      <c r="CF277" t="inlineStr"/>
+      <c r="CG277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CH277" t="inlineStr"/>
+      <c r="CI277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -62583,6 +65094,15 @@
       <c r="CD278" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="CE278" t="inlineStr"/>
+      <c r="CF278" t="inlineStr"/>
+      <c r="CG278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="CH278" t="inlineStr"/>
+      <c r="CI278" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -62807,6 +65327,15 @@
       <c r="CD279" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="CE279" t="inlineStr"/>
+      <c r="CF279" t="inlineStr"/>
+      <c r="CG279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CH279" t="inlineStr"/>
+      <c r="CI279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -63031,6 +65560,15 @@
       <c r="CD280" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CE280" t="inlineStr"/>
+      <c r="CF280" t="inlineStr"/>
+      <c r="CG280" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH280" t="inlineStr"/>
+      <c r="CI280" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -63255,6 +65793,15 @@
       <c r="CD281" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE281" t="inlineStr"/>
+      <c r="CF281" t="inlineStr"/>
+      <c r="CG281" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH281" t="inlineStr"/>
+      <c r="CI281" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -63479,6 +66026,15 @@
       <c r="CD282" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CE282" t="inlineStr"/>
+      <c r="CF282" t="inlineStr"/>
+      <c r="CG282" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="CH282" t="inlineStr"/>
+      <c r="CI282" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -63703,6 +66259,15 @@
       <c r="CD283" t="n">
         <v>0.625</v>
       </c>
+      <c r="CE283" t="inlineStr"/>
+      <c r="CF283" t="inlineStr"/>
+      <c r="CG283" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CH283" t="inlineStr"/>
+      <c r="CI283" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -63927,6 +66492,15 @@
       <c r="CD284" t="n">
         <v>1</v>
       </c>
+      <c r="CE284" t="inlineStr"/>
+      <c r="CF284" t="inlineStr"/>
+      <c r="CG284" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH284" t="inlineStr"/>
+      <c r="CI284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -64151,6 +66725,15 @@
       <c r="CD285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="CE285" t="inlineStr"/>
+      <c r="CF285" t="inlineStr"/>
+      <c r="CG285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="CH285" t="inlineStr"/>
+      <c r="CI285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -64375,6 +66958,15 @@
       <c r="CD286" t="n">
         <v>1</v>
       </c>
+      <c r="CE286" t="inlineStr"/>
+      <c r="CF286" t="inlineStr"/>
+      <c r="CG286" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CH286" t="inlineStr"/>
+      <c r="CI286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -64599,6 +67191,15 @@
       <c r="CD287" t="n">
         <v>0</v>
       </c>
+      <c r="CE287" t="inlineStr"/>
+      <c r="CF287" t="inlineStr"/>
+      <c r="CG287" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH287" t="inlineStr"/>
+      <c r="CI287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -64823,6 +67424,15 @@
       <c r="CD288" t="n">
         <v>1</v>
       </c>
+      <c r="CE288" t="inlineStr"/>
+      <c r="CF288" t="inlineStr"/>
+      <c r="CG288" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH288" t="inlineStr"/>
+      <c r="CI288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -65047,6 +67657,15 @@
       <c r="CD289" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE289" t="inlineStr"/>
+      <c r="CF289" t="inlineStr"/>
+      <c r="CG289" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH289" t="inlineStr"/>
+      <c r="CI289" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -65271,6 +67890,15 @@
       <c r="CD290" t="n">
         <v>0</v>
       </c>
+      <c r="CE290" t="inlineStr"/>
+      <c r="CF290" t="inlineStr"/>
+      <c r="CG290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH290" t="inlineStr"/>
+      <c r="CI290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -65495,6 +68123,15 @@
       <c r="CD291" t="n">
         <v>1</v>
       </c>
+      <c r="CE291" t="inlineStr"/>
+      <c r="CF291" t="inlineStr"/>
+      <c r="CG291" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH291" t="inlineStr"/>
+      <c r="CI291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -65719,6 +68356,15 @@
       <c r="CD292" t="n">
         <v>0</v>
       </c>
+      <c r="CE292" t="inlineStr"/>
+      <c r="CF292" t="inlineStr"/>
+      <c r="CG292" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH292" t="inlineStr"/>
+      <c r="CI292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -65943,6 +68589,15 @@
       <c r="CD293" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CE293" t="inlineStr"/>
+      <c r="CF293" t="inlineStr"/>
+      <c r="CG293" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CH293" t="inlineStr"/>
+      <c r="CI293" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -66167,6 +68822,15 @@
       <c r="CD294" t="n">
         <v>0.125</v>
       </c>
+      <c r="CE294" t="inlineStr"/>
+      <c r="CF294" t="inlineStr"/>
+      <c r="CG294" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH294" t="inlineStr"/>
+      <c r="CI294" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -66391,6 +69055,15 @@
       <c r="CD295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CE295" t="inlineStr"/>
+      <c r="CF295" t="inlineStr"/>
+      <c r="CG295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CH295" t="inlineStr"/>
+      <c r="CI295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -66615,6 +69288,15 @@
       <c r="CD296" t="n">
         <v>0.375</v>
       </c>
+      <c r="CE296" t="inlineStr"/>
+      <c r="CF296" t="inlineStr"/>
+      <c r="CG296" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CH296" t="inlineStr"/>
+      <c r="CI296" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -66839,6 +69521,15 @@
       <c r="CD297" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CE297" t="inlineStr"/>
+      <c r="CF297" t="inlineStr"/>
+      <c r="CG297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="CH297" t="inlineStr"/>
+      <c r="CI297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -67063,6 +69754,15 @@
       <c r="CD298" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CE298" t="inlineStr"/>
+      <c r="CF298" t="inlineStr"/>
+      <c r="CG298" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CH298" t="inlineStr"/>
+      <c r="CI298" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -67287,6 +69987,15 @@
       <c r="CD299" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CE299" t="inlineStr"/>
+      <c r="CF299" t="inlineStr"/>
+      <c r="CG299" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CH299" t="inlineStr"/>
+      <c r="CI299" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -67511,6 +70220,15 @@
       <c r="CD300" t="n">
         <v>0</v>
       </c>
+      <c r="CE300" t="inlineStr"/>
+      <c r="CF300" t="inlineStr"/>
+      <c r="CG300" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH300" t="inlineStr"/>
+      <c r="CI300" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -67735,6 +70453,15 @@
       <c r="CD301" t="n">
         <v>1</v>
       </c>
+      <c r="CE301" t="inlineStr"/>
+      <c r="CF301" t="inlineStr"/>
+      <c r="CG301" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH301" t="inlineStr"/>
+      <c r="CI301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -67959,6 +70686,15 @@
       <c r="CD302" t="n">
         <v>0</v>
       </c>
+      <c r="CE302" t="inlineStr"/>
+      <c r="CF302" t="inlineStr"/>
+      <c r="CG302" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH302" t="inlineStr"/>
+      <c r="CI302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -68183,6 +70919,15 @@
       <c r="CD303" t="n">
         <v>1</v>
       </c>
+      <c r="CE303" t="inlineStr"/>
+      <c r="CF303" t="inlineStr"/>
+      <c r="CG303" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH303" t="inlineStr"/>
+      <c r="CI303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -68407,6 +71152,15 @@
       <c r="CD304" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE304" t="inlineStr"/>
+      <c r="CF304" t="inlineStr"/>
+      <c r="CG304" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH304" t="inlineStr"/>
+      <c r="CI304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -68631,6 +71385,15 @@
       <c r="CD305" t="n">
         <v>0</v>
       </c>
+      <c r="CE305" t="inlineStr"/>
+      <c r="CF305" t="inlineStr"/>
+      <c r="CG305" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH305" t="inlineStr"/>
+      <c r="CI305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -68855,6 +71618,15 @@
       <c r="CD306" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CE306" t="inlineStr"/>
+      <c r="CF306" t="inlineStr"/>
+      <c r="CG306" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CH306" t="inlineStr"/>
+      <c r="CI306" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -69079,6 +71851,15 @@
       <c r="CD307" t="n">
         <v>0</v>
       </c>
+      <c r="CE307" t="inlineStr"/>
+      <c r="CF307" t="inlineStr"/>
+      <c r="CG307" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH307" t="inlineStr"/>
+      <c r="CI307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -69303,6 +72084,15 @@
       <c r="CD308" t="n">
         <v>0</v>
       </c>
+      <c r="CE308" t="inlineStr"/>
+      <c r="CF308" t="inlineStr"/>
+      <c r="CG308" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH308" t="inlineStr"/>
+      <c r="CI308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -69527,6 +72317,15 @@
       <c r="CD309" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE309" t="inlineStr"/>
+      <c r="CF309" t="inlineStr"/>
+      <c r="CG309" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH309" t="inlineStr"/>
+      <c r="CI309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -69751,6 +72550,15 @@
       <c r="CD310" t="n">
         <v>0</v>
       </c>
+      <c r="CE310" t="inlineStr"/>
+      <c r="CF310" t="inlineStr"/>
+      <c r="CG310" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH310" t="inlineStr"/>
+      <c r="CI310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -69975,6 +72783,15 @@
       <c r="CD311" t="n">
         <v>0</v>
       </c>
+      <c r="CE311" t="inlineStr"/>
+      <c r="CF311" t="inlineStr"/>
+      <c r="CG311" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH311" t="inlineStr"/>
+      <c r="CI311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -70199,6 +73016,15 @@
       <c r="CD312" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE312" t="inlineStr"/>
+      <c r="CF312" t="inlineStr"/>
+      <c r="CG312" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH312" t="inlineStr"/>
+      <c r="CI312" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -70423,6 +73249,15 @@
       <c r="CD313" t="n">
         <v>1</v>
       </c>
+      <c r="CE313" t="inlineStr"/>
+      <c r="CF313" t="inlineStr"/>
+      <c r="CG313" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH313" t="inlineStr"/>
+      <c r="CI313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -70647,6 +73482,15 @@
       <c r="CD314" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE314" t="inlineStr"/>
+      <c r="CF314" t="inlineStr"/>
+      <c r="CG314" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH314" t="inlineStr"/>
+      <c r="CI314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -70871,6 +73715,15 @@
       <c r="CD315" t="n">
         <v>0</v>
       </c>
+      <c r="CE315" t="inlineStr"/>
+      <c r="CF315" t="inlineStr"/>
+      <c r="CG315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH315" t="inlineStr"/>
+      <c r="CI315" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -71095,6 +73948,15 @@
       <c r="CD316" t="n">
         <v>0.4</v>
       </c>
+      <c r="CE316" t="inlineStr"/>
+      <c r="CF316" t="inlineStr"/>
+      <c r="CG316" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CH316" t="inlineStr"/>
+      <c r="CI316" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -71319,6 +74181,15 @@
       <c r="CD317" t="n">
         <v>0.4</v>
       </c>
+      <c r="CE317" t="inlineStr"/>
+      <c r="CF317" t="inlineStr"/>
+      <c r="CG317" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH317" t="inlineStr"/>
+      <c r="CI317" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -71543,6 +74414,15 @@
       <c r="CD318" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE318" t="inlineStr"/>
+      <c r="CF318" t="inlineStr"/>
+      <c r="CG318" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH318" t="inlineStr"/>
+      <c r="CI318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -71767,6 +74647,15 @@
       <c r="CD319" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE319" t="inlineStr"/>
+      <c r="CF319" t="inlineStr"/>
+      <c r="CG319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH319" t="inlineStr"/>
+      <c r="CI319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -71991,6 +74880,15 @@
       <c r="CD320" t="n">
         <v>1</v>
       </c>
+      <c r="CE320" t="inlineStr"/>
+      <c r="CF320" t="inlineStr"/>
+      <c r="CG320" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH320" t="inlineStr"/>
+      <c r="CI320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -72215,6 +75113,15 @@
       <c r="CD321" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE321" t="inlineStr"/>
+      <c r="CF321" t="inlineStr"/>
+      <c r="CG321" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH321" t="inlineStr"/>
+      <c r="CI321" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -72439,6 +75346,15 @@
       <c r="CD322" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE322" t="inlineStr"/>
+      <c r="CF322" t="inlineStr"/>
+      <c r="CG322" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH322" t="inlineStr"/>
+      <c r="CI322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -72663,6 +75579,15 @@
       <c r="CD323" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE323" t="inlineStr"/>
+      <c r="CF323" t="inlineStr"/>
+      <c r="CG323" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH323" t="inlineStr"/>
+      <c r="CI323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -72887,6 +75812,15 @@
       <c r="CD324" t="n">
         <v>0</v>
       </c>
+      <c r="CE324" t="inlineStr"/>
+      <c r="CF324" t="inlineStr"/>
+      <c r="CG324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH324" t="inlineStr"/>
+      <c r="CI324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -73111,6 +76045,15 @@
       <c r="CD325" t="n">
         <v>1</v>
       </c>
+      <c r="CE325" t="inlineStr"/>
+      <c r="CF325" t="inlineStr"/>
+      <c r="CG325" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH325" t="inlineStr"/>
+      <c r="CI325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -73335,6 +76278,15 @@
       <c r="CD326" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE326" t="inlineStr"/>
+      <c r="CF326" t="inlineStr"/>
+      <c r="CG326" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH326" t="inlineStr"/>
+      <c r="CI326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -73559,6 +76511,15 @@
       <c r="CD327" t="n">
         <v>0</v>
       </c>
+      <c r="CE327" t="inlineStr"/>
+      <c r="CF327" t="inlineStr"/>
+      <c r="CG327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH327" t="inlineStr"/>
+      <c r="CI327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -73783,6 +76744,15 @@
       <c r="CD328" t="n">
         <v>1</v>
       </c>
+      <c r="CE328" t="inlineStr"/>
+      <c r="CF328" t="inlineStr"/>
+      <c r="CG328" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH328" t="inlineStr"/>
+      <c r="CI328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -74007,6 +76977,15 @@
       <c r="CD329" t="n">
         <v>1</v>
       </c>
+      <c r="CE329" t="inlineStr"/>
+      <c r="CF329" t="inlineStr"/>
+      <c r="CG329" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH329" t="inlineStr"/>
+      <c r="CI329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -74231,6 +77210,15 @@
       <c r="CD330" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE330" t="inlineStr"/>
+      <c r="CF330" t="inlineStr"/>
+      <c r="CG330" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH330" t="inlineStr"/>
+      <c r="CI330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -74455,6 +77443,15 @@
       <c r="CD331" t="n">
         <v>1</v>
       </c>
+      <c r="CE331" t="inlineStr"/>
+      <c r="CF331" t="inlineStr"/>
+      <c r="CG331" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH331" t="inlineStr"/>
+      <c r="CI331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -74679,6 +77676,15 @@
       <c r="CD332" t="n">
         <v>0</v>
       </c>
+      <c r="CE332" t="inlineStr"/>
+      <c r="CF332" t="inlineStr"/>
+      <c r="CG332" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH332" t="inlineStr"/>
+      <c r="CI332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -74903,6 +77909,15 @@
       <c r="CD333" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE333" t="inlineStr"/>
+      <c r="CF333" t="inlineStr"/>
+      <c r="CG333" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH333" t="inlineStr"/>
+      <c r="CI333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -75127,6 +78142,15 @@
       <c r="CD334" t="n">
         <v>1</v>
       </c>
+      <c r="CE334" t="inlineStr"/>
+      <c r="CF334" t="inlineStr"/>
+      <c r="CG334" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH334" t="inlineStr"/>
+      <c r="CI334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -75351,6 +78375,15 @@
       <c r="CD335" t="n">
         <v>0</v>
       </c>
+      <c r="CE335" t="inlineStr"/>
+      <c r="CF335" t="inlineStr"/>
+      <c r="CG335" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH335" t="inlineStr"/>
+      <c r="CI335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -75575,6 +78608,15 @@
       <c r="CD336" t="n">
         <v>1</v>
       </c>
+      <c r="CE336" t="inlineStr"/>
+      <c r="CF336" t="inlineStr"/>
+      <c r="CG336" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH336" t="inlineStr"/>
+      <c r="CI336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -75799,6 +78841,15 @@
       <c r="CD337" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE337" t="inlineStr"/>
+      <c r="CF337" t="inlineStr"/>
+      <c r="CG337" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH337" t="inlineStr"/>
+      <c r="CI337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -76023,6 +79074,15 @@
       <c r="CD338" t="n">
         <v>1</v>
       </c>
+      <c r="CE338" t="inlineStr"/>
+      <c r="CF338" t="inlineStr"/>
+      <c r="CG338" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH338" t="inlineStr"/>
+      <c r="CI338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -76247,6 +79307,15 @@
       <c r="CD339" t="n">
         <v>1</v>
       </c>
+      <c r="CE339" t="inlineStr"/>
+      <c r="CF339" t="inlineStr"/>
+      <c r="CG339" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH339" t="inlineStr"/>
+      <c r="CI339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -76471,6 +79540,15 @@
       <c r="CD340" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE340" t="inlineStr"/>
+      <c r="CF340" t="inlineStr"/>
+      <c r="CG340" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH340" t="inlineStr"/>
+      <c r="CI340" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -76695,6 +79773,15 @@
       <c r="CD341" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE341" t="inlineStr"/>
+      <c r="CF341" t="inlineStr"/>
+      <c r="CG341" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH341" t="inlineStr"/>
+      <c r="CI341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -76919,6 +80006,15 @@
       <c r="CD342" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE342" t="inlineStr"/>
+      <c r="CF342" t="inlineStr"/>
+      <c r="CG342" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH342" t="inlineStr"/>
+      <c r="CI342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -77143,6 +80239,15 @@
       <c r="CD343" t="n">
         <v>0</v>
       </c>
+      <c r="CE343" t="inlineStr"/>
+      <c r="CF343" t="inlineStr"/>
+      <c r="CG343" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH343" t="inlineStr"/>
+      <c r="CI343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -77367,6 +80472,15 @@
       <c r="CD344" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE344" t="inlineStr"/>
+      <c r="CF344" t="inlineStr"/>
+      <c r="CG344" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH344" t="inlineStr"/>
+      <c r="CI344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -77591,6 +80705,15 @@
       <c r="CD345" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE345" t="inlineStr"/>
+      <c r="CF345" t="inlineStr"/>
+      <c r="CG345" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH345" t="inlineStr"/>
+      <c r="CI345" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -77815,6 +80938,15 @@
       <c r="CD346" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE346" t="inlineStr"/>
+      <c r="CF346" t="inlineStr"/>
+      <c r="CG346" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH346" t="inlineStr"/>
+      <c r="CI346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -78039,6 +81171,15 @@
       <c r="CD347" t="n">
         <v>0</v>
       </c>
+      <c r="CE347" t="inlineStr"/>
+      <c r="CF347" t="inlineStr"/>
+      <c r="CG347" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH347" t="inlineStr"/>
+      <c r="CI347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -78263,6 +81404,15 @@
       <c r="CD348" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE348" t="inlineStr"/>
+      <c r="CF348" t="inlineStr"/>
+      <c r="CG348" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH348" t="inlineStr"/>
+      <c r="CI348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -78487,6 +81637,15 @@
       <c r="CD349" t="n">
         <v>0</v>
       </c>
+      <c r="CE349" t="inlineStr"/>
+      <c r="CF349" t="inlineStr"/>
+      <c r="CG349" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH349" t="inlineStr"/>
+      <c r="CI349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -78711,6 +81870,15 @@
       <c r="CD350" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE350" t="inlineStr"/>
+      <c r="CF350" t="inlineStr"/>
+      <c r="CG350" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH350" t="inlineStr"/>
+      <c r="CI350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -78935,6 +82103,15 @@
       <c r="CD351" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE351" t="inlineStr"/>
+      <c r="CF351" t="inlineStr"/>
+      <c r="CG351" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH351" t="inlineStr"/>
+      <c r="CI351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -79159,6 +82336,15 @@
       <c r="CD352" t="n">
         <v>0</v>
       </c>
+      <c r="CE352" t="inlineStr"/>
+      <c r="CF352" t="inlineStr"/>
+      <c r="CG352" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH352" t="inlineStr"/>
+      <c r="CI352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -79383,6 +82569,15 @@
       <c r="CD353" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE353" t="inlineStr"/>
+      <c r="CF353" t="inlineStr"/>
+      <c r="CG353" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH353" t="inlineStr"/>
+      <c r="CI353" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -79607,6 +82802,15 @@
       <c r="CD354" t="n">
         <v>0.625</v>
       </c>
+      <c r="CE354" t="inlineStr"/>
+      <c r="CF354" t="inlineStr"/>
+      <c r="CG354" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CH354" t="inlineStr"/>
+      <c r="CI354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -79831,6 +83035,15 @@
       <c r="CD355" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CE355" t="inlineStr"/>
+      <c r="CF355" t="inlineStr"/>
+      <c r="CG355" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH355" t="inlineStr"/>
+      <c r="CI355" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -80055,6 +83268,15 @@
       <c r="CD356" t="n">
         <v>0</v>
       </c>
+      <c r="CE356" t="inlineStr"/>
+      <c r="CF356" t="inlineStr"/>
+      <c r="CG356" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH356" t="inlineStr"/>
+      <c r="CI356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -80279,6 +83501,15 @@
       <c r="CD357" t="n">
         <v>0.8</v>
       </c>
+      <c r="CE357" t="inlineStr"/>
+      <c r="CF357" t="inlineStr"/>
+      <c r="CG357" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CH357" t="inlineStr"/>
+      <c r="CI357" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -80503,6 +83734,15 @@
       <c r="CD358" t="n">
         <v>1</v>
       </c>
+      <c r="CE358" t="inlineStr"/>
+      <c r="CF358" t="inlineStr"/>
+      <c r="CG358" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH358" t="inlineStr"/>
+      <c r="CI358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -80727,6 +83967,15 @@
       <c r="CD359" t="n">
         <v>1</v>
       </c>
+      <c r="CE359" t="inlineStr"/>
+      <c r="CF359" t="inlineStr"/>
+      <c r="CG359" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH359" t="inlineStr"/>
+      <c r="CI359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -80951,6 +84200,15 @@
       <c r="CD360" t="n">
         <v>0.4</v>
       </c>
+      <c r="CE360" t="inlineStr"/>
+      <c r="CF360" t="inlineStr"/>
+      <c r="CG360" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH360" t="inlineStr"/>
+      <c r="CI360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -81175,6 +84433,15 @@
       <c r="CD361" t="n">
         <v>1</v>
       </c>
+      <c r="CE361" t="inlineStr"/>
+      <c r="CF361" t="inlineStr"/>
+      <c r="CG361" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH361" t="inlineStr"/>
+      <c r="CI361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -81399,6 +84666,15 @@
       <c r="CD362" t="n">
         <v>1</v>
       </c>
+      <c r="CE362" t="inlineStr"/>
+      <c r="CF362" t="inlineStr"/>
+      <c r="CG362" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH362" t="inlineStr"/>
+      <c r="CI362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -81623,6 +84899,15 @@
       <c r="CD363" t="n">
         <v>1</v>
       </c>
+      <c r="CE363" t="inlineStr"/>
+      <c r="CF363" t="inlineStr"/>
+      <c r="CG363" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH363" t="inlineStr"/>
+      <c r="CI363" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -81847,6 +85132,15 @@
       <c r="CD364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CE364" t="inlineStr"/>
+      <c r="CF364" t="inlineStr"/>
+      <c r="CG364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CH364" t="inlineStr"/>
+      <c r="CI364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -82071,6 +85365,15 @@
       <c r="CD365" t="n">
         <v>1</v>
       </c>
+      <c r="CE365" t="inlineStr"/>
+      <c r="CF365" t="inlineStr"/>
+      <c r="CG365" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH365" t="inlineStr"/>
+      <c r="CI365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -82295,6 +85598,15 @@
       <c r="CD366" t="n">
         <v>0.625</v>
       </c>
+      <c r="CE366" t="inlineStr"/>
+      <c r="CF366" t="inlineStr"/>
+      <c r="CG366" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CH366" t="inlineStr"/>
+      <c r="CI366" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -82519,6 +85831,15 @@
       <c r="CD367" t="n">
         <v>0.8</v>
       </c>
+      <c r="CE367" t="inlineStr"/>
+      <c r="CF367" t="inlineStr"/>
+      <c r="CG367" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH367" t="inlineStr"/>
+      <c r="CI367" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -82743,6 +86064,15 @@
       <c r="CD368" t="n">
         <v>1</v>
       </c>
+      <c r="CE368" t="inlineStr"/>
+      <c r="CF368" t="inlineStr"/>
+      <c r="CG368" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH368" t="inlineStr"/>
+      <c r="CI368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -82967,6 +86297,15 @@
       <c r="CD369" t="n">
         <v>1</v>
       </c>
+      <c r="CE369" t="inlineStr"/>
+      <c r="CF369" t="inlineStr"/>
+      <c r="CG369" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH369" t="inlineStr"/>
+      <c r="CI369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -83191,6 +86530,15 @@
       <c r="CD370" t="n">
         <v>0</v>
       </c>
+      <c r="CE370" t="inlineStr"/>
+      <c r="CF370" t="inlineStr"/>
+      <c r="CG370" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH370" t="inlineStr"/>
+      <c r="CI370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -83415,6 +86763,15 @@
       <c r="CD371" t="n">
         <v>1</v>
       </c>
+      <c r="CE371" t="inlineStr"/>
+      <c r="CF371" t="inlineStr"/>
+      <c r="CG371" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH371" t="inlineStr"/>
+      <c r="CI371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -83639,6 +86996,15 @@
       <c r="CD372" t="n">
         <v>1</v>
       </c>
+      <c r="CE372" t="inlineStr"/>
+      <c r="CF372" t="inlineStr"/>
+      <c r="CG372" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH372" t="inlineStr"/>
+      <c r="CI372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -83863,6 +87229,15 @@
       <c r="CD373" t="n">
         <v>0</v>
       </c>
+      <c r="CE373" t="inlineStr"/>
+      <c r="CF373" t="inlineStr"/>
+      <c r="CG373" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH373" t="inlineStr"/>
+      <c r="CI373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -84087,6 +87462,15 @@
       <c r="CD374" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE374" t="inlineStr"/>
+      <c r="CF374" t="inlineStr"/>
+      <c r="CG374" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH374" t="inlineStr"/>
+      <c r="CI374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -84311,6 +87695,15 @@
       <c r="CD375" t="n">
         <v>1</v>
       </c>
+      <c r="CE375" t="inlineStr"/>
+      <c r="CF375" t="inlineStr"/>
+      <c r="CG375" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH375" t="inlineStr"/>
+      <c r="CI375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -84535,6 +87928,15 @@
       <c r="CD376" t="n">
         <v>0</v>
       </c>
+      <c r="CE376" t="inlineStr"/>
+      <c r="CF376" t="inlineStr"/>
+      <c r="CG376" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH376" t="inlineStr"/>
+      <c r="CI376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -84759,6 +88161,15 @@
       <c r="CD377" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE377" t="inlineStr"/>
+      <c r="CF377" t="inlineStr"/>
+      <c r="CG377" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH377" t="inlineStr"/>
+      <c r="CI377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -84983,6 +88394,15 @@
       <c r="CD378" t="n">
         <v>1</v>
       </c>
+      <c r="CE378" t="inlineStr"/>
+      <c r="CF378" t="inlineStr"/>
+      <c r="CG378" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH378" t="inlineStr"/>
+      <c r="CI378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -85207,6 +88627,15 @@
       <c r="CD379" t="n">
         <v>1</v>
       </c>
+      <c r="CE379" t="inlineStr"/>
+      <c r="CF379" t="inlineStr"/>
+      <c r="CG379" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH379" t="inlineStr"/>
+      <c r="CI379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -85431,6 +88860,15 @@
       <c r="CD380" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE380" t="inlineStr"/>
+      <c r="CF380" t="inlineStr"/>
+      <c r="CG380" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH380" t="inlineStr"/>
+      <c r="CI380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -85655,6 +89093,15 @@
       <c r="CD381" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE381" t="inlineStr"/>
+      <c r="CF381" t="inlineStr"/>
+      <c r="CG381" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CH381" t="inlineStr"/>
+      <c r="CI381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -85879,6 +89326,15 @@
       <c r="CD382" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE382" t="inlineStr"/>
+      <c r="CF382" t="inlineStr"/>
+      <c r="CG382" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH382" t="inlineStr"/>
+      <c r="CI382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -86103,6 +89559,15 @@
       <c r="CD383" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="CE383" t="inlineStr"/>
+      <c r="CF383" t="inlineStr"/>
+      <c r="CG383" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CH383" t="inlineStr"/>
+      <c r="CI383" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -86327,6 +89792,15 @@
       <c r="CD384" t="n">
         <v>1</v>
       </c>
+      <c r="CE384" t="inlineStr"/>
+      <c r="CF384" t="inlineStr"/>
+      <c r="CG384" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH384" t="inlineStr"/>
+      <c r="CI384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -86551,6 +90025,15 @@
       <c r="CD385" t="n">
         <v>0</v>
       </c>
+      <c r="CE385" t="inlineStr"/>
+      <c r="CF385" t="inlineStr"/>
+      <c r="CG385" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH385" t="inlineStr"/>
+      <c r="CI385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -86775,6 +90258,15 @@
       <c r="CD386" t="n">
         <v>1</v>
       </c>
+      <c r="CE386" t="inlineStr"/>
+      <c r="CF386" t="inlineStr"/>
+      <c r="CG386" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH386" t="inlineStr"/>
+      <c r="CI386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -86999,6 +90491,15 @@
       <c r="CD387" t="n">
         <v>1</v>
       </c>
+      <c r="CE387" t="inlineStr"/>
+      <c r="CF387" t="inlineStr"/>
+      <c r="CG387" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH387" t="inlineStr"/>
+      <c r="CI387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -87223,6 +90724,15 @@
       <c r="CD388" t="n">
         <v>1</v>
       </c>
+      <c r="CE388" t="inlineStr"/>
+      <c r="CF388" t="inlineStr"/>
+      <c r="CG388" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH388" t="inlineStr"/>
+      <c r="CI388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -87447,6 +90957,15 @@
       <c r="CD389" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE389" t="inlineStr"/>
+      <c r="CF389" t="inlineStr"/>
+      <c r="CG389" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH389" t="inlineStr"/>
+      <c r="CI389" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -87671,6 +91190,15 @@
       <c r="CD390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="CE390" t="inlineStr"/>
+      <c r="CF390" t="inlineStr"/>
+      <c r="CG390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CH390" t="inlineStr"/>
+      <c r="CI390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -87895,6 +91423,15 @@
       <c r="CD391" t="n">
         <v>0</v>
       </c>
+      <c r="CE391" t="inlineStr"/>
+      <c r="CF391" t="inlineStr"/>
+      <c r="CG391" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH391" t="inlineStr"/>
+      <c r="CI391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -88119,6 +91656,15 @@
       <c r="CD392" t="n">
         <v>0.8181818181818182</v>
       </c>
+      <c r="CE392" t="inlineStr"/>
+      <c r="CF392" t="inlineStr"/>
+      <c r="CG392" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="CH392" t="inlineStr"/>
+      <c r="CI392" t="n">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -88343,6 +91889,15 @@
       <c r="CD393" t="n">
         <v>1</v>
       </c>
+      <c r="CE393" t="inlineStr"/>
+      <c r="CF393" t="inlineStr"/>
+      <c r="CG393" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH393" t="inlineStr"/>
+      <c r="CI393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -88567,6 +92122,15 @@
       <c r="CD394" t="n">
         <v>1</v>
       </c>
+      <c r="CE394" t="inlineStr"/>
+      <c r="CF394" t="inlineStr"/>
+      <c r="CG394" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH394" t="inlineStr"/>
+      <c r="CI394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -88791,6 +92355,15 @@
       <c r="CD395" t="n">
         <v>1</v>
       </c>
+      <c r="CE395" t="inlineStr"/>
+      <c r="CF395" t="inlineStr"/>
+      <c r="CG395" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH395" t="inlineStr"/>
+      <c r="CI395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -89015,6 +92588,15 @@
       <c r="CD396" t="n">
         <v>1</v>
       </c>
+      <c r="CE396" t="inlineStr"/>
+      <c r="CF396" t="inlineStr"/>
+      <c r="CG396" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH396" t="inlineStr"/>
+      <c r="CI396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -89239,6 +92821,15 @@
       <c r="CD397" t="n">
         <v>1</v>
       </c>
+      <c r="CE397" t="inlineStr"/>
+      <c r="CF397" t="inlineStr"/>
+      <c r="CG397" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH397" t="inlineStr"/>
+      <c r="CI397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -89463,6 +93054,15 @@
       <c r="CD398" t="n">
         <v>1</v>
       </c>
+      <c r="CE398" t="inlineStr"/>
+      <c r="CF398" t="inlineStr"/>
+      <c r="CG398" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH398" t="inlineStr"/>
+      <c r="CI398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -89687,6 +93287,15 @@
       <c r="CD399" t="n">
         <v>0.25</v>
       </c>
+      <c r="CE399" t="inlineStr"/>
+      <c r="CF399" t="inlineStr"/>
+      <c r="CG399" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH399" t="inlineStr"/>
+      <c r="CI399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -89911,6 +93520,15 @@
       <c r="CD400" t="n">
         <v>0.75</v>
       </c>
+      <c r="CE400" t="inlineStr"/>
+      <c r="CF400" t="inlineStr"/>
+      <c r="CG400" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CH400" t="inlineStr"/>
+      <c r="CI400" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -90135,6 +93753,15 @@
       <c r="CD401" t="n">
         <v>0</v>
       </c>
+      <c r="CE401" t="inlineStr"/>
+      <c r="CF401" t="inlineStr"/>
+      <c r="CG401" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH401" t="inlineStr"/>
+      <c r="CI401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -90359,6 +93986,15 @@
       <c r="CD402" t="n">
         <v>0.5</v>
       </c>
+      <c r="CE402" t="inlineStr"/>
+      <c r="CF402" t="inlineStr"/>
+      <c r="CG402" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CH402" t="inlineStr"/>
+      <c r="CI402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -90581,6 +94217,15 @@
         <v>1</v>
       </c>
       <c r="CD403" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE403" t="inlineStr"/>
+      <c r="CF403" t="inlineStr"/>
+      <c r="CG403" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH403" t="inlineStr"/>
+      <c r="CI403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -90681,6 +94326,11 @@
       <c r="CB404" t="inlineStr"/>
       <c r="CC404" t="inlineStr"/>
       <c r="CD404" t="inlineStr"/>
+      <c r="CE404" t="inlineStr"/>
+      <c r="CF404" t="inlineStr"/>
+      <c r="CG404" t="inlineStr"/>
+      <c r="CH404" t="inlineStr"/>
+      <c r="CI404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -90931,6 +94581,21 @@
       <c r="CD405" t="n">
         <v>1936</v>
       </c>
+      <c r="CE405" t="n">
+        <v>8</v>
+      </c>
+      <c r="CF405" t="n">
+        <v>8</v>
+      </c>
+      <c r="CG405" t="n">
+        <v>1664</v>
+      </c>
+      <c r="CH405" t="n">
+        <v>20</v>
+      </c>
+      <c r="CI405" t="n">
+        <v>1934</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -91181,6 +94846,21 @@
       <c r="CD406" t="n">
         <v>2188</v>
       </c>
+      <c r="CE406" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF406" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG406" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CH406" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -91431,6 +95111,21 @@
       <c r="CD407" t="n">
         <v>0.8848</v>
       </c>
+      <c r="CE407" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CF407" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CG407" t="n">
+        <v>0.7605</v>
+      </c>
+      <c r="CH407" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI407" t="n">
+        <v>0.8839</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -91681,6 +95376,21 @@
       <c r="CD408" t="n">
         <v>1978</v>
       </c>
+      <c r="CE408" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF408" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG408" t="n">
+        <v>1971</v>
+      </c>
+      <c r="CH408" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI408" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -91931,6 +95641,21 @@
       <c r="CD409" t="n">
         <v>2188</v>
       </c>
+      <c r="CE409" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF409" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG409" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CH409" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -92181,6 +95906,21 @@
       <c r="CD410" t="n">
         <v>0.904</v>
       </c>
+      <c r="CE410" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF410" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG410" t="n">
+        <v>0.9008</v>
+      </c>
+      <c r="CH410" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI410" t="n">
+        <v>0.9031</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -92409,6 +96149,21 @@
       <c r="CD411" t="n">
         <v>1475</v>
       </c>
+      <c r="CE411" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF411" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG411" t="n">
+        <v>1318</v>
+      </c>
+      <c r="CH411" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI411" t="n">
+        <v>1475</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -92659,6 +96414,21 @@
       <c r="CD412" t="n">
         <v>2188</v>
       </c>
+      <c r="CE412" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF412" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG412" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CH412" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -92885,6 +96655,21 @@
       <c r="CD413" t="n">
         <v>0.6741</v>
       </c>
+      <c r="CE413" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF413" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG413" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="CH413" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI413" t="n">
+        <v>0.6741</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -93135,6 +96920,21 @@
       <c r="CD414" t="n">
         <v>968</v>
       </c>
+      <c r="CE414" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF414" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG414" t="n">
+        <v>832</v>
+      </c>
+      <c r="CH414" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI414" t="n">
+        <v>967</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -93385,6 +97185,21 @@
       <c r="CD415" t="n">
         <v>2188</v>
       </c>
+      <c r="CE415" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF415" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG415" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CH415" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -93635,6 +97450,21 @@
       <c r="CD416" t="n">
         <v>0.4424</v>
       </c>
+      <c r="CE416" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CF416" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CG416" t="n">
+        <v>0.3803</v>
+      </c>
+      <c r="CH416" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI416" t="n">
+        <v>0.442</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -93885,6 +97715,21 @@
       <c r="CD417" t="n">
         <v>2188</v>
       </c>
+      <c r="CE417" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF417" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG417" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CH417" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI417" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -94135,6 +97980,21 @@
       <c r="CD418" t="n">
         <v>2188</v>
       </c>
+      <c r="CE418" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF418" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG418" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CH418" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -94385,6 +98245,21 @@
       <c r="CD419" t="n">
         <v>1</v>
       </c>
+      <c r="CE419" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF419" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG419" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH419" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI419" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI419"/>
+  <dimension ref="A1:CK419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,6 +864,16 @@
           <t>2025-09-19_v5</t>
         </is>
       </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-23_v2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1109,6 +1119,12 @@
       <c r="CI2" t="n">
         <v>1</v>
       </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1344,6 +1360,12 @@
       <c r="CI3" t="n">
         <v>1</v>
       </c>
+      <c r="CJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1577,6 +1599,12 @@
       <c r="CI4" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1810,6 +1838,12 @@
       <c r="CI5" t="n">
         <v>1</v>
       </c>
+      <c r="CJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2043,6 +2077,12 @@
       <c r="CI6" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2276,6 +2316,12 @@
       <c r="CI7" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="CJ7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2509,6 +2555,12 @@
       <c r="CI8" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CJ8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2742,6 +2794,12 @@
       <c r="CI9" t="n">
         <v>1</v>
       </c>
+      <c r="CJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2975,6 +3033,12 @@
       <c r="CI10" t="n">
         <v>0.4</v>
       </c>
+      <c r="CJ10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3206,6 +3270,12 @@
       </c>
       <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3383,6 +3453,12 @@
       <c r="CI12" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3616,6 +3692,12 @@
       <c r="CI13" t="n">
         <v>0</v>
       </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3849,6 +3931,12 @@
       <c r="CI14" t="n">
         <v>0.2</v>
       </c>
+      <c r="CJ14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4082,6 +4170,12 @@
       <c r="CI15" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4315,6 +4409,12 @@
       <c r="CI16" t="n">
         <v>1</v>
       </c>
+      <c r="CJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4548,6 +4648,12 @@
       <c r="CI17" t="n">
         <v>0</v>
       </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4781,6 +4887,12 @@
       <c r="CI18" t="n">
         <v>1</v>
       </c>
+      <c r="CJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5014,6 +5126,12 @@
       <c r="CI19" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5247,6 +5365,12 @@
       <c r="CI20" t="n">
         <v>0.125</v>
       </c>
+      <c r="CJ20" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5480,6 +5604,12 @@
       <c r="CI21" t="n">
         <v>1</v>
       </c>
+      <c r="CJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5713,6 +5843,12 @@
       <c r="CI22" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5946,6 +6082,12 @@
       <c r="CI23" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -6179,6 +6321,12 @@
       <c r="CI24" t="n">
         <v>0.2</v>
       </c>
+      <c r="CJ24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -6412,6 +6560,12 @@
       <c r="CI25" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -6645,6 +6799,12 @@
       <c r="CI26" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -6878,6 +7038,12 @@
       <c r="CI27" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -7111,6 +7277,12 @@
       <c r="CI28" t="n">
         <v>0.5555555555555556</v>
       </c>
+      <c r="CJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -7344,6 +7516,12 @@
       <c r="CI29" t="n">
         <v>1</v>
       </c>
+      <c r="CJ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -7577,6 +7755,12 @@
       <c r="CI30" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ30" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -7810,6 +7994,12 @@
       <c r="CI31" t="n">
         <v>0</v>
       </c>
+      <c r="CJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -8043,6 +8233,12 @@
       <c r="CI32" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CJ32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CK32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -8276,6 +8472,12 @@
       <c r="CI33" t="n">
         <v>0</v>
       </c>
+      <c r="CJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -8509,6 +8711,12 @@
       <c r="CI34" t="n">
         <v>1</v>
       </c>
+      <c r="CJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -8742,6 +8950,12 @@
       <c r="CI35" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -8975,6 +9189,12 @@
       <c r="CI36" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -9208,6 +9428,12 @@
       <c r="CI37" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK37" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -9441,6 +9667,12 @@
       <c r="CI38" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CJ38" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="CK38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -9674,6 +9906,12 @@
       <c r="CI39" t="n">
         <v>1</v>
       </c>
+      <c r="CJ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -9905,6 +10143,12 @@
       </c>
       <c r="CH40" t="inlineStr"/>
       <c r="CI40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10082,6 +10326,12 @@
       <c r="CI41" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK41" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -10315,6 +10565,12 @@
       <c r="CI42" t="n">
         <v>1</v>
       </c>
+      <c r="CJ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -10548,6 +10804,12 @@
       <c r="CI43" t="n">
         <v>1</v>
       </c>
+      <c r="CJ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -10781,6 +11043,12 @@
       <c r="CI44" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK44" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -11014,6 +11282,12 @@
       <c r="CI45" t="n">
         <v>0</v>
       </c>
+      <c r="CJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -11247,6 +11521,12 @@
       <c r="CI46" t="n">
         <v>1</v>
       </c>
+      <c r="CJ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK46" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -11480,6 +11760,12 @@
       <c r="CI47" t="n">
         <v>0</v>
       </c>
+      <c r="CJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -11713,6 +11999,12 @@
       <c r="CI48" t="n">
         <v>0</v>
       </c>
+      <c r="CJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -11946,6 +12238,12 @@
       <c r="CI49" t="n">
         <v>0</v>
       </c>
+      <c r="CJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -12179,6 +12477,12 @@
       <c r="CI50" t="n">
         <v>0</v>
       </c>
+      <c r="CJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -12412,6 +12716,12 @@
       <c r="CI51" t="n">
         <v>1</v>
       </c>
+      <c r="CJ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -12645,6 +12955,12 @@
       <c r="CI52" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -12878,6 +13194,12 @@
       <c r="CI53" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK53" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -13111,6 +13433,12 @@
       <c r="CI54" t="n">
         <v>0</v>
       </c>
+      <c r="CJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -13344,6 +13672,12 @@
       <c r="CI55" t="n">
         <v>0</v>
       </c>
+      <c r="CJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK55" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -13577,6 +13911,12 @@
       <c r="CI56" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -13810,6 +14150,12 @@
       <c r="CI57" t="n">
         <v>0</v>
       </c>
+      <c r="CJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -14043,6 +14389,12 @@
       <c r="CI58" t="n">
         <v>0</v>
       </c>
+      <c r="CJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -14276,6 +14628,12 @@
       <c r="CI59" t="n">
         <v>0</v>
       </c>
+      <c r="CJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -14509,6 +14867,12 @@
       <c r="CI60" t="n">
         <v>1</v>
       </c>
+      <c r="CJ60" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -14742,6 +15106,12 @@
       <c r="CI61" t="n">
         <v>0</v>
       </c>
+      <c r="CJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -14975,6 +15345,12 @@
       <c r="CI62" t="n">
         <v>0</v>
       </c>
+      <c r="CJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -15208,6 +15584,12 @@
       <c r="CI63" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CJ63" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CK63" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -15441,6 +15823,12 @@
       <c r="CI64" t="n">
         <v>1</v>
       </c>
+      <c r="CJ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -15674,6 +16062,12 @@
       <c r="CI65" t="n">
         <v>0.125</v>
       </c>
+      <c r="CJ65" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -15907,6 +16301,12 @@
       <c r="CI66" t="n">
         <v>0</v>
       </c>
+      <c r="CJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -16140,6 +16540,12 @@
       <c r="CI67" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ67" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -16373,6 +16779,12 @@
       <c r="CI68" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ68" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK68" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -16606,6 +17018,12 @@
       <c r="CI69" t="n">
         <v>0</v>
       </c>
+      <c r="CJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -16839,6 +17257,12 @@
       <c r="CI70" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CJ70" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CK70" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -17072,6 +17496,12 @@
       <c r="CI71" t="n">
         <v>0</v>
       </c>
+      <c r="CJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -17305,6 +17735,12 @@
       <c r="CI72" t="n">
         <v>0</v>
       </c>
+      <c r="CJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -17538,6 +17974,12 @@
       <c r="CI73" t="n">
         <v>0</v>
       </c>
+      <c r="CJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK73" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -17771,6 +18213,12 @@
       <c r="CI74" t="n">
         <v>0</v>
       </c>
+      <c r="CJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -18004,6 +18452,12 @@
       <c r="CI75" t="n">
         <v>0</v>
       </c>
+      <c r="CJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -18237,6 +18691,12 @@
       <c r="CI76" t="n">
         <v>0</v>
       </c>
+      <c r="CJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -18470,6 +18930,12 @@
       <c r="CI77" t="n">
         <v>1</v>
       </c>
+      <c r="CJ77" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -18703,6 +19169,12 @@
       <c r="CI78" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ78" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK78" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -18936,6 +19408,12 @@
       <c r="CI79" t="n">
         <v>1</v>
       </c>
+      <c r="CJ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -19169,6 +19647,12 @@
       <c r="CI80" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -19402,6 +19886,12 @@
       <c r="CI81" t="n">
         <v>0</v>
       </c>
+      <c r="CJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -19635,6 +20125,12 @@
       <c r="CI82" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ82" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK82" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -19868,6 +20364,12 @@
       <c r="CI83" t="n">
         <v>0.125</v>
       </c>
+      <c r="CJ83" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK83" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -20101,6 +20603,12 @@
       <c r="CI84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="CJ84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="CK84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -20334,6 +20842,12 @@
       <c r="CI85" t="n">
         <v>0</v>
       </c>
+      <c r="CJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -20567,6 +21081,12 @@
       <c r="CI86" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -20800,6 +21320,12 @@
       <c r="CI87" t="n">
         <v>0</v>
       </c>
+      <c r="CJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -21033,6 +21559,12 @@
       <c r="CI88" t="n">
         <v>0.125</v>
       </c>
+      <c r="CJ88" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -21266,6 +21798,12 @@
       <c r="CI89" t="n">
         <v>0</v>
       </c>
+      <c r="CJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -21499,6 +22037,12 @@
       <c r="CI90" t="n">
         <v>0</v>
       </c>
+      <c r="CJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -21732,6 +22276,12 @@
       <c r="CI91" t="n">
         <v>0</v>
       </c>
+      <c r="CJ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -21965,6 +22515,12 @@
       <c r="CI92" t="n">
         <v>0</v>
       </c>
+      <c r="CJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -22198,6 +22754,12 @@
       <c r="CI93" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -22431,6 +22993,12 @@
       <c r="CI94" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ94" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK94" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -22664,6 +23232,12 @@
       <c r="CI95" t="n">
         <v>1</v>
       </c>
+      <c r="CJ95" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -22897,6 +23471,12 @@
       <c r="CI96" t="n">
         <v>0</v>
       </c>
+      <c r="CJ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -23130,6 +23710,12 @@
       <c r="CI97" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK97" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -23363,6 +23949,12 @@
       <c r="CI98" t="n">
         <v>1</v>
       </c>
+      <c r="CJ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -23596,6 +24188,12 @@
       <c r="CI99" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ99" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK99" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -23829,6 +24427,12 @@
       <c r="CI100" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ100" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK100" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -24062,6 +24666,12 @@
       <c r="CI101" t="n">
         <v>1</v>
       </c>
+      <c r="CJ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -24295,6 +24905,12 @@
       <c r="CI102" t="n">
         <v>0</v>
       </c>
+      <c r="CJ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -24528,6 +25144,12 @@
       <c r="CI103" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ103" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK103" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -24761,6 +25383,12 @@
       <c r="CI104" t="n">
         <v>1</v>
       </c>
+      <c r="CJ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -24994,6 +25622,12 @@
       <c r="CI105" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ105" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK105" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -25227,6 +25861,12 @@
       <c r="CI106" t="n">
         <v>0</v>
       </c>
+      <c r="CJ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -25460,6 +26100,12 @@
       <c r="CI107" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ107" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -25693,6 +26339,12 @@
       <c r="CI108" t="n">
         <v>0.125</v>
       </c>
+      <c r="CJ108" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -25926,6 +26578,12 @@
       <c r="CI109" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ109" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -26159,6 +26817,12 @@
       <c r="CI110" t="n">
         <v>0</v>
       </c>
+      <c r="CJ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -26392,6 +27056,12 @@
       <c r="CI111" t="n">
         <v>1</v>
       </c>
+      <c r="CJ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -26625,6 +27295,12 @@
       <c r="CI112" t="n">
         <v>1</v>
       </c>
+      <c r="CJ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -26858,6 +27534,12 @@
       <c r="CI113" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -27091,6 +27773,12 @@
       <c r="CI114" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ114" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -27324,6 +28012,12 @@
       <c r="CI115" t="n">
         <v>0</v>
       </c>
+      <c r="CJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -27557,6 +28251,12 @@
       <c r="CI116" t="n">
         <v>0</v>
       </c>
+      <c r="CJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -27790,6 +28490,12 @@
       <c r="CI117" t="n">
         <v>1</v>
       </c>
+      <c r="CJ117" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -28023,6 +28729,12 @@
       <c r="CI118" t="n">
         <v>0</v>
       </c>
+      <c r="CJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -28256,6 +28968,12 @@
       <c r="CI119" t="n">
         <v>0.625</v>
       </c>
+      <c r="CJ119" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CK119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -28489,6 +29207,12 @@
       <c r="CI120" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ120" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK120" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -28722,6 +29446,12 @@
       <c r="CI121" t="n">
         <v>0.625</v>
       </c>
+      <c r="CJ121" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CK121" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -28955,6 +29685,12 @@
       <c r="CI122" t="n">
         <v>0</v>
       </c>
+      <c r="CJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -29188,6 +29924,12 @@
       <c r="CI123" t="n">
         <v>0</v>
       </c>
+      <c r="CJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -29421,6 +30163,12 @@
       <c r="CI124" t="n">
         <v>0</v>
       </c>
+      <c r="CJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -29654,6 +30402,12 @@
       <c r="CI125" t="n">
         <v>0</v>
       </c>
+      <c r="CJ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -29887,6 +30641,12 @@
       <c r="CI126" t="n">
         <v>0</v>
       </c>
+      <c r="CJ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -30120,6 +30880,12 @@
       <c r="CI127" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ127" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK127" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -30353,6 +31119,12 @@
       <c r="CI128" t="n">
         <v>0</v>
       </c>
+      <c r="CJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK128" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -30586,6 +31358,12 @@
       <c r="CI129" t="n">
         <v>1</v>
       </c>
+      <c r="CJ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -30819,6 +31597,12 @@
       <c r="CI130" t="n">
         <v>0.625</v>
       </c>
+      <c r="CJ130" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CK130" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -31052,6 +31836,12 @@
       <c r="CI131" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ131" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -31285,6 +32075,12 @@
       <c r="CI132" t="n">
         <v>0</v>
       </c>
+      <c r="CJ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -31518,6 +32314,12 @@
       <c r="CI133" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ133" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -31751,6 +32553,12 @@
       <c r="CI134" t="n">
         <v>0</v>
       </c>
+      <c r="CJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK134" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -31984,6 +32792,12 @@
       <c r="CI135" t="n">
         <v>0</v>
       </c>
+      <c r="CJ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK135" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -32217,6 +33031,12 @@
       <c r="CI136" t="n">
         <v>0</v>
       </c>
+      <c r="CJ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -32450,6 +33270,12 @@
       <c r="CI137" t="n">
         <v>0.125</v>
       </c>
+      <c r="CJ137" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="CK137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -32683,6 +33509,12 @@
       <c r="CI138" t="n">
         <v>0</v>
       </c>
+      <c r="CJ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -32916,6 +33748,12 @@
       <c r="CI139" t="n">
         <v>0</v>
       </c>
+      <c r="CJ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -33149,6 +33987,12 @@
       <c r="CI140" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ140" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK140" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -33382,6 +34226,12 @@
       <c r="CI141" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ141" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -33615,6 +34465,12 @@
       <c r="CI142" t="n">
         <v>0</v>
       </c>
+      <c r="CJ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -33848,6 +34704,12 @@
       <c r="CI143" t="n">
         <v>0</v>
       </c>
+      <c r="CJ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -34081,6 +34943,12 @@
       <c r="CI144" t="n">
         <v>1</v>
       </c>
+      <c r="CJ144" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -34314,6 +35182,12 @@
       <c r="CI145" t="n">
         <v>0</v>
       </c>
+      <c r="CJ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -34547,6 +35421,12 @@
       <c r="CI146" t="n">
         <v>0</v>
       </c>
+      <c r="CJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -34780,6 +35660,12 @@
       <c r="CI147" t="n">
         <v>0</v>
       </c>
+      <c r="CJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -35013,6 +35899,12 @@
       <c r="CI148" t="n">
         <v>0</v>
       </c>
+      <c r="CJ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -35246,6 +36138,12 @@
       <c r="CI149" t="n">
         <v>1</v>
       </c>
+      <c r="CJ149" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -35479,6 +36377,12 @@
       <c r="CI150" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK150" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -35712,6 +36616,12 @@
       <c r="CI151" t="n">
         <v>0</v>
       </c>
+      <c r="CJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -35945,6 +36855,12 @@
       <c r="CI152" t="n">
         <v>0</v>
       </c>
+      <c r="CJ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -36178,6 +37094,12 @@
       <c r="CI153" t="n">
         <v>1</v>
       </c>
+      <c r="CJ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -36411,6 +37333,12 @@
       <c r="CI154" t="n">
         <v>0</v>
       </c>
+      <c r="CJ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -36644,6 +37572,12 @@
       <c r="CI155" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ155" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK155" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -36877,6 +37811,12 @@
       <c r="CI156" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ156" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -37110,6 +38050,12 @@
       <c r="CI157" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -37343,6 +38289,12 @@
       <c r="CI158" t="n">
         <v>1</v>
       </c>
+      <c r="CJ158" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -37576,6 +38528,12 @@
       <c r="CI159" t="n">
         <v>1</v>
       </c>
+      <c r="CJ159" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -37809,6 +38767,12 @@
       <c r="CI160" t="n">
         <v>1</v>
       </c>
+      <c r="CJ160" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -38042,6 +39006,12 @@
       <c r="CI161" t="n">
         <v>0</v>
       </c>
+      <c r="CJ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -38275,6 +39245,12 @@
       <c r="CI162" t="n">
         <v>0</v>
       </c>
+      <c r="CJ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -38508,6 +39484,12 @@
       <c r="CI163" t="n">
         <v>1</v>
       </c>
+      <c r="CJ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -38741,6 +39723,12 @@
       <c r="CI164" t="n">
         <v>1</v>
       </c>
+      <c r="CJ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -38974,6 +39962,12 @@
       <c r="CI165" t="n">
         <v>0</v>
       </c>
+      <c r="CJ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -39207,6 +40201,12 @@
       <c r="CI166" t="n">
         <v>1</v>
       </c>
+      <c r="CJ166" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -39440,6 +40440,12 @@
       <c r="CI167" t="n">
         <v>0</v>
       </c>
+      <c r="CJ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK167" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -39673,6 +40679,12 @@
       <c r="CI168" t="n">
         <v>1</v>
       </c>
+      <c r="CJ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -39906,6 +40918,12 @@
       <c r="CI169" t="n">
         <v>1</v>
       </c>
+      <c r="CJ169" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -40139,6 +41157,12 @@
       <c r="CI170" t="n">
         <v>1</v>
       </c>
+      <c r="CJ170" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -40372,6 +41396,12 @@
       <c r="CI171" t="n">
         <v>1</v>
       </c>
+      <c r="CJ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -40605,6 +41635,12 @@
       <c r="CI172" t="n">
         <v>0.625</v>
       </c>
+      <c r="CJ172" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CK172" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -40838,6 +41874,12 @@
       <c r="CI173" t="n">
         <v>1</v>
       </c>
+      <c r="CJ173" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -41071,6 +42113,12 @@
       <c r="CI174" t="n">
         <v>1</v>
       </c>
+      <c r="CJ174" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -41304,6 +42352,12 @@
       <c r="CI175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CJ175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="CK175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -41537,6 +42591,12 @@
       <c r="CI176" t="n">
         <v>0</v>
       </c>
+      <c r="CJ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -41770,6 +42830,12 @@
       <c r="CI177" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK177" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -42003,6 +43069,12 @@
       <c r="CI178" t="n">
         <v>0</v>
       </c>
+      <c r="CJ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -42236,6 +43308,12 @@
       <c r="CI179" t="n">
         <v>1</v>
       </c>
+      <c r="CJ179" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -42469,6 +43547,12 @@
       <c r="CI180" t="n">
         <v>0.8</v>
       </c>
+      <c r="CJ180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CK180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -42702,6 +43786,12 @@
       <c r="CI181" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CJ181" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CK181" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -42935,6 +44025,12 @@
       <c r="CI182" t="n">
         <v>0</v>
       </c>
+      <c r="CJ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -43168,6 +44264,12 @@
       <c r="CI183" t="n">
         <v>1</v>
       </c>
+      <c r="CJ183" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -43401,6 +44503,12 @@
       <c r="CI184" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CJ184" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CK184" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -43634,6 +44742,12 @@
       <c r="CI185" t="n">
         <v>0</v>
       </c>
+      <c r="CJ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK185" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -43867,6 +44981,12 @@
       <c r="CI186" t="n">
         <v>0.875</v>
       </c>
+      <c r="CJ186" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="CK186" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -44100,6 +45220,12 @@
       <c r="CI187" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CJ187" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CK187" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -44333,6 +45459,12 @@
       <c r="CI188" t="n">
         <v>0</v>
       </c>
+      <c r="CJ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -44566,6 +45698,12 @@
       <c r="CI189" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ189" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK189" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -44799,6 +45937,12 @@
       <c r="CI190" t="n">
         <v>1</v>
       </c>
+      <c r="CJ190" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -45032,6 +46176,12 @@
       <c r="CI191" t="n">
         <v>1</v>
       </c>
+      <c r="CJ191" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -45265,6 +46415,12 @@
       <c r="CI192" t="n">
         <v>0.2</v>
       </c>
+      <c r="CJ192" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CK192" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -45498,6 +46654,12 @@
       <c r="CI193" t="n">
         <v>1</v>
       </c>
+      <c r="CJ193" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -45731,6 +46893,12 @@
       <c r="CI194" t="n">
         <v>0</v>
       </c>
+      <c r="CJ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK194" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -45964,6 +47132,12 @@
       <c r="CI195" t="n">
         <v>1</v>
       </c>
+      <c r="CJ195" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK195" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -46197,6 +47371,12 @@
       <c r="CI196" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -46430,6 +47610,12 @@
       <c r="CI197" t="n">
         <v>1</v>
       </c>
+      <c r="CJ197" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -46663,6 +47849,12 @@
       <c r="CI198" t="n">
         <v>0</v>
       </c>
+      <c r="CJ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -46896,6 +48088,12 @@
       <c r="CI199" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CJ199" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CK199" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -47129,6 +48327,12 @@
       <c r="CI200" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -47362,6 +48566,12 @@
       <c r="CI201" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ201" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK201" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -47595,6 +48805,12 @@
       <c r="CI202" t="n">
         <v>1</v>
       </c>
+      <c r="CJ202" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -47828,6 +49044,12 @@
       <c r="CI203" t="n">
         <v>0</v>
       </c>
+      <c r="CJ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -48061,6 +49283,12 @@
       <c r="CI204" t="n">
         <v>0</v>
       </c>
+      <c r="CJ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -48293,6 +49521,12 @@
       <c r="CH205" t="inlineStr"/>
       <c r="CI205" t="n">
         <v>0.5</v>
+      </c>
+      <c r="CJ205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK205" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206">
@@ -48457,6 +49691,12 @@
       <c r="CI206" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -48690,6 +49930,12 @@
       <c r="CI207" t="n">
         <v>0.4</v>
       </c>
+      <c r="CJ207" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CK207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -48923,6 +50169,12 @@
       <c r="CI208" t="n">
         <v>1</v>
       </c>
+      <c r="CJ208" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -49156,6 +50408,12 @@
       <c r="CI209" t="n">
         <v>0</v>
       </c>
+      <c r="CJ209" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -49389,6 +50647,12 @@
       <c r="CI210" t="n">
         <v>0</v>
       </c>
+      <c r="CJ210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -49622,6 +50886,12 @@
       <c r="CI211" t="n">
         <v>0.625</v>
       </c>
+      <c r="CJ211" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CK211" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -49855,6 +51125,12 @@
       <c r="CI212" t="n">
         <v>0.8</v>
       </c>
+      <c r="CJ212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CK212" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -50088,6 +51364,12 @@
       <c r="CI213" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ213" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK213" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -50321,6 +51603,12 @@
       <c r="CI214" t="n">
         <v>0</v>
       </c>
+      <c r="CJ214" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CK214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -50554,6 +51842,12 @@
       <c r="CI215" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK215" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -50787,6 +52081,12 @@
       <c r="CI216" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ216" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -51020,6 +52320,12 @@
       <c r="CI217" t="n">
         <v>1</v>
       </c>
+      <c r="CJ217" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -51253,6 +52559,12 @@
       <c r="CI218" t="n">
         <v>1</v>
       </c>
+      <c r="CJ218" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK218" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -51486,6 +52798,12 @@
       <c r="CI219" t="n">
         <v>1</v>
       </c>
+      <c r="CJ219" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -51719,6 +53037,12 @@
       <c r="CI220" t="n">
         <v>1</v>
       </c>
+      <c r="CJ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -51952,6 +53276,12 @@
       <c r="CI221" t="n">
         <v>0</v>
       </c>
+      <c r="CJ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -52185,6 +53515,12 @@
       <c r="CI222" t="n">
         <v>0</v>
       </c>
+      <c r="CJ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -52418,6 +53754,12 @@
       <c r="CI223" t="n">
         <v>0.8</v>
       </c>
+      <c r="CJ223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CK223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -52651,6 +53993,12 @@
       <c r="CI224" t="n">
         <v>0</v>
       </c>
+      <c r="CJ224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK224" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -52884,6 +54232,12 @@
       <c r="CI225" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK225" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -53117,6 +54471,12 @@
       <c r="CI226" t="n">
         <v>0</v>
       </c>
+      <c r="CJ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -53350,6 +54710,12 @@
       <c r="CI227" t="n">
         <v>1</v>
       </c>
+      <c r="CJ227" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -53583,6 +54949,12 @@
       <c r="CI228" t="n">
         <v>0</v>
       </c>
+      <c r="CJ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -53816,6 +55188,12 @@
       <c r="CI229" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ229" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -54049,6 +55427,12 @@
       <c r="CI230" t="n">
         <v>1</v>
       </c>
+      <c r="CJ230" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -54282,6 +55666,12 @@
       <c r="CI231" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK231" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -54515,6 +55905,12 @@
       <c r="CI232" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -54748,6 +56144,12 @@
       <c r="CI233" t="n">
         <v>0</v>
       </c>
+      <c r="CJ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -54981,6 +56383,12 @@
       <c r="CI234" t="n">
         <v>1</v>
       </c>
+      <c r="CJ234" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK234" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -55214,6 +56622,12 @@
       <c r="CI235" t="n">
         <v>1</v>
       </c>
+      <c r="CJ235" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -55447,6 +56861,12 @@
       <c r="CI236" t="n">
         <v>0</v>
       </c>
+      <c r="CJ236" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -55680,6 +57100,12 @@
       <c r="CI237" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -55913,6 +57339,12 @@
       <c r="CI238" t="n">
         <v>0</v>
       </c>
+      <c r="CJ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -56146,6 +57578,12 @@
       <c r="CI239" t="n">
         <v>0</v>
       </c>
+      <c r="CJ239" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -56379,6 +57817,12 @@
       <c r="CI240" t="n">
         <v>1</v>
       </c>
+      <c r="CJ240" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -56612,6 +58056,12 @@
       <c r="CI241" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ241" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -56845,6 +58295,12 @@
       <c r="CI242" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ242" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK242" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -57078,6 +58534,12 @@
       <c r="CI243" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ243" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK243" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -57311,6 +58773,12 @@
       <c r="CI244" t="n">
         <v>1</v>
       </c>
+      <c r="CJ244" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -57544,6 +59012,12 @@
       <c r="CI245" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK245" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -57777,6 +59251,12 @@
       <c r="CI246" t="n">
         <v>0</v>
       </c>
+      <c r="CJ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -58010,6 +59490,12 @@
       <c r="CI247" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -58243,6 +59729,12 @@
       <c r="CI248" t="n">
         <v>0.6</v>
       </c>
+      <c r="CJ248" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CK248" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -58476,6 +59968,12 @@
       <c r="CI249" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ249" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -58709,6 +60207,12 @@
       <c r="CI250" t="n">
         <v>0</v>
       </c>
+      <c r="CJ250" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -58942,6 +60446,12 @@
       <c r="CI251" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ251" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK251" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -59175,6 +60685,12 @@
       <c r="CI252" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ252" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK252" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -59408,6 +60924,12 @@
       <c r="CI253" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ253" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK253" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -59641,6 +61163,12 @@
       <c r="CI254" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ254" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -59874,6 +61402,12 @@
       <c r="CI255" t="n">
         <v>1</v>
       </c>
+      <c r="CJ255" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -60107,6 +61641,12 @@
       <c r="CI256" t="n">
         <v>0</v>
       </c>
+      <c r="CJ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -60340,6 +61880,12 @@
       <c r="CI257" t="n">
         <v>1</v>
       </c>
+      <c r="CJ257" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -60573,6 +62119,12 @@
       <c r="CI258" t="n">
         <v>1</v>
       </c>
+      <c r="CJ258" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK258" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -60806,6 +62358,12 @@
       <c r="CI259" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ259" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK259" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -61039,6 +62597,12 @@
       <c r="CI260" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ260" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -61272,6 +62836,12 @@
       <c r="CI261" t="n">
         <v>1</v>
       </c>
+      <c r="CJ261" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -61505,6 +63075,12 @@
       <c r="CI262" t="n">
         <v>0</v>
       </c>
+      <c r="CJ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -61738,6 +63314,12 @@
       <c r="CI263" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ263" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK263" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -61971,6 +63553,12 @@
       <c r="CI264" t="n">
         <v>1</v>
       </c>
+      <c r="CJ264" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -62204,6 +63792,12 @@
       <c r="CI265" t="n">
         <v>0.2</v>
       </c>
+      <c r="CJ265" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CK265" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -62437,6 +64031,12 @@
       <c r="CI266" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ266" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK266" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -62670,6 +64270,12 @@
       <c r="CI267" t="n">
         <v>1</v>
       </c>
+      <c r="CJ267" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -62903,6 +64509,12 @@
       <c r="CI268" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CJ268" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CK268" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -63136,6 +64748,12 @@
       <c r="CI269" t="n">
         <v>0</v>
       </c>
+      <c r="CJ269" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -63368,6 +64986,12 @@
       <c r="CH270" t="inlineStr"/>
       <c r="CI270" t="n">
         <v>0.5714285714285714</v>
+      </c>
+      <c r="CJ270" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CK270" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="271">
@@ -63472,6 +65096,8 @@
       <c r="CG271" t="inlineStr"/>
       <c r="CH271" t="inlineStr"/>
       <c r="CI271" t="inlineStr"/>
+      <c r="CJ271" t="inlineStr"/>
+      <c r="CK271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -63705,6 +65331,12 @@
       <c r="CI272" t="n">
         <v>1</v>
       </c>
+      <c r="CJ272" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -63938,6 +65570,12 @@
       <c r="CI273" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CJ273" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CK273" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -64171,6 +65809,12 @@
       <c r="CI274" t="n">
         <v>0</v>
       </c>
+      <c r="CJ274" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -64404,6 +66048,12 @@
       <c r="CI275" t="n">
         <v>1</v>
       </c>
+      <c r="CJ275" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -64637,6 +66287,12 @@
       <c r="CI276" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CJ276" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CK276" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -64870,6 +66526,12 @@
       <c r="CI277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CJ277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CK277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -65103,6 +66765,12 @@
       <c r="CI278" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="CJ278" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CK278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -65336,6 +67004,12 @@
       <c r="CI279" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CJ279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="CK279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -65569,6 +67243,12 @@
       <c r="CI280" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="CJ280" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="CK280" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -65802,6 +67482,12 @@
       <c r="CI281" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ281" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -66035,6 +67721,12 @@
       <c r="CI282" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CJ282" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CK282" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -66268,6 +67960,12 @@
       <c r="CI283" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ283" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK283" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -66501,6 +68199,12 @@
       <c r="CI284" t="n">
         <v>1</v>
       </c>
+      <c r="CJ284" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -66734,6 +68438,12 @@
       <c r="CI285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="CJ285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="CK285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -66967,6 +68677,12 @@
       <c r="CI286" t="n">
         <v>1</v>
       </c>
+      <c r="CJ286" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -67200,6 +68916,12 @@
       <c r="CI287" t="n">
         <v>0</v>
       </c>
+      <c r="CJ287" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -67433,6 +69155,12 @@
       <c r="CI288" t="n">
         <v>1</v>
       </c>
+      <c r="CJ288" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -67666,6 +69394,12 @@
       <c r="CI289" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CJ289" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CK289" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -67899,6 +69633,12 @@
       <c r="CI290" t="n">
         <v>0</v>
       </c>
+      <c r="CJ290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -68132,6 +69872,12 @@
       <c r="CI291" t="n">
         <v>1</v>
       </c>
+      <c r="CJ291" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -68365,6 +70111,12 @@
       <c r="CI292" t="n">
         <v>0</v>
       </c>
+      <c r="CJ292" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -68598,6 +70350,12 @@
       <c r="CI293" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CJ293" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CK293" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -68831,6 +70589,12 @@
       <c r="CI294" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ294" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK294" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -69064,6 +70828,12 @@
       <c r="CI295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CJ295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CK295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -69297,6 +71067,12 @@
       <c r="CI296" t="n">
         <v>0.375</v>
       </c>
+      <c r="CJ296" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="CK296" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -69530,6 +71306,12 @@
       <c r="CI297" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CJ297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="CK297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -69763,6 +71545,12 @@
       <c r="CI298" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CJ298" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CK298" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -69996,6 +71784,12 @@
       <c r="CI299" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CJ299" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CK299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -70229,6 +72023,12 @@
       <c r="CI300" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CJ300" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CK300" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -70462,6 +72262,12 @@
       <c r="CI301" t="n">
         <v>1</v>
       </c>
+      <c r="CJ301" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -70695,6 +72501,12 @@
       <c r="CI302" t="n">
         <v>0</v>
       </c>
+      <c r="CJ302" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -70928,6 +72740,12 @@
       <c r="CI303" t="n">
         <v>1</v>
       </c>
+      <c r="CJ303" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -71161,6 +72979,12 @@
       <c r="CI304" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ304" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -71394,6 +73218,12 @@
       <c r="CI305" t="n">
         <v>0</v>
       </c>
+      <c r="CJ305" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -71627,6 +73457,12 @@
       <c r="CI306" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CJ306" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CK306" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -71860,6 +73696,12 @@
       <c r="CI307" t="n">
         <v>0</v>
       </c>
+      <c r="CJ307" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -72093,6 +73935,12 @@
       <c r="CI308" t="n">
         <v>0</v>
       </c>
+      <c r="CJ308" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -72326,6 +74174,12 @@
       <c r="CI309" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ309" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -72559,6 +74413,12 @@
       <c r="CI310" t="n">
         <v>0</v>
       </c>
+      <c r="CJ310" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -72792,6 +74652,12 @@
       <c r="CI311" t="n">
         <v>0</v>
       </c>
+      <c r="CJ311" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -73025,6 +74891,12 @@
       <c r="CI312" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ312" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -73258,6 +75130,12 @@
       <c r="CI313" t="n">
         <v>1</v>
       </c>
+      <c r="CJ313" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -73491,6 +75369,12 @@
       <c r="CI314" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ314" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -73724,6 +75608,12 @@
       <c r="CI315" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ315" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK315" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -73957,6 +75847,12 @@
       <c r="CI316" t="n">
         <v>0.4</v>
       </c>
+      <c r="CJ316" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CK316" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -74190,6 +76086,12 @@
       <c r="CI317" t="n">
         <v>0.2</v>
       </c>
+      <c r="CJ317" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CK317" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -74423,6 +76325,12 @@
       <c r="CI318" t="n">
         <v>0</v>
       </c>
+      <c r="CJ318" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -74656,6 +76564,12 @@
       <c r="CI319" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -74889,6 +76803,12 @@
       <c r="CI320" t="n">
         <v>1</v>
       </c>
+      <c r="CJ320" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -75122,6 +77042,12 @@
       <c r="CI321" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ321" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK321" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -75355,6 +77281,12 @@
       <c r="CI322" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ322" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -75588,6 +77520,12 @@
       <c r="CI323" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ323" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -75821,6 +77759,12 @@
       <c r="CI324" t="n">
         <v>0</v>
       </c>
+      <c r="CJ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -76054,6 +77998,12 @@
       <c r="CI325" t="n">
         <v>1</v>
       </c>
+      <c r="CJ325" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -76287,6 +78237,12 @@
       <c r="CI326" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ326" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -76520,6 +78476,12 @@
       <c r="CI327" t="n">
         <v>0</v>
       </c>
+      <c r="CJ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -76753,6 +78715,12 @@
       <c r="CI328" t="n">
         <v>1</v>
       </c>
+      <c r="CJ328" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -76986,6 +78954,12 @@
       <c r="CI329" t="n">
         <v>1</v>
       </c>
+      <c r="CJ329" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -77219,6 +79193,12 @@
       <c r="CI330" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ330" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -77452,6 +79432,12 @@
       <c r="CI331" t="n">
         <v>1</v>
       </c>
+      <c r="CJ331" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -77685,6 +79671,12 @@
       <c r="CI332" t="n">
         <v>0</v>
       </c>
+      <c r="CJ332" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -77918,6 +79910,12 @@
       <c r="CI333" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ333" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -78151,6 +80149,12 @@
       <c r="CI334" t="n">
         <v>1</v>
       </c>
+      <c r="CJ334" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -78384,6 +80388,12 @@
       <c r="CI335" t="n">
         <v>0</v>
       </c>
+      <c r="CJ335" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -78617,6 +80627,12 @@
       <c r="CI336" t="n">
         <v>1</v>
       </c>
+      <c r="CJ336" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -78850,6 +80866,12 @@
       <c r="CI337" t="n">
         <v>0</v>
       </c>
+      <c r="CJ337" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK337" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -79083,6 +81105,12 @@
       <c r="CI338" t="n">
         <v>1</v>
       </c>
+      <c r="CJ338" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -79316,6 +81344,12 @@
       <c r="CI339" t="n">
         <v>1</v>
       </c>
+      <c r="CJ339" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -79549,6 +81583,12 @@
       <c r="CI340" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ340" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK340" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -79782,6 +81822,12 @@
       <c r="CI341" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ341" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -80015,6 +82061,12 @@
       <c r="CI342" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ342" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -80248,6 +82300,12 @@
       <c r="CI343" t="n">
         <v>0</v>
       </c>
+      <c r="CJ343" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -80481,6 +82539,12 @@
       <c r="CI344" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ344" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK344" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -80714,6 +82778,12 @@
       <c r="CI345" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ345" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK345" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -80947,6 +83017,12 @@
       <c r="CI346" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ346" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -81180,6 +83256,12 @@
       <c r="CI347" t="n">
         <v>0</v>
       </c>
+      <c r="CJ347" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -81413,6 +83495,12 @@
       <c r="CI348" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ348" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -81646,6 +83734,12 @@
       <c r="CI349" t="n">
         <v>0</v>
       </c>
+      <c r="CJ349" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -81879,6 +83973,12 @@
       <c r="CI350" t="n">
         <v>1</v>
       </c>
+      <c r="CJ350" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -82112,6 +84212,12 @@
       <c r="CI351" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ351" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -82345,6 +84451,12 @@
       <c r="CI352" t="n">
         <v>0</v>
       </c>
+      <c r="CJ352" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -82578,6 +84690,12 @@
       <c r="CI353" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ353" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK353" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -82811,6 +84929,12 @@
       <c r="CI354" t="n">
         <v>0.625</v>
       </c>
+      <c r="CJ354" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CK354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -83044,6 +85168,12 @@
       <c r="CI355" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ355" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK355" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -83277,6 +85407,12 @@
       <c r="CI356" t="n">
         <v>0</v>
       </c>
+      <c r="CJ356" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -83510,6 +85646,12 @@
       <c r="CI357" t="n">
         <v>0.8</v>
       </c>
+      <c r="CJ357" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CK357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -83743,6 +85885,12 @@
       <c r="CI358" t="n">
         <v>1</v>
       </c>
+      <c r="CJ358" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -83976,6 +86124,12 @@
       <c r="CI359" t="n">
         <v>1</v>
       </c>
+      <c r="CJ359" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -84209,6 +86363,12 @@
       <c r="CI360" t="n">
         <v>0.4</v>
       </c>
+      <c r="CJ360" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CK360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -84442,6 +86602,12 @@
       <c r="CI361" t="n">
         <v>1</v>
       </c>
+      <c r="CJ361" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -84675,6 +86841,12 @@
       <c r="CI362" t="n">
         <v>1</v>
       </c>
+      <c r="CJ362" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -84908,6 +87080,12 @@
       <c r="CI363" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="CJ363" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="CK363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -85141,6 +87319,12 @@
       <c r="CI364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CJ364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="CK364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -85374,6 +87558,12 @@
       <c r="CI365" t="n">
         <v>1</v>
       </c>
+      <c r="CJ365" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -85607,6 +87797,12 @@
       <c r="CI366" t="n">
         <v>0.625</v>
       </c>
+      <c r="CJ366" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CK366" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -85840,6 +88036,12 @@
       <c r="CI367" t="n">
         <v>0.6</v>
       </c>
+      <c r="CJ367" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CK367" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -86073,6 +88275,12 @@
       <c r="CI368" t="n">
         <v>1</v>
       </c>
+      <c r="CJ368" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -86306,6 +88514,12 @@
       <c r="CI369" t="n">
         <v>1</v>
       </c>
+      <c r="CJ369" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -86539,6 +88753,12 @@
       <c r="CI370" t="n">
         <v>0</v>
       </c>
+      <c r="CJ370" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -86772,6 +88992,12 @@
       <c r="CI371" t="n">
         <v>1</v>
       </c>
+      <c r="CJ371" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -87005,6 +89231,12 @@
       <c r="CI372" t="n">
         <v>1</v>
       </c>
+      <c r="CJ372" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -87238,6 +89470,12 @@
       <c r="CI373" t="n">
         <v>0</v>
       </c>
+      <c r="CJ373" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -87471,6 +89709,12 @@
       <c r="CI374" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ374" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -87704,6 +89948,12 @@
       <c r="CI375" t="n">
         <v>1</v>
       </c>
+      <c r="CJ375" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -87937,6 +90187,12 @@
       <c r="CI376" t="n">
         <v>0</v>
       </c>
+      <c r="CJ376" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -88170,6 +90426,12 @@
       <c r="CI377" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ377" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -88403,6 +90665,12 @@
       <c r="CI378" t="n">
         <v>1</v>
       </c>
+      <c r="CJ378" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK378" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -88636,6 +90904,12 @@
       <c r="CI379" t="n">
         <v>1</v>
       </c>
+      <c r="CJ379" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -88869,6 +91143,12 @@
       <c r="CI380" t="n">
         <v>1</v>
       </c>
+      <c r="CJ380" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -89102,6 +91382,12 @@
       <c r="CI381" t="n">
         <v>0.25</v>
       </c>
+      <c r="CJ381" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -89335,6 +91621,12 @@
       <c r="CI382" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ382" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -89568,6 +91860,12 @@
       <c r="CI383" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CJ383" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="CK383" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -89801,6 +92099,12 @@
       <c r="CI384" t="n">
         <v>1</v>
       </c>
+      <c r="CJ384" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -90034,6 +92338,12 @@
       <c r="CI385" t="n">
         <v>0</v>
       </c>
+      <c r="CJ385" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -90267,6 +92577,12 @@
       <c r="CI386" t="n">
         <v>1</v>
       </c>
+      <c r="CJ386" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -90500,6 +92816,12 @@
       <c r="CI387" t="n">
         <v>1</v>
       </c>
+      <c r="CJ387" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -90733,6 +93055,12 @@
       <c r="CI388" t="n">
         <v>1</v>
       </c>
+      <c r="CJ388" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -90966,6 +93294,12 @@
       <c r="CI389" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ389" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK389" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -91199,6 +93533,12 @@
       <c r="CI390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="CJ390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CK390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -91432,6 +93772,12 @@
       <c r="CI391" t="n">
         <v>0</v>
       </c>
+      <c r="CJ391" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -91665,6 +94011,12 @@
       <c r="CI392" t="n">
         <v>0.9090909090909091</v>
       </c>
+      <c r="CJ392" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="CK392" t="n">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -91898,6 +94250,12 @@
       <c r="CI393" t="n">
         <v>1</v>
       </c>
+      <c r="CJ393" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -92131,6 +94489,12 @@
       <c r="CI394" t="n">
         <v>1</v>
       </c>
+      <c r="CJ394" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -92364,6 +94728,12 @@
       <c r="CI395" t="n">
         <v>1</v>
       </c>
+      <c r="CJ395" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -92597,6 +94967,12 @@
       <c r="CI396" t="n">
         <v>1</v>
       </c>
+      <c r="CJ396" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -92830,6 +95206,12 @@
       <c r="CI397" t="n">
         <v>1</v>
       </c>
+      <c r="CJ397" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -93063,6 +95445,12 @@
       <c r="CI398" t="n">
         <v>1</v>
       </c>
+      <c r="CJ398" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -93296,6 +95684,12 @@
       <c r="CI399" t="n">
         <v>0</v>
       </c>
+      <c r="CJ399" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK399" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -93529,6 +95923,12 @@
       <c r="CI400" t="n">
         <v>0.75</v>
       </c>
+      <c r="CJ400" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK400" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -93762,6 +96162,12 @@
       <c r="CI401" t="n">
         <v>0</v>
       </c>
+      <c r="CJ401" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -93995,6 +96401,12 @@
       <c r="CI402" t="n">
         <v>0.5</v>
       </c>
+      <c r="CJ402" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CK402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -94226,6 +96638,12 @@
       </c>
       <c r="CH403" t="inlineStr"/>
       <c r="CI403" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ403" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -94331,6 +96749,8 @@
       <c r="CG404" t="inlineStr"/>
       <c r="CH404" t="inlineStr"/>
       <c r="CI404" t="inlineStr"/>
+      <c r="CJ404" t="inlineStr"/>
+      <c r="CK404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -94596,6 +97016,12 @@
       <c r="CI405" t="n">
         <v>1934</v>
       </c>
+      <c r="CJ405" t="n">
+        <v>1940</v>
+      </c>
+      <c r="CK405" t="n">
+        <v>1922</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -94861,6 +97287,12 @@
       <c r="CI406" t="n">
         <v>2188</v>
       </c>
+      <c r="CJ406" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CK406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -95126,6 +97558,12 @@
       <c r="CI407" t="n">
         <v>0.8839</v>
       </c>
+      <c r="CJ407" t="n">
+        <v>0.8867</v>
+      </c>
+      <c r="CK407" t="n">
+        <v>0.8784</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -95391,6 +97829,12 @@
       <c r="CI408" t="n">
         <v>1976</v>
       </c>
+      <c r="CJ408" t="n">
+        <v>1976</v>
+      </c>
+      <c r="CK408" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -95656,6 +98100,12 @@
       <c r="CI409" t="n">
         <v>2188</v>
       </c>
+      <c r="CJ409" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CK409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -95921,6 +98371,12 @@
       <c r="CI410" t="n">
         <v>0.9031</v>
       </c>
+      <c r="CJ410" t="n">
+        <v>0.9031</v>
+      </c>
+      <c r="CK410" t="n">
+        <v>0.9004</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -96164,6 +98620,12 @@
       <c r="CI411" t="n">
         <v>1475</v>
       </c>
+      <c r="CJ411" t="n">
+        <v>1045</v>
+      </c>
+      <c r="CK411" t="n">
+        <v>1481</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -96429,6 +98891,12 @@
       <c r="CI412" t="n">
         <v>2188</v>
       </c>
+      <c r="CJ412" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CK412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -96670,6 +99138,12 @@
       <c r="CI413" t="n">
         <v>0.6741</v>
       </c>
+      <c r="CJ413" t="n">
+        <v>0.4776</v>
+      </c>
+      <c r="CK413" t="n">
+        <v>0.6768999999999999</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -96935,6 +99409,12 @@
       <c r="CI414" t="n">
         <v>967</v>
       </c>
+      <c r="CJ414" t="n">
+        <v>970</v>
+      </c>
+      <c r="CK414" t="n">
+        <v>961</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -97200,6 +99680,12 @@
       <c r="CI415" t="n">
         <v>2188</v>
       </c>
+      <c r="CJ415" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CK415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -97465,6 +99951,12 @@
       <c r="CI416" t="n">
         <v>0.442</v>
       </c>
+      <c r="CJ416" t="n">
+        <v>0.4433</v>
+      </c>
+      <c r="CK416" t="n">
+        <v>0.4392</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -97730,6 +100222,12 @@
       <c r="CI417" t="n">
         <v>2188</v>
       </c>
+      <c r="CJ417" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CK417" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -97995,6 +100493,12 @@
       <c r="CI418" t="n">
         <v>2188</v>
       </c>
+      <c r="CJ418" t="n">
+        <v>2188</v>
+      </c>
+      <c r="CK418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -98260,6 +100764,12 @@
       <c r="CI419" t="n">
         <v>1</v>
       </c>
+      <c r="CJ419" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK419" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/藥物辨識成功率總表.xlsx
+++ b/reports/藥物辨識成功率總表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK419"/>
+  <dimension ref="A1:CL419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,6 +874,11 @@
           <t>2025-09-23_v2</t>
         </is>
       </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1125,6 +1130,9 @@
       <c r="CK2" t="n">
         <v>1</v>
       </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1366,6 +1374,9 @@
       <c r="CK3" t="n">
         <v>1</v>
       </c>
+      <c r="CL3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1605,6 +1616,9 @@
       <c r="CK4" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CL4" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1844,6 +1858,9 @@
       <c r="CK5" t="n">
         <v>1</v>
       </c>
+      <c r="CL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2083,6 +2100,9 @@
       <c r="CK6" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2322,6 +2342,9 @@
       <c r="CK7" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CL7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2561,6 +2584,9 @@
       <c r="CK8" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CL8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2800,6 +2826,9 @@
       <c r="CK9" t="n">
         <v>1</v>
       </c>
+      <c r="CL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3039,6 +3068,9 @@
       <c r="CK10" t="n">
         <v>0.6</v>
       </c>
+      <c r="CL10" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3276,6 +3308,9 @@
         <v>1</v>
       </c>
       <c r="CK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,6 +3494,9 @@
       <c r="CK12" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3698,6 +3736,9 @@
       <c r="CK13" t="n">
         <v>0</v>
       </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3937,6 +3978,9 @@
       <c r="CK14" t="n">
         <v>0.2</v>
       </c>
+      <c r="CL14" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4176,6 +4220,9 @@
       <c r="CK15" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL15" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4415,6 +4462,9 @@
       <c r="CK16" t="n">
         <v>1</v>
       </c>
+      <c r="CL16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4654,6 +4704,9 @@
       <c r="CK17" t="n">
         <v>0</v>
       </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4893,6 +4946,9 @@
       <c r="CK18" t="n">
         <v>1</v>
       </c>
+      <c r="CL18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5132,6 +5188,9 @@
       <c r="CK19" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5371,6 +5430,9 @@
       <c r="CK20" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL20" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5610,6 +5672,9 @@
       <c r="CK21" t="n">
         <v>1</v>
       </c>
+      <c r="CL21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5849,6 +5914,9 @@
       <c r="CK22" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -6088,6 +6156,9 @@
       <c r="CK23" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -6327,6 +6398,9 @@
       <c r="CK24" t="n">
         <v>0.2</v>
       </c>
+      <c r="CL24" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -6566,6 +6640,9 @@
       <c r="CK25" t="n">
         <v>0</v>
       </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -6805,6 +6882,9 @@
       <c r="CK26" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -7044,6 +7124,9 @@
       <c r="CK27" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL27" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -7283,6 +7366,9 @@
       <c r="CK28" t="n">
         <v>0</v>
       </c>
+      <c r="CL28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -7522,6 +7608,9 @@
       <c r="CK29" t="n">
         <v>1</v>
       </c>
+      <c r="CL29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -7761,6 +7850,9 @@
       <c r="CK30" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL30" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -8000,6 +8092,9 @@
       <c r="CK31" t="n">
         <v>0</v>
       </c>
+      <c r="CL31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -8239,6 +8334,9 @@
       <c r="CK32" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CL32" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -8478,6 +8576,9 @@
       <c r="CK33" t="n">
         <v>0</v>
       </c>
+      <c r="CL33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -8717,6 +8818,9 @@
       <c r="CK34" t="n">
         <v>1</v>
       </c>
+      <c r="CL34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -8956,6 +9060,9 @@
       <c r="CK35" t="n">
         <v>0</v>
       </c>
+      <c r="CL35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -9195,6 +9302,9 @@
       <c r="CK36" t="n">
         <v>0</v>
       </c>
+      <c r="CL36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -9434,6 +9544,9 @@
       <c r="CK37" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL37" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -9673,6 +9786,9 @@
       <c r="CK38" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -9912,6 +10028,9 @@
       <c r="CK39" t="n">
         <v>1</v>
       </c>
+      <c r="CL39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -10149,6 +10268,9 @@
         <v>1</v>
       </c>
       <c r="CK40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10332,6 +10454,9 @@
       <c r="CK41" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL41" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -10571,6 +10696,9 @@
       <c r="CK42" t="n">
         <v>1</v>
       </c>
+      <c r="CL42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -10810,6 +10938,9 @@
       <c r="CK43" t="n">
         <v>1</v>
       </c>
+      <c r="CL43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -11049,6 +11180,9 @@
       <c r="CK44" t="n">
         <v>0.625</v>
       </c>
+      <c r="CL44" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -11288,6 +11422,9 @@
       <c r="CK45" t="n">
         <v>0</v>
       </c>
+      <c r="CL45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -11527,6 +11664,9 @@
       <c r="CK46" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CL46" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -11766,6 +11906,9 @@
       <c r="CK47" t="n">
         <v>0</v>
       </c>
+      <c r="CL47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -12005,6 +12148,9 @@
       <c r="CK48" t="n">
         <v>0</v>
       </c>
+      <c r="CL48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -12244,6 +12390,9 @@
       <c r="CK49" t="n">
         <v>0</v>
       </c>
+      <c r="CL49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -12483,6 +12632,9 @@
       <c r="CK50" t="n">
         <v>0</v>
       </c>
+      <c r="CL50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -12722,6 +12874,9 @@
       <c r="CK51" t="n">
         <v>1</v>
       </c>
+      <c r="CL51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -12961,6 +13116,9 @@
       <c r="CK52" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -13200,6 +13358,9 @@
       <c r="CK53" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL53" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -13439,6 +13600,9 @@
       <c r="CK54" t="n">
         <v>0</v>
       </c>
+      <c r="CL54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -13678,6 +13842,9 @@
       <c r="CK55" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL55" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -13917,6 +14084,9 @@
       <c r="CK56" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -14156,6 +14326,9 @@
       <c r="CK57" t="n">
         <v>0</v>
       </c>
+      <c r="CL57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -14395,6 +14568,9 @@
       <c r="CK58" t="n">
         <v>0</v>
       </c>
+      <c r="CL58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -14634,6 +14810,9 @@
       <c r="CK59" t="n">
         <v>0</v>
       </c>
+      <c r="CL59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -14873,6 +15052,9 @@
       <c r="CK60" t="n">
         <v>1</v>
       </c>
+      <c r="CL60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -15112,6 +15294,9 @@
       <c r="CK61" t="n">
         <v>0</v>
       </c>
+      <c r="CL61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -15351,6 +15536,9 @@
       <c r="CK62" t="n">
         <v>0</v>
       </c>
+      <c r="CL62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -15590,6 +15778,9 @@
       <c r="CK63" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CL63" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -15829,6 +16020,9 @@
       <c r="CK64" t="n">
         <v>1</v>
       </c>
+      <c r="CL64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -16068,6 +16262,9 @@
       <c r="CK65" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL65" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -16307,6 +16504,9 @@
       <c r="CK66" t="n">
         <v>0</v>
       </c>
+      <c r="CL66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -16546,6 +16746,9 @@
       <c r="CK67" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -16785,6 +16988,9 @@
       <c r="CK68" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL68" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -17024,6 +17230,9 @@
       <c r="CK69" t="n">
         <v>0</v>
       </c>
+      <c r="CL69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -17263,6 +17472,9 @@
       <c r="CK70" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL70" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -17502,6 +17714,9 @@
       <c r="CK71" t="n">
         <v>0</v>
       </c>
+      <c r="CL71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -17741,6 +17956,9 @@
       <c r="CK72" t="n">
         <v>0</v>
       </c>
+      <c r="CL72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -17980,6 +18198,9 @@
       <c r="CK73" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL73" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -18219,6 +18440,9 @@
       <c r="CK74" t="n">
         <v>0</v>
       </c>
+      <c r="CL74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -18458,6 +18682,9 @@
       <c r="CK75" t="n">
         <v>0</v>
       </c>
+      <c r="CL75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -18697,6 +18924,9 @@
       <c r="CK76" t="n">
         <v>0</v>
       </c>
+      <c r="CL76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -18936,6 +19166,9 @@
       <c r="CK77" t="n">
         <v>1</v>
       </c>
+      <c r="CL77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -19175,6 +19408,9 @@
       <c r="CK78" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL78" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -19414,6 +19650,9 @@
       <c r="CK79" t="n">
         <v>1</v>
       </c>
+      <c r="CL79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -19653,6 +19892,9 @@
       <c r="CK80" t="n">
         <v>0</v>
       </c>
+      <c r="CL80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -19892,6 +20134,9 @@
       <c r="CK81" t="n">
         <v>0</v>
       </c>
+      <c r="CL81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -20131,6 +20376,9 @@
       <c r="CK82" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL82" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -20370,6 +20618,9 @@
       <c r="CK83" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL83" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -20609,6 +20860,9 @@
       <c r="CK84" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="CL84" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -20848,6 +21102,9 @@
       <c r="CK85" t="n">
         <v>0</v>
       </c>
+      <c r="CL85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -21087,6 +21344,9 @@
       <c r="CK86" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -21326,6 +21586,9 @@
       <c r="CK87" t="n">
         <v>0</v>
       </c>
+      <c r="CL87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -21565,6 +21828,9 @@
       <c r="CK88" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL88" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -21804,6 +22070,9 @@
       <c r="CK89" t="n">
         <v>0</v>
       </c>
+      <c r="CL89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -22043,6 +22312,9 @@
       <c r="CK90" t="n">
         <v>0</v>
       </c>
+      <c r="CL90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -22282,6 +22554,9 @@
       <c r="CK91" t="n">
         <v>0</v>
       </c>
+      <c r="CL91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -22521,6 +22796,9 @@
       <c r="CK92" t="n">
         <v>0</v>
       </c>
+      <c r="CL92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -22760,6 +23038,9 @@
       <c r="CK93" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -22999,6 +23280,9 @@
       <c r="CK94" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL94" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -23238,6 +23522,9 @@
       <c r="CK95" t="n">
         <v>1</v>
       </c>
+      <c r="CL95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -23477,6 +23764,9 @@
       <c r="CK96" t="n">
         <v>0</v>
       </c>
+      <c r="CL96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -23716,6 +24006,9 @@
       <c r="CK97" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL97" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -23955,6 +24248,9 @@
       <c r="CK98" t="n">
         <v>1</v>
       </c>
+      <c r="CL98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -24194,6 +24490,9 @@
       <c r="CK99" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL99" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -24433,6 +24732,9 @@
       <c r="CK100" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL100" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -24672,6 +24974,9 @@
       <c r="CK101" t="n">
         <v>1</v>
       </c>
+      <c r="CL101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -24911,6 +25216,9 @@
       <c r="CK102" t="n">
         <v>0</v>
       </c>
+      <c r="CL102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -25150,6 +25458,9 @@
       <c r="CK103" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL103" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -25389,6 +25700,9 @@
       <c r="CK104" t="n">
         <v>1</v>
       </c>
+      <c r="CL104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -25628,6 +25942,9 @@
       <c r="CK105" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL105" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -25867,6 +26184,9 @@
       <c r="CK106" t="n">
         <v>0</v>
       </c>
+      <c r="CL106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -26106,6 +26426,9 @@
       <c r="CK107" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL107" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -26345,6 +26668,9 @@
       <c r="CK108" t="n">
         <v>0</v>
       </c>
+      <c r="CL108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -26584,6 +26910,9 @@
       <c r="CK109" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL109" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -26823,6 +27152,9 @@
       <c r="CK110" t="n">
         <v>0</v>
       </c>
+      <c r="CL110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -27062,6 +27394,9 @@
       <c r="CK111" t="n">
         <v>1</v>
       </c>
+      <c r="CL111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -27301,6 +27636,9 @@
       <c r="CK112" t="n">
         <v>1</v>
       </c>
+      <c r="CL112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -27540,6 +27878,9 @@
       <c r="CK113" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -27779,6 +28120,9 @@
       <c r="CK114" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -28018,6 +28362,9 @@
       <c r="CK115" t="n">
         <v>0</v>
       </c>
+      <c r="CL115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -28257,6 +28604,9 @@
       <c r="CK116" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL116" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -28496,6 +28846,9 @@
       <c r="CK117" t="n">
         <v>1</v>
       </c>
+      <c r="CL117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -28735,6 +29088,9 @@
       <c r="CK118" t="n">
         <v>0</v>
       </c>
+      <c r="CL118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -28974,6 +29330,9 @@
       <c r="CK119" t="n">
         <v>0.625</v>
       </c>
+      <c r="CL119" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -29213,6 +29572,9 @@
       <c r="CK120" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL120" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -29452,6 +29814,9 @@
       <c r="CK121" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL121" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -29691,6 +30056,9 @@
       <c r="CK122" t="n">
         <v>0</v>
       </c>
+      <c r="CL122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -29930,6 +30298,9 @@
       <c r="CK123" t="n">
         <v>0</v>
       </c>
+      <c r="CL123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -30169,6 +30540,9 @@
       <c r="CK124" t="n">
         <v>0</v>
       </c>
+      <c r="CL124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -30408,6 +30782,9 @@
       <c r="CK125" t="n">
         <v>0</v>
       </c>
+      <c r="CL125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -30647,6 +31024,9 @@
       <c r="CK126" t="n">
         <v>0</v>
       </c>
+      <c r="CL126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -30886,6 +31266,9 @@
       <c r="CK127" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL127" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -31125,6 +31508,9 @@
       <c r="CK128" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL128" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -31364,6 +31750,9 @@
       <c r="CK129" t="n">
         <v>1</v>
       </c>
+      <c r="CL129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -31603,6 +31992,9 @@
       <c r="CK130" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL130" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -31842,6 +32234,9 @@
       <c r="CK131" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL131" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -32081,6 +32476,9 @@
       <c r="CK132" t="n">
         <v>0</v>
       </c>
+      <c r="CL132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -32320,6 +32718,9 @@
       <c r="CK133" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL133" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -32559,6 +32960,9 @@
       <c r="CK134" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL134" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -32798,6 +33202,9 @@
       <c r="CK135" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL135" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -33037,6 +33444,9 @@
       <c r="CK136" t="n">
         <v>0</v>
       </c>
+      <c r="CL136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -33276,6 +33686,9 @@
       <c r="CK137" t="n">
         <v>0.125</v>
       </c>
+      <c r="CL137" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -33515,6 +33928,9 @@
       <c r="CK138" t="n">
         <v>0</v>
       </c>
+      <c r="CL138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -33754,6 +34170,9 @@
       <c r="CK139" t="n">
         <v>0</v>
       </c>
+      <c r="CL139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -33993,6 +34412,9 @@
       <c r="CK140" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL140" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -34232,6 +34654,9 @@
       <c r="CK141" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -34471,6 +34896,9 @@
       <c r="CK142" t="n">
         <v>0</v>
       </c>
+      <c r="CL142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -34710,6 +35138,9 @@
       <c r="CK143" t="n">
         <v>0</v>
       </c>
+      <c r="CL143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -34949,6 +35380,9 @@
       <c r="CK144" t="n">
         <v>1</v>
       </c>
+      <c r="CL144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -35188,6 +35622,9 @@
       <c r="CK145" t="n">
         <v>0</v>
       </c>
+      <c r="CL145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -35427,6 +35864,9 @@
       <c r="CK146" t="n">
         <v>0</v>
       </c>
+      <c r="CL146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -35666,6 +36106,9 @@
       <c r="CK147" t="n">
         <v>0</v>
       </c>
+      <c r="CL147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -35905,6 +36348,9 @@
       <c r="CK148" t="n">
         <v>0</v>
       </c>
+      <c r="CL148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -36144,6 +36590,9 @@
       <c r="CK149" t="n">
         <v>1</v>
       </c>
+      <c r="CL149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -36383,6 +36832,9 @@
       <c r="CK150" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL150" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -36622,6 +37074,9 @@
       <c r="CK151" t="n">
         <v>0</v>
       </c>
+      <c r="CL151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -36861,6 +37316,9 @@
       <c r="CK152" t="n">
         <v>0</v>
       </c>
+      <c r="CL152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -37100,6 +37558,9 @@
       <c r="CK153" t="n">
         <v>1</v>
       </c>
+      <c r="CL153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -37339,6 +37800,9 @@
       <c r="CK154" t="n">
         <v>0</v>
       </c>
+      <c r="CL154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -37578,6 +38042,9 @@
       <c r="CK155" t="n">
         <v>0.625</v>
       </c>
+      <c r="CL155" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -37817,6 +38284,9 @@
       <c r="CK156" t="n">
         <v>0</v>
       </c>
+      <c r="CL156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -38056,6 +38526,9 @@
       <c r="CK157" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL157" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -38295,6 +38768,9 @@
       <c r="CK158" t="n">
         <v>1</v>
       </c>
+      <c r="CL158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -38534,6 +39010,9 @@
       <c r="CK159" t="n">
         <v>1</v>
       </c>
+      <c r="CL159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -38773,6 +39252,9 @@
       <c r="CK160" t="n">
         <v>1</v>
       </c>
+      <c r="CL160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -39012,6 +39494,9 @@
       <c r="CK161" t="n">
         <v>0</v>
       </c>
+      <c r="CL161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -39251,6 +39736,9 @@
       <c r="CK162" t="n">
         <v>0</v>
       </c>
+      <c r="CL162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -39490,6 +39978,9 @@
       <c r="CK163" t="n">
         <v>1</v>
       </c>
+      <c r="CL163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -39729,6 +40220,9 @@
       <c r="CK164" t="n">
         <v>1</v>
       </c>
+      <c r="CL164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -39968,6 +40462,9 @@
       <c r="CK165" t="n">
         <v>0</v>
       </c>
+      <c r="CL165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -40207,6 +40704,9 @@
       <c r="CK166" t="n">
         <v>1</v>
       </c>
+      <c r="CL166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -40446,6 +40946,9 @@
       <c r="CK167" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL167" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -40685,6 +41188,9 @@
       <c r="CK168" t="n">
         <v>1</v>
       </c>
+      <c r="CL168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -40924,6 +41430,9 @@
       <c r="CK169" t="n">
         <v>1</v>
       </c>
+      <c r="CL169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -41163,6 +41672,9 @@
       <c r="CK170" t="n">
         <v>1</v>
       </c>
+      <c r="CL170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -41402,6 +41914,9 @@
       <c r="CK171" t="n">
         <v>1</v>
       </c>
+      <c r="CL171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -41641,6 +42156,9 @@
       <c r="CK172" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL172" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -41880,6 +42398,9 @@
       <c r="CK173" t="n">
         <v>1</v>
       </c>
+      <c r="CL173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -42119,6 +42640,9 @@
       <c r="CK174" t="n">
         <v>1</v>
       </c>
+      <c r="CL174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -42358,6 +42882,9 @@
       <c r="CK175" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CL175" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -42597,6 +43124,9 @@
       <c r="CK176" t="n">
         <v>0</v>
       </c>
+      <c r="CL176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -42836,6 +43366,9 @@
       <c r="CK177" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL177" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -43075,6 +43608,9 @@
       <c r="CK178" t="n">
         <v>0</v>
       </c>
+      <c r="CL178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -43314,6 +43850,9 @@
       <c r="CK179" t="n">
         <v>1</v>
       </c>
+      <c r="CL179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -43553,6 +44092,9 @@
       <c r="CK180" t="n">
         <v>0.8</v>
       </c>
+      <c r="CL180" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -43792,6 +44334,9 @@
       <c r="CK181" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CL181" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -44031,6 +44576,9 @@
       <c r="CK182" t="n">
         <v>0</v>
       </c>
+      <c r="CL182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -44270,6 +44818,9 @@
       <c r="CK183" t="n">
         <v>1</v>
       </c>
+      <c r="CL183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -44509,6 +45060,9 @@
       <c r="CK184" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CL184" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -44748,6 +45302,9 @@
       <c r="CK185" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CL185" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -44987,6 +45544,9 @@
       <c r="CK186" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL186" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -45226,6 +45786,9 @@
       <c r="CK187" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CL187" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -45465,6 +46028,9 @@
       <c r="CK188" t="n">
         <v>0</v>
       </c>
+      <c r="CL188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -45704,6 +46270,9 @@
       <c r="CK189" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL189" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -45943,6 +46512,9 @@
       <c r="CK190" t="n">
         <v>1</v>
       </c>
+      <c r="CL190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -46182,6 +46754,9 @@
       <c r="CK191" t="n">
         <v>1</v>
       </c>
+      <c r="CL191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -46421,6 +46996,9 @@
       <c r="CK192" t="n">
         <v>0.2</v>
       </c>
+      <c r="CL192" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -46660,6 +47238,9 @@
       <c r="CK193" t="n">
         <v>1</v>
       </c>
+      <c r="CL193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -46899,6 +47480,9 @@
       <c r="CK194" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL194" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -47138,6 +47722,9 @@
       <c r="CK195" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL195" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -47377,6 +47964,9 @@
       <c r="CK196" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL196" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -47616,6 +48206,9 @@
       <c r="CK197" t="n">
         <v>1</v>
       </c>
+      <c r="CL197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -47855,6 +48448,9 @@
       <c r="CK198" t="n">
         <v>0</v>
       </c>
+      <c r="CL198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -48094,6 +48690,9 @@
       <c r="CK199" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CL199" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -48333,6 +48932,9 @@
       <c r="CK200" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL200" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -48572,6 +49174,9 @@
       <c r="CK201" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL201" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -48811,6 +49416,9 @@
       <c r="CK202" t="n">
         <v>1</v>
       </c>
+      <c r="CL202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -49050,6 +49658,9 @@
       <c r="CK203" t="n">
         <v>0</v>
       </c>
+      <c r="CL203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -49289,6 +49900,9 @@
       <c r="CK204" t="n">
         <v>0</v>
       </c>
+      <c r="CL204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -49526,6 +50140,9 @@
         <v>0.5</v>
       </c>
       <c r="CK205" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CL205" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
@@ -49697,6 +50314,9 @@
       <c r="CK206" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL206" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -49936,6 +50556,9 @@
       <c r="CK207" t="n">
         <v>0.4</v>
       </c>
+      <c r="CL207" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -50175,6 +50798,9 @@
       <c r="CK208" t="n">
         <v>1</v>
       </c>
+      <c r="CL208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -50414,6 +51040,9 @@
       <c r="CK209" t="n">
         <v>0</v>
       </c>
+      <c r="CL209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -50653,6 +51282,9 @@
       <c r="CK210" t="n">
         <v>0</v>
       </c>
+      <c r="CL210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -50892,6 +51524,9 @@
       <c r="CK211" t="n">
         <v>0.625</v>
       </c>
+      <c r="CL211" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -51131,6 +51766,9 @@
       <c r="CK212" t="n">
         <v>0.6</v>
       </c>
+      <c r="CL212" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -51370,6 +52008,9 @@
       <c r="CK213" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL213" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -51609,6 +52250,9 @@
       <c r="CK214" t="n">
         <v>1</v>
       </c>
+      <c r="CL214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -51848,6 +52492,9 @@
       <c r="CK215" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL215" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -52087,6 +52734,9 @@
       <c r="CK216" t="n">
         <v>0</v>
       </c>
+      <c r="CL216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -52326,6 +52976,9 @@
       <c r="CK217" t="n">
         <v>1</v>
       </c>
+      <c r="CL217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -52565,6 +53218,9 @@
       <c r="CK218" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL218" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -52804,6 +53460,9 @@
       <c r="CK219" t="n">
         <v>1</v>
       </c>
+      <c r="CL219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -53043,6 +53702,9 @@
       <c r="CK220" t="n">
         <v>1</v>
       </c>
+      <c r="CL220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -53282,6 +53944,9 @@
       <c r="CK221" t="n">
         <v>0</v>
       </c>
+      <c r="CL221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -53521,6 +54186,9 @@
       <c r="CK222" t="n">
         <v>0</v>
       </c>
+      <c r="CL222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -53760,6 +54428,9 @@
       <c r="CK223" t="n">
         <v>0.8</v>
       </c>
+      <c r="CL223" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -53999,6 +54670,9 @@
       <c r="CK224" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL224" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -54238,6 +54912,9 @@
       <c r="CK225" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL225" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -54477,6 +55154,9 @@
       <c r="CK226" t="n">
         <v>0</v>
       </c>
+      <c r="CL226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -54716,6 +55396,9 @@
       <c r="CK227" t="n">
         <v>1</v>
       </c>
+      <c r="CL227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -54955,6 +55638,9 @@
       <c r="CK228" t="n">
         <v>0</v>
       </c>
+      <c r="CL228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -55194,6 +55880,9 @@
       <c r="CK229" t="n">
         <v>1</v>
       </c>
+      <c r="CL229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -55433,6 +56122,9 @@
       <c r="CK230" t="n">
         <v>1</v>
       </c>
+      <c r="CL230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -55672,6 +56364,9 @@
       <c r="CK231" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL231" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -55911,6 +56606,9 @@
       <c r="CK232" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL232" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -56150,6 +56848,9 @@
       <c r="CK233" t="n">
         <v>0</v>
       </c>
+      <c r="CL233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -56389,6 +57090,9 @@
       <c r="CK234" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL234" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -56628,6 +57332,9 @@
       <c r="CK235" t="n">
         <v>1</v>
       </c>
+      <c r="CL235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -56867,6 +57574,9 @@
       <c r="CK236" t="n">
         <v>0</v>
       </c>
+      <c r="CL236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -57106,6 +57816,9 @@
       <c r="CK237" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -57345,6 +58058,9 @@
       <c r="CK238" t="n">
         <v>0</v>
       </c>
+      <c r="CL238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -57584,6 +58300,9 @@
       <c r="CK239" t="n">
         <v>0</v>
       </c>
+      <c r="CL239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -57823,6 +58542,9 @@
       <c r="CK240" t="n">
         <v>1</v>
       </c>
+      <c r="CL240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -58062,6 +58784,9 @@
       <c r="CK241" t="n">
         <v>1</v>
       </c>
+      <c r="CL241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -58301,6 +59026,9 @@
       <c r="CK242" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL242" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -58540,6 +59268,9 @@
       <c r="CK243" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL243" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -58779,6 +59510,9 @@
       <c r="CK244" t="n">
         <v>1</v>
       </c>
+      <c r="CL244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -59018,6 +59752,9 @@
       <c r="CK245" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL245" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -59257,6 +59994,9 @@
       <c r="CK246" t="n">
         <v>0</v>
       </c>
+      <c r="CL246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -59496,6 +60236,9 @@
       <c r="CK247" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL247" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -59735,6 +60478,9 @@
       <c r="CK248" t="n">
         <v>0.8</v>
       </c>
+      <c r="CL248" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -59974,6 +60720,9 @@
       <c r="CK249" t="n">
         <v>1</v>
       </c>
+      <c r="CL249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -60213,6 +60962,9 @@
       <c r="CK250" t="n">
         <v>0</v>
       </c>
+      <c r="CL250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -60452,6 +61204,9 @@
       <c r="CK251" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL251" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -60691,6 +61446,9 @@
       <c r="CK252" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL252" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -60930,6 +61688,9 @@
       <c r="CK253" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL253" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -61169,6 +61930,9 @@
       <c r="CK254" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL254" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -61408,6 +62172,9 @@
       <c r="CK255" t="n">
         <v>1</v>
       </c>
+      <c r="CL255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -61647,6 +62414,9 @@
       <c r="CK256" t="n">
         <v>0</v>
       </c>
+      <c r="CL256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -61886,6 +62656,9 @@
       <c r="CK257" t="n">
         <v>1</v>
       </c>
+      <c r="CL257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -62125,6 +62898,9 @@
       <c r="CK258" t="n">
         <v>0.8</v>
       </c>
+      <c r="CL258" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -62364,6 +63140,9 @@
       <c r="CK259" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL259" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -62603,6 +63382,9 @@
       <c r="CK260" t="n">
         <v>1</v>
       </c>
+      <c r="CL260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -62842,6 +63624,9 @@
       <c r="CK261" t="n">
         <v>1</v>
       </c>
+      <c r="CL261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -63081,6 +63866,9 @@
       <c r="CK262" t="n">
         <v>0</v>
       </c>
+      <c r="CL262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -63320,6 +64108,9 @@
       <c r="CK263" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL263" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -63559,6 +64350,9 @@
       <c r="CK264" t="n">
         <v>1</v>
       </c>
+      <c r="CL264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -63798,6 +64592,9 @@
       <c r="CK265" t="n">
         <v>0.2</v>
       </c>
+      <c r="CL265" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -64037,6 +64834,9 @@
       <c r="CK266" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL266" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -64276,6 +65076,9 @@
       <c r="CK267" t="n">
         <v>1</v>
       </c>
+      <c r="CL267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -64515,6 +65318,9 @@
       <c r="CK268" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CL268" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -64754,6 +65560,9 @@
       <c r="CK269" t="n">
         <v>0</v>
       </c>
+      <c r="CL269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -64991,6 +65800,9 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="CK270" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CL270" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -65098,6 +65910,7 @@
       <c r="CI271" t="inlineStr"/>
       <c r="CJ271" t="inlineStr"/>
       <c r="CK271" t="inlineStr"/>
+      <c r="CL271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -65337,6 +66150,9 @@
       <c r="CK272" t="n">
         <v>1</v>
       </c>
+      <c r="CL272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -65576,6 +66392,9 @@
       <c r="CK273" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CL273" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -65815,6 +66634,9 @@
       <c r="CK274" t="n">
         <v>0</v>
       </c>
+      <c r="CL274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -66054,6 +66876,9 @@
       <c r="CK275" t="n">
         <v>1</v>
       </c>
+      <c r="CL275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -66293,6 +67118,9 @@
       <c r="CK276" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CL276" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -66532,6 +67360,9 @@
       <c r="CK277" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CL277" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -66771,6 +67602,9 @@
       <c r="CK278" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CL278" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -67010,6 +67844,9 @@
       <c r="CK279" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CL279" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -67249,6 +68086,9 @@
       <c r="CK280" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="CL280" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -67488,6 +68328,9 @@
       <c r="CK281" t="n">
         <v>1</v>
       </c>
+      <c r="CL281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -67727,6 +68570,9 @@
       <c r="CK282" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CL282" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -67966,6 +68812,9 @@
       <c r="CK283" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL283" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -68205,6 +69054,9 @@
       <c r="CK284" t="n">
         <v>1</v>
       </c>
+      <c r="CL284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -68444,6 +69296,9 @@
       <c r="CK285" t="n">
         <v>0.7777777777777778</v>
       </c>
+      <c r="CL285" t="n">
+        <v>0.7777777777777778</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -68683,6 +69538,9 @@
       <c r="CK286" t="n">
         <v>1</v>
       </c>
+      <c r="CL286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -68922,6 +69780,9 @@
       <c r="CK287" t="n">
         <v>0</v>
       </c>
+      <c r="CL287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -69161,6 +70022,9 @@
       <c r="CK288" t="n">
         <v>1</v>
       </c>
+      <c r="CL288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -69400,6 +70264,9 @@
       <c r="CK289" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CL289" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -69639,6 +70506,9 @@
       <c r="CK290" t="n">
         <v>0</v>
       </c>
+      <c r="CL290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -69878,6 +70748,9 @@
       <c r="CK291" t="n">
         <v>1</v>
       </c>
+      <c r="CL291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -70117,6 +70990,9 @@
       <c r="CK292" t="n">
         <v>0</v>
       </c>
+      <c r="CL292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -70356,6 +71232,9 @@
       <c r="CK293" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL293" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -70595,6 +71474,9 @@
       <c r="CK294" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL294" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -70834,6 +71716,9 @@
       <c r="CK295" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CL295" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -71073,6 +71958,9 @@
       <c r="CK296" t="n">
         <v>0.375</v>
       </c>
+      <c r="CL296" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -71312,6 +72200,9 @@
       <c r="CK297" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="CL297" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -71551,6 +72442,9 @@
       <c r="CK298" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL298" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -71790,6 +72684,9 @@
       <c r="CK299" t="n">
         <v>0</v>
       </c>
+      <c r="CL299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -72029,6 +72926,9 @@
       <c r="CK300" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="CL300" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -72268,6 +73168,9 @@
       <c r="CK301" t="n">
         <v>1</v>
       </c>
+      <c r="CL301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -72507,6 +73410,9 @@
       <c r="CK302" t="n">
         <v>0</v>
       </c>
+      <c r="CL302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -72746,6 +73652,9 @@
       <c r="CK303" t="n">
         <v>1</v>
       </c>
+      <c r="CL303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -72985,6 +73894,9 @@
       <c r="CK304" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL304" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -73224,6 +74136,9 @@
       <c r="CK305" t="n">
         <v>0</v>
       </c>
+      <c r="CL305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -73463,6 +74378,9 @@
       <c r="CK306" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CL306" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -73702,6 +74620,9 @@
       <c r="CK307" t="n">
         <v>0</v>
       </c>
+      <c r="CL307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -73941,6 +74862,9 @@
       <c r="CK308" t="n">
         <v>0</v>
       </c>
+      <c r="CL308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -74180,6 +75104,9 @@
       <c r="CK309" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL309" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -74419,6 +75346,9 @@
       <c r="CK310" t="n">
         <v>0</v>
       </c>
+      <c r="CL310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -74658,6 +75588,9 @@
       <c r="CK311" t="n">
         <v>0</v>
       </c>
+      <c r="CL311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -74897,6 +75830,9 @@
       <c r="CK312" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL312" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -75136,6 +76072,9 @@
       <c r="CK313" t="n">
         <v>1</v>
       </c>
+      <c r="CL313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -75375,6 +76314,9 @@
       <c r="CK314" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL314" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -75614,6 +76556,9 @@
       <c r="CK315" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL315" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -75853,6 +76798,9 @@
       <c r="CK316" t="n">
         <v>0.2</v>
       </c>
+      <c r="CL316" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -76092,6 +77040,9 @@
       <c r="CK317" t="n">
         <v>0.2</v>
       </c>
+      <c r="CL317" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -76331,6 +77282,9 @@
       <c r="CK318" t="n">
         <v>0</v>
       </c>
+      <c r="CL318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -76570,6 +77524,9 @@
       <c r="CK319" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL319" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -76809,6 +77766,9 @@
       <c r="CK320" t="n">
         <v>1</v>
       </c>
+      <c r="CL320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -77048,6 +78008,9 @@
       <c r="CK321" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL321" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -77287,6 +78250,9 @@
       <c r="CK322" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL322" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -77526,6 +78492,9 @@
       <c r="CK323" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL323" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -77765,6 +78734,9 @@
       <c r="CK324" t="n">
         <v>0</v>
       </c>
+      <c r="CL324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -78004,6 +78976,9 @@
       <c r="CK325" t="n">
         <v>1</v>
       </c>
+      <c r="CL325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -78243,6 +79218,9 @@
       <c r="CK326" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL326" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -78482,6 +79460,9 @@
       <c r="CK327" t="n">
         <v>0</v>
       </c>
+      <c r="CL327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -78721,6 +79702,9 @@
       <c r="CK328" t="n">
         <v>1</v>
       </c>
+      <c r="CL328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -78960,6 +79944,9 @@
       <c r="CK329" t="n">
         <v>1</v>
       </c>
+      <c r="CL329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -79199,6 +80186,9 @@
       <c r="CK330" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL330" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -79438,6 +80428,9 @@
       <c r="CK331" t="n">
         <v>1</v>
       </c>
+      <c r="CL331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -79677,6 +80670,9 @@
       <c r="CK332" t="n">
         <v>0</v>
       </c>
+      <c r="CL332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -79916,6 +80912,9 @@
       <c r="CK333" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL333" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -80155,6 +81154,9 @@
       <c r="CK334" t="n">
         <v>1</v>
       </c>
+      <c r="CL334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -80394,6 +81396,9 @@
       <c r="CK335" t="n">
         <v>0</v>
       </c>
+      <c r="CL335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -80633,6 +81638,9 @@
       <c r="CK336" t="n">
         <v>1</v>
       </c>
+      <c r="CL336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -80872,6 +81880,9 @@
       <c r="CK337" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL337" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -81111,6 +82122,9 @@
       <c r="CK338" t="n">
         <v>1</v>
       </c>
+      <c r="CL338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -81350,6 +82364,9 @@
       <c r="CK339" t="n">
         <v>1</v>
       </c>
+      <c r="CL339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -81589,6 +82606,9 @@
       <c r="CK340" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL340" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -81828,6 +82848,9 @@
       <c r="CK341" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL341" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -82067,6 +83090,9 @@
       <c r="CK342" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL342" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -82306,6 +83332,9 @@
       <c r="CK343" t="n">
         <v>0</v>
       </c>
+      <c r="CL343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -82545,6 +83574,9 @@
       <c r="CK344" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL344" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -82784,6 +83816,9 @@
       <c r="CK345" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL345" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -83023,6 +84058,9 @@
       <c r="CK346" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL346" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -83262,6 +84300,9 @@
       <c r="CK347" t="n">
         <v>0</v>
       </c>
+      <c r="CL347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -83501,6 +84542,9 @@
       <c r="CK348" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL348" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -83740,6 +84784,9 @@
       <c r="CK349" t="n">
         <v>0</v>
       </c>
+      <c r="CL349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -83979,6 +85026,9 @@
       <c r="CK350" t="n">
         <v>1</v>
       </c>
+      <c r="CL350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -84218,6 +85268,9 @@
       <c r="CK351" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL351" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -84457,6 +85510,9 @@
       <c r="CK352" t="n">
         <v>0</v>
       </c>
+      <c r="CL352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -84696,6 +85752,9 @@
       <c r="CK353" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL353" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -84935,6 +85994,9 @@
       <c r="CK354" t="n">
         <v>0.625</v>
       </c>
+      <c r="CL354" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -85174,6 +86236,9 @@
       <c r="CK355" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="CL355" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -85413,6 +86478,9 @@
       <c r="CK356" t="n">
         <v>0</v>
       </c>
+      <c r="CL356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -85652,6 +86720,9 @@
       <c r="CK357" t="n">
         <v>1</v>
       </c>
+      <c r="CL357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -85891,6 +86962,9 @@
       <c r="CK358" t="n">
         <v>1</v>
       </c>
+      <c r="CL358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -86130,6 +87204,9 @@
       <c r="CK359" t="n">
         <v>1</v>
       </c>
+      <c r="CL359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -86369,6 +87446,9 @@
       <c r="CK360" t="n">
         <v>0.4</v>
       </c>
+      <c r="CL360" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -86608,6 +87688,9 @@
       <c r="CK361" t="n">
         <v>1</v>
       </c>
+      <c r="CL361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -86847,6 +87930,9 @@
       <c r="CK362" t="n">
         <v>1</v>
       </c>
+      <c r="CL362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -87086,6 +88172,9 @@
       <c r="CK363" t="n">
         <v>1</v>
       </c>
+      <c r="CL363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -87325,6 +88414,9 @@
       <c r="CK364" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="CL364" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -87564,6 +88656,9 @@
       <c r="CK365" t="n">
         <v>1</v>
       </c>
+      <c r="CL365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -87803,6 +88898,9 @@
       <c r="CK366" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL366" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -88042,6 +89140,9 @@
       <c r="CK367" t="n">
         <v>0.6</v>
       </c>
+      <c r="CL367" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -88281,6 +89382,9 @@
       <c r="CK368" t="n">
         <v>1</v>
       </c>
+      <c r="CL368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -88520,6 +89624,9 @@
       <c r="CK369" t="n">
         <v>1</v>
       </c>
+      <c r="CL369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -88759,6 +89866,9 @@
       <c r="CK370" t="n">
         <v>0</v>
       </c>
+      <c r="CL370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -88998,6 +90108,9 @@
       <c r="CK371" t="n">
         <v>1</v>
       </c>
+      <c r="CL371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -89237,6 +90350,9 @@
       <c r="CK372" t="n">
         <v>1</v>
       </c>
+      <c r="CL372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -89476,6 +90592,9 @@
       <c r="CK373" t="n">
         <v>0</v>
       </c>
+      <c r="CL373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -89715,6 +90834,9 @@
       <c r="CK374" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL374" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -89954,6 +91076,9 @@
       <c r="CK375" t="n">
         <v>1</v>
       </c>
+      <c r="CL375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -90193,6 +91318,9 @@
       <c r="CK376" t="n">
         <v>0</v>
       </c>
+      <c r="CL376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -90432,6 +91560,9 @@
       <c r="CK377" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL377" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -90671,6 +91802,9 @@
       <c r="CK378" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL378" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -90910,6 +92044,9 @@
       <c r="CK379" t="n">
         <v>1</v>
       </c>
+      <c r="CL379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -91149,6 +92286,9 @@
       <c r="CK380" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL380" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -91388,6 +92528,9 @@
       <c r="CK381" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL381" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -91627,6 +92770,9 @@
       <c r="CK382" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL382" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -91866,6 +93012,9 @@
       <c r="CK383" t="n">
         <v>0.4285714285714285</v>
       </c>
+      <c r="CL383" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -92105,6 +93254,9 @@
       <c r="CK384" t="n">
         <v>1</v>
       </c>
+      <c r="CL384" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -92344,6 +93496,9 @@
       <c r="CK385" t="n">
         <v>0</v>
       </c>
+      <c r="CL385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -92583,6 +93738,9 @@
       <c r="CK386" t="n">
         <v>1</v>
       </c>
+      <c r="CL386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -92822,6 +93980,9 @@
       <c r="CK387" t="n">
         <v>1</v>
       </c>
+      <c r="CL387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -93061,6 +94222,9 @@
       <c r="CK388" t="n">
         <v>1</v>
       </c>
+      <c r="CL388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -93300,6 +94464,9 @@
       <c r="CK389" t="n">
         <v>0.75</v>
       </c>
+      <c r="CL389" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -93539,6 +94706,9 @@
       <c r="CK390" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="CL390" t="n">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -93778,6 +94948,9 @@
       <c r="CK391" t="n">
         <v>0</v>
       </c>
+      <c r="CL391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -94017,6 +95190,9 @@
       <c r="CK392" t="n">
         <v>0.9090909090909091</v>
       </c>
+      <c r="CL392" t="n">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -94256,6 +95432,9 @@
       <c r="CK393" t="n">
         <v>1</v>
       </c>
+      <c r="CL393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -94495,6 +95674,9 @@
       <c r="CK394" t="n">
         <v>1</v>
       </c>
+      <c r="CL394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -94734,6 +95916,9 @@
       <c r="CK395" t="n">
         <v>1</v>
       </c>
+      <c r="CL395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -94973,6 +96158,9 @@
       <c r="CK396" t="n">
         <v>1</v>
       </c>
+      <c r="CL396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -95212,6 +96400,9 @@
       <c r="CK397" t="n">
         <v>1</v>
       </c>
+      <c r="CL397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -95451,6 +96642,9 @@
       <c r="CK398" t="n">
         <v>1</v>
       </c>
+      <c r="CL398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -95690,6 +96884,9 @@
       <c r="CK399" t="n">
         <v>0.25</v>
       </c>
+      <c r="CL399" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -95929,6 +97126,9 @@
       <c r="CK400" t="n">
         <v>1</v>
       </c>
+      <c r="CL400" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -96168,6 +97368,9 @@
       <c r="CK401" t="n">
         <v>0</v>
       </c>
+      <c r="CL401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -96407,6 +97610,9 @@
       <c r="CK402" t="n">
         <v>0.5</v>
       </c>
+      <c r="CL402" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -96644,6 +97850,9 @@
         <v>1</v>
       </c>
       <c r="CK403" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL403" t="n">
         <v>1</v>
       </c>
     </row>
@@ -96751,6 +97960,7 @@
       <c r="CI404" t="inlineStr"/>
       <c r="CJ404" t="inlineStr"/>
       <c r="CK404" t="inlineStr"/>
+      <c r="CL404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -97022,6 +98232,9 @@
       <c r="CK405" t="n">
         <v>1922</v>
       </c>
+      <c r="CL405" t="n">
+        <v>1878</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -97293,6 +98506,9 @@
       <c r="CK406" t="n">
         <v>2188</v>
       </c>
+      <c r="CL406" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -97564,6 +98780,9 @@
       <c r="CK407" t="n">
         <v>0.8784</v>
       </c>
+      <c r="CL407" t="n">
+        <v>0.8583</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -97835,6 +99054,9 @@
       <c r="CK408" t="n">
         <v>1970</v>
       </c>
+      <c r="CL408" t="n">
+        <v>1927</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -98106,6 +99328,9 @@
       <c r="CK409" t="n">
         <v>2188</v>
       </c>
+      <c r="CL409" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -98377,6 +99602,9 @@
       <c r="CK410" t="n">
         <v>0.9004</v>
       </c>
+      <c r="CL410" t="n">
+        <v>0.8807</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -98626,6 +99854,9 @@
       <c r="CK411" t="n">
         <v>1481</v>
       </c>
+      <c r="CL411" t="n">
+        <v>1445</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -98897,6 +100128,9 @@
       <c r="CK412" t="n">
         <v>2188</v>
       </c>
+      <c r="CL412" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -99144,6 +100378,9 @@
       <c r="CK413" t="n">
         <v>0.6768999999999999</v>
       </c>
+      <c r="CL413" t="n">
+        <v>0.6604</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -99415,6 +100652,9 @@
       <c r="CK414" t="n">
         <v>961</v>
       </c>
+      <c r="CL414" t="n">
+        <v>939</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -99686,6 +100926,9 @@
       <c r="CK415" t="n">
         <v>2188</v>
       </c>
+      <c r="CL415" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -99957,6 +101200,9 @@
       <c r="CK416" t="n">
         <v>0.4392</v>
       </c>
+      <c r="CL416" t="n">
+        <v>0.4292</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -100228,6 +101474,9 @@
       <c r="CK417" t="n">
         <v>2188</v>
       </c>
+      <c r="CL417" t="n">
+        <v>2137</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -100499,6 +101748,9 @@
       <c r="CK418" t="n">
         <v>2188</v>
       </c>
+      <c r="CL418" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -100770,6 +102022,9 @@
       <c r="CK419" t="n">
         <v>1</v>
       </c>
+      <c r="CL419" t="n">
+        <v>0.9767</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
